--- a/daily_s_curve.xlsx
+++ b/daily_s_curve.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coldshutdown_daily_progress_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9DBD9E1-7E4C-4420-A3CD-1CBBB4B28CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC5187-6862-4828-B417-8B908B910F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -612,21 +613,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$14:$K$14</c:f>
+              <c:f>Sheet1!$H$14:$Q$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.1036</c:v>
+                  <c:v>6.5600000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23699999999999999</c:v>
+                  <c:v>0.2019</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38200000000000001</c:v>
+                  <c:v>0.44180000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.50560000000000005</c:v>
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2630,8 +2637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB79112-5215-4682-8159-41C9E41DBEC3}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,7 +2650,9 @@
     <col min="5" max="5" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="16384" width="9.140625" style="2"/>
   </cols>
@@ -2719,7 +2728,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G2" s="3">
         <f>E2-D2+1</f>
@@ -2804,7 +2813,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="20">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="G4" s="3">
         <f t="shared" si="1"/>
@@ -2895,7 +2904,7 @@
         <v>9</v>
       </c>
       <c r="F6" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <f t="shared" si="1"/>
@@ -2957,7 +2966,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="20">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3">
         <f t="shared" si="1"/>
@@ -3007,7 +3016,7 @@
         <v>5</v>
       </c>
       <c r="F8" s="20">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="1"/>
@@ -3054,7 +3063,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="1"/>
@@ -3095,7 +3104,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="1"/>
@@ -3142,7 +3151,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="7">
         <f t="shared" si="1"/>
@@ -3188,7 +3197,7 @@
       </c>
       <c r="F12" s="21">
         <f>SUMPRODUCT(F2:F11,C2:C11)</f>
-        <v>0.50564236111111116</v>
+        <v>0.99999999999999989</v>
       </c>
       <c r="G12" s="12" t="s">
         <v>27</v>
@@ -3284,19 +3293,23 @@
         <v>28</v>
       </c>
       <c r="H14" s="17">
-        <v>0.1036</v>
+        <v>6.5600000000000006E-2</v>
       </c>
       <c r="I14" s="17">
-        <v>0.23699999999999999</v>
+        <v>0.2019</v>
       </c>
       <c r="J14" s="17">
-        <v>0.38200000000000001</v>
+        <v>0.44180000000000003</v>
       </c>
       <c r="K14" s="17">
-        <v>0.50560000000000005</v>
-      </c>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="17">
+        <v>0.7</v>
+      </c>
+      <c r="M14" s="17">
+        <v>0.8</v>
+      </c>
       <c r="N14" s="17"/>
       <c r="O14" s="17"/>
       <c r="P14" s="17"/>
@@ -3308,4 +3321,16 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37837414-F9FA-4B2A-9430-6FB50EB8546F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/daily_s_curve.xlsx
+++ b/daily_s_curve.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coldshutdown_daily_progress_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coldshutdown_daily_progress_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FCC5187-6862-4828-B417-8B908B910F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185E2D78-D2CB-4E9F-8A56-5C0EB227B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
   <si>
     <t>task1</t>
   </si>
@@ -124,6 +124,336 @@
   </si>
   <si>
     <t>comp</t>
+  </si>
+  <si>
+    <t>task11</t>
+  </si>
+  <si>
+    <t>task12</t>
+  </si>
+  <si>
+    <t>task13</t>
+  </si>
+  <si>
+    <t>task14</t>
+  </si>
+  <si>
+    <t>task15</t>
+  </si>
+  <si>
+    <t>task16</t>
+  </si>
+  <si>
+    <t>task17</t>
+  </si>
+  <si>
+    <t>task19</t>
+  </si>
+  <si>
+    <t>task20</t>
+  </si>
+  <si>
+    <t>task21</t>
+  </si>
+  <si>
+    <t>task22</t>
+  </si>
+  <si>
+    <t>task23</t>
+  </si>
+  <si>
+    <t>task24</t>
+  </si>
+  <si>
+    <t>task25</t>
+  </si>
+  <si>
+    <t>task26</t>
+  </si>
+  <si>
+    <t>task27</t>
+  </si>
+  <si>
+    <t>task28</t>
+  </si>
+  <si>
+    <t>ش.درخواست</t>
+  </si>
+  <si>
+    <t>task29</t>
+  </si>
+  <si>
+    <t>task30</t>
+  </si>
+  <si>
+    <t>task31</t>
+  </si>
+  <si>
+    <t>task32</t>
+  </si>
+  <si>
+    <t>task33</t>
+  </si>
+  <si>
+    <t>task34</t>
+  </si>
+  <si>
+    <t>task35</t>
+  </si>
+  <si>
+    <t>task36</t>
+  </si>
+  <si>
+    <t>task37</t>
+  </si>
+  <si>
+    <t>task38</t>
+  </si>
+  <si>
+    <t>task39</t>
+  </si>
+  <si>
+    <t>task40</t>
+  </si>
+  <si>
+    <t>task41</t>
+  </si>
+  <si>
+    <t>task42</t>
+  </si>
+  <si>
+    <t>task43</t>
+  </si>
+  <si>
+    <t>task44</t>
+  </si>
+  <si>
+    <t>task45</t>
+  </si>
+  <si>
+    <t>task46</t>
+  </si>
+  <si>
+    <t>task47</t>
+  </si>
+  <si>
+    <t>task48</t>
+  </si>
+  <si>
+    <t>task49</t>
+  </si>
+  <si>
+    <t>task50</t>
+  </si>
+  <si>
+    <t>task51</t>
+  </si>
+  <si>
+    <t>task52</t>
+  </si>
+  <si>
+    <t>task53</t>
+  </si>
+  <si>
+    <t>task54</t>
+  </si>
+  <si>
+    <t>task55</t>
+  </si>
+  <si>
+    <t>task56</t>
+  </si>
+  <si>
+    <t>task57</t>
+  </si>
+  <si>
+    <t>task58</t>
+  </si>
+  <si>
+    <t>task59</t>
+  </si>
+  <si>
+    <t>task60</t>
+  </si>
+  <si>
+    <t>task61</t>
+  </si>
+  <si>
+    <t>task62</t>
+  </si>
+  <si>
+    <t>task63</t>
+  </si>
+  <si>
+    <t>task64</t>
+  </si>
+  <si>
+    <t>task65</t>
+  </si>
+  <si>
+    <t>task66</t>
+  </si>
+  <si>
+    <t>task67</t>
+  </si>
+  <si>
+    <t>task68</t>
+  </si>
+  <si>
+    <t>task69</t>
+  </si>
+  <si>
+    <t>task70</t>
+  </si>
+  <si>
+    <t>task71</t>
+  </si>
+  <si>
+    <t>task72</t>
+  </si>
+  <si>
+    <t>task73</t>
+  </si>
+  <si>
+    <t>task74</t>
+  </si>
+  <si>
+    <t>task75</t>
+  </si>
+  <si>
+    <t>task76</t>
+  </si>
+  <si>
+    <t>task77</t>
+  </si>
+  <si>
+    <t>task78</t>
+  </si>
+  <si>
+    <t>task79</t>
+  </si>
+  <si>
+    <t>task80</t>
+  </si>
+  <si>
+    <t>task81</t>
+  </si>
+  <si>
+    <t>task82</t>
+  </si>
+  <si>
+    <t>task83</t>
+  </si>
+  <si>
+    <t>task84</t>
+  </si>
+  <si>
+    <t>task85</t>
+  </si>
+  <si>
+    <t>task86</t>
+  </si>
+  <si>
+    <t>task87</t>
+  </si>
+  <si>
+    <t>task88</t>
+  </si>
+  <si>
+    <t>task89</t>
+  </si>
+  <si>
+    <t>task90</t>
+  </si>
+  <si>
+    <t>task91</t>
+  </si>
+  <si>
+    <t>task92</t>
+  </si>
+  <si>
+    <t>Day11</t>
+  </si>
+  <si>
+    <t>Day12</t>
+  </si>
+  <si>
+    <t>Day13</t>
+  </si>
+  <si>
+    <t>Day14</t>
+  </si>
+  <si>
+    <t>Day15</t>
+  </si>
+  <si>
+    <t>Day16</t>
+  </si>
+  <si>
+    <t>Day17</t>
+  </si>
+  <si>
+    <t>Day18</t>
+  </si>
+  <si>
+    <t>Day19</t>
+  </si>
+  <si>
+    <t>Day20</t>
+  </si>
+  <si>
+    <t>Day21</t>
+  </si>
+  <si>
+    <t>Day22</t>
+  </si>
+  <si>
+    <t>Day23</t>
+  </si>
+  <si>
+    <t>Day24</t>
+  </si>
+  <si>
+    <t>Day25</t>
+  </si>
+  <si>
+    <t>Day26</t>
+  </si>
+  <si>
+    <t>Day27</t>
+  </si>
+  <si>
+    <t>Day28</t>
+  </si>
+  <si>
+    <t>Day29</t>
+  </si>
+  <si>
+    <t>Day30</t>
+  </si>
+  <si>
+    <t>Day31</t>
+  </si>
+  <si>
+    <t>Day32</t>
+  </si>
+  <si>
+    <t>Day33</t>
+  </si>
+  <si>
+    <t>Day34</t>
+  </si>
+  <si>
+    <t>Day35</t>
+  </si>
+  <si>
+    <t>Day36</t>
+  </si>
+  <si>
+    <t>Day37</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -132,14 +462,6 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -184,6 +506,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -191,12 +521,6 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -216,8 +540,13 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -268,78 +597,95 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Output" xfId="1" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -461,9 +807,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$1:$Q$1</c:f>
+              <c:f>Sheet1!$I$1:$AS$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Day1</c:v>
                 </c:pt>
@@ -493,45 +839,207 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Day10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Day11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Day14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Day15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Day17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Day18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Day19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Day20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Day21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Day22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Day23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Day24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Day25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Day26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Day27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Day28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Day29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Day30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Day31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Day32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Day33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Day34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Day35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Day36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Day37</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$13:$Q$13</c:f>
+              <c:f>Sheet1!$I$94:$AS$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.10513117283950617</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.26451581790123457</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.40219907407407407</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53409529320987659</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.64602623456790131</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.72106481481481488</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.80782214506172845</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.89457947530864201</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.94921875</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -575,9 +1083,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$1:$Q$1</c:f>
+              <c:f>Sheet1!$I$1:$AS$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Day1</c:v>
                 </c:pt>
@@ -607,16 +1115,97 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Day10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Day11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Day14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Day15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Day17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Day18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Day19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Day20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Day21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Day22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Day23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Day24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Day25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Day26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Day27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Day28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Day29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Day30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Day31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Day32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Day33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Day34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Day35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Day36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Day37</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$14:$Q$14</c:f>
+              <c:f>Sheet1!$I$95:$AS$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>6.5600000000000006E-2</c:v>
                 </c:pt>
@@ -888,9 +1477,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$H$1:$Q$1</c:f>
+              <c:f>Sheet1!$I$1:$AS$1</c:f>
               <c:strCache>
-                <c:ptCount val="10"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
                   <c:v>Day1</c:v>
                 </c:pt>
@@ -920,45 +1509,207 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Day10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Day11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Day12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Day13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Day14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Day15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Day16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Day17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Day18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Day19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Day20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Day21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Day22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Day23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Day24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Day25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Day26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Day27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Day28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Day29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Day30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Day31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Day32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Day33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Day34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Day35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Day36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Day37</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$12:$Q$12</c:f>
+              <c:f>Sheet1!$I$93:$AS$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0.10513117283950617</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.15938464506172839</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.1376832561728395</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.13189621913580246</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1119309413580247</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.503858024691358E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8.675733024691358E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.675733024691358E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.4639274691358021E-2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.078125E-2</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2265,15 +3016,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>430214</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>111125</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>146843</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2301,15 +3052,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>433916</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>158751</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>105832</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -2635,688 +3386,6061 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB79112-5215-4682-8159-41C9E41DBEC3}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:AS95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G10" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="12.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="17" width="11.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="44" width="11.140625" style="2" customWidth="1"/>
+    <col min="45" max="45" width="12.5703125" style="2" customWidth="1"/>
+    <col min="46" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:45" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="S1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>138</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>93085573</v>
+      </c>
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3">
-        <v>200</v>
-      </c>
-      <c r="C2" s="4">
-        <f>B2/$B$12</f>
-        <v>0.1736111111111111</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
+      <c r="C2" s="3">
+        <v>6</v>
+      </c>
+      <c r="D2" s="4">
+        <f>C2/$C$93</f>
+        <v>1.2617765814266487E-4</v>
       </c>
       <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="3">
+        <v>3</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="3">
+        <f>F2-E2+1</f>
         <v>1</v>
       </c>
-      <c r="G2" s="3">
-        <f>E2-D2+1</f>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="19"/>
+    </row>
+    <row r="3" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>93084280</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>4</v>
+      </c>
+      <c r="D3" s="4">
+        <f>C3/$C$93</f>
+        <v>8.4118438761776582E-5</v>
+      </c>
+      <c r="E3" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="5">
-        <f>$C2/$G2</f>
-        <v>5.7870370370370371E-2</v>
-      </c>
-      <c r="I2" s="5">
-        <f>$C2/$G2</f>
-        <v>5.7870370370370371E-2</v>
-      </c>
-      <c r="J2" s="5">
-        <f>$C2/$G2</f>
-        <v>5.7870370370370371E-2</v>
-      </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
-      <c r="P2" s="4"/>
-      <c r="Q2" s="3"/>
+      <c r="F3" s="3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:H66" si="0">F3-E3+1</f>
+        <v>1</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="5"/>
+      <c r="AM3" s="5"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
+      <c r="AS3" s="19"/>
     </row>
-    <row r="3" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    <row r="4" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>93085735</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3">
+        <v>50</v>
+      </c>
+      <c r="D4" s="4">
+        <f>C4/$C$93</f>
+        <v>1.0514804845222073E-3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>4</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="5"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="19"/>
+    </row>
+    <row r="5" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>93087475</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="3">
+        <v>12</v>
+      </c>
+      <c r="D5" s="4">
+        <f>C5/$C$93</f>
+        <v>2.5235531628532975E-4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>6</v>
+      </c>
+      <c r="F5" s="3">
+        <v>6</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="5"/>
+      <c r="T5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="5"/>
+      <c r="AM5" s="5"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
+      <c r="AS5" s="19"/>
+    </row>
+    <row r="6" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>93085866</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="3">
+        <v>420</v>
+      </c>
+      <c r="D6" s="4">
+        <f>C6/$C$93</f>
+        <v>8.8324360699865417E-3</v>
+      </c>
+      <c r="E6" s="3">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3">
+        <v>25</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="H6" s="3">
+        <f>F6-E6+1</f>
+        <v>5</v>
+      </c>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="5"/>
+      <c r="AM6" s="5"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="19"/>
+    </row>
+    <row r="7" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>93083567</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="3">
+        <v>48</v>
+      </c>
+      <c r="D7" s="4">
+        <f>C7/$C$93</f>
+        <v>1.009421265141319E-3</v>
+      </c>
+      <c r="E7" s="3">
+        <v>14</v>
+      </c>
+      <c r="F7" s="3">
+        <v>15</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="3">
+        <f>F7-E7+1</f>
+        <v>2</v>
+      </c>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="5"/>
+      <c r="T7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="5"/>
+      <c r="AM7" s="5"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
+      <c r="AS7" s="5"/>
+    </row>
+    <row r="8" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>93087455</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="3">
+        <v>15</v>
+      </c>
+      <c r="D8" s="4">
+        <f>C8/$C$93</f>
+        <v>3.1544414535666216E-4</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9</v>
+      </c>
+      <c r="F8" s="3">
+        <v>11</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="5"/>
+      <c r="AM8" s="5"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="19"/>
+    </row>
+    <row r="9" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>93082605</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3">
+        <v>48</v>
+      </c>
+      <c r="D9" s="4">
+        <f>C9/$C$93</f>
+        <v>1.009421265141319E-3</v>
+      </c>
+      <c r="E9" s="3">
+        <v>33</v>
+      </c>
+      <c r="F9" s="3">
+        <v>34</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="5"/>
+      <c r="T9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="5"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
+      <c r="AS9" s="5"/>
+    </row>
+    <row r="10" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>93083114</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <v>96</v>
+      </c>
+      <c r="D10" s="4">
+        <f>C10/$C$93</f>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="5"/>
+      <c r="T10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="5"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5"/>
+    </row>
+    <row r="11" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>93082661</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3">
+        <v>168</v>
+      </c>
+      <c r="D11" s="4">
+        <f>C11/$C$93</f>
+        <v>3.5329744279946162E-3</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="6">
+        <v>2</v>
+      </c>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+      <c r="X11" s="20"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="20"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="20"/>
+      <c r="AD11" s="20"/>
+      <c r="AE11" s="20"/>
+      <c r="AF11" s="20"/>
+      <c r="AG11" s="20"/>
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+      <c r="AJ11" s="20"/>
+      <c r="AK11" s="20"/>
+      <c r="AL11" s="20"/>
+      <c r="AM11" s="20"/>
+      <c r="AN11" s="20"/>
+      <c r="AO11" s="20"/>
+      <c r="AP11" s="20"/>
+      <c r="AQ11" s="20"/>
+      <c r="AR11" s="20"/>
+      <c r="AS11" s="20"/>
+    </row>
+    <row r="12" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>93082634</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3">
+        <v>270</v>
+      </c>
+      <c r="D12" s="4">
+        <f>C12/$C$93</f>
+        <v>5.677994616419919E-3</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="4"/>
+      <c r="H12" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+      <c r="AE12" s="4"/>
+      <c r="AF12" s="4"/>
+      <c r="AG12" s="4"/>
+      <c r="AH12" s="4"/>
+      <c r="AI12" s="4"/>
+      <c r="AJ12" s="4"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
+      <c r="AM12" s="4"/>
+      <c r="AN12" s="4"/>
+      <c r="AO12" s="4"/>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+    </row>
+    <row r="13" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="21">
+        <v>93082667</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1440</v>
+      </c>
+      <c r="D13" s="4">
+        <f>C13/$C$93</f>
+        <v>3.028263795423957E-2</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G13" s="7"/>
+      <c r="H13" s="6">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+    </row>
+    <row r="14" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>93082663</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>144</v>
+      </c>
+      <c r="D14" s="4">
+        <f>C14/$C$93</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="E14" s="3">
+        <v>3</v>
+      </c>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+      <c r="AE14" s="4"/>
+      <c r="AF14" s="4"/>
+      <c r="AG14" s="4"/>
+      <c r="AH14" s="4"/>
+      <c r="AI14" s="4"/>
+      <c r="AJ14" s="4"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
+      <c r="AM14" s="4"/>
+      <c r="AN14" s="4"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+    </row>
+    <row r="15" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>93082636</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="3">
+        <v>640</v>
+      </c>
+      <c r="D15" s="4">
+        <f>C15/$C$93</f>
+        <v>1.3458950201884253E-2</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4</v>
+      </c>
+      <c r="F15" s="3">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
+      <c r="Z15" s="7"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="7"/>
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
+      <c r="AG15" s="7"/>
+      <c r="AH15" s="7"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="7"/>
+      <c r="AK15" s="7"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+    </row>
+    <row r="16" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>93082662</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="3">
+        <v>200</v>
+      </c>
+      <c r="D16" s="4">
+        <f>C16/$C$93</f>
+        <v>4.2059219380888293E-3</v>
+      </c>
+      <c r="E16" s="3">
+        <v>5</v>
+      </c>
+      <c r="F16" s="3">
+        <v>7</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+      <c r="AE16" s="4"/>
+      <c r="AF16" s="4"/>
+      <c r="AG16" s="4"/>
+      <c r="AH16" s="4"/>
+      <c r="AI16" s="4"/>
+      <c r="AJ16" s="4"/>
+      <c r="AK16" s="4"/>
+      <c r="AL16" s="4"/>
+      <c r="AM16" s="4"/>
+      <c r="AN16" s="4"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+    </row>
+    <row r="17" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>93087257</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1506</v>
+      </c>
+      <c r="D17" s="4">
+        <f>C17/$C$93</f>
+        <v>3.1670592193808883E-2</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="6">
+        <v>5</v>
+      </c>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
+      <c r="Z17" s="7"/>
+      <c r="AA17" s="7"/>
+      <c r="AB17" s="7"/>
+      <c r="AC17" s="7"/>
+      <c r="AD17" s="7"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
+      <c r="AG17" s="7"/>
+      <c r="AH17" s="7"/>
+      <c r="AI17" s="7"/>
+      <c r="AJ17" s="7"/>
+      <c r="AK17" s="7"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+    </row>
+    <row r="18" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>93087360</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="3">
+        <v>480</v>
+      </c>
+      <c r="D18" s="4">
+        <f>C18/$C$93</f>
+        <v>1.0094212651413189E-2</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6">
+        <v>14</v>
+      </c>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+      <c r="AE18" s="4"/>
+      <c r="AF18" s="4"/>
+      <c r="AG18" s="4"/>
+      <c r="AH18" s="4"/>
+      <c r="AI18" s="4"/>
+      <c r="AJ18" s="4"/>
+      <c r="AK18" s="4"/>
+      <c r="AL18" s="4"/>
+      <c r="AM18" s="4"/>
+      <c r="AN18" s="4"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+    </row>
+    <row r="19" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>93082664</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3">
+        <v>960</v>
+      </c>
+      <c r="D19" s="4">
+        <f>C19/$C$93</f>
+        <v>2.0188425302826378E-2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>9</v>
+      </c>
+      <c r="F19" s="3">
+        <v>18</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="6">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
+      <c r="AB19" s="7"/>
+      <c r="AC19" s="7"/>
+      <c r="AD19" s="7"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
+      <c r="AG19" s="7"/>
+      <c r="AH19" s="7"/>
+      <c r="AI19" s="7"/>
+      <c r="AJ19" s="7"/>
+      <c r="AK19" s="7"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+    </row>
+    <row r="20" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>93082632</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="3">
+        <v>250</v>
+      </c>
+      <c r="D20" s="4">
+        <f>C20/$C$93</f>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="E20" s="3">
+        <v>9</v>
+      </c>
+      <c r="F20" s="3">
+        <v>14</v>
+      </c>
+      <c r="G20" s="4"/>
+      <c r="H20" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+    </row>
+    <row r="21" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>93082666</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="3">
+        <v>400</v>
+      </c>
+      <c r="D21" s="4">
+        <f>C21/$C$93</f>
+        <v>8.4118438761776586E-3</v>
+      </c>
+      <c r="E21" s="3">
+        <v>18</v>
+      </c>
+      <c r="F21" s="3">
+        <v>21</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="7"/>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="7"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
+      <c r="AK21" s="7"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+    </row>
+    <row r="22" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>93082641</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="3">
+        <v>120</v>
+      </c>
+      <c r="D22" s="4">
+        <f>C22/$C$93</f>
+        <v>2.5235531628532972E-3</v>
+      </c>
+      <c r="E22" s="3">
+        <v>22</v>
+      </c>
+      <c r="F22" s="3">
+        <v>24</v>
+      </c>
+      <c r="G22" s="4"/>
+      <c r="H22" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+      <c r="AE22" s="4"/>
+      <c r="AF22" s="4"/>
+      <c r="AG22" s="4"/>
+      <c r="AH22" s="4"/>
+      <c r="AI22" s="4"/>
+      <c r="AJ22" s="4"/>
+      <c r="AK22" s="4"/>
+      <c r="AL22" s="4"/>
+      <c r="AM22" s="4"/>
+      <c r="AN22" s="4"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+    </row>
+    <row r="23" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>93082665</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="3">
+        <v>320</v>
+      </c>
+      <c r="D23" s="4">
+        <f>C23/$C$93</f>
+        <v>6.7294751009421266E-3</v>
+      </c>
+      <c r="E23" s="3">
+        <v>26</v>
+      </c>
+      <c r="F23" s="3">
+        <v>28</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="H23" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7"/>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AB23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
+      <c r="AK23" s="7"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AP23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="7"/>
+      <c r="AS23" s="7"/>
+    </row>
+    <row r="24" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>93084780</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="3">
+        <v>240</v>
+      </c>
+      <c r="D24" s="4">
+        <f>C24/$C$93</f>
+        <v>5.0471063257065945E-3</v>
+      </c>
+      <c r="E24" s="3">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3">
+        <v>27</v>
+      </c>
+      <c r="G24" s="4"/>
+      <c r="H24" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+      <c r="AE24" s="4"/>
+      <c r="AF24" s="4"/>
+      <c r="AG24" s="4"/>
+      <c r="AH24" s="4"/>
+      <c r="AI24" s="4"/>
+      <c r="AJ24" s="4"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
+      <c r="AM24" s="4"/>
+      <c r="AN24" s="4"/>
+      <c r="AO24" s="4"/>
+      <c r="AP24" s="4"/>
+      <c r="AQ24" s="4"/>
+      <c r="AR24" s="4"/>
+      <c r="AS24" s="4"/>
+    </row>
+    <row r="25" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="17">
+        <v>93086458</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="3">
+        <v>480</v>
+      </c>
+      <c r="D25" s="4">
+        <f>C25/$C$93</f>
+        <v>1.0094212651413189E-2</v>
+      </c>
+      <c r="E25" s="3">
+        <v>26</v>
+      </c>
+      <c r="F25" s="3">
+        <v>27</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+      <c r="AK25" s="7"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AP25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="7"/>
+      <c r="AS25" s="7"/>
+    </row>
+    <row r="26" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="17">
+        <v>93083112</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="3">
+        <v>500</v>
+      </c>
+      <c r="D26" s="4">
+        <f>C26/$C$93</f>
+        <v>1.0514804845222072E-2</v>
+      </c>
+      <c r="E26" s="3">
+        <v>29</v>
+      </c>
+      <c r="F26" s="3">
+        <v>32</v>
+      </c>
+      <c r="G26" s="4"/>
+      <c r="H26" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+    </row>
+    <row r="27" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="17">
+        <v>93077720</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="D27" s="4">
+        <f>C27/$C$93</f>
+        <v>4.2059219380888288E-2</v>
+      </c>
+      <c r="E27" s="3">
+        <v>2</v>
+      </c>
+      <c r="F27" s="3">
+        <v>9</v>
+      </c>
+      <c r="G27" s="7"/>
+      <c r="H27" s="6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="7"/>
+      <c r="AC27" s="7"/>
+      <c r="AD27" s="7"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
+      <c r="AG27" s="7"/>
+      <c r="AH27" s="7"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="7"/>
+      <c r="AK27" s="7"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
+      <c r="AP27" s="7"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="7"/>
+      <c r="AS27" s="7"/>
+    </row>
+    <row r="28" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
+        <v>93066773</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D28" s="4">
+        <f>C28/$C$93</f>
+        <v>5.0471063257065948E-2</v>
+      </c>
+      <c r="E28" s="3">
+        <v>1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>28</v>
+      </c>
+      <c r="G28" s="4"/>
+      <c r="H28" s="6">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+    </row>
+    <row r="29" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="17">
+        <v>93083111</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D29" s="4">
+        <f>C29/$C$93</f>
+        <v>5.0471063257065948E-2</v>
+      </c>
+      <c r="E29" s="3">
+        <v>3</v>
+      </c>
+      <c r="F29" s="3">
+        <v>7</v>
+      </c>
+      <c r="G29" s="7"/>
+      <c r="H29" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
+      <c r="AA29" s="7"/>
+      <c r="AB29" s="7"/>
+      <c r="AC29" s="7"/>
+      <c r="AD29" s="7"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
+      <c r="AG29" s="7"/>
+      <c r="AH29" s="7"/>
+      <c r="AI29" s="7"/>
+      <c r="AJ29" s="7"/>
+      <c r="AK29" s="7"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AP29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="7"/>
+      <c r="AS29" s="7"/>
+    </row>
+    <row r="30" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="17">
+        <v>93082680</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="3">
+        <v>120</v>
+      </c>
+      <c r="D30" s="4">
+        <f>C30/$C$93</f>
+        <v>2.5235531628532972E-3</v>
+      </c>
+      <c r="E30" s="3">
+        <v>8</v>
+      </c>
+      <c r="F30" s="3">
+        <v>8</v>
+      </c>
+      <c r="G30" s="7"/>
+      <c r="H30" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
+      <c r="AG30" s="7"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
+      <c r="AJ30" s="7"/>
+      <c r="AK30" s="7"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
+      <c r="AP30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="7"/>
+      <c r="AS30" s="7"/>
+    </row>
+    <row r="31" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="17">
+        <v>93083117</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31" s="3">
+        <v>6260</v>
+      </c>
+      <c r="D31" s="4">
+        <f>C31/$C$93</f>
+        <v>0.13164535666218036</v>
+      </c>
+      <c r="E31" s="3">
+        <v>12</v>
+      </c>
+      <c r="F31" s="3">
+        <v>25</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="6">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
+      <c r="AG31" s="7"/>
+      <c r="AH31" s="7"/>
+      <c r="AI31" s="7"/>
+      <c r="AJ31" s="7"/>
+      <c r="AK31" s="7"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
+      <c r="AP31" s="7"/>
+      <c r="AQ31" s="7"/>
+      <c r="AR31" s="7"/>
+      <c r="AS31" s="7"/>
+    </row>
+    <row r="32" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="17">
+        <v>93083142</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C32" s="3">
+        <v>960</v>
+      </c>
+      <c r="D32" s="4">
+        <f>C32/$C$93</f>
+        <v>2.0188425302826378E-2</v>
+      </c>
+      <c r="E32" s="3">
+        <v>26</v>
+      </c>
+      <c r="F32" s="3">
+        <v>27</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
+      <c r="AA32" s="7"/>
+      <c r="AB32" s="7"/>
+      <c r="AC32" s="7"/>
+      <c r="AD32" s="7"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="7"/>
+      <c r="AI32" s="7"/>
+      <c r="AJ32" s="7"/>
+      <c r="AK32" s="7"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="7"/>
+      <c r="AS32" s="7"/>
+    </row>
+    <row r="33" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="17">
+        <v>93083149</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="3">
+        <v>480</v>
+      </c>
+      <c r="D33" s="4">
+        <f>C33/$C$93</f>
+        <v>1.0094212651413189E-2</v>
+      </c>
+      <c r="E33" s="3">
+        <v>28</v>
+      </c>
+      <c r="F33" s="3">
+        <v>29</v>
+      </c>
+      <c r="G33" s="7"/>
+      <c r="H33" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="7"/>
+      <c r="AA33" s="7"/>
+      <c r="AB33" s="7"/>
+      <c r="AC33" s="7"/>
+      <c r="AD33" s="7"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
+      <c r="AG33" s="7"/>
+      <c r="AH33" s="7"/>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="7"/>
+      <c r="AK33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="7"/>
+      <c r="AS33" s="7"/>
+    </row>
+    <row r="34" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="17">
+        <v>93083167</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C34" s="3">
+        <v>48</v>
+      </c>
+      <c r="D34" s="4">
+        <f>C34/$C$93</f>
+        <v>1.009421265141319E-3</v>
+      </c>
+      <c r="E34" s="3">
+        <v>30</v>
+      </c>
+      <c r="F34" s="3">
+        <v>30</v>
+      </c>
+      <c r="G34" s="7"/>
+      <c r="H34" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="7"/>
+      <c r="Y34" s="7"/>
+      <c r="Z34" s="7"/>
+      <c r="AA34" s="7"/>
+      <c r="AB34" s="7"/>
+      <c r="AC34" s="7"/>
+      <c r="AD34" s="7"/>
+      <c r="AE34" s="7"/>
+      <c r="AF34" s="7"/>
+      <c r="AG34" s="7"/>
+      <c r="AH34" s="7"/>
+      <c r="AI34" s="7"/>
+      <c r="AJ34" s="7"/>
+      <c r="AK34" s="7"/>
+      <c r="AL34" s="7"/>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="7"/>
+      <c r="AS34" s="7"/>
+    </row>
+    <row r="35" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="17">
+        <v>93083150</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C35" s="3">
+        <v>270</v>
+      </c>
+      <c r="D35" s="4">
+        <f>C35/$C$93</f>
+        <v>5.677994616419919E-3</v>
+      </c>
+      <c r="E35" s="3">
+        <v>31</v>
+      </c>
+      <c r="F35" s="3">
+        <v>31</v>
+      </c>
+      <c r="G35" s="7"/>
+      <c r="H35" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
+      <c r="AB35" s="7"/>
+      <c r="AC35" s="7"/>
+      <c r="AD35" s="7"/>
+      <c r="AE35" s="7"/>
+      <c r="AF35" s="7"/>
+      <c r="AG35" s="7"/>
+      <c r="AH35" s="7"/>
+      <c r="AI35" s="7"/>
+      <c r="AJ35" s="7"/>
+      <c r="AK35" s="7"/>
+      <c r="AL35" s="7"/>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7"/>
+      <c r="AP35" s="7"/>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="7"/>
+      <c r="AS35" s="7"/>
+    </row>
+    <row r="36" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="21">
+        <v>93083546</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C36" s="3">
+        <v>60</v>
+      </c>
+      <c r="D36" s="4">
+        <f>C36/$C$93</f>
+        <v>1.2617765814266486E-3</v>
+      </c>
+      <c r="E36" s="3">
+        <v>3</v>
+      </c>
+      <c r="F36" s="3">
+        <v>4</v>
+      </c>
+      <c r="G36" s="7"/>
+      <c r="H36" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="7"/>
+      <c r="Y36" s="7"/>
+      <c r="Z36" s="7"/>
+      <c r="AA36" s="7"/>
+      <c r="AB36" s="7"/>
+      <c r="AC36" s="7"/>
+      <c r="AD36" s="7"/>
+      <c r="AE36" s="7"/>
+      <c r="AF36" s="7"/>
+      <c r="AG36" s="7"/>
+      <c r="AH36" s="7"/>
+      <c r="AI36" s="7"/>
+      <c r="AJ36" s="7"/>
+      <c r="AK36" s="7"/>
+      <c r="AL36" s="7"/>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="7"/>
+      <c r="AS36" s="7"/>
+    </row>
+    <row r="37" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A37" s="17">
+        <v>93085868</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C37" s="3">
+        <v>432</v>
+      </c>
+      <c r="D37" s="4">
+        <f>C37/$C$93</f>
+        <v>9.0847913862718704E-3</v>
+      </c>
+      <c r="E37" s="3">
+        <v>13</v>
+      </c>
+      <c r="F37" s="3">
+        <v>15</v>
+      </c>
+      <c r="G37" s="7"/>
+      <c r="H37" s="6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="7"/>
+      <c r="AB37" s="7"/>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="7"/>
+      <c r="AE37" s="7"/>
+      <c r="AF37" s="7"/>
+      <c r="AG37" s="7"/>
+      <c r="AH37" s="7"/>
+      <c r="AI37" s="7"/>
+      <c r="AJ37" s="7"/>
+      <c r="AK37" s="7"/>
+      <c r="AL37" s="7"/>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="7"/>
+      <c r="AS37" s="7"/>
+    </row>
+    <row r="38" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="17">
+        <v>93083152</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="3">
+        <v>960</v>
+      </c>
+      <c r="D38" s="4">
+        <f>C38/$C$93</f>
+        <v>2.0188425302826378E-2</v>
+      </c>
+      <c r="E38" s="3">
+        <v>17</v>
+      </c>
+      <c r="F38" s="3">
+        <v>20</v>
+      </c>
+      <c r="G38" s="7"/>
+      <c r="H38" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
+      <c r="AA38" s="7"/>
+      <c r="AB38" s="7"/>
+      <c r="AC38" s="7"/>
+      <c r="AD38" s="7"/>
+      <c r="AE38" s="7"/>
+      <c r="AF38" s="7"/>
+      <c r="AG38" s="7"/>
+      <c r="AH38" s="7"/>
+      <c r="AI38" s="7"/>
+      <c r="AJ38" s="7"/>
+      <c r="AK38" s="7"/>
+      <c r="AL38" s="7"/>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AP38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="7"/>
+      <c r="AS38" s="7"/>
+    </row>
+    <row r="39" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="17">
+        <v>93083151</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C39" s="3">
+        <v>432</v>
+      </c>
+      <c r="D39" s="4">
+        <f>C39/$C$93</f>
+        <v>9.0847913862718704E-3</v>
+      </c>
+      <c r="E39" s="3">
+        <v>25</v>
+      </c>
+      <c r="F39" s="3">
+        <v>26</v>
+      </c>
+      <c r="G39" s="7"/>
+      <c r="H39" s="6">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
+      <c r="AA39" s="7"/>
+      <c r="AB39" s="7"/>
+      <c r="AC39" s="7"/>
+      <c r="AD39" s="7"/>
+      <c r="AE39" s="7"/>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="7"/>
+      <c r="AH39" s="7"/>
+      <c r="AI39" s="7"/>
+      <c r="AJ39" s="7"/>
+      <c r="AK39" s="7"/>
+      <c r="AL39" s="7"/>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AP39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="7"/>
+      <c r="AS39" s="7"/>
+    </row>
+    <row r="40" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="17">
+        <v>93082595</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C40" s="3">
+        <v>500</v>
+      </c>
+      <c r="D40" s="4">
+        <f>C40/$C$93</f>
+        <v>1.0514804845222072E-2</v>
+      </c>
+      <c r="E40" s="3">
+        <v>4</v>
+      </c>
+      <c r="F40" s="3">
+        <v>7</v>
+      </c>
+      <c r="G40" s="7"/>
+      <c r="H40" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
+      <c r="AA40" s="7"/>
+      <c r="AB40" s="7"/>
+      <c r="AC40" s="7"/>
+      <c r="AD40" s="7"/>
+      <c r="AE40" s="7"/>
+      <c r="AF40" s="7"/>
+      <c r="AG40" s="7"/>
+      <c r="AH40" s="7"/>
+      <c r="AI40" s="7"/>
+      <c r="AJ40" s="7"/>
+      <c r="AK40" s="7"/>
+      <c r="AL40" s="7"/>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AP40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="7"/>
+      <c r="AS40" s="7"/>
+    </row>
+    <row r="41" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="17">
+        <v>93082591</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C41" s="3">
+        <v>504</v>
+      </c>
+      <c r="D41" s="4">
+        <f>C41/$C$93</f>
+        <v>1.059892328398385E-2</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
+      <c r="AA41" s="7"/>
+      <c r="AB41" s="7"/>
+      <c r="AC41" s="7"/>
+      <c r="AD41" s="7"/>
+      <c r="AE41" s="7"/>
+      <c r="AF41" s="7"/>
+      <c r="AG41" s="7"/>
+      <c r="AH41" s="7"/>
+      <c r="AI41" s="7"/>
+      <c r="AJ41" s="7"/>
+      <c r="AK41" s="7"/>
+      <c r="AL41" s="7"/>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AP41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="7"/>
+      <c r="AS41" s="7"/>
+    </row>
+    <row r="42" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="17">
+        <v>93082597</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1000</v>
+      </c>
+      <c r="D42" s="4">
+        <f>C42/$C$93</f>
+        <v>2.1029609690444144E-2</v>
+      </c>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="7"/>
+      <c r="Z42" s="7"/>
+      <c r="AA42" s="7"/>
+      <c r="AB42" s="7"/>
+      <c r="AC42" s="7"/>
+      <c r="AD42" s="7"/>
+      <c r="AE42" s="7"/>
+      <c r="AF42" s="7"/>
+      <c r="AG42" s="7"/>
+      <c r="AH42" s="7"/>
+      <c r="AI42" s="7"/>
+      <c r="AJ42" s="7"/>
+      <c r="AK42" s="7"/>
+      <c r="AL42" s="7"/>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="7"/>
+      <c r="AP42" s="7"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="7"/>
+      <c r="AS42" s="7"/>
+    </row>
+    <row r="43" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="17">
+        <v>93082596</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C43" s="3">
+        <v>500</v>
+      </c>
+      <c r="D43" s="4">
+        <f>C43/$C$93</f>
+        <v>1.0514804845222072E-2</v>
+      </c>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
+      <c r="AA43" s="7"/>
+      <c r="AB43" s="7"/>
+      <c r="AC43" s="7"/>
+      <c r="AD43" s="7"/>
+      <c r="AE43" s="7"/>
+      <c r="AF43" s="7"/>
+      <c r="AG43" s="7"/>
+      <c r="AH43" s="7"/>
+      <c r="AI43" s="7"/>
+      <c r="AJ43" s="7"/>
+      <c r="AK43" s="7"/>
+      <c r="AL43" s="7"/>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AP43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="7"/>
+      <c r="AS43" s="7"/>
+    </row>
+    <row r="44" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
+        <v>93082590</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="C44" s="3">
+        <v>500</v>
+      </c>
+      <c r="D44" s="4">
+        <f>C44/$C$93</f>
+        <v>1.0514804845222072E-2</v>
+      </c>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="7"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
+      <c r="AA44" s="7"/>
+      <c r="AB44" s="7"/>
+      <c r="AC44" s="7"/>
+      <c r="AD44" s="7"/>
+      <c r="AE44" s="7"/>
+      <c r="AF44" s="7"/>
+      <c r="AG44" s="7"/>
+      <c r="AH44" s="7"/>
+      <c r="AI44" s="7"/>
+      <c r="AJ44" s="7"/>
+      <c r="AK44" s="7"/>
+      <c r="AL44" s="7"/>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AP44" s="7"/>
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="7"/>
+      <c r="AS44" s="7"/>
+    </row>
+    <row r="45" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="17">
+        <v>93082593</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" s="3">
+        <v>840</v>
+      </c>
+      <c r="D45" s="4">
+        <f>C45/$C$93</f>
+        <v>1.7664872139973083E-2</v>
+      </c>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
+      <c r="AG45" s="7"/>
+      <c r="AH45" s="7"/>
+      <c r="AI45" s="7"/>
+      <c r="AJ45" s="7"/>
+      <c r="AK45" s="7"/>
+      <c r="AL45" s="7"/>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="7"/>
+      <c r="AO45" s="7"/>
+      <c r="AP45" s="7"/>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="7"/>
+      <c r="AS45" s="7"/>
+    </row>
+    <row r="46" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="17">
+        <v>93082592</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" s="3">
+        <v>250</v>
+      </c>
+      <c r="D46" s="4">
+        <f>C46/$C$93</f>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="7"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+      <c r="AA46" s="7"/>
+      <c r="AB46" s="7"/>
+      <c r="AC46" s="7"/>
+      <c r="AD46" s="7"/>
+      <c r="AE46" s="7"/>
+      <c r="AF46" s="7"/>
+      <c r="AG46" s="7"/>
+      <c r="AH46" s="7"/>
+      <c r="AI46" s="7"/>
+      <c r="AJ46" s="7"/>
+      <c r="AK46" s="7"/>
+      <c r="AL46" s="7"/>
+      <c r="AM46" s="7"/>
+      <c r="AN46" s="7"/>
+      <c r="AO46" s="7"/>
+      <c r="AP46" s="7"/>
+      <c r="AQ46" s="7"/>
+      <c r="AR46" s="7"/>
+      <c r="AS46" s="7"/>
+    </row>
+    <row r="47" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A47" s="17">
+        <v>93082598</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="C47" s="3">
+        <v>400</v>
+      </c>
+      <c r="D47" s="4">
+        <f>C47/$C$93</f>
+        <v>8.4118438761776586E-3</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="7"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
+      <c r="AA47" s="7"/>
+      <c r="AB47" s="7"/>
+      <c r="AC47" s="7"/>
+      <c r="AD47" s="7"/>
+      <c r="AE47" s="7"/>
+      <c r="AF47" s="7"/>
+      <c r="AG47" s="7"/>
+      <c r="AH47" s="7"/>
+      <c r="AI47" s="7"/>
+      <c r="AJ47" s="7"/>
+      <c r="AK47" s="7"/>
+      <c r="AL47" s="7"/>
+      <c r="AM47" s="7"/>
+      <c r="AN47" s="7"/>
+      <c r="AO47" s="7"/>
+      <c r="AP47" s="7"/>
+      <c r="AQ47" s="7"/>
+      <c r="AR47" s="7"/>
+      <c r="AS47" s="7"/>
+    </row>
+    <row r="48" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A48" s="17">
+        <v>93084443</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C48" s="3">
+        <v>792</v>
+      </c>
+      <c r="D48" s="4">
+        <f>C48/$C$93</f>
+        <v>1.6655450874831765E-2</v>
+      </c>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="7"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
+      <c r="AA48" s="7"/>
+      <c r="AB48" s="7"/>
+      <c r="AC48" s="7"/>
+      <c r="AD48" s="7"/>
+      <c r="AE48" s="7"/>
+      <c r="AF48" s="7"/>
+      <c r="AG48" s="7"/>
+      <c r="AH48" s="7"/>
+      <c r="AI48" s="7"/>
+      <c r="AJ48" s="7"/>
+      <c r="AK48" s="7"/>
+      <c r="AL48" s="7"/>
+      <c r="AM48" s="7"/>
+      <c r="AN48" s="7"/>
+      <c r="AO48" s="7"/>
+      <c r="AP48" s="7"/>
+      <c r="AQ48" s="7"/>
+      <c r="AR48" s="7"/>
+      <c r="AS48" s="7"/>
+    </row>
+    <row r="49" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="17">
+        <v>93084153</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C49" s="3">
+        <v>24</v>
+      </c>
+      <c r="D49" s="4">
+        <f>C49/$C$93</f>
+        <v>5.0471063257065949E-4</v>
+      </c>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="7"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
+      <c r="AA49" s="7"/>
+      <c r="AB49" s="7"/>
+      <c r="AC49" s="7"/>
+      <c r="AD49" s="7"/>
+      <c r="AE49" s="7"/>
+      <c r="AF49" s="7"/>
+      <c r="AG49" s="7"/>
+      <c r="AH49" s="7"/>
+      <c r="AI49" s="7"/>
+      <c r="AJ49" s="7"/>
+      <c r="AK49" s="7"/>
+      <c r="AL49" s="7"/>
+      <c r="AM49" s="7"/>
+      <c r="AN49" s="7"/>
+      <c r="AO49" s="7"/>
+      <c r="AP49" s="7"/>
+      <c r="AQ49" s="7"/>
+      <c r="AR49" s="7"/>
+      <c r="AS49" s="7"/>
+    </row>
+    <row r="50" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="17">
+        <v>93081197</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C50" s="3">
+        <v>60</v>
+      </c>
+      <c r="D50" s="4">
+        <f>C50/$C$93</f>
+        <v>1.2617765814266486E-3</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="7"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
+      <c r="AA50" s="7"/>
+      <c r="AB50" s="7"/>
+      <c r="AC50" s="7"/>
+      <c r="AD50" s="7"/>
+      <c r="AE50" s="7"/>
+      <c r="AF50" s="7"/>
+      <c r="AG50" s="7"/>
+      <c r="AH50" s="7"/>
+      <c r="AI50" s="7"/>
+      <c r="AJ50" s="7"/>
+      <c r="AK50" s="7"/>
+      <c r="AL50" s="7"/>
+      <c r="AM50" s="7"/>
+      <c r="AN50" s="7"/>
+      <c r="AO50" s="7"/>
+      <c r="AP50" s="7"/>
+      <c r="AQ50" s="7"/>
+      <c r="AR50" s="7"/>
+      <c r="AS50" s="7"/>
+    </row>
+    <row r="51" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="17">
+        <v>93083899</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C51" s="3">
+        <v>360</v>
+      </c>
+      <c r="D51" s="4">
+        <f>C51/$C$93</f>
+        <v>7.5706594885598926E-3</v>
+      </c>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="7"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
+      <c r="AA51" s="7"/>
+      <c r="AB51" s="7"/>
+      <c r="AC51" s="7"/>
+      <c r="AD51" s="7"/>
+      <c r="AE51" s="7"/>
+      <c r="AF51" s="7"/>
+      <c r="AG51" s="7"/>
+      <c r="AH51" s="7"/>
+      <c r="AI51" s="7"/>
+      <c r="AJ51" s="7"/>
+      <c r="AK51" s="7"/>
+      <c r="AL51" s="7"/>
+      <c r="AM51" s="7"/>
+      <c r="AN51" s="7"/>
+      <c r="AO51" s="7"/>
+      <c r="AP51" s="7"/>
+      <c r="AQ51" s="7"/>
+      <c r="AR51" s="7"/>
+      <c r="AS51" s="7"/>
+    </row>
+    <row r="52" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
+        <v>93082602</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C52" s="3">
+        <v>400</v>
+      </c>
+      <c r="D52" s="4">
+        <f>C52/$C$93</f>
+        <v>8.4118438761776586E-3</v>
+      </c>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="7"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
+      <c r="AA52" s="7"/>
+      <c r="AB52" s="7"/>
+      <c r="AC52" s="7"/>
+      <c r="AD52" s="7"/>
+      <c r="AE52" s="7"/>
+      <c r="AF52" s="7"/>
+      <c r="AG52" s="7"/>
+      <c r="AH52" s="7"/>
+      <c r="AI52" s="7"/>
+      <c r="AJ52" s="7"/>
+      <c r="AK52" s="7"/>
+      <c r="AL52" s="7"/>
+      <c r="AM52" s="7"/>
+      <c r="AN52" s="7"/>
+      <c r="AO52" s="7"/>
+      <c r="AP52" s="7"/>
+      <c r="AQ52" s="7"/>
+      <c r="AR52" s="7"/>
+      <c r="AS52" s="7"/>
+    </row>
+    <row r="53" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="17">
+        <v>93082604</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="C53" s="3">
+        <v>400</v>
+      </c>
+      <c r="D53" s="4">
+        <f>C53/$C$93</f>
+        <v>8.4118438761776586E-3</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="7"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="7"/>
+      <c r="AB53" s="7"/>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="7"/>
+      <c r="AE53" s="7"/>
+      <c r="AF53" s="7"/>
+      <c r="AG53" s="7"/>
+      <c r="AH53" s="7"/>
+      <c r="AI53" s="7"/>
+      <c r="AJ53" s="7"/>
+      <c r="AK53" s="7"/>
+      <c r="AL53" s="7"/>
+      <c r="AM53" s="7"/>
+      <c r="AN53" s="7"/>
+      <c r="AO53" s="7"/>
+      <c r="AP53" s="7"/>
+      <c r="AQ53" s="7"/>
+      <c r="AR53" s="7"/>
+      <c r="AS53" s="7"/>
+    </row>
+    <row r="54" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A54" s="17">
+        <v>93082603</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C54" s="3">
+        <v>500</v>
+      </c>
+      <c r="D54" s="4">
+        <f>C54/$C$93</f>
+        <v>1.0514804845222072E-2</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
+      <c r="AB54" s="7"/>
+      <c r="AC54" s="7"/>
+      <c r="AD54" s="7"/>
+      <c r="AE54" s="7"/>
+      <c r="AF54" s="7"/>
+      <c r="AG54" s="7"/>
+      <c r="AH54" s="7"/>
+      <c r="AI54" s="7"/>
+      <c r="AJ54" s="7"/>
+      <c r="AK54" s="7"/>
+      <c r="AL54" s="7"/>
+      <c r="AM54" s="7"/>
+      <c r="AN54" s="7"/>
+      <c r="AO54" s="7"/>
+      <c r="AP54" s="7"/>
+      <c r="AQ54" s="7"/>
+      <c r="AR54" s="7"/>
+      <c r="AS54" s="7"/>
+    </row>
+    <row r="55" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A55" s="17">
+        <v>93083385</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1060</v>
+      </c>
+      <c r="D55" s="4">
+        <f>C55/$C$93</f>
+        <v>2.2291386271870793E-2</v>
+      </c>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="7"/>
+      <c r="Y55" s="7"/>
+      <c r="Z55" s="7"/>
+      <c r="AA55" s="7"/>
+      <c r="AB55" s="7"/>
+      <c r="AC55" s="7"/>
+      <c r="AD55" s="7"/>
+      <c r="AE55" s="7"/>
+      <c r="AF55" s="7"/>
+      <c r="AG55" s="7"/>
+      <c r="AH55" s="7"/>
+      <c r="AI55" s="7"/>
+      <c r="AJ55" s="7"/>
+      <c r="AK55" s="7"/>
+      <c r="AL55" s="7"/>
+      <c r="AM55" s="7"/>
+      <c r="AN55" s="7"/>
+      <c r="AO55" s="7"/>
+      <c r="AP55" s="7"/>
+      <c r="AQ55" s="7"/>
+      <c r="AR55" s="7"/>
+      <c r="AS55" s="7"/>
+    </row>
+    <row r="56" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="17">
+        <v>93085122</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C56" s="3">
+        <v>800</v>
+      </c>
+      <c r="D56" s="4">
+        <f>C56/$C$93</f>
+        <v>1.6823687752355317E-2</v>
+      </c>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="7"/>
+      <c r="Y56" s="7"/>
+      <c r="Z56" s="7"/>
+      <c r="AA56" s="7"/>
+      <c r="AB56" s="7"/>
+      <c r="AC56" s="7"/>
+      <c r="AD56" s="7"/>
+      <c r="AE56" s="7"/>
+      <c r="AF56" s="7"/>
+      <c r="AG56" s="7"/>
+      <c r="AH56" s="7"/>
+      <c r="AI56" s="7"/>
+      <c r="AJ56" s="7"/>
+      <c r="AK56" s="7"/>
+      <c r="AL56" s="7"/>
+      <c r="AM56" s="7"/>
+      <c r="AN56" s="7"/>
+      <c r="AO56" s="7"/>
+      <c r="AP56" s="7"/>
+      <c r="AQ56" s="7"/>
+      <c r="AR56" s="7"/>
+      <c r="AS56" s="7"/>
+    </row>
+    <row r="57" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A57" s="17">
+        <v>93081783</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1080</v>
+      </c>
+      <c r="D57" s="4">
+        <f>C57/$C$93</f>
+        <v>2.2711978465679676E-2</v>
+      </c>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="7"/>
+      <c r="Y57" s="7"/>
+      <c r="Z57" s="7"/>
+      <c r="AA57" s="7"/>
+      <c r="AB57" s="7"/>
+      <c r="AC57" s="7"/>
+      <c r="AD57" s="7"/>
+      <c r="AE57" s="7"/>
+      <c r="AF57" s="7"/>
+      <c r="AG57" s="7"/>
+      <c r="AH57" s="7"/>
+      <c r="AI57" s="7"/>
+      <c r="AJ57" s="7"/>
+      <c r="AK57" s="7"/>
+      <c r="AL57" s="7"/>
+      <c r="AM57" s="7"/>
+      <c r="AN57" s="7"/>
+      <c r="AO57" s="7"/>
+      <c r="AP57" s="7"/>
+      <c r="AQ57" s="7"/>
+      <c r="AR57" s="7"/>
+      <c r="AS57" s="7"/>
+    </row>
+    <row r="58" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="17">
+        <v>93083731</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C58" s="3">
+        <v>1080</v>
+      </c>
+      <c r="D58" s="4">
+        <f>C58/$C$93</f>
+        <v>2.2711978465679676E-2</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="7"/>
+      <c r="Y58" s="7"/>
+      <c r="Z58" s="7"/>
+      <c r="AA58" s="7"/>
+      <c r="AB58" s="7"/>
+      <c r="AC58" s="7"/>
+      <c r="AD58" s="7"/>
+      <c r="AE58" s="7"/>
+      <c r="AF58" s="7"/>
+      <c r="AG58" s="7"/>
+      <c r="AH58" s="7"/>
+      <c r="AI58" s="7"/>
+      <c r="AJ58" s="7"/>
+      <c r="AK58" s="7"/>
+      <c r="AL58" s="7"/>
+      <c r="AM58" s="7"/>
+      <c r="AN58" s="7"/>
+      <c r="AO58" s="7"/>
+      <c r="AP58" s="7"/>
+      <c r="AQ58" s="7"/>
+      <c r="AR58" s="7"/>
+      <c r="AS58" s="7"/>
+    </row>
+    <row r="59" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A59" s="17">
+        <v>93084875</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C59" s="3">
+        <v>432</v>
+      </c>
+      <c r="D59" s="4">
+        <f>C59/$C$93</f>
+        <v>9.0847913862718704E-3</v>
+      </c>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="7"/>
+      <c r="Y59" s="7"/>
+      <c r="Z59" s="7"/>
+      <c r="AA59" s="7"/>
+      <c r="AB59" s="7"/>
+      <c r="AC59" s="7"/>
+      <c r="AD59" s="7"/>
+      <c r="AE59" s="7"/>
+      <c r="AF59" s="7"/>
+      <c r="AG59" s="7"/>
+      <c r="AH59" s="7"/>
+      <c r="AI59" s="7"/>
+      <c r="AJ59" s="7"/>
+      <c r="AK59" s="7"/>
+      <c r="AL59" s="7"/>
+      <c r="AM59" s="7"/>
+      <c r="AN59" s="7"/>
+      <c r="AO59" s="7"/>
+      <c r="AP59" s="7"/>
+      <c r="AQ59" s="7"/>
+      <c r="AR59" s="7"/>
+      <c r="AS59" s="7"/>
+    </row>
+    <row r="60" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
+        <v>93078452</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="3">
+        <v>800</v>
+      </c>
+      <c r="D60" s="4">
+        <f>C60/$C$93</f>
+        <v>1.6823687752355317E-2</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
+      <c r="AB60" s="7"/>
+      <c r="AC60" s="7"/>
+      <c r="AD60" s="7"/>
+      <c r="AE60" s="7"/>
+      <c r="AF60" s="7"/>
+      <c r="AG60" s="7"/>
+      <c r="AH60" s="7"/>
+      <c r="AI60" s="7"/>
+      <c r="AJ60" s="7"/>
+      <c r="AK60" s="7"/>
+      <c r="AL60" s="7"/>
+      <c r="AM60" s="7"/>
+      <c r="AN60" s="7"/>
+      <c r="AO60" s="7"/>
+      <c r="AP60" s="7"/>
+      <c r="AQ60" s="7"/>
+      <c r="AR60" s="7"/>
+      <c r="AS60" s="7"/>
+    </row>
+    <row r="61" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A61" s="17">
+        <v>93078559</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="3">
+        <v>60</v>
+      </c>
+      <c r="D61" s="4">
+        <f>C61/$C$93</f>
+        <v>1.2617765814266486E-3</v>
+      </c>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="7"/>
+      <c r="Y61" s="7"/>
+      <c r="Z61" s="7"/>
+      <c r="AA61" s="7"/>
+      <c r="AB61" s="7"/>
+      <c r="AC61" s="7"/>
+      <c r="AD61" s="7"/>
+      <c r="AE61" s="7"/>
+      <c r="AF61" s="7"/>
+      <c r="AG61" s="7"/>
+      <c r="AH61" s="7"/>
+      <c r="AI61" s="7"/>
+      <c r="AJ61" s="7"/>
+      <c r="AK61" s="7"/>
+      <c r="AL61" s="7"/>
+      <c r="AM61" s="7"/>
+      <c r="AN61" s="7"/>
+      <c r="AO61" s="7"/>
+      <c r="AP61" s="7"/>
+      <c r="AQ61" s="7"/>
+      <c r="AR61" s="7"/>
+      <c r="AS61" s="7"/>
+    </row>
+    <row r="62" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="17">
+        <v>93085026</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="C62" s="3">
+        <v>36</v>
+      </c>
+      <c r="D62" s="4">
+        <f>C62/$C$93</f>
+        <v>7.5706594885598924E-4</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="7"/>
+      <c r="Y62" s="7"/>
+      <c r="Z62" s="7"/>
+      <c r="AA62" s="7"/>
+      <c r="AB62" s="7"/>
+      <c r="AC62" s="7"/>
+      <c r="AD62" s="7"/>
+      <c r="AE62" s="7"/>
+      <c r="AF62" s="7"/>
+      <c r="AG62" s="7"/>
+      <c r="AH62" s="7"/>
+      <c r="AI62" s="7"/>
+      <c r="AJ62" s="7"/>
+      <c r="AK62" s="7"/>
+      <c r="AL62" s="7"/>
+      <c r="AM62" s="7"/>
+      <c r="AN62" s="7"/>
+      <c r="AO62" s="7"/>
+      <c r="AP62" s="7"/>
+      <c r="AQ62" s="7"/>
+      <c r="AR62" s="7"/>
+      <c r="AS62" s="7"/>
+    </row>
+    <row r="63" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A63" s="17">
+        <v>93086353</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C63" s="3">
+        <v>32</v>
+      </c>
+      <c r="D63" s="4">
+        <f>C63/$C$93</f>
+        <v>6.7294751009421266E-4</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="7"/>
+      <c r="Y63" s="7"/>
+      <c r="Z63" s="7"/>
+      <c r="AA63" s="7"/>
+      <c r="AB63" s="7"/>
+      <c r="AC63" s="7"/>
+      <c r="AD63" s="7"/>
+      <c r="AE63" s="7"/>
+      <c r="AF63" s="7"/>
+      <c r="AG63" s="7"/>
+      <c r="AH63" s="7"/>
+      <c r="AI63" s="7"/>
+      <c r="AJ63" s="7"/>
+      <c r="AK63" s="7"/>
+      <c r="AL63" s="7"/>
+      <c r="AM63" s="7"/>
+      <c r="AN63" s="7"/>
+      <c r="AO63" s="7"/>
+      <c r="AP63" s="7"/>
+      <c r="AQ63" s="7"/>
+      <c r="AR63" s="7"/>
+      <c r="AS63" s="7"/>
+    </row>
+    <row r="64" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="17">
+        <v>93085988</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="C64" s="3">
+        <v>16</v>
+      </c>
+      <c r="D64" s="4">
+        <f>C64/$C$93</f>
+        <v>3.3647375504710633E-4</v>
+      </c>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="7"/>
+      <c r="Y64" s="7"/>
+      <c r="Z64" s="7"/>
+      <c r="AA64" s="7"/>
+      <c r="AB64" s="7"/>
+      <c r="AC64" s="7"/>
+      <c r="AD64" s="7"/>
+      <c r="AE64" s="7"/>
+      <c r="AF64" s="7"/>
+      <c r="AG64" s="7"/>
+      <c r="AH64" s="7"/>
+      <c r="AI64" s="7"/>
+      <c r="AJ64" s="7"/>
+      <c r="AK64" s="7"/>
+      <c r="AL64" s="7"/>
+      <c r="AM64" s="7"/>
+      <c r="AN64" s="7"/>
+      <c r="AO64" s="7"/>
+      <c r="AP64" s="7"/>
+      <c r="AQ64" s="7"/>
+      <c r="AR64" s="7"/>
+      <c r="AS64" s="7"/>
+    </row>
+    <row r="65" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="17">
+        <v>93081196</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65" s="3">
+        <v>18</v>
+      </c>
+      <c r="D65" s="4">
+        <f>C65/$C$93</f>
+        <v>3.7853297442799462E-4</v>
+      </c>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="7"/>
+      <c r="Y65" s="7"/>
+      <c r="Z65" s="7"/>
+      <c r="AA65" s="7"/>
+      <c r="AB65" s="7"/>
+      <c r="AC65" s="7"/>
+      <c r="AD65" s="7"/>
+      <c r="AE65" s="7"/>
+      <c r="AF65" s="7"/>
+      <c r="AG65" s="7"/>
+      <c r="AH65" s="7"/>
+      <c r="AI65" s="7"/>
+      <c r="AJ65" s="7"/>
+      <c r="AK65" s="7"/>
+      <c r="AL65" s="7"/>
+      <c r="AM65" s="7"/>
+      <c r="AN65" s="7"/>
+      <c r="AO65" s="7"/>
+      <c r="AP65" s="7"/>
+      <c r="AQ65" s="7"/>
+      <c r="AR65" s="7"/>
+      <c r="AS65" s="7"/>
+    </row>
+    <row r="66" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="17">
+        <v>93076942</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="C66" s="3">
+        <v>216</v>
+      </c>
+      <c r="D66" s="4">
+        <f>C66/$C$93</f>
+        <v>4.5423956931359352E-3</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
+      <c r="AB66" s="7"/>
+      <c r="AC66" s="7"/>
+      <c r="AD66" s="7"/>
+      <c r="AE66" s="7"/>
+      <c r="AF66" s="7"/>
+      <c r="AG66" s="7"/>
+      <c r="AH66" s="7"/>
+      <c r="AI66" s="7"/>
+      <c r="AJ66" s="7"/>
+      <c r="AK66" s="7"/>
+      <c r="AL66" s="7"/>
+      <c r="AM66" s="7"/>
+      <c r="AN66" s="7"/>
+      <c r="AO66" s="7"/>
+      <c r="AP66" s="7"/>
+      <c r="AQ66" s="7"/>
+      <c r="AR66" s="7"/>
+      <c r="AS66" s="7"/>
+    </row>
+    <row r="67" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
+        <v>93084517</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C67" s="3">
+        <v>900</v>
+      </c>
+      <c r="D67" s="4">
+        <f>C67/$C$93</f>
+        <v>1.8926648721399732E-2</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="6">
+        <f t="shared" ref="H67:H92" si="1">F67-E67+1</f>
+        <v>1</v>
+      </c>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="7"/>
+      <c r="Y67" s="7"/>
+      <c r="Z67" s="7"/>
+      <c r="AA67" s="7"/>
+      <c r="AB67" s="7"/>
+      <c r="AC67" s="7"/>
+      <c r="AD67" s="7"/>
+      <c r="AE67" s="7"/>
+      <c r="AF67" s="7"/>
+      <c r="AG67" s="7"/>
+      <c r="AH67" s="7"/>
+      <c r="AI67" s="7"/>
+      <c r="AJ67" s="7"/>
+      <c r="AK67" s="7"/>
+      <c r="AL67" s="7"/>
+      <c r="AM67" s="7"/>
+      <c r="AN67" s="7"/>
+      <c r="AO67" s="7"/>
+      <c r="AP67" s="7"/>
+      <c r="AQ67" s="7"/>
+      <c r="AR67" s="7"/>
+      <c r="AS67" s="7"/>
+    </row>
+    <row r="68" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="17">
+        <v>93084693</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C68" s="3">
+        <v>600</v>
+      </c>
+      <c r="D68" s="4">
+        <f>C68/$C$93</f>
+        <v>1.2617765814266487E-2</v>
+      </c>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="7"/>
+      <c r="Y68" s="7"/>
+      <c r="Z68" s="7"/>
+      <c r="AA68" s="7"/>
+      <c r="AB68" s="7"/>
+      <c r="AC68" s="7"/>
+      <c r="AD68" s="7"/>
+      <c r="AE68" s="7"/>
+      <c r="AF68" s="7"/>
+      <c r="AG68" s="7"/>
+      <c r="AH68" s="7"/>
+      <c r="AI68" s="7"/>
+      <c r="AJ68" s="7"/>
+      <c r="AK68" s="7"/>
+      <c r="AL68" s="7"/>
+      <c r="AM68" s="7"/>
+      <c r="AN68" s="7"/>
+      <c r="AO68" s="7"/>
+      <c r="AP68" s="7"/>
+      <c r="AQ68" s="7"/>
+      <c r="AR68" s="7"/>
+      <c r="AS68" s="7"/>
+    </row>
+    <row r="69" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="17">
+        <v>93084512</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C69" s="3">
+        <v>12</v>
+      </c>
+      <c r="D69" s="4">
+        <f>C69/$C$93</f>
+        <v>2.5235531628532975E-4</v>
+      </c>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="7"/>
+      <c r="Y69" s="7"/>
+      <c r="Z69" s="7"/>
+      <c r="AA69" s="7"/>
+      <c r="AB69" s="7"/>
+      <c r="AC69" s="7"/>
+      <c r="AD69" s="7"/>
+      <c r="AE69" s="7"/>
+      <c r="AF69" s="7"/>
+      <c r="AG69" s="7"/>
+      <c r="AH69" s="7"/>
+      <c r="AI69" s="7"/>
+      <c r="AJ69" s="7"/>
+      <c r="AK69" s="7"/>
+      <c r="AL69" s="7"/>
+      <c r="AM69" s="7"/>
+      <c r="AN69" s="7"/>
+      <c r="AO69" s="7"/>
+      <c r="AP69" s="7"/>
+      <c r="AQ69" s="7"/>
+      <c r="AR69" s="7"/>
+      <c r="AS69" s="7"/>
+    </row>
+    <row r="70" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="17">
+        <v>93078761</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C70" s="3">
+        <v>1620</v>
+      </c>
+      <c r="D70" s="4">
+        <f>C70/$C$93</f>
+        <v>3.4067967698519518E-2</v>
+      </c>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="7"/>
+      <c r="Y70" s="7"/>
+      <c r="Z70" s="7"/>
+      <c r="AA70" s="7"/>
+      <c r="AB70" s="7"/>
+      <c r="AC70" s="7"/>
+      <c r="AD70" s="7"/>
+      <c r="AE70" s="7"/>
+      <c r="AF70" s="7"/>
+      <c r="AG70" s="7"/>
+      <c r="AH70" s="7"/>
+      <c r="AI70" s="7"/>
+      <c r="AJ70" s="7"/>
+      <c r="AK70" s="7"/>
+      <c r="AL70" s="7"/>
+      <c r="AM70" s="7"/>
+      <c r="AN70" s="7"/>
+      <c r="AO70" s="7"/>
+      <c r="AP70" s="7"/>
+      <c r="AQ70" s="7"/>
+      <c r="AR70" s="7"/>
+      <c r="AS70" s="7"/>
+    </row>
+    <row r="71" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="17">
+        <v>93087590</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C71" s="3">
+        <v>600</v>
+      </c>
+      <c r="D71" s="4">
+        <f>C71/$C$93</f>
+        <v>1.2617765814266487E-2</v>
+      </c>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="7"/>
+      <c r="Y71" s="7"/>
+      <c r="Z71" s="7"/>
+      <c r="AA71" s="7"/>
+      <c r="AB71" s="7"/>
+      <c r="AC71" s="7"/>
+      <c r="AD71" s="7"/>
+      <c r="AE71" s="7"/>
+      <c r="AF71" s="7"/>
+      <c r="AG71" s="7"/>
+      <c r="AH71" s="7"/>
+      <c r="AI71" s="7"/>
+      <c r="AJ71" s="7"/>
+      <c r="AK71" s="7"/>
+      <c r="AL71" s="7"/>
+      <c r="AM71" s="7"/>
+      <c r="AN71" s="7"/>
+      <c r="AO71" s="7"/>
+      <c r="AP71" s="7"/>
+      <c r="AQ71" s="7"/>
+      <c r="AR71" s="7"/>
+      <c r="AS71" s="7"/>
+    </row>
+    <row r="72" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="17">
+        <v>93084694</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="C72" s="3">
+        <v>600</v>
+      </c>
+      <c r="D72" s="4">
+        <f>C72/$C$93</f>
+        <v>1.2617765814266487E-2</v>
+      </c>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="7"/>
+      <c r="Y72" s="7"/>
+      <c r="Z72" s="7"/>
+      <c r="AA72" s="7"/>
+      <c r="AB72" s="7"/>
+      <c r="AC72" s="7"/>
+      <c r="AD72" s="7"/>
+      <c r="AE72" s="7"/>
+      <c r="AF72" s="7"/>
+      <c r="AG72" s="7"/>
+      <c r="AH72" s="7"/>
+      <c r="AI72" s="7"/>
+      <c r="AJ72" s="7"/>
+      <c r="AK72" s="7"/>
+      <c r="AL72" s="7"/>
+      <c r="AM72" s="7"/>
+      <c r="AN72" s="7"/>
+      <c r="AO72" s="7"/>
+      <c r="AP72" s="7"/>
+      <c r="AQ72" s="7"/>
+      <c r="AR72" s="7"/>
+      <c r="AS72" s="7"/>
+    </row>
+    <row r="73" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="17">
+        <v>93084829</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C73" s="3">
+        <v>18</v>
+      </c>
+      <c r="D73" s="4">
+        <f>C73/$C$93</f>
+        <v>3.7853297442799462E-4</v>
+      </c>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
+      <c r="AB73" s="7"/>
+      <c r="AC73" s="7"/>
+      <c r="AD73" s="7"/>
+      <c r="AE73" s="7"/>
+      <c r="AF73" s="7"/>
+      <c r="AG73" s="7"/>
+      <c r="AH73" s="7"/>
+      <c r="AI73" s="7"/>
+      <c r="AJ73" s="7"/>
+      <c r="AK73" s="7"/>
+      <c r="AL73" s="7"/>
+      <c r="AM73" s="7"/>
+      <c r="AN73" s="7"/>
+      <c r="AO73" s="7"/>
+      <c r="AP73" s="7"/>
+      <c r="AQ73" s="7"/>
+      <c r="AR73" s="7"/>
+      <c r="AS73" s="7"/>
+    </row>
+    <row r="74" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="17">
+        <v>93083354</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C74" s="3">
+        <v>50</v>
+      </c>
+      <c r="D74" s="4">
+        <f>C74/$C$93</f>
+        <v>1.0514804845222073E-3</v>
+      </c>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="7"/>
+      <c r="Y74" s="7"/>
+      <c r="Z74" s="7"/>
+      <c r="AA74" s="7"/>
+      <c r="AB74" s="7"/>
+      <c r="AC74" s="7"/>
+      <c r="AD74" s="7"/>
+      <c r="AE74" s="7"/>
+      <c r="AF74" s="7"/>
+      <c r="AG74" s="7"/>
+      <c r="AH74" s="7"/>
+      <c r="AI74" s="7"/>
+      <c r="AJ74" s="7"/>
+      <c r="AK74" s="7"/>
+      <c r="AL74" s="7"/>
+      <c r="AM74" s="7"/>
+      <c r="AN74" s="7"/>
+      <c r="AO74" s="7"/>
+      <c r="AP74" s="7"/>
+      <c r="AQ74" s="7"/>
+      <c r="AR74" s="7"/>
+      <c r="AS74" s="7"/>
+    </row>
+    <row r="75" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="17">
+        <v>93068361</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C75" s="3">
+        <v>4</v>
+      </c>
+      <c r="D75" s="4">
+        <f>C75/$C$93</f>
+        <v>8.4118438761776582E-5</v>
+      </c>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="7"/>
+      <c r="Y75" s="7"/>
+      <c r="Z75" s="7"/>
+      <c r="AA75" s="7"/>
+      <c r="AB75" s="7"/>
+      <c r="AC75" s="7"/>
+      <c r="AD75" s="7"/>
+      <c r="AE75" s="7"/>
+      <c r="AF75" s="7"/>
+      <c r="AG75" s="7"/>
+      <c r="AH75" s="7"/>
+      <c r="AI75" s="7"/>
+      <c r="AJ75" s="7"/>
+      <c r="AK75" s="7"/>
+      <c r="AL75" s="7"/>
+      <c r="AM75" s="7"/>
+      <c r="AN75" s="7"/>
+      <c r="AO75" s="7"/>
+      <c r="AP75" s="7"/>
+      <c r="AQ75" s="7"/>
+      <c r="AR75" s="7"/>
+      <c r="AS75" s="7"/>
+    </row>
+    <row r="76" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="17">
+        <v>93078933</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="C76" s="3">
+        <v>4</v>
+      </c>
+      <c r="D76" s="4">
+        <f>C76/$C$93</f>
+        <v>8.4118438761776582E-5</v>
+      </c>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="7"/>
+      <c r="Y76" s="7"/>
+      <c r="Z76" s="7"/>
+      <c r="AA76" s="7"/>
+      <c r="AB76" s="7"/>
+      <c r="AC76" s="7"/>
+      <c r="AD76" s="7"/>
+      <c r="AE76" s="7"/>
+      <c r="AF76" s="7"/>
+      <c r="AG76" s="7"/>
+      <c r="AH76" s="7"/>
+      <c r="AI76" s="7"/>
+      <c r="AJ76" s="7"/>
+      <c r="AK76" s="7"/>
+      <c r="AL76" s="7"/>
+      <c r="AM76" s="7"/>
+      <c r="AN76" s="7"/>
+      <c r="AO76" s="7"/>
+      <c r="AP76" s="7"/>
+      <c r="AQ76" s="7"/>
+      <c r="AR76" s="7"/>
+      <c r="AS76" s="7"/>
+    </row>
+    <row r="77" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="17">
+        <v>93083353</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="C77" s="3">
+        <v>45</v>
+      </c>
+      <c r="D77" s="4">
+        <f>C77/$C$93</f>
+        <v>9.4633243606998658E-4</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="7"/>
+      <c r="Y77" s="7"/>
+      <c r="Z77" s="7"/>
+      <c r="AA77" s="7"/>
+      <c r="AB77" s="7"/>
+      <c r="AC77" s="7"/>
+      <c r="AD77" s="7"/>
+      <c r="AE77" s="7"/>
+      <c r="AF77" s="7"/>
+      <c r="AG77" s="7"/>
+      <c r="AH77" s="7"/>
+      <c r="AI77" s="7"/>
+      <c r="AJ77" s="7"/>
+      <c r="AK77" s="7"/>
+      <c r="AL77" s="7"/>
+      <c r="AM77" s="7"/>
+      <c r="AN77" s="7"/>
+      <c r="AO77" s="7"/>
+      <c r="AP77" s="7"/>
+      <c r="AQ77" s="7"/>
+      <c r="AR77" s="7"/>
+      <c r="AS77" s="7"/>
+    </row>
+    <row r="78" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="17">
+        <v>93072684</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="C78" s="3">
+        <v>300</v>
+      </c>
+      <c r="D78" s="4">
+        <f>C78/$C$93</f>
+        <v>6.3088829071332436E-3</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="7"/>
+      <c r="Y78" s="7"/>
+      <c r="Z78" s="7"/>
+      <c r="AA78" s="7"/>
+      <c r="AB78" s="7"/>
+      <c r="AC78" s="7"/>
+      <c r="AD78" s="7"/>
+      <c r="AE78" s="7"/>
+      <c r="AF78" s="7"/>
+      <c r="AG78" s="7"/>
+      <c r="AH78" s="7"/>
+      <c r="AI78" s="7"/>
+      <c r="AJ78" s="7"/>
+      <c r="AK78" s="7"/>
+      <c r="AL78" s="7"/>
+      <c r="AM78" s="7"/>
+      <c r="AN78" s="7"/>
+      <c r="AO78" s="7"/>
+      <c r="AP78" s="7"/>
+      <c r="AQ78" s="7"/>
+      <c r="AR78" s="7"/>
+      <c r="AS78" s="7"/>
+    </row>
+    <row r="79" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="17">
+        <v>93083355</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C79" s="3">
+        <v>50</v>
+      </c>
+      <c r="D79" s="4">
+        <f>C79/$C$93</f>
+        <v>1.0514804845222073E-3</v>
+      </c>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="7"/>
+      <c r="Y79" s="7"/>
+      <c r="Z79" s="7"/>
+      <c r="AA79" s="7"/>
+      <c r="AB79" s="7"/>
+      <c r="AC79" s="7"/>
+      <c r="AD79" s="7"/>
+      <c r="AE79" s="7"/>
+      <c r="AF79" s="7"/>
+      <c r="AG79" s="7"/>
+      <c r="AH79" s="7"/>
+      <c r="AI79" s="7"/>
+      <c r="AJ79" s="7"/>
+      <c r="AK79" s="7"/>
+      <c r="AL79" s="7"/>
+      <c r="AM79" s="7"/>
+      <c r="AN79" s="7"/>
+      <c r="AO79" s="7"/>
+      <c r="AP79" s="7"/>
+      <c r="AQ79" s="7"/>
+      <c r="AR79" s="7"/>
+      <c r="AS79" s="7"/>
+    </row>
+    <row r="80" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="17">
+        <v>93083358</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C80" s="3">
+        <v>45</v>
+      </c>
+      <c r="D80" s="4">
+        <f>C80/$C$93</f>
+        <v>9.4633243606998658E-4</v>
+      </c>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+      <c r="AB80" s="7"/>
+      <c r="AC80" s="7"/>
+      <c r="AD80" s="7"/>
+      <c r="AE80" s="7"/>
+      <c r="AF80" s="7"/>
+      <c r="AG80" s="7"/>
+      <c r="AH80" s="7"/>
+      <c r="AI80" s="7"/>
+      <c r="AJ80" s="7"/>
+      <c r="AK80" s="7"/>
+      <c r="AL80" s="7"/>
+      <c r="AM80" s="7"/>
+      <c r="AN80" s="7"/>
+      <c r="AO80" s="7"/>
+      <c r="AP80" s="7"/>
+      <c r="AQ80" s="7"/>
+      <c r="AR80" s="7"/>
+      <c r="AS80" s="7"/>
+    </row>
+    <row r="81" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="17">
+        <v>93087272</v>
+      </c>
+      <c r="B81" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" ref="C3:C11" si="0">B3/$B$12</f>
-        <v>8.6805555555555552E-2</v>
-      </c>
-      <c r="D3" s="3">
+      <c r="C81" s="3">
+        <v>720</v>
+      </c>
+      <c r="D81" s="4">
+        <f>C81/$C$93</f>
+        <v>1.5141318977119785E-2</v>
+      </c>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E3" s="3">
-        <v>2</v>
-      </c>
-      <c r="F3" s="20">
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="7"/>
+      <c r="Y81" s="7"/>
+      <c r="Z81" s="7"/>
+      <c r="AA81" s="7"/>
+      <c r="AB81" s="7"/>
+      <c r="AC81" s="7"/>
+      <c r="AD81" s="7"/>
+      <c r="AE81" s="7"/>
+      <c r="AF81" s="7"/>
+      <c r="AG81" s="7"/>
+      <c r="AH81" s="7"/>
+      <c r="AI81" s="7"/>
+      <c r="AJ81" s="7"/>
+      <c r="AK81" s="7"/>
+      <c r="AL81" s="7"/>
+      <c r="AM81" s="7"/>
+      <c r="AN81" s="7"/>
+      <c r="AO81" s="7"/>
+      <c r="AP81" s="7"/>
+      <c r="AQ81" s="7"/>
+      <c r="AR81" s="7"/>
+      <c r="AS81" s="7"/>
+    </row>
+    <row r="82" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A82" s="17">
+        <v>93087274</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C82" s="3">
+        <v>720</v>
+      </c>
+      <c r="D82" s="4">
+        <f>C82/$C$93</f>
+        <v>1.5141318977119785E-2</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G3" s="3">
-        <f t="shared" ref="G3:G11" si="1">E3-D3+1</f>
-        <v>2</v>
-      </c>
-      <c r="H3" s="5">
-        <f>$C3/$G3</f>
-        <v>4.3402777777777776E-2</v>
-      </c>
-      <c r="I3" s="5">
-        <f>$C3/$G3</f>
-        <v>4.3402777777777776E-2</v>
-      </c>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="3"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="7"/>
+      <c r="Y82" s="7"/>
+      <c r="Z82" s="7"/>
+      <c r="AA82" s="7"/>
+      <c r="AB82" s="7"/>
+      <c r="AC82" s="7"/>
+      <c r="AD82" s="7"/>
+      <c r="AE82" s="7"/>
+      <c r="AF82" s="7"/>
+      <c r="AG82" s="7"/>
+      <c r="AH82" s="7"/>
+      <c r="AI82" s="7"/>
+      <c r="AJ82" s="7"/>
+      <c r="AK82" s="7"/>
+      <c r="AL82" s="7"/>
+      <c r="AM82" s="7"/>
+      <c r="AN82" s="7"/>
+      <c r="AO82" s="7"/>
+      <c r="AP82" s="7"/>
+      <c r="AQ82" s="7"/>
+      <c r="AR82" s="7"/>
+      <c r="AS82" s="7"/>
     </row>
-    <row r="4" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="83" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A83" s="17">
+        <v>93087275</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C83" s="3">
+        <v>720</v>
+      </c>
+      <c r="D83" s="4">
+        <f>C83/$C$93</f>
+        <v>1.5141318977119785E-2</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="7"/>
+      <c r="Y83" s="7"/>
+      <c r="Z83" s="7"/>
+      <c r="AA83" s="7"/>
+      <c r="AB83" s="7"/>
+      <c r="AC83" s="7"/>
+      <c r="AD83" s="7"/>
+      <c r="AE83" s="7"/>
+      <c r="AF83" s="7"/>
+      <c r="AG83" s="7"/>
+      <c r="AH83" s="7"/>
+      <c r="AI83" s="7"/>
+      <c r="AJ83" s="7"/>
+      <c r="AK83" s="7"/>
+      <c r="AL83" s="7"/>
+      <c r="AM83" s="7"/>
+      <c r="AN83" s="7"/>
+      <c r="AO83" s="7"/>
+      <c r="AP83" s="7"/>
+      <c r="AQ83" s="7"/>
+      <c r="AR83" s="7"/>
+      <c r="AS83" s="7"/>
+    </row>
+    <row r="84" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="17">
+        <v>93084250</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="3">
+        <v>360</v>
+      </c>
+      <c r="D84" s="4">
+        <f>C84/$C$93</f>
+        <v>7.5706594885598926E-3</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I84" s="7"/>
+      <c r="J84" s="7"/>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
+      <c r="N84" s="7"/>
+      <c r="O84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="7"/>
+      <c r="R84" s="7"/>
+      <c r="S84" s="7"/>
+      <c r="T84" s="7"/>
+      <c r="U84" s="7"/>
+      <c r="V84" s="7"/>
+      <c r="W84" s="7"/>
+      <c r="X84" s="7"/>
+      <c r="Y84" s="7"/>
+      <c r="Z84" s="7"/>
+      <c r="AA84" s="7"/>
+      <c r="AB84" s="7"/>
+      <c r="AC84" s="7"/>
+      <c r="AD84" s="7"/>
+      <c r="AE84" s="7"/>
+      <c r="AF84" s="7"/>
+      <c r="AG84" s="7"/>
+      <c r="AH84" s="7"/>
+      <c r="AI84" s="7"/>
+      <c r="AJ84" s="7"/>
+      <c r="AK84" s="7"/>
+      <c r="AL84" s="7"/>
+      <c r="AM84" s="7"/>
+      <c r="AN84" s="7"/>
+      <c r="AO84" s="7"/>
+      <c r="AP84" s="7"/>
+      <c r="AQ84" s="7"/>
+      <c r="AR84" s="7"/>
+      <c r="AS84" s="7"/>
+    </row>
+    <row r="85" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A85" s="17">
+        <v>93085863</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="C85" s="3">
+        <v>36</v>
+      </c>
+      <c r="D85" s="4">
+        <f>C85/$C$93</f>
+        <v>7.5706594885598924E-4</v>
+      </c>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7"/>
+      <c r="H85" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I85" s="7"/>
+      <c r="J85" s="7"/>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
+      <c r="N85" s="7"/>
+      <c r="O85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="7"/>
+      <c r="R85" s="7"/>
+      <c r="S85" s="7"/>
+      <c r="T85" s="7"/>
+      <c r="U85" s="7"/>
+      <c r="V85" s="7"/>
+      <c r="W85" s="7"/>
+      <c r="X85" s="7"/>
+      <c r="Y85" s="7"/>
+      <c r="Z85" s="7"/>
+      <c r="AA85" s="7"/>
+      <c r="AB85" s="7"/>
+      <c r="AC85" s="7"/>
+      <c r="AD85" s="7"/>
+      <c r="AE85" s="7"/>
+      <c r="AF85" s="7"/>
+      <c r="AG85" s="7"/>
+      <c r="AH85" s="7"/>
+      <c r="AI85" s="7"/>
+      <c r="AJ85" s="7"/>
+      <c r="AK85" s="7"/>
+      <c r="AL85" s="7"/>
+      <c r="AM85" s="7"/>
+      <c r="AN85" s="7"/>
+      <c r="AO85" s="7"/>
+      <c r="AP85" s="7"/>
+      <c r="AQ85" s="7"/>
+      <c r="AR85" s="7"/>
+      <c r="AS85" s="7"/>
+    </row>
+    <row r="86" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="17">
+        <v>93082585</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>105</v>
+      </c>
+      <c r="C86" s="3">
+        <v>192</v>
+      </c>
+      <c r="D86" s="4">
+        <f>C86/$C$93</f>
+        <v>4.0376850605652759E-3</v>
+      </c>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7"/>
+      <c r="H86" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I86" s="7"/>
+      <c r="J86" s="7"/>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
+      <c r="N86" s="7"/>
+      <c r="O86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="7"/>
+      <c r="R86" s="7"/>
+      <c r="S86" s="7"/>
+      <c r="T86" s="7"/>
+      <c r="U86" s="7"/>
+      <c r="V86" s="7"/>
+      <c r="W86" s="7"/>
+      <c r="X86" s="7"/>
+      <c r="Y86" s="7"/>
+      <c r="Z86" s="7"/>
+      <c r="AA86" s="7"/>
+      <c r="AB86" s="7"/>
+      <c r="AC86" s="7"/>
+      <c r="AD86" s="7"/>
+      <c r="AE86" s="7"/>
+      <c r="AF86" s="7"/>
+      <c r="AG86" s="7"/>
+      <c r="AH86" s="7"/>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="7"/>
+      <c r="AK86" s="7"/>
+      <c r="AL86" s="7"/>
+      <c r="AM86" s="7"/>
+      <c r="AN86" s="7"/>
+      <c r="AO86" s="7"/>
+      <c r="AP86" s="7"/>
+      <c r="AQ86" s="7"/>
+      <c r="AR86" s="7"/>
+      <c r="AS86" s="7"/>
+    </row>
+    <row r="87" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A87" s="17">
+        <v>93082581</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="C87" s="3">
+        <v>500</v>
+      </c>
+      <c r="D87" s="4">
+        <f>C87/$C$93</f>
+        <v>1.0514804845222072E-2</v>
+      </c>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I87" s="7"/>
+      <c r="J87" s="7"/>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
+      <c r="N87" s="7"/>
+      <c r="O87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="7"/>
+      <c r="R87" s="7"/>
+      <c r="S87" s="7"/>
+      <c r="T87" s="7"/>
+      <c r="U87" s="7"/>
+      <c r="V87" s="7"/>
+      <c r="W87" s="7"/>
+      <c r="X87" s="7"/>
+      <c r="Y87" s="7"/>
+      <c r="Z87" s="7"/>
+      <c r="AA87" s="7"/>
+      <c r="AB87" s="7"/>
+      <c r="AC87" s="7"/>
+      <c r="AD87" s="7"/>
+      <c r="AE87" s="7"/>
+      <c r="AF87" s="7"/>
+      <c r="AG87" s="7"/>
+      <c r="AH87" s="7"/>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="7"/>
+      <c r="AK87" s="7"/>
+      <c r="AL87" s="7"/>
+      <c r="AM87" s="7"/>
+      <c r="AN87" s="7"/>
+      <c r="AO87" s="7"/>
+      <c r="AP87" s="7"/>
+      <c r="AQ87" s="7"/>
+      <c r="AR87" s="7"/>
+      <c r="AS87" s="7"/>
+    </row>
+    <row r="88" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A88" s="17">
+        <v>93082586</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C88" s="3">
+        <v>144</v>
+      </c>
+      <c r="D88" s="4">
+        <f>C88/$C$93</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I88" s="7"/>
+      <c r="J88" s="7"/>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
+      <c r="N88" s="7"/>
+      <c r="O88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="7"/>
+      <c r="R88" s="7"/>
+      <c r="S88" s="7"/>
+      <c r="T88" s="7"/>
+      <c r="U88" s="7"/>
+      <c r="V88" s="7"/>
+      <c r="W88" s="7"/>
+      <c r="X88" s="7"/>
+      <c r="Y88" s="7"/>
+      <c r="Z88" s="7"/>
+      <c r="AA88" s="7"/>
+      <c r="AB88" s="7"/>
+      <c r="AC88" s="7"/>
+      <c r="AD88" s="7"/>
+      <c r="AE88" s="7"/>
+      <c r="AF88" s="7"/>
+      <c r="AG88" s="7"/>
+      <c r="AH88" s="7"/>
+      <c r="AI88" s="7"/>
+      <c r="AJ88" s="7"/>
+      <c r="AK88" s="7"/>
+      <c r="AL88" s="7"/>
+      <c r="AM88" s="7"/>
+      <c r="AN88" s="7"/>
+      <c r="AO88" s="7"/>
+      <c r="AP88" s="7"/>
+      <c r="AQ88" s="7"/>
+      <c r="AR88" s="7"/>
+      <c r="AS88" s="7"/>
+    </row>
+    <row r="89" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A89" s="17">
+        <v>93085864</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C89" s="3">
+        <v>33</v>
+      </c>
+      <c r="D89" s="4">
+        <f>C89/$C$93</f>
+        <v>6.9397711978465683E-4</v>
+      </c>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I89" s="7"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
+      <c r="N89" s="7"/>
+      <c r="O89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="7"/>
+      <c r="R89" s="7"/>
+      <c r="S89" s="7"/>
+      <c r="T89" s="7"/>
+      <c r="U89" s="7"/>
+      <c r="V89" s="7"/>
+      <c r="W89" s="7"/>
+      <c r="X89" s="7"/>
+      <c r="Y89" s="7"/>
+      <c r="Z89" s="7"/>
+      <c r="AA89" s="7"/>
+      <c r="AB89" s="7"/>
+      <c r="AC89" s="7"/>
+      <c r="AD89" s="7"/>
+      <c r="AE89" s="7"/>
+      <c r="AF89" s="7"/>
+      <c r="AG89" s="7"/>
+      <c r="AH89" s="7"/>
+      <c r="AI89" s="7"/>
+      <c r="AJ89" s="7"/>
+      <c r="AK89" s="7"/>
+      <c r="AL89" s="7"/>
+      <c r="AM89" s="7"/>
+      <c r="AN89" s="7"/>
+      <c r="AO89" s="7"/>
+      <c r="AP89" s="7"/>
+      <c r="AQ89" s="7"/>
+      <c r="AR89" s="7"/>
+      <c r="AS89" s="7"/>
+    </row>
+    <row r="90" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A90" s="17">
+        <v>93083038</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C90" s="3">
+        <v>480</v>
+      </c>
+      <c r="D90" s="4">
+        <f>C90/$C$93</f>
+        <v>1.0094212651413189E-2</v>
+      </c>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I90" s="7"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
+      <c r="N90" s="7"/>
+      <c r="O90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="7"/>
+      <c r="R90" s="7"/>
+      <c r="S90" s="7"/>
+      <c r="T90" s="7"/>
+      <c r="U90" s="7"/>
+      <c r="V90" s="7"/>
+      <c r="W90" s="7"/>
+      <c r="X90" s="7"/>
+      <c r="Y90" s="7"/>
+      <c r="Z90" s="7"/>
+      <c r="AA90" s="7"/>
+      <c r="AB90" s="7"/>
+      <c r="AC90" s="7"/>
+      <c r="AD90" s="7"/>
+      <c r="AE90" s="7"/>
+      <c r="AF90" s="7"/>
+      <c r="AG90" s="7"/>
+      <c r="AH90" s="7"/>
+      <c r="AI90" s="7"/>
+      <c r="AJ90" s="7"/>
+      <c r="AK90" s="7"/>
+      <c r="AL90" s="7"/>
+      <c r="AM90" s="7"/>
+      <c r="AN90" s="7"/>
+      <c r="AO90" s="7"/>
+      <c r="AP90" s="7"/>
+      <c r="AQ90" s="7"/>
+      <c r="AR90" s="7"/>
+      <c r="AS90" s="7"/>
+    </row>
+    <row r="91" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A91" s="17">
+        <v>93087239</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="C91" s="3">
+        <v>200</v>
+      </c>
+      <c r="D91" s="4">
+        <f>C91/$C$93</f>
+        <v>4.2059219380888293E-3</v>
+      </c>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="6">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="I91" s="7"/>
+      <c r="J91" s="7"/>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
+      <c r="N91" s="7"/>
+      <c r="O91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="7"/>
+      <c r="R91" s="7"/>
+      <c r="S91" s="7"/>
+      <c r="T91" s="7"/>
+      <c r="U91" s="7"/>
+      <c r="V91" s="7"/>
+      <c r="W91" s="7"/>
+      <c r="X91" s="7"/>
+      <c r="Y91" s="7"/>
+      <c r="Z91" s="7"/>
+      <c r="AA91" s="7"/>
+      <c r="AB91" s="7"/>
+      <c r="AC91" s="7"/>
+      <c r="AD91" s="7"/>
+      <c r="AE91" s="7"/>
+      <c r="AF91" s="7"/>
+      <c r="AG91" s="7"/>
+      <c r="AH91" s="7"/>
+      <c r="AI91" s="7"/>
+      <c r="AJ91" s="7"/>
+      <c r="AK91" s="7"/>
+      <c r="AL91" s="7"/>
+      <c r="AM91" s="7"/>
+      <c r="AN91" s="7"/>
+      <c r="AO91" s="7"/>
+      <c r="AP91" s="7"/>
+      <c r="AQ91" s="7"/>
+      <c r="AR91" s="7"/>
+      <c r="AS91" s="7"/>
+    </row>
+    <row r="92" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="17">
+        <v>93087243</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C92" s="3">
         <v>300</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="3">
-        <v>8</v>
-      </c>
-      <c r="F4" s="20">
+      <c r="D92" s="4">
+        <f>C92/$C$93</f>
+        <v>6.3088829071332436E-3</v>
+      </c>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="6">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G4" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="5">
-        <f>$C4/$G4</f>
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="L4" s="5">
-        <f>$C4/$G4</f>
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="M4" s="5">
-        <f>$C4/$G4</f>
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="N4" s="5">
-        <f>$C4/$G4</f>
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="O4" s="5">
-        <f>$C4/$G4</f>
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="3"/>
+      <c r="I92" s="7"/>
+      <c r="J92" s="7"/>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
+      <c r="N92" s="7"/>
+      <c r="O92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="7"/>
+      <c r="R92" s="7"/>
+      <c r="S92" s="7"/>
+      <c r="T92" s="7"/>
+      <c r="U92" s="7"/>
+      <c r="V92" s="7"/>
+      <c r="W92" s="7"/>
+      <c r="X92" s="7"/>
+      <c r="Y92" s="7"/>
+      <c r="Z92" s="7"/>
+      <c r="AA92" s="7"/>
+      <c r="AB92" s="7"/>
+      <c r="AC92" s="7"/>
+      <c r="AD92" s="7"/>
+      <c r="AE92" s="7"/>
+      <c r="AF92" s="7"/>
+      <c r="AG92" s="7"/>
+      <c r="AH92" s="7"/>
+      <c r="AI92" s="7"/>
+      <c r="AJ92" s="7"/>
+      <c r="AK92" s="7"/>
+      <c r="AL92" s="7"/>
+      <c r="AM92" s="7"/>
+      <c r="AN92" s="7"/>
+      <c r="AO92" s="7"/>
+      <c r="AP92" s="7"/>
+      <c r="AQ92" s="7"/>
+      <c r="AR92" s="7"/>
+      <c r="AS92" s="7"/>
     </row>
-    <row r="5" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3">
-        <v>50</v>
-      </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>4.3402777777777776E-2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>4</v>
-      </c>
-      <c r="F5" s="20">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5">
-        <f>$C5/$G5</f>
-        <v>2.1701388888888888E-2</v>
-      </c>
-      <c r="K5" s="5">
-        <f>$C5/$G5</f>
-        <v>2.1701388888888888E-2</v>
-      </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="3"/>
+    <row r="93" spans="1:45" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="17">
+        <f>SUM(C2:C92)</f>
+        <v>47552</v>
+      </c>
+      <c r="D93" s="18">
+        <f>SUM(D2:D92)</f>
+        <v>0.99999999999999933</v>
+      </c>
+      <c r="G93" s="18">
+        <f>SUMPRODUCT(G2:G92,D2:D92)</f>
+        <v>0</v>
+      </c>
+      <c r="H93" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I93" s="9">
+        <f>SUM(I2:I92)</f>
+        <v>0</v>
+      </c>
+      <c r="J93" s="9">
+        <f>SUM(J2:J92)</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="9">
+        <f>SUM(K2:K92)</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="9">
+        <f>SUM(L2:L92)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="9">
+        <f>SUM(M2:M92)</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="9">
+        <f>SUM(N2:N92)</f>
+        <v>0</v>
+      </c>
+      <c r="O93" s="9">
+        <f>SUM(O2:O92)</f>
+        <v>0</v>
+      </c>
+      <c r="P93" s="9">
+        <f>SUM(P2:P92)</f>
+        <v>0</v>
+      </c>
+      <c r="Q93" s="9">
+        <f>SUM(Q2:Q92)</f>
+        <v>0</v>
+      </c>
+      <c r="R93" s="9">
+        <f>SUM(R2:R92)</f>
+        <v>0</v>
+      </c>
+      <c r="S93" s="9">
+        <f>SUM(S2:S92)</f>
+        <v>0</v>
+      </c>
+      <c r="T93" s="9">
+        <f>SUM(T2:T92)</f>
+        <v>0</v>
+      </c>
+      <c r="U93" s="9">
+        <f>SUM(U2:U92)</f>
+        <v>0</v>
+      </c>
+      <c r="V93" s="9">
+        <f>SUM(V2:V92)</f>
+        <v>0</v>
+      </c>
+      <c r="W93" s="9">
+        <f>SUM(W2:W92)</f>
+        <v>0</v>
+      </c>
+      <c r="X93" s="9">
+        <f>SUM(X2:X92)</f>
+        <v>0</v>
+      </c>
+      <c r="Y93" s="9">
+        <f>SUM(Y2:Y92)</f>
+        <v>0</v>
+      </c>
+      <c r="Z93" s="9">
+        <f>SUM(Z2:Z92)</f>
+        <v>0</v>
+      </c>
+      <c r="AA93" s="9">
+        <f>SUM(AA2:AA92)</f>
+        <v>0</v>
+      </c>
+      <c r="AB93" s="9">
+        <f>SUM(AB2:AB92)</f>
+        <v>0</v>
+      </c>
+      <c r="AC93" s="9">
+        <f>SUM(AC2:AC92)</f>
+        <v>0</v>
+      </c>
+      <c r="AD93" s="9">
+        <f>SUM(AD2:AD92)</f>
+        <v>0</v>
+      </c>
+      <c r="AE93" s="9">
+        <f>SUM(AE2:AE92)</f>
+        <v>0</v>
+      </c>
+      <c r="AF93" s="9">
+        <f>SUM(AF2:AF92)</f>
+        <v>0</v>
+      </c>
+      <c r="AG93" s="9">
+        <f>SUM(AG2:AG92)</f>
+        <v>0</v>
+      </c>
+      <c r="AH93" s="9">
+        <f>SUM(AH2:AH92)</f>
+        <v>0</v>
+      </c>
+      <c r="AI93" s="9">
+        <f>SUM(AI2:AI92)</f>
+        <v>0</v>
+      </c>
+      <c r="AJ93" s="9">
+        <f>SUM(AJ2:AJ92)</f>
+        <v>0</v>
+      </c>
+      <c r="AK93" s="9">
+        <f>SUM(AK2:AK92)</f>
+        <v>0</v>
+      </c>
+      <c r="AL93" s="9">
+        <f>SUM(AL2:AL92)</f>
+        <v>0</v>
+      </c>
+      <c r="AM93" s="9">
+        <f>SUM(AM2:AM92)</f>
+        <v>0</v>
+      </c>
+      <c r="AN93" s="9">
+        <f>SUM(AN2:AN92)</f>
+        <v>0</v>
+      </c>
+      <c r="AO93" s="9">
+        <f>SUM(AO2:AO92)</f>
+        <v>0</v>
+      </c>
+      <c r="AP93" s="9">
+        <f>SUM(AP2:AP92)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ93" s="9">
+        <f>SUM(AQ2:AQ92)</f>
+        <v>0</v>
+      </c>
+      <c r="AR93" s="9">
+        <f>SUM(AR2:AR92)</f>
+        <v>0</v>
+      </c>
+      <c r="AS93" s="9">
+        <f>SUM(AS2:AS92)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="3">
-        <v>40</v>
-      </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>3.4722222222222224E-2</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="3">
-        <v>9</v>
-      </c>
-      <c r="F6" s="20">
-        <v>1</v>
-      </c>
-      <c r="G6" s="3">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="H6" s="5">
-        <f>$C6/$G6</f>
-        <v>3.8580246913580249E-3</v>
-      </c>
-      <c r="I6" s="5">
-        <f>$C6/$G6</f>
-        <v>3.8580246913580249E-3</v>
-      </c>
-      <c r="J6" s="5">
-        <f>$C6/$G6</f>
-        <v>3.8580246913580249E-3</v>
-      </c>
-      <c r="K6" s="5">
-        <f>$C6/$G6</f>
-        <v>3.8580246913580249E-3</v>
-      </c>
-      <c r="L6" s="5">
-        <f>$C6/$G6</f>
-        <v>3.8580246913580249E-3</v>
-      </c>
-      <c r="M6" s="5">
-        <f>$C6/$G6</f>
-        <v>3.8580246913580249E-3</v>
-      </c>
-      <c r="N6" s="5">
-        <f>$C6/$G6</f>
-        <v>3.8580246913580249E-3</v>
-      </c>
-      <c r="O6" s="5">
-        <f>$C6/$G6</f>
-        <v>3.8580246913580249E-3</v>
-      </c>
-      <c r="P6" s="5">
-        <f>$C6/$G6</f>
-        <v>3.8580246913580249E-3</v>
-      </c>
-      <c r="Q6" s="3"/>
+    <row r="94" spans="1:45" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="11">
+        <f>I93</f>
+        <v>0</v>
+      </c>
+      <c r="J94" s="11">
+        <f>J93+I94</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="11">
+        <f t="shared" ref="K94:Q94" si="2">K93+J94</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="M94" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N94" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="O94" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="P94" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q94" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R94" s="11">
+        <f t="shared" ref="R94" si="3">R93+Q94</f>
+        <v>0</v>
+      </c>
+      <c r="S94" s="11">
+        <f t="shared" ref="S94" si="4">S93+R94</f>
+        <v>0</v>
+      </c>
+      <c r="T94" s="11">
+        <f t="shared" ref="T94" si="5">T93+S94</f>
+        <v>0</v>
+      </c>
+      <c r="U94" s="11">
+        <f t="shared" ref="U94" si="6">U93+T94</f>
+        <v>0</v>
+      </c>
+      <c r="V94" s="11">
+        <f t="shared" ref="V94" si="7">V93+U94</f>
+        <v>0</v>
+      </c>
+      <c r="W94" s="11">
+        <f t="shared" ref="W94" si="8">W93+V94</f>
+        <v>0</v>
+      </c>
+      <c r="X94" s="11">
+        <f t="shared" ref="X94" si="9">X93+W94</f>
+        <v>0</v>
+      </c>
+      <c r="Y94" s="11">
+        <f t="shared" ref="Y94" si="10">Y93+X94</f>
+        <v>0</v>
+      </c>
+      <c r="Z94" s="11">
+        <f t="shared" ref="Z94" si="11">Z93+Y94</f>
+        <v>0</v>
+      </c>
+      <c r="AA94" s="11">
+        <f t="shared" ref="AA94" si="12">AA93+Z94</f>
+        <v>0</v>
+      </c>
+      <c r="AB94" s="11">
+        <f t="shared" ref="AB94" si="13">AB93+AA94</f>
+        <v>0</v>
+      </c>
+      <c r="AC94" s="11">
+        <f t="shared" ref="AC94" si="14">AC93+AB94</f>
+        <v>0</v>
+      </c>
+      <c r="AD94" s="11">
+        <f t="shared" ref="AD94" si="15">AD93+AC94</f>
+        <v>0</v>
+      </c>
+      <c r="AE94" s="11">
+        <f t="shared" ref="AE94" si="16">AE93+AD94</f>
+        <v>0</v>
+      </c>
+      <c r="AF94" s="11">
+        <f t="shared" ref="AF94" si="17">AF93+AE94</f>
+        <v>0</v>
+      </c>
+      <c r="AG94" s="11">
+        <f t="shared" ref="AG94" si="18">AG93+AF94</f>
+        <v>0</v>
+      </c>
+      <c r="AH94" s="11">
+        <f t="shared" ref="AH94" si="19">AH93+AG94</f>
+        <v>0</v>
+      </c>
+      <c r="AI94" s="11">
+        <f t="shared" ref="AI94" si="20">AI93+AH94</f>
+        <v>0</v>
+      </c>
+      <c r="AJ94" s="11">
+        <f t="shared" ref="AJ94" si="21">AJ93+AI94</f>
+        <v>0</v>
+      </c>
+      <c r="AK94" s="11">
+        <f t="shared" ref="AK94" si="22">AK93+AJ94</f>
+        <v>0</v>
+      </c>
+      <c r="AL94" s="11">
+        <f t="shared" ref="AL94" si="23">AL93+AK94</f>
+        <v>0</v>
+      </c>
+      <c r="AM94" s="11">
+        <f t="shared" ref="AM94" si="24">AM93+AL94</f>
+        <v>0</v>
+      </c>
+      <c r="AN94" s="11">
+        <f t="shared" ref="AN94" si="25">AN93+AM94</f>
+        <v>0</v>
+      </c>
+      <c r="AO94" s="11">
+        <f t="shared" ref="AO94" si="26">AO93+AN94</f>
+        <v>0</v>
+      </c>
+      <c r="AP94" s="11">
+        <f t="shared" ref="AP94" si="27">AP93+AO94</f>
+        <v>0</v>
+      </c>
+      <c r="AQ94" s="11">
+        <f t="shared" ref="AQ94" si="28">AQ93+AP94</f>
+        <v>0</v>
+      </c>
+      <c r="AR94" s="11">
+        <f t="shared" ref="AR94" si="29">AR93+AQ94</f>
+        <v>0</v>
+      </c>
+      <c r="AS94" s="11">
+        <f>AS93+Q94</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>100</v>
-      </c>
-      <c r="C7" s="4">
-        <f t="shared" si="0"/>
-        <v>8.6805555555555552E-2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>6</v>
-      </c>
-      <c r="E7" s="3">
-        <v>10</v>
-      </c>
-      <c r="F7" s="20">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="5">
-        <f>$C7/$G7</f>
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="N7" s="5">
-        <f>$C7/$G7</f>
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="O7" s="5">
-        <f>$C7/$G7</f>
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="P7" s="5">
-        <f>$C7/$G7</f>
-        <v>1.7361111111111112E-2</v>
-      </c>
-      <c r="Q7" s="5">
-        <f>$C7/$G7</f>
-        <v>1.7361111111111112E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="3">
-        <v>250</v>
-      </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>0.2170138888888889</v>
-      </c>
-      <c r="D8" s="3">
-        <v>2</v>
-      </c>
-      <c r="E8" s="3">
-        <v>5</v>
-      </c>
-      <c r="F8" s="20">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H8" s="4"/>
-      <c r="I8" s="5">
-        <f>$C8/$G8</f>
-        <v>5.4253472222222224E-2</v>
-      </c>
-      <c r="J8" s="5">
-        <f>$C8/$G8</f>
-        <v>5.4253472222222224E-2</v>
-      </c>
-      <c r="K8" s="5">
-        <f>$C8/$G8</f>
-        <v>5.4253472222222224E-2</v>
-      </c>
-      <c r="L8" s="5">
-        <f>$C8/$G8</f>
-        <v>5.4253472222222224E-2</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="3">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="0"/>
-        <v>3.9930555555555552E-2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>9</v>
-      </c>
-      <c r="E9" s="3">
-        <v>10</v>
-      </c>
-      <c r="F9" s="20">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="5">
-        <f t="shared" ref="P9:Q11" si="2">$C9/$G9</f>
-        <v>1.9965277777777776E-2</v>
-      </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="2"/>
-        <v>1.9965277777777776E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>54</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="0"/>
-        <v>4.6875E-2</v>
-      </c>
-      <c r="D10" s="3">
-        <v>7</v>
-      </c>
-      <c r="E10" s="3">
-        <v>10</v>
-      </c>
-      <c r="F10" s="20">
-        <v>1</v>
-      </c>
-      <c r="G10" s="3">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="5">
-        <f>$C10/$G10</f>
-        <v>1.171875E-2</v>
-      </c>
-      <c r="O10" s="5">
-        <f>$C10/$G10</f>
-        <v>1.171875E-2</v>
-      </c>
-      <c r="P10" s="5">
-        <f t="shared" si="2"/>
-        <v>1.171875E-2</v>
-      </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="2"/>
-        <v>1.171875E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="3">
-        <v>12</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="D11" s="3">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3">
-        <v>10</v>
-      </c>
-      <c r="F11" s="20">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="9">
-        <f>$C11/$G11</f>
-        <v>1.736111111111111E-3</v>
-      </c>
-      <c r="M11" s="9">
-        <f>$C11/$G11</f>
-        <v>1.736111111111111E-3</v>
-      </c>
-      <c r="N11" s="9">
-        <f>$C11/$G11</f>
-        <v>1.736111111111111E-3</v>
-      </c>
-      <c r="O11" s="9">
-        <f>$C11/$G11</f>
-        <v>1.736111111111111E-3</v>
-      </c>
-      <c r="P11" s="9">
-        <f t="shared" si="2"/>
-        <v>1.736111111111111E-3</v>
-      </c>
-      <c r="Q11" s="9">
-        <f t="shared" si="2"/>
-        <v>1.736111111111111E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="10">
-        <f>SUM(B2:B11)</f>
-        <v>1152</v>
-      </c>
-      <c r="C12" s="11">
-        <f>SUM(C2:C11)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="F12" s="21">
-        <f>SUMPRODUCT(F2:F11,C2:C11)</f>
-        <v>0.99999999999999989</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" ref="H12:Q12" si="3">SUM(H2:H11)</f>
-        <v>0.10513117283950617</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="3"/>
-        <v>0.15938464506172839</v>
-      </c>
-      <c r="J12" s="13">
-        <f t="shared" si="3"/>
-        <v>0.1376832561728395</v>
-      </c>
-      <c r="K12" s="13">
-        <f t="shared" si="3"/>
-        <v>0.13189621913580246</v>
-      </c>
-      <c r="L12" s="13">
-        <f t="shared" si="3"/>
-        <v>0.1119309413580247</v>
-      </c>
-      <c r="M12" s="13">
-        <f t="shared" si="3"/>
-        <v>7.503858024691358E-2</v>
-      </c>
-      <c r="N12" s="13">
-        <f t="shared" si="3"/>
-        <v>8.675733024691358E-2</v>
-      </c>
-      <c r="O12" s="13">
-        <f t="shared" si="3"/>
-        <v>8.675733024691358E-2</v>
-      </c>
-      <c r="P12" s="13">
-        <f t="shared" si="3"/>
-        <v>5.4639274691358021E-2</v>
-      </c>
-      <c r="Q12" s="13">
-        <f t="shared" si="3"/>
-        <v>5.078125E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G13" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="H13" s="15">
-        <f>H12</f>
-        <v>0.10513117283950617</v>
-      </c>
-      <c r="I13" s="15">
-        <f>I12+H13</f>
-        <v>0.26451581790123457</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" ref="J13:Q13" si="4">J12+I13</f>
-        <v>0.40219907407407407</v>
-      </c>
-      <c r="K13" s="15">
-        <f t="shared" si="4"/>
-        <v>0.53409529320987659</v>
-      </c>
-      <c r="L13" s="15">
-        <f t="shared" si="4"/>
-        <v>0.64602623456790131</v>
-      </c>
-      <c r="M13" s="15">
-        <f t="shared" si="4"/>
-        <v>0.72106481481481488</v>
-      </c>
-      <c r="N13" s="15">
-        <f t="shared" si="4"/>
-        <v>0.80782214506172845</v>
-      </c>
-      <c r="O13" s="15">
-        <f t="shared" si="4"/>
-        <v>0.89457947530864201</v>
-      </c>
-      <c r="P13" s="15">
-        <f t="shared" si="4"/>
-        <v>0.94921875</v>
-      </c>
-      <c r="Q13" s="15">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G14" s="16" t="s">
+    <row r="95" spans="1:45" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="H14" s="17">
+      <c r="I95" s="13">
         <v>6.5600000000000006E-2</v>
       </c>
-      <c r="I14" s="17">
+      <c r="J95" s="13">
         <v>0.2019</v>
       </c>
-      <c r="J14" s="17">
+      <c r="K95" s="13">
         <v>0.44180000000000003</v>
       </c>
-      <c r="K14" s="17">
+      <c r="L95" s="13">
         <v>0.5</v>
       </c>
-      <c r="L14" s="17">
+      <c r="M95" s="13">
         <v>0.7</v>
       </c>
-      <c r="M14" s="17">
+      <c r="N95" s="13">
         <v>0.8</v>
       </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="17"/>
-      <c r="Q14" s="17"/>
+      <c r="O95" s="13"/>
+      <c r="P95" s="13"/>
+      <c r="Q95" s="13"/>
+      <c r="R95" s="13"/>
+      <c r="S95" s="13"/>
+      <c r="T95" s="13"/>
+      <c r="U95" s="13"/>
+      <c r="V95" s="13"/>
+      <c r="W95" s="13"/>
+      <c r="X95" s="13"/>
+      <c r="Y95" s="13"/>
+      <c r="Z95" s="13"/>
+      <c r="AA95" s="13"/>
+      <c r="AB95" s="13"/>
+      <c r="AC95" s="13"/>
+      <c r="AD95" s="13"/>
+      <c r="AE95" s="13"/>
+      <c r="AF95" s="13"/>
+      <c r="AG95" s="13"/>
+      <c r="AH95" s="13"/>
+      <c r="AI95" s="13"/>
+      <c r="AJ95" s="13"/>
+      <c r="AK95" s="13"/>
+      <c r="AL95" s="13"/>
+      <c r="AM95" s="13"/>
+      <c r="AN95" s="13"/>
+      <c r="AO95" s="13"/>
+      <c r="AP95" s="13"/>
+      <c r="AQ95" s="13"/>
+      <c r="AR95" s="13"/>
+      <c r="AS95" s="13"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/daily_s_curve.xlsx
+++ b/daily_s_curve.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coldshutdown_daily_progress_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coldshutdown_daily_progress_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{185E2D78-D2CB-4E9F-8A56-5C0EB227B192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD73B52-0B34-4D3C-974A-DD9F9C4EE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
   </bookViews>
@@ -1047,7 +1047,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-29DB-47E8-A1B8-EC1A3364D4EF}"/>
+              <c16:uniqueId val="{00000000-C237-492B-B26F-AD9114D0B6F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1230,7 +1230,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-29DB-47E8-A1B8-EC1A3364D4EF}"/>
+              <c16:uniqueId val="{00000001-C237-492B-B26F-AD9114D0B6F1}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1716,7 +1716,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-DEBD-4529-AA78-A80F2937FAC9}"/>
+              <c16:uniqueId val="{00000000-80D6-43F1-B8EA-1B8D2A369325}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1750,7 +1750,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-DEBD-4529-AA78-A80F2937FAC9}"/>
+              <c16:uniqueId val="{00000001-80D6-43F1-B8EA-1B8D2A369325}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3016,27 +3016,29 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>430214</xdr:colOff>
-      <xdr:row>96</xdr:row>
-      <xdr:rowOff>111125</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>47626</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>146843</xdr:rowOff>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E4D63D9-7C3B-4125-A8A7-3E3009F854C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4944C2-915A-4945-9A69-BD5A490B9434}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3052,27 +3054,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>433916</xdr:colOff>
-      <xdr:row>112</xdr:row>
-      <xdr:rowOff>158751</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>105832</xdr:colOff>
-      <xdr:row>116</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D0CABEA-7A48-436B-8F88-69DDC767C73E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA64EAFC-DFBC-4439-AFA7-A6C075FC13B9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3388,8 +3392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB79112-5215-4682-8159-41C9E41DBEC3}">
   <dimension ref="A1:AS95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3621,7 +3625,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4">
-        <f>C3/$C$93</f>
+        <f t="shared" ref="D2:D33" si="0">C3/$C$93</f>
         <v>8.4118438761776582E-5</v>
       </c>
       <c r="E3" s="3">
@@ -3632,7 +3636,7 @@
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="3">
-        <f t="shared" ref="H3:H66" si="0">F3-E3+1</f>
+        <f t="shared" ref="H3:H66" si="1">F3-E3+1</f>
         <v>1</v>
       </c>
       <c r="I3" s="5"/>
@@ -3684,7 +3688,7 @@
         <v>50</v>
       </c>
       <c r="D4" s="4">
-        <f>C4/$C$93</f>
+        <f t="shared" si="0"/>
         <v>1.0514804845222073E-3</v>
       </c>
       <c r="E4" s="3">
@@ -3695,7 +3699,7 @@
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="5"/>
@@ -3758,7 +3762,7 @@
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I5" s="5"/>
@@ -3810,7 +3814,7 @@
         <v>420</v>
       </c>
       <c r="D6" s="4">
-        <f>C6/$C$93</f>
+        <f t="shared" si="0"/>
         <v>8.8324360699865417E-3</v>
       </c>
       <c r="E6" s="3">
@@ -3936,7 +3940,7 @@
         <v>15</v>
       </c>
       <c r="D8" s="4">
-        <f>C8/$C$93</f>
+        <f t="shared" si="0"/>
         <v>3.1544414535666216E-4</v>
       </c>
       <c r="E8" s="3">
@@ -3947,7 +3951,7 @@
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I8" s="5"/>
@@ -3999,7 +4003,7 @@
         <v>48</v>
       </c>
       <c r="D9" s="4">
-        <f>C9/$C$93</f>
+        <f t="shared" si="0"/>
         <v>1.009421265141319E-3</v>
       </c>
       <c r="E9" s="3">
@@ -4010,7 +4014,7 @@
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I9" s="5"/>
@@ -4062,7 +4066,7 @@
         <v>96</v>
       </c>
       <c r="D10" s="4">
-        <f>C10/$C$93</f>
+        <f t="shared" si="0"/>
         <v>2.018842530282638E-3</v>
       </c>
       <c r="E10" s="3" t="s">
@@ -4124,7 +4128,7 @@
         <v>168</v>
       </c>
       <c r="D11" s="4">
-        <f>C11/$C$93</f>
+        <f t="shared" si="0"/>
         <v>3.5329744279946162E-3</v>
       </c>
       <c r="E11" s="3" t="s">
@@ -4186,7 +4190,7 @@
         <v>270</v>
       </c>
       <c r="D12" s="4">
-        <f>C12/$C$93</f>
+        <f t="shared" si="0"/>
         <v>5.677994616419919E-3</v>
       </c>
       <c r="E12" s="3">
@@ -4197,7 +4201,7 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I12" s="4"/>
@@ -4249,7 +4253,7 @@
         <v>1440</v>
       </c>
       <c r="D13" s="4">
-        <f>C13/$C$93</f>
+        <f t="shared" si="0"/>
         <v>3.028263795423957E-2</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -4311,7 +4315,7 @@
         <v>144</v>
       </c>
       <c r="D14" s="4">
-        <f>C14/$C$93</f>
+        <f t="shared" si="0"/>
         <v>3.028263795423957E-3</v>
       </c>
       <c r="E14" s="3">
@@ -4322,7 +4326,7 @@
       </c>
       <c r="G14" s="4"/>
       <c r="H14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I14" s="4"/>
@@ -4374,7 +4378,7 @@
         <v>640</v>
       </c>
       <c r="D15" s="4">
-        <f>C15/$C$93</f>
+        <f t="shared" si="0"/>
         <v>1.3458950201884253E-2</v>
       </c>
       <c r="E15" s="3">
@@ -4385,7 +4389,7 @@
       </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I15" s="7"/>
@@ -4437,7 +4441,7 @@
         <v>200</v>
       </c>
       <c r="D16" s="4">
-        <f>C16/$C$93</f>
+        <f t="shared" si="0"/>
         <v>4.2059219380888293E-3</v>
       </c>
       <c r="E16" s="3">
@@ -4448,7 +4452,7 @@
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I16" s="4"/>
@@ -4500,7 +4504,7 @@
         <v>1506</v>
       </c>
       <c r="D17" s="4">
-        <f>C17/$C$93</f>
+        <f t="shared" si="0"/>
         <v>3.1670592193808883E-2</v>
       </c>
       <c r="E17" s="3" t="s">
@@ -4562,7 +4566,7 @@
         <v>480</v>
       </c>
       <c r="D18" s="4">
-        <f>C18/$C$93</f>
+        <f t="shared" si="0"/>
         <v>1.0094212651413189E-2</v>
       </c>
       <c r="E18" s="3" t="s">
@@ -4624,7 +4628,7 @@
         <v>960</v>
       </c>
       <c r="D19" s="4">
-        <f>C19/$C$93</f>
+        <f t="shared" si="0"/>
         <v>2.0188425302826378E-2</v>
       </c>
       <c r="E19" s="3">
@@ -4635,7 +4639,7 @@
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="I19" s="7"/>
@@ -4687,7 +4691,7 @@
         <v>250</v>
       </c>
       <c r="D20" s="4">
-        <f>C20/$C$93</f>
+        <f t="shared" si="0"/>
         <v>5.257402422611036E-3</v>
       </c>
       <c r="E20" s="3">
@@ -4698,7 +4702,7 @@
       </c>
       <c r="G20" s="4"/>
       <c r="H20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="I20" s="4"/>
@@ -4750,7 +4754,7 @@
         <v>400</v>
       </c>
       <c r="D21" s="4">
-        <f>C21/$C$93</f>
+        <f t="shared" si="0"/>
         <v>8.4118438761776586E-3</v>
       </c>
       <c r="E21" s="3">
@@ -4761,7 +4765,7 @@
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I21" s="7"/>
@@ -4813,7 +4817,7 @@
         <v>120</v>
       </c>
       <c r="D22" s="4">
-        <f>C22/$C$93</f>
+        <f t="shared" si="0"/>
         <v>2.5235531628532972E-3</v>
       </c>
       <c r="E22" s="3">
@@ -4824,7 +4828,7 @@
       </c>
       <c r="G22" s="4"/>
       <c r="H22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I22" s="4"/>
@@ -4876,7 +4880,7 @@
         <v>320</v>
       </c>
       <c r="D23" s="4">
-        <f>C23/$C$93</f>
+        <f t="shared" si="0"/>
         <v>6.7294751009421266E-3</v>
       </c>
       <c r="E23" s="3">
@@ -4887,7 +4891,7 @@
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I23" s="7"/>
@@ -4939,7 +4943,7 @@
         <v>240</v>
       </c>
       <c r="D24" s="4">
-        <f>C24/$C$93</f>
+        <f t="shared" si="0"/>
         <v>5.0471063257065945E-3</v>
       </c>
       <c r="E24" s="3">
@@ -4950,7 +4954,7 @@
       </c>
       <c r="G24" s="4"/>
       <c r="H24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I24" s="4"/>
@@ -5002,7 +5006,7 @@
         <v>480</v>
       </c>
       <c r="D25" s="4">
-        <f>C25/$C$93</f>
+        <f t="shared" si="0"/>
         <v>1.0094212651413189E-2</v>
       </c>
       <c r="E25" s="3">
@@ -5013,7 +5017,7 @@
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I25" s="7"/>
@@ -5065,7 +5069,7 @@
         <v>500</v>
       </c>
       <c r="D26" s="4">
-        <f>C26/$C$93</f>
+        <f t="shared" si="0"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E26" s="3">
@@ -5076,7 +5080,7 @@
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I26" s="4"/>
@@ -5128,7 +5132,7 @@
         <v>2000</v>
       </c>
       <c r="D27" s="4">
-        <f>C27/$C$93</f>
+        <f t="shared" si="0"/>
         <v>4.2059219380888288E-2</v>
       </c>
       <c r="E27" s="3">
@@ -5139,7 +5143,7 @@
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="I27" s="7"/>
@@ -5191,7 +5195,7 @@
         <v>2400</v>
       </c>
       <c r="D28" s="4">
-        <f>C28/$C$93</f>
+        <f t="shared" si="0"/>
         <v>5.0471063257065948E-2</v>
       </c>
       <c r="E28" s="3">
@@ -5202,7 +5206,7 @@
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I28" s="4"/>
@@ -5254,7 +5258,7 @@
         <v>2400</v>
       </c>
       <c r="D29" s="4">
-        <f>C29/$C$93</f>
+        <f t="shared" si="0"/>
         <v>5.0471063257065948E-2</v>
       </c>
       <c r="E29" s="3">
@@ -5265,7 +5269,7 @@
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="I29" s="7"/>
@@ -5317,7 +5321,7 @@
         <v>120</v>
       </c>
       <c r="D30" s="4">
-        <f>C30/$C$93</f>
+        <f t="shared" si="0"/>
         <v>2.5235531628532972E-3</v>
       </c>
       <c r="E30" s="3">
@@ -5328,7 +5332,7 @@
       </c>
       <c r="G30" s="7"/>
       <c r="H30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I30" s="7"/>
@@ -5380,7 +5384,7 @@
         <v>6260</v>
       </c>
       <c r="D31" s="4">
-        <f>C31/$C$93</f>
+        <f t="shared" si="0"/>
         <v>0.13164535666218036</v>
       </c>
       <c r="E31" s="3">
@@ -5391,7 +5395,7 @@
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
       <c r="I31" s="7"/>
@@ -5443,7 +5447,7 @@
         <v>960</v>
       </c>
       <c r="D32" s="4">
-        <f>C32/$C$93</f>
+        <f t="shared" si="0"/>
         <v>2.0188425302826378E-2</v>
       </c>
       <c r="E32" s="3">
@@ -5454,7 +5458,7 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I32" s="7"/>
@@ -5506,7 +5510,7 @@
         <v>480</v>
       </c>
       <c r="D33" s="4">
-        <f>C33/$C$93</f>
+        <f t="shared" si="0"/>
         <v>1.0094212651413189E-2</v>
       </c>
       <c r="E33" s="3">
@@ -5517,7 +5521,7 @@
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I33" s="7"/>
@@ -5569,7 +5573,7 @@
         <v>48</v>
       </c>
       <c r="D34" s="4">
-        <f>C34/$C$93</f>
+        <f t="shared" ref="D34:D65" si="2">C34/$C$93</f>
         <v>1.009421265141319E-3</v>
       </c>
       <c r="E34" s="3">
@@ -5580,7 +5584,7 @@
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I34" s="7"/>
@@ -5632,7 +5636,7 @@
         <v>270</v>
       </c>
       <c r="D35" s="4">
-        <f>C35/$C$93</f>
+        <f t="shared" si="2"/>
         <v>5.677994616419919E-3</v>
       </c>
       <c r="E35" s="3">
@@ -5643,7 +5647,7 @@
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I35" s="7"/>
@@ -5695,7 +5699,7 @@
         <v>60</v>
       </c>
       <c r="D36" s="4">
-        <f>C36/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.2617765814266486E-3</v>
       </c>
       <c r="E36" s="3">
@@ -5706,7 +5710,7 @@
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I36" s="7"/>
@@ -5758,7 +5762,7 @@
         <v>432</v>
       </c>
       <c r="D37" s="4">
-        <f>C37/$C$93</f>
+        <f t="shared" si="2"/>
         <v>9.0847913862718704E-3</v>
       </c>
       <c r="E37" s="3">
@@ -5769,7 +5773,7 @@
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="I37" s="7"/>
@@ -5821,7 +5825,7 @@
         <v>960</v>
       </c>
       <c r="D38" s="4">
-        <f>C38/$C$93</f>
+        <f t="shared" si="2"/>
         <v>2.0188425302826378E-2</v>
       </c>
       <c r="E38" s="3">
@@ -5832,7 +5836,7 @@
       </c>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I38" s="7"/>
@@ -5884,7 +5888,7 @@
         <v>432</v>
       </c>
       <c r="D39" s="4">
-        <f>C39/$C$93</f>
+        <f t="shared" si="2"/>
         <v>9.0847913862718704E-3</v>
       </c>
       <c r="E39" s="3">
@@ -5895,7 +5899,7 @@
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="I39" s="7"/>
@@ -5947,7 +5951,7 @@
         <v>500</v>
       </c>
       <c r="D40" s="4">
-        <f>C40/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E40" s="3">
@@ -5958,7 +5962,7 @@
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="I40" s="7"/>
@@ -6010,14 +6014,14 @@
         <v>504</v>
       </c>
       <c r="D41" s="4">
-        <f>C41/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.059892328398385E-2</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I41" s="7"/>
@@ -6069,14 +6073,14 @@
         <v>1000</v>
       </c>
       <c r="D42" s="4">
-        <f>C42/$C$93</f>
+        <f t="shared" si="2"/>
         <v>2.1029609690444144E-2</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I42" s="7"/>
@@ -6128,14 +6132,14 @@
         <v>500</v>
       </c>
       <c r="D43" s="4">
-        <f>C43/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I43" s="7"/>
@@ -6187,14 +6191,14 @@
         <v>500</v>
       </c>
       <c r="D44" s="4">
-        <f>C44/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I44" s="7"/>
@@ -6246,14 +6250,14 @@
         <v>840</v>
       </c>
       <c r="D45" s="4">
-        <f>C45/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.7664872139973083E-2</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I45" s="7"/>
@@ -6305,14 +6309,14 @@
         <v>250</v>
       </c>
       <c r="D46" s="4">
-        <f>C46/$C$93</f>
+        <f t="shared" si="2"/>
         <v>5.257402422611036E-3</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I46" s="7"/>
@@ -6364,14 +6368,14 @@
         <v>400</v>
       </c>
       <c r="D47" s="4">
-        <f>C47/$C$93</f>
+        <f t="shared" si="2"/>
         <v>8.4118438761776586E-3</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I47" s="7"/>
@@ -6423,14 +6427,14 @@
         <v>792</v>
       </c>
       <c r="D48" s="4">
-        <f>C48/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.6655450874831765E-2</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I48" s="7"/>
@@ -6482,14 +6486,14 @@
         <v>24</v>
       </c>
       <c r="D49" s="4">
-        <f>C49/$C$93</f>
+        <f t="shared" si="2"/>
         <v>5.0471063257065949E-4</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I49" s="7"/>
@@ -6541,14 +6545,14 @@
         <v>60</v>
       </c>
       <c r="D50" s="4">
-        <f>C50/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.2617765814266486E-3</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I50" s="7"/>
@@ -6600,14 +6604,14 @@
         <v>360</v>
       </c>
       <c r="D51" s="4">
-        <f>C51/$C$93</f>
+        <f t="shared" si="2"/>
         <v>7.5706594885598926E-3</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I51" s="7"/>
@@ -6659,14 +6663,14 @@
         <v>400</v>
       </c>
       <c r="D52" s="4">
-        <f>C52/$C$93</f>
+        <f t="shared" si="2"/>
         <v>8.4118438761776586E-3</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I52" s="7"/>
@@ -6718,14 +6722,14 @@
         <v>400</v>
       </c>
       <c r="D53" s="4">
-        <f>C53/$C$93</f>
+        <f t="shared" si="2"/>
         <v>8.4118438761776586E-3</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I53" s="7"/>
@@ -6777,14 +6781,14 @@
         <v>500</v>
       </c>
       <c r="D54" s="4">
-        <f>C54/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I54" s="7"/>
@@ -6836,14 +6840,14 @@
         <v>1060</v>
       </c>
       <c r="D55" s="4">
-        <f>C55/$C$93</f>
+        <f t="shared" si="2"/>
         <v>2.2291386271870793E-2</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I55" s="7"/>
@@ -6895,14 +6899,14 @@
         <v>800</v>
       </c>
       <c r="D56" s="4">
-        <f>C56/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.6823687752355317E-2</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I56" s="7"/>
@@ -6954,14 +6958,14 @@
         <v>1080</v>
       </c>
       <c r="D57" s="4">
-        <f>C57/$C$93</f>
+        <f t="shared" si="2"/>
         <v>2.2711978465679676E-2</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I57" s="7"/>
@@ -7013,14 +7017,14 @@
         <v>1080</v>
       </c>
       <c r="D58" s="4">
-        <f>C58/$C$93</f>
+        <f t="shared" si="2"/>
         <v>2.2711978465679676E-2</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I58" s="7"/>
@@ -7072,14 +7076,14 @@
         <v>432</v>
       </c>
       <c r="D59" s="4">
-        <f>C59/$C$93</f>
+        <f t="shared" si="2"/>
         <v>9.0847913862718704E-3</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I59" s="7"/>
@@ -7131,14 +7135,14 @@
         <v>800</v>
       </c>
       <c r="D60" s="4">
-        <f>C60/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.6823687752355317E-2</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I60" s="7"/>
@@ -7190,14 +7194,14 @@
         <v>60</v>
       </c>
       <c r="D61" s="4">
-        <f>C61/$C$93</f>
+        <f t="shared" si="2"/>
         <v>1.2617765814266486E-3</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I61" s="7"/>
@@ -7249,14 +7253,14 @@
         <v>36</v>
       </c>
       <c r="D62" s="4">
-        <f>C62/$C$93</f>
+        <f t="shared" si="2"/>
         <v>7.5706594885598924E-4</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I62" s="7"/>
@@ -7308,14 +7312,14 @@
         <v>32</v>
       </c>
       <c r="D63" s="4">
-        <f>C63/$C$93</f>
+        <f t="shared" si="2"/>
         <v>6.7294751009421266E-4</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I63" s="7"/>
@@ -7367,14 +7371,14 @@
         <v>16</v>
       </c>
       <c r="D64" s="4">
-        <f>C64/$C$93</f>
+        <f t="shared" si="2"/>
         <v>3.3647375504710633E-4</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I64" s="7"/>
@@ -7426,14 +7430,14 @@
         <v>18</v>
       </c>
       <c r="D65" s="4">
-        <f>C65/$C$93</f>
+        <f t="shared" si="2"/>
         <v>3.7853297442799462E-4</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I65" s="7"/>
@@ -7485,14 +7489,14 @@
         <v>216</v>
       </c>
       <c r="D66" s="4">
-        <f>C66/$C$93</f>
+        <f t="shared" ref="D66:D97" si="3">C66/$C$93</f>
         <v>4.5423956931359352E-3</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I66" s="7"/>
@@ -7544,14 +7548,14 @@
         <v>900</v>
       </c>
       <c r="D67" s="4">
-        <f>C67/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.8926648721399732E-2</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <f t="shared" ref="H67:H92" si="1">F67-E67+1</f>
+        <f t="shared" ref="H67:H92" si="4">F67-E67+1</f>
         <v>1</v>
       </c>
       <c r="I67" s="7"/>
@@ -7603,14 +7607,14 @@
         <v>600</v>
       </c>
       <c r="D68" s="4">
-        <f>C68/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.2617765814266487E-2</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I68" s="7"/>
@@ -7662,14 +7666,14 @@
         <v>12</v>
       </c>
       <c r="D69" s="4">
-        <f>C69/$C$93</f>
+        <f t="shared" si="3"/>
         <v>2.5235531628532975E-4</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I69" s="7"/>
@@ -7721,14 +7725,14 @@
         <v>1620</v>
       </c>
       <c r="D70" s="4">
-        <f>C70/$C$93</f>
+        <f t="shared" si="3"/>
         <v>3.4067967698519518E-2</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I70" s="7"/>
@@ -7780,14 +7784,14 @@
         <v>600</v>
       </c>
       <c r="D71" s="4">
-        <f>C71/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.2617765814266487E-2</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I71" s="7"/>
@@ -7839,14 +7843,14 @@
         <v>600</v>
       </c>
       <c r="D72" s="4">
-        <f>C72/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.2617765814266487E-2</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I72" s="7"/>
@@ -7898,14 +7902,14 @@
         <v>18</v>
       </c>
       <c r="D73" s="4">
-        <f>C73/$C$93</f>
+        <f t="shared" si="3"/>
         <v>3.7853297442799462E-4</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I73" s="7"/>
@@ -7957,14 +7961,14 @@
         <v>50</v>
       </c>
       <c r="D74" s="4">
-        <f>C74/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.0514804845222073E-3</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I74" s="7"/>
@@ -8016,14 +8020,14 @@
         <v>4</v>
       </c>
       <c r="D75" s="4">
-        <f>C75/$C$93</f>
+        <f t="shared" si="3"/>
         <v>8.4118438761776582E-5</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" s="7"/>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I75" s="7"/>
@@ -8075,14 +8079,14 @@
         <v>4</v>
       </c>
       <c r="D76" s="4">
-        <f>C76/$C$93</f>
+        <f t="shared" si="3"/>
         <v>8.4118438761776582E-5</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I76" s="7"/>
@@ -8134,14 +8138,14 @@
         <v>45</v>
       </c>
       <c r="D77" s="4">
-        <f>C77/$C$93</f>
+        <f t="shared" si="3"/>
         <v>9.4633243606998658E-4</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I77" s="7"/>
@@ -8193,14 +8197,14 @@
         <v>300</v>
       </c>
       <c r="D78" s="4">
-        <f>C78/$C$93</f>
+        <f t="shared" si="3"/>
         <v>6.3088829071332436E-3</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I78" s="7"/>
@@ -8252,14 +8256,14 @@
         <v>50</v>
       </c>
       <c r="D79" s="4">
-        <f>C79/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.0514804845222073E-3</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I79" s="7"/>
@@ -8311,14 +8315,14 @@
         <v>45</v>
       </c>
       <c r="D80" s="4">
-        <f>C80/$C$93</f>
+        <f t="shared" si="3"/>
         <v>9.4633243606998658E-4</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I80" s="7"/>
@@ -8370,14 +8374,14 @@
         <v>720</v>
       </c>
       <c r="D81" s="4">
-        <f>C81/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.5141318977119785E-2</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I81" s="7"/>
@@ -8429,14 +8433,14 @@
         <v>720</v>
       </c>
       <c r="D82" s="4">
-        <f>C82/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.5141318977119785E-2</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I82" s="7"/>
@@ -8488,14 +8492,14 @@
         <v>720</v>
       </c>
       <c r="D83" s="4">
-        <f>C83/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.5141318977119785E-2</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I83" s="7"/>
@@ -8547,14 +8551,14 @@
         <v>360</v>
       </c>
       <c r="D84" s="4">
-        <f>C84/$C$93</f>
+        <f t="shared" si="3"/>
         <v>7.5706594885598926E-3</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I84" s="7"/>
@@ -8606,14 +8610,14 @@
         <v>36</v>
       </c>
       <c r="D85" s="4">
-        <f>C85/$C$93</f>
+        <f t="shared" si="3"/>
         <v>7.5706594885598924E-4</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I85" s="7"/>
@@ -8665,14 +8669,14 @@
         <v>192</v>
       </c>
       <c r="D86" s="4">
-        <f>C86/$C$93</f>
+        <f t="shared" si="3"/>
         <v>4.0376850605652759E-3</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I86" s="7"/>
@@ -8724,14 +8728,14 @@
         <v>500</v>
       </c>
       <c r="D87" s="4">
-        <f>C87/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I87" s="7"/>
@@ -8783,14 +8787,14 @@
         <v>144</v>
       </c>
       <c r="D88" s="4">
-        <f>C88/$C$93</f>
+        <f t="shared" si="3"/>
         <v>3.028263795423957E-3</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I88" s="7"/>
@@ -8842,14 +8846,14 @@
         <v>33</v>
       </c>
       <c r="D89" s="4">
-        <f>C89/$C$93</f>
+        <f t="shared" si="3"/>
         <v>6.9397711978465683E-4</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I89" s="7"/>
@@ -8901,14 +8905,14 @@
         <v>480</v>
       </c>
       <c r="D90" s="4">
-        <f>C90/$C$93</f>
+        <f t="shared" si="3"/>
         <v>1.0094212651413189E-2</v>
       </c>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I90" s="7"/>
@@ -8960,14 +8964,14 @@
         <v>200</v>
       </c>
       <c r="D91" s="4">
-        <f>C91/$C$93</f>
+        <f t="shared" si="3"/>
         <v>4.2059219380888293E-3</v>
       </c>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I91" s="7"/>
@@ -9019,14 +9023,14 @@
         <v>300</v>
       </c>
       <c r="D92" s="4">
-        <f>C92/$C$93</f>
+        <f t="shared" si="3"/>
         <v>6.3088829071332436E-3</v>
       </c>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="I92" s="7"/>
@@ -9084,151 +9088,151 @@
         <v>27</v>
       </c>
       <c r="I93" s="9">
-        <f>SUM(I2:I92)</f>
+        <f t="shared" ref="I93:AS93" si="5">SUM(I2:I92)</f>
         <v>0</v>
       </c>
       <c r="J93" s="9">
-        <f>SUM(J2:J92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K93" s="9">
-        <f>SUM(K2:K92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="L93" s="9">
-        <f>SUM(L2:L92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M93" s="9">
-        <f>SUM(M2:M92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="N93" s="9">
-        <f>SUM(N2:N92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="O93" s="9">
-        <f>SUM(O2:O92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="P93" s="9">
-        <f>SUM(P2:P92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Q93" s="9">
-        <f>SUM(Q2:Q92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="R93" s="9">
-        <f>SUM(R2:R92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="S93" s="9">
-        <f>SUM(S2:S92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="T93" s="9">
-        <f>SUM(T2:T92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="U93" s="9">
-        <f>SUM(U2:U92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="V93" s="9">
-        <f>SUM(V2:V92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="W93" s="9">
-        <f>SUM(W2:W92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="X93" s="9">
-        <f>SUM(X2:X92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Y93" s="9">
-        <f>SUM(Y2:Y92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z93" s="9">
-        <f>SUM(Z2:Z92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AA93" s="9">
-        <f>SUM(AA2:AA92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AB93" s="9">
-        <f>SUM(AB2:AB92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AC93" s="9">
-        <f>SUM(AC2:AC92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AD93" s="9">
-        <f>SUM(AD2:AD92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AE93" s="9">
-        <f>SUM(AE2:AE92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AF93" s="9">
-        <f>SUM(AF2:AF92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AG93" s="9">
-        <f>SUM(AG2:AG92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AH93" s="9">
-        <f>SUM(AH2:AH92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AI93" s="9">
-        <f>SUM(AI2:AI92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AJ93" s="9">
-        <f>SUM(AJ2:AJ92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK93" s="9">
-        <f>SUM(AK2:AK92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AL93" s="9">
-        <f>SUM(AL2:AL92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM93" s="9">
-        <f>SUM(AM2:AM92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AN93" s="9">
-        <f>SUM(AN2:AN92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO93" s="9">
-        <f>SUM(AO2:AO92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AP93" s="9">
-        <f>SUM(AP2:AP92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AQ93" s="9">
-        <f>SUM(AQ2:AQ92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AR93" s="9">
-        <f>SUM(AR2:AR92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AS93" s="9">
-        <f>SUM(AS2:AS92)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -9245,139 +9249,139 @@
         <v>0</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" ref="K94:Q94" si="2">K93+J94</f>
+        <f t="shared" ref="K94:Q94" si="6">K93+J94</f>
         <v>0</v>
       </c>
       <c r="L94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="M94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="N94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="O94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="P94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Q94" s="11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R94" s="11">
-        <f t="shared" ref="R94" si="3">R93+Q94</f>
+        <f t="shared" ref="R94" si="7">R93+Q94</f>
         <v>0</v>
       </c>
       <c r="S94" s="11">
-        <f t="shared" ref="S94" si="4">S93+R94</f>
+        <f t="shared" ref="S94" si="8">S93+R94</f>
         <v>0</v>
       </c>
       <c r="T94" s="11">
-        <f t="shared" ref="T94" si="5">T93+S94</f>
+        <f t="shared" ref="T94" si="9">T93+S94</f>
         <v>0</v>
       </c>
       <c r="U94" s="11">
-        <f t="shared" ref="U94" si="6">U93+T94</f>
+        <f t="shared" ref="U94" si="10">U93+T94</f>
         <v>0</v>
       </c>
       <c r="V94" s="11">
-        <f t="shared" ref="V94" si="7">V93+U94</f>
+        <f t="shared" ref="V94" si="11">V93+U94</f>
         <v>0</v>
       </c>
       <c r="W94" s="11">
-        <f t="shared" ref="W94" si="8">W93+V94</f>
+        <f t="shared" ref="W94" si="12">W93+V94</f>
         <v>0</v>
       </c>
       <c r="X94" s="11">
-        <f t="shared" ref="X94" si="9">X93+W94</f>
+        <f t="shared" ref="X94" si="13">X93+W94</f>
         <v>0</v>
       </c>
       <c r="Y94" s="11">
-        <f t="shared" ref="Y94" si="10">Y93+X94</f>
+        <f t="shared" ref="Y94" si="14">Y93+X94</f>
         <v>0</v>
       </c>
       <c r="Z94" s="11">
-        <f t="shared" ref="Z94" si="11">Z93+Y94</f>
+        <f t="shared" ref="Z94" si="15">Z93+Y94</f>
         <v>0</v>
       </c>
       <c r="AA94" s="11">
-        <f t="shared" ref="AA94" si="12">AA93+Z94</f>
+        <f t="shared" ref="AA94" si="16">AA93+Z94</f>
         <v>0</v>
       </c>
       <c r="AB94" s="11">
-        <f t="shared" ref="AB94" si="13">AB93+AA94</f>
+        <f t="shared" ref="AB94" si="17">AB93+AA94</f>
         <v>0</v>
       </c>
       <c r="AC94" s="11">
-        <f t="shared" ref="AC94" si="14">AC93+AB94</f>
+        <f t="shared" ref="AC94" si="18">AC93+AB94</f>
         <v>0</v>
       </c>
       <c r="AD94" s="11">
-        <f t="shared" ref="AD94" si="15">AD93+AC94</f>
+        <f t="shared" ref="AD94" si="19">AD93+AC94</f>
         <v>0</v>
       </c>
       <c r="AE94" s="11">
-        <f t="shared" ref="AE94" si="16">AE93+AD94</f>
+        <f t="shared" ref="AE94" si="20">AE93+AD94</f>
         <v>0</v>
       </c>
       <c r="AF94" s="11">
-        <f t="shared" ref="AF94" si="17">AF93+AE94</f>
+        <f t="shared" ref="AF94" si="21">AF93+AE94</f>
         <v>0</v>
       </c>
       <c r="AG94" s="11">
-        <f t="shared" ref="AG94" si="18">AG93+AF94</f>
+        <f t="shared" ref="AG94" si="22">AG93+AF94</f>
         <v>0</v>
       </c>
       <c r="AH94" s="11">
-        <f t="shared" ref="AH94" si="19">AH93+AG94</f>
+        <f t="shared" ref="AH94" si="23">AH93+AG94</f>
         <v>0</v>
       </c>
       <c r="AI94" s="11">
-        <f t="shared" ref="AI94" si="20">AI93+AH94</f>
+        <f t="shared" ref="AI94" si="24">AI93+AH94</f>
         <v>0</v>
       </c>
       <c r="AJ94" s="11">
-        <f t="shared" ref="AJ94" si="21">AJ93+AI94</f>
+        <f t="shared" ref="AJ94" si="25">AJ93+AI94</f>
         <v>0</v>
       </c>
       <c r="AK94" s="11">
-        <f t="shared" ref="AK94" si="22">AK93+AJ94</f>
+        <f t="shared" ref="AK94" si="26">AK93+AJ94</f>
         <v>0</v>
       </c>
       <c r="AL94" s="11">
-        <f t="shared" ref="AL94" si="23">AL93+AK94</f>
+        <f t="shared" ref="AL94" si="27">AL93+AK94</f>
         <v>0</v>
       </c>
       <c r="AM94" s="11">
-        <f t="shared" ref="AM94" si="24">AM93+AL94</f>
+        <f t="shared" ref="AM94" si="28">AM93+AL94</f>
         <v>0</v>
       </c>
       <c r="AN94" s="11">
-        <f t="shared" ref="AN94" si="25">AN93+AM94</f>
+        <f t="shared" ref="AN94" si="29">AN93+AM94</f>
         <v>0</v>
       </c>
       <c r="AO94" s="11">
-        <f t="shared" ref="AO94" si="26">AO93+AN94</f>
+        <f t="shared" ref="AO94" si="30">AO93+AN94</f>
         <v>0</v>
       </c>
       <c r="AP94" s="11">
-        <f t="shared" ref="AP94" si="27">AP93+AO94</f>
+        <f t="shared" ref="AP94" si="31">AP93+AO94</f>
         <v>0</v>
       </c>
       <c r="AQ94" s="11">
-        <f t="shared" ref="AQ94" si="28">AQ93+AP94</f>
+        <f t="shared" ref="AQ94" si="32">AQ93+AP94</f>
         <v>0</v>
       </c>
       <c r="AR94" s="11">
-        <f t="shared" ref="AR94" si="29">AR93+AQ94</f>
+        <f t="shared" ref="AR94" si="33">AR93+AQ94</f>
         <v>0</v>
       </c>
       <c r="AS94" s="11">
@@ -9443,7 +9447,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -9451,10 +9454,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37837414-F9FA-4B2A-9430-6FB50EB8546F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/daily_s_curve.xlsx
+++ b/daily_s_curve.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coldshutdown_daily_progress_report\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coldshutdown_daily_progress_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD73B52-0B34-4D3C-974A-DD9F9C4EE79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F254AE-59F4-4D5F-847A-4611FF184C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
   <si>
     <t>task1</t>
   </si>
@@ -369,9 +369,6 @@
     <t>task91</t>
   </si>
   <si>
-    <t>task92</t>
-  </si>
-  <si>
     <t>Day11</t>
   </si>
   <si>
@@ -454,6 +451,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>task18</t>
   </si>
 </sst>
 </file>
@@ -515,7 +515,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -543,6 +543,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -617,7 +629,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -670,9 +682,6 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="5" borderId="4" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -680,6 +689,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="6" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,115 +952,115 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.802537973466641E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>9.5354258796385306E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.7115007931167086E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>8.0980443541429414E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.12332894330602104</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.17333222099793433</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.23091909947667855</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.27129154002681932</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.30827120354690174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.33748393122131348</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.35995141158751526</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.39398117164352026</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.43173317261473387</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.46705274873175279</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.50111154967733029</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>0.5353568131621631</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>0.57472036011319327</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.61937465643934353</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>0.65788830673588417</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>0.69129985018906626</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>0.73430089566109091</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>0.76783861677241561</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>0.79874763667243487</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>0.82965665657245413</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>0.86207079568031797</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>0.90174065083637767</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>0.92765714125488696</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>0.95138655226558999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>0.97311013907581878</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>0.98060018506056534</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>0.99176690780619114</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>0.99835969044414541</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>0.99949528936742937</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>0.30827120354690174</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1206,24 +1227,6 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="37"/>
-                <c:pt idx="0">
-                  <c:v>6.5600000000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.2019</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.44180000000000003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1601,106 +1604,106 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="37"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.802537973466641E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>7.73288790617189E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.7579582051528554E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>4.3865435610262321E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>4.2348499764591617E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>5.0003277691913282E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5.7586878478744219E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>4.0372440550140755E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.6979663520082431E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>2.9212727674411725E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>2.2467480366201765E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3.4029760056005019E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3.7752000971213631E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>3.5319576117018921E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>3.4058800945577533E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>3.4245263484832797E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>3.9363546951030129E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>4.4654296326150297E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>3.8513650296540615E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>3.3411543453182084E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>4.3001045472024622E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>3.3537721111324748E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>3.0909019900019229E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>3.0909019900019229E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>3.2414139107863872E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>3.9669855156059732E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>2.5916490418509262E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>2.3729411010703069E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>2.17235868102288E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>7.4900459847465229E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>1.1166722745625841E-2</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>6.5927826379542391E-3</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>1.1355989232839838E-3</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>5.0471063257065949E-4</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>0</c:v>
@@ -3392,8 +3395,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB79112-5215-4682-8159-41C9E41DBEC3}">
   <dimension ref="A1:AS95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3406,8 +3410,8 @@
     <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="12.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
     <col min="13" max="17" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="44" width="11.140625" style="2" customWidth="1"/>
     <col min="45" max="45" width="12.5703125" style="2" customWidth="1"/>
@@ -3470,85 +3474,85 @@
         <v>25</v>
       </c>
       <c r="S1" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
@@ -3578,7 +3582,10 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
+      <c r="K2" s="21">
+        <f>$D2/$H2</f>
+        <v>1.2617765814266487E-4</v>
+      </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
       <c r="N2" s="5"/>
@@ -3612,7 +3619,7 @@
       <c r="AP2" s="5"/>
       <c r="AQ2" s="5"/>
       <c r="AR2" s="5"/>
-      <c r="AS2" s="19"/>
+      <c r="AS2" s="18"/>
     </row>
     <row r="3" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
@@ -3625,7 +3632,7 @@
         <v>4</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D2:D33" si="0">C3/$C$93</f>
+        <f t="shared" ref="D3:D33" si="0">C3/$C$93</f>
         <v>8.4118438761776582E-5</v>
       </c>
       <c r="E3" s="3">
@@ -3641,7 +3648,10 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
+      <c r="K3" s="21">
+        <f>$D3/$H3</f>
+        <v>8.4118438761776582E-5</v>
+      </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
@@ -3675,7 +3685,7 @@
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="5"/>
-      <c r="AS3" s="19"/>
+      <c r="AS3" s="18"/>
     </row>
     <row r="4" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
@@ -3705,7 +3715,10 @@
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
+      <c r="L4" s="21">
+        <f>$D4/$H4</f>
+        <v>1.0514804845222073E-3</v>
+      </c>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -3738,7 +3751,7 @@
       <c r="AP4" s="5"/>
       <c r="AQ4" s="5"/>
       <c r="AR4" s="5"/>
-      <c r="AS4" s="19"/>
+      <c r="AS4" s="18"/>
     </row>
     <row r="5" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
@@ -3770,7 +3783,10 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
+      <c r="N5" s="21">
+        <f>$D5/$H5</f>
+        <v>2.5235531628532975E-4</v>
+      </c>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -3801,7 +3817,7 @@
       <c r="AP5" s="5"/>
       <c r="AQ5" s="5"/>
       <c r="AR5" s="5"/>
-      <c r="AS5" s="19"/>
+      <c r="AS5" s="18"/>
     </row>
     <row r="6" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
@@ -3848,11 +3864,26 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="5"/>
-      <c r="AD6" s="5"/>
-      <c r="AE6" s="5"/>
-      <c r="AF6" s="5"/>
-      <c r="AG6" s="5"/>
+      <c r="AC6" s="21">
+        <f>$D6/$H6</f>
+        <v>1.7664872139973083E-3</v>
+      </c>
+      <c r="AD6" s="21">
+        <f t="shared" ref="AD6:AG6" si="2">$D6/$H6</f>
+        <v>1.7664872139973083E-3</v>
+      </c>
+      <c r="AE6" s="21">
+        <f t="shared" si="2"/>
+        <v>1.7664872139973083E-3</v>
+      </c>
+      <c r="AF6" s="21">
+        <f t="shared" si="2"/>
+        <v>1.7664872139973083E-3</v>
+      </c>
+      <c r="AG6" s="21">
+        <f t="shared" si="2"/>
+        <v>1.7664872139973083E-3</v>
+      </c>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
       <c r="AJ6" s="5"/>
@@ -3864,7 +3895,7 @@
       <c r="AP6" s="5"/>
       <c r="AQ6" s="5"/>
       <c r="AR6" s="5"/>
-      <c r="AS6" s="19"/>
+      <c r="AS6" s="18"/>
     </row>
     <row r="7" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -3904,8 +3935,14 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
+      <c r="V7" s="21">
+        <f>$D7/$H7</f>
+        <v>5.0471063257065949E-4</v>
+      </c>
+      <c r="W7" s="21">
+        <f>$D7/$H7</f>
+        <v>5.0471063257065949E-4</v>
+      </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
       <c r="Z7" s="5"/>
@@ -3951,7 +3988,7 @@
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="3">
-        <f t="shared" si="1"/>
+        <f>F8-E8+1</f>
         <v>3</v>
       </c>
       <c r="I8" s="5"/>
@@ -3962,9 +3999,18 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="5"/>
-      <c r="R8" s="5"/>
-      <c r="S8" s="5"/>
+      <c r="Q8" s="21">
+        <f>$D8/$H8</f>
+        <v>1.0514804845222071E-4</v>
+      </c>
+      <c r="R8" s="21">
+        <f>$D8/$H8</f>
+        <v>1.0514804845222071E-4</v>
+      </c>
+      <c r="S8" s="21">
+        <f>$D8/$H8</f>
+        <v>1.0514804845222071E-4</v>
+      </c>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
@@ -3990,7 +4036,7 @@
       <c r="AP8" s="5"/>
       <c r="AQ8" s="5"/>
       <c r="AR8" s="5"/>
-      <c r="AS8" s="19"/>
+      <c r="AS8" s="18"/>
     </row>
     <row r="9" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
@@ -4049,8 +4095,14 @@
       <c r="AL9" s="5"/>
       <c r="AM9" s="5"/>
       <c r="AN9" s="5"/>
-      <c r="AO9" s="5"/>
-      <c r="AP9" s="5"/>
+      <c r="AO9" s="21">
+        <f>$D9/$H9</f>
+        <v>5.0471063257065949E-4</v>
+      </c>
+      <c r="AP9" s="21">
+        <f>$D9/$H9</f>
+        <v>5.0471063257065949E-4</v>
+      </c>
       <c r="AQ9" s="5"/>
       <c r="AR9" s="5"/>
       <c r="AS9" s="5"/>
@@ -4070,18 +4122,24 @@
         <v>2.018842530282638E-3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
+      <c r="J10" s="21">
+        <f>$D10/$H10</f>
+        <v>6.7294751009421266E-4</v>
+      </c>
+      <c r="K10" s="21">
+        <f>$D10/$H10</f>
+        <v>6.7294751009421266E-4</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -4095,7 +4153,10 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="5"/>
+      <c r="Y10" s="21">
+        <f>$D10/$H10</f>
+        <v>6.7294751009421266E-4</v>
+      </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
       <c r="AB10" s="5"/>
@@ -4132,52 +4193,58 @@
         <v>3.5329744279946162E-3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="6">
         <v>2</v>
       </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="20"/>
-      <c r="Y11" s="20"/>
-      <c r="Z11" s="20"/>
-      <c r="AA11" s="20"/>
-      <c r="AB11" s="20"/>
-      <c r="AC11" s="20"/>
-      <c r="AD11" s="20"/>
-      <c r="AE11" s="20"/>
-      <c r="AF11" s="20"/>
-      <c r="AG11" s="20"/>
-      <c r="AH11" s="20"/>
-      <c r="AI11" s="20"/>
-      <c r="AJ11" s="20"/>
-      <c r="AK11" s="20"/>
-      <c r="AL11" s="20"/>
-      <c r="AM11" s="20"/>
-      <c r="AN11" s="20"/>
-      <c r="AO11" s="20"/>
-      <c r="AP11" s="20"/>
-      <c r="AQ11" s="20"/>
-      <c r="AR11" s="20"/>
-      <c r="AS11" s="20"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="22">
+        <f>$D11/$H11</f>
+        <v>1.7664872139973081E-3</v>
+      </c>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="22">
+        <f>$D11/$H11</f>
+        <v>1.7664872139973081E-3</v>
+      </c>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+      <c r="AQ11" s="19"/>
+      <c r="AR11" s="19"/>
+      <c r="AS11" s="19"/>
     </row>
     <row r="12" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
@@ -4201,19 +4268,43 @@
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="6">
-        <f t="shared" si="1"/>
+        <f>F12-E12+1</f>
         <v>8</v>
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
+      <c r="K12" s="21">
+        <f>$D12/$H12</f>
+        <v>7.0974932705248988E-4</v>
+      </c>
+      <c r="L12" s="21">
+        <f t="shared" ref="L12:R12" si="3">$D12/$H12</f>
+        <v>7.0974932705248988E-4</v>
+      </c>
+      <c r="M12" s="21">
+        <f t="shared" si="3"/>
+        <v>7.0974932705248988E-4</v>
+      </c>
+      <c r="N12" s="21">
+        <f t="shared" si="3"/>
+        <v>7.0974932705248988E-4</v>
+      </c>
+      <c r="O12" s="21">
+        <f t="shared" si="3"/>
+        <v>7.0974932705248988E-4</v>
+      </c>
+      <c r="P12" s="21">
+        <f t="shared" si="3"/>
+        <v>7.0974932705248988E-4</v>
+      </c>
+      <c r="Q12" s="21">
+        <f t="shared" si="3"/>
+        <v>7.0974932705248988E-4</v>
+      </c>
+      <c r="R12" s="21">
+        <f t="shared" si="3"/>
+        <v>7.0974932705248988E-4</v>
+      </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
@@ -4243,7 +4334,7 @@
       <c r="AS12" s="4"/>
     </row>
     <row r="13" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="21">
+      <c r="A13" s="20">
         <v>93082667</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -4257,10 +4348,10 @@
         <v>3.028263795423957E-2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
@@ -4268,8 +4359,14 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
+      <c r="K13" s="22">
+        <f>$D13/$H13</f>
+        <v>5.0471063257065954E-3</v>
+      </c>
+      <c r="L13" s="22">
+        <f>$D13/$H13</f>
+        <v>5.0471063257065954E-3</v>
+      </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -4283,10 +4380,22 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
+      <c r="Z13" s="22">
+        <f>$D13/$H13</f>
+        <v>5.0471063257065954E-3</v>
+      </c>
+      <c r="AA13" s="22">
+        <f t="shared" ref="AA13:AC13" si="4">$D13/$H13</f>
+        <v>5.0471063257065954E-3</v>
+      </c>
+      <c r="AB13" s="22">
+        <f t="shared" si="4"/>
+        <v>5.0471063257065954E-3</v>
+      </c>
+      <c r="AC13" s="22">
+        <f t="shared" si="4"/>
+        <v>5.0471063257065954E-3</v>
+      </c>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
       <c r="AF13" s="7"/>
@@ -4331,12 +4440,30 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-      <c r="O14" s="4"/>
-      <c r="P14" s="4"/>
+      <c r="K14" s="21">
+        <f>$D14/$H14</f>
+        <v>5.0471063257065949E-4</v>
+      </c>
+      <c r="L14" s="21">
+        <f t="shared" ref="L14:S17" si="5">$D14/$H14</f>
+        <v>5.0471063257065949E-4</v>
+      </c>
+      <c r="M14" s="21">
+        <f t="shared" si="5"/>
+        <v>5.0471063257065949E-4</v>
+      </c>
+      <c r="N14" s="21">
+        <f t="shared" si="5"/>
+        <v>5.0471063257065949E-4</v>
+      </c>
+      <c r="O14" s="21">
+        <f t="shared" si="5"/>
+        <v>5.0471063257065949E-4</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="5"/>
+        <v>5.0471063257065949E-4</v>
+      </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
       <c r="S14" s="4"/>
@@ -4395,14 +4522,38 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-      <c r="S15" s="7"/>
+      <c r="L15" s="22">
+        <f>$D15/$H15</f>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="M15" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="N15" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="O15" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="P15" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="Q15" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="R15" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="S15" s="22">
+        <f t="shared" si="5"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
@@ -4459,9 +4610,18 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
+      <c r="M16" s="21">
+        <f>$D16/$H16</f>
+        <v>1.4019739793629431E-3</v>
+      </c>
+      <c r="N16" s="21">
+        <f t="shared" si="5"/>
+        <v>1.4019739793629431E-3</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" si="5"/>
+        <v>1.4019739793629431E-3</v>
+      </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
@@ -4494,7 +4654,7 @@
       <c r="AS16" s="4"/>
     </row>
     <row r="17" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
+      <c r="A17" s="20">
         <v>93087257</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -4508,10 +4668,10 @@
         <v>3.1670592193808883E-2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
@@ -4521,9 +4681,18 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
+      <c r="M17" s="22">
+        <f>$D17/$H17</f>
+        <v>6.3341184387617766E-3</v>
+      </c>
+      <c r="N17" s="22">
+        <f t="shared" si="5"/>
+        <v>6.3341184387617766E-3</v>
+      </c>
+      <c r="O17" s="22">
+        <f t="shared" si="5"/>
+        <v>6.3341184387617766E-3</v>
+      </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
@@ -4532,8 +4701,14 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="7"/>
-      <c r="Y17" s="7"/>
+      <c r="X17" s="22">
+        <f>$D17/$H17</f>
+        <v>6.3341184387617766E-3</v>
+      </c>
+      <c r="Y17" s="22">
+        <f>$D17/$H17</f>
+        <v>6.3341184387617766E-3</v>
+      </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
       <c r="AB17" s="7"/>
@@ -4556,7 +4731,7 @@
       <c r="AS17" s="7"/>
     </row>
     <row r="18" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
+      <c r="A18" s="20">
         <v>93087360</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -4570,10 +4745,10 @@
         <v>1.0094212651413189E-2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="6">
@@ -4586,23 +4761,65 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="4"/>
-      <c r="T18" s="4"/>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
+      <c r="P18" s="21">
+        <f>$D18/$H18</f>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="Q18" s="21">
+        <f t="shared" ref="Q18:Z20" si="6">$D18/$H18</f>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="R18" s="21">
+        <f t="shared" si="6"/>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="S18" s="21">
+        <f t="shared" si="6"/>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="T18" s="21">
+        <f t="shared" si="6"/>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="U18" s="21">
+        <f t="shared" si="6"/>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="V18" s="21">
+        <f t="shared" si="6"/>
+        <v>7.210151893866564E-4</v>
+      </c>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="4"/>
-      <c r="AA18" s="4"/>
-      <c r="AB18" s="4"/>
-      <c r="AC18" s="4"/>
-      <c r="AD18" s="4"/>
-      <c r="AE18" s="4"/>
-      <c r="AF18" s="4"/>
+      <c r="Z18" s="21">
+        <f>$D18/$H18</f>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="AA18" s="21">
+        <f t="shared" ref="AA18:AF18" si="7">$D18/$H18</f>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="AB18" s="21">
+        <f t="shared" si="7"/>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="AC18" s="21">
+        <f t="shared" si="7"/>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="AD18" s="21">
+        <f t="shared" si="7"/>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="AE18" s="21">
+        <f t="shared" si="7"/>
+        <v>7.210151893866564E-4</v>
+      </c>
+      <c r="AF18" s="21">
+        <f t="shared" si="7"/>
+        <v>7.210151893866564E-4</v>
+      </c>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
@@ -4622,7 +4839,7 @@
         <v>93082664</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="C19" s="3">
         <v>960</v>
@@ -4650,16 +4867,46 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
+      <c r="Q19" s="22">
+        <f>$D19/$H19</f>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="R19" s="22">
+        <f t="shared" si="6"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="S19" s="22">
+        <f t="shared" si="6"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="T19" s="22">
+        <f t="shared" si="6"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="U19" s="22">
+        <f t="shared" si="6"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="V19" s="22">
+        <f t="shared" si="6"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="W19" s="22">
+        <f t="shared" si="6"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="X19" s="22">
+        <f t="shared" si="6"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="Y19" s="22">
+        <f t="shared" si="6"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="Z19" s="22">
+        <f t="shared" si="6"/>
+        <v>2.018842530282638E-3</v>
+      </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
       <c r="AC19" s="7"/>
@@ -4685,7 +4932,7 @@
         <v>93082632</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C20" s="3">
         <v>250</v>
@@ -4713,12 +4960,30 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-      <c r="R20" s="4"/>
-      <c r="S20" s="4"/>
-      <c r="T20" s="4"/>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
+      <c r="Q20" s="21">
+        <f>$D20/$H20</f>
+        <v>8.7623373710183933E-4</v>
+      </c>
+      <c r="R20" s="21">
+        <f t="shared" si="6"/>
+        <v>8.7623373710183933E-4</v>
+      </c>
+      <c r="S20" s="21">
+        <f t="shared" si="6"/>
+        <v>8.7623373710183933E-4</v>
+      </c>
+      <c r="T20" s="21">
+        <f t="shared" si="6"/>
+        <v>8.7623373710183933E-4</v>
+      </c>
+      <c r="U20" s="21">
+        <f t="shared" si="6"/>
+        <v>8.7623373710183933E-4</v>
+      </c>
+      <c r="V20" s="21">
+        <f t="shared" si="6"/>
+        <v>8.7623373710183933E-4</v>
+      </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
       <c r="Y20" s="4"/>
@@ -4748,7 +5013,7 @@
         <v>93082666</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="3">
         <v>400</v>
@@ -4785,10 +5050,22 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="7"/>
-      <c r="AA21" s="7"/>
-      <c r="AB21" s="7"/>
-      <c r="AC21" s="7"/>
+      <c r="Z21" s="22">
+        <f>$D21/$H21</f>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="AA21" s="22">
+        <f t="shared" ref="AA21:AC21" si="8">$D21/$H21</f>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="AB21" s="22">
+        <f t="shared" si="8"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="AC21" s="22">
+        <f t="shared" si="8"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
       <c r="AF21" s="7"/>
@@ -4811,7 +5088,7 @@
         <v>93082641</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="3">
         <v>120</v>
@@ -4852,9 +5129,18 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="4"/>
-      <c r="AE22" s="4"/>
-      <c r="AF22" s="4"/>
+      <c r="AD22" s="21">
+        <f>$D22/$H22</f>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="AE22" s="21">
+        <f t="shared" ref="AE22:AF22" si="9">$D22/$H22</f>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="AF22" s="21">
+        <f t="shared" si="9"/>
+        <v>8.4118438761776571E-4</v>
+      </c>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
       <c r="AI22" s="4"/>
@@ -4874,7 +5160,7 @@
         <v>93082665</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C23" s="3">
         <v>320</v>
@@ -4919,9 +5205,18 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
+      <c r="AH23" s="22">
+        <f>$D23/$H23</f>
+        <v>2.2431583669807087E-3</v>
+      </c>
+      <c r="AI23" s="22">
+        <f t="shared" ref="AI23:AJ23" si="10">$D23/$H23</f>
+        <v>2.2431583669807087E-3</v>
+      </c>
+      <c r="AJ23" s="22">
+        <f t="shared" si="10"/>
+        <v>2.2431583669807087E-3</v>
+      </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
@@ -4937,7 +5232,7 @@
         <v>93084780</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C24" s="3">
         <v>240</v>
@@ -4982,8 +5277,14 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="4"/>
-      <c r="AI24" s="4"/>
+      <c r="AH24" s="21">
+        <f>$D24/$H24</f>
+        <v>2.5235531628532972E-3</v>
+      </c>
+      <c r="AI24" s="21">
+        <f>$D24/$H24</f>
+        <v>2.5235531628532972E-3</v>
+      </c>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
@@ -5000,7 +5301,7 @@
         <v>93086458</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C25" s="3">
         <v>480</v>
@@ -5045,8 +5346,14 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
+      <c r="AH25" s="22">
+        <f>$D25/$H25</f>
+        <v>5.0471063257065945E-3</v>
+      </c>
+      <c r="AI25" s="22">
+        <f>$D25/$H25</f>
+        <v>5.0471063257065945E-3</v>
+      </c>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
@@ -5063,7 +5370,7 @@
         <v>93083112</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3">
         <v>500</v>
@@ -5111,10 +5418,22 @@
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
-      <c r="AM26" s="4"/>
-      <c r="AN26" s="4"/>
+      <c r="AK26" s="21">
+        <f>$D26/$H26</f>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="AL26" s="21">
+        <f t="shared" ref="AL26:AN26" si="11">$D26/$H26</f>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="AM26" s="21">
+        <f t="shared" si="11"/>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="AN26" s="21">
+        <f t="shared" si="11"/>
+        <v>2.628701211305518E-3</v>
+      </c>
       <c r="AO26" s="4"/>
       <c r="AP26" s="4"/>
       <c r="AQ26" s="4"/>
@@ -5126,7 +5445,7 @@
         <v>93077720</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="3">
         <v>2000</v>
@@ -5147,14 +5466,38 @@
         <v>8</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="7"/>
-      <c r="K27" s="7"/>
-      <c r="L27" s="7"/>
-      <c r="M27" s="7"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7"/>
-      <c r="Q27" s="7"/>
+      <c r="J27" s="22">
+        <f>$D27/$H27</f>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="K27" s="22">
+        <f t="shared" ref="K27:Z29" si="12">$D27/$H27</f>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="L27" s="22">
+        <f t="shared" si="12"/>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="M27" s="22">
+        <f t="shared" si="12"/>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="N27" s="22">
+        <f t="shared" si="12"/>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="O27" s="22">
+        <f t="shared" si="12"/>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="P27" s="22">
+        <f t="shared" si="12"/>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="Q27" s="22">
+        <f t="shared" si="12"/>
+        <v>5.257402422611036E-3</v>
+      </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="7"/>
@@ -5189,7 +5532,7 @@
         <v>93066773</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="3">
         <v>2400</v>
@@ -5209,34 +5552,118 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-      <c r="O28" s="4"/>
-      <c r="P28" s="4"/>
-      <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
-      <c r="V28" s="4"/>
-      <c r="W28" s="4"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AA28" s="4"/>
-      <c r="AB28" s="4"/>
-      <c r="AC28" s="4"/>
-      <c r="AD28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AF28" s="4"/>
-      <c r="AG28" s="4"/>
-      <c r="AH28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AJ28" s="4"/>
+      <c r="I28" s="21">
+        <f>$D28/$H28</f>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="J28" s="21">
+        <f t="shared" ref="J28" si="13">$D28/$H28</f>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="K28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="L28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="M28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="N28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="O28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="P28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="Q28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="R28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="S28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="T28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="U28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="V28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="W28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="X28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="Y28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="Z28" s="21">
+        <f t="shared" si="12"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AA28" s="21">
+        <f t="shared" ref="AA28:AJ28" si="14">$D28/$H28</f>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AB28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AC28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AD28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AE28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AF28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AG28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AH28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AI28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="AJ28" s="21">
+        <f t="shared" si="14"/>
+        <v>1.802537973466641E-3</v>
+      </c>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
@@ -5252,7 +5679,7 @@
         <v>93083111</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="3">
         <v>2400</v>
@@ -5274,11 +5701,26 @@
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="7"/>
-      <c r="L29" s="7"/>
-      <c r="M29" s="7"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
+      <c r="K29" s="22">
+        <f>$D29/$H29</f>
+        <v>1.0094212651413189E-2</v>
+      </c>
+      <c r="L29" s="22">
+        <f t="shared" si="12"/>
+        <v>1.0094212651413189E-2</v>
+      </c>
+      <c r="M29" s="22">
+        <f t="shared" si="12"/>
+        <v>1.0094212651413189E-2</v>
+      </c>
+      <c r="N29" s="22">
+        <f t="shared" si="12"/>
+        <v>1.0094212651413189E-2</v>
+      </c>
+      <c r="O29" s="22">
+        <f t="shared" si="12"/>
+        <v>1.0094212651413189E-2</v>
+      </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
@@ -5315,7 +5757,7 @@
         <v>93082680</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="3">
         <v>120</v>
@@ -5342,7 +5784,10 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
+      <c r="P30" s="22">
+        <f>$D30/$H30</f>
+        <v>2.5235531628532972E-3</v>
+      </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
       <c r="S30" s="7"/>
@@ -5378,7 +5823,7 @@
         <v>93083117</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31" s="3">
         <v>6260</v>
@@ -5409,20 +5854,62 @@
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
-      <c r="X31" s="7"/>
-      <c r="Y31" s="7"/>
-      <c r="Z31" s="7"/>
-      <c r="AA31" s="7"/>
-      <c r="AB31" s="7"/>
-      <c r="AC31" s="7"/>
-      <c r="AD31" s="7"/>
-      <c r="AE31" s="7"/>
-      <c r="AF31" s="7"/>
-      <c r="AG31" s="7"/>
+      <c r="T31" s="22">
+        <f>$D31/$H31</f>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="U31" s="22">
+        <f t="shared" ref="U31:AG31" si="15">$D31/$H31</f>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="V31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="W31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="X31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="Y31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="Z31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="AA31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="AB31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="AC31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="AD31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="AE31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="AF31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
+      <c r="AG31" s="22">
+        <f t="shared" si="15"/>
+        <v>9.403239761584312E-3</v>
+      </c>
       <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
@@ -5441,7 +5928,7 @@
         <v>93083142</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C32" s="3">
         <v>960</v>
@@ -5486,8 +5973,14 @@
       <c r="AE32" s="7"/>
       <c r="AF32" s="7"/>
       <c r="AG32" s="7"/>
-      <c r="AH32" s="7"/>
-      <c r="AI32" s="7"/>
+      <c r="AH32" s="22">
+        <f>$D32/$H32</f>
+        <v>1.0094212651413189E-2</v>
+      </c>
+      <c r="AI32" s="22">
+        <f>$D32/$H32</f>
+        <v>1.0094212651413189E-2</v>
+      </c>
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
@@ -5504,7 +5997,7 @@
         <v>93083149</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C33" s="3">
         <v>480</v>
@@ -5551,8 +6044,14 @@
       <c r="AG33" s="7"/>
       <c r="AH33" s="7"/>
       <c r="AI33" s="7"/>
-      <c r="AJ33" s="7"/>
-      <c r="AK33" s="7"/>
+      <c r="AJ33" s="22">
+        <f>$D33/$H33</f>
+        <v>5.0471063257065945E-3</v>
+      </c>
+      <c r="AK33" s="22">
+        <f>$D33/$H33</f>
+        <v>5.0471063257065945E-3</v>
+      </c>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
       <c r="AN33" s="7"/>
@@ -5567,13 +6066,13 @@
         <v>93083167</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" s="3">
         <v>48</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" ref="D34:D65" si="2">C34/$C$93</f>
+        <f t="shared" ref="D34:D65" si="16">C34/$C$93</f>
         <v>1.009421265141319E-3</v>
       </c>
       <c r="E34" s="3">
@@ -5616,7 +6115,10 @@
       <c r="AI34" s="7"/>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="7"/>
+      <c r="AL34" s="22">
+        <f>$D34/$H34</f>
+        <v>1.009421265141319E-3</v>
+      </c>
       <c r="AM34" s="7"/>
       <c r="AN34" s="7"/>
       <c r="AO34" s="7"/>
@@ -5630,13 +6132,13 @@
         <v>93083150</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C35" s="3">
         <v>270</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>5.677994616419919E-3</v>
       </c>
       <c r="E35" s="3">
@@ -5680,7 +6182,10 @@
       <c r="AJ35" s="7"/>
       <c r="AK35" s="7"/>
       <c r="AL35" s="7"/>
-      <c r="AM35" s="7"/>
+      <c r="AM35" s="22">
+        <f>$D35/$H35</f>
+        <v>5.677994616419919E-3</v>
+      </c>
       <c r="AN35" s="7"/>
       <c r="AO35" s="7"/>
       <c r="AP35" s="7"/>
@@ -5689,17 +6194,17 @@
       <c r="AS35" s="7"/>
     </row>
     <row r="36" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="21">
+      <c r="A36" s="20">
         <v>93083546</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C36" s="3">
         <v>60</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.2617765814266486E-3</v>
       </c>
       <c r="E36" s="3">
@@ -5715,8 +6220,14 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="7"/>
-      <c r="L36" s="7"/>
+      <c r="K36" s="22">
+        <f>$D36/$H36</f>
+        <v>6.3088829071332431E-4</v>
+      </c>
+      <c r="L36" s="22">
+        <f>$D36/$H36</f>
+        <v>6.3088829071332431E-4</v>
+      </c>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
@@ -5756,13 +6267,13 @@
         <v>93085868</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C37" s="3">
         <v>432</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>9.0847913862718704E-3</v>
       </c>
       <c r="E37" s="3">
@@ -5788,9 +6299,18 @@
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
+      <c r="U37" s="22">
+        <f>$D37/$H37</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="V37" s="22">
+        <f t="shared" ref="V37:W37" si="17">$D37/$H37</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="W37" s="22">
+        <f t="shared" si="17"/>
+        <v>3.028263795423957E-3</v>
+      </c>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -5819,13 +6339,13 @@
         <v>93083152</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C38" s="3">
         <v>960</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>2.0188425302826378E-2</v>
       </c>
       <c r="E38" s="3">
@@ -5855,10 +6375,22 @@
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="7"/>
-      <c r="Z38" s="7"/>
-      <c r="AA38" s="7"/>
-      <c r="AB38" s="7"/>
+      <c r="Y38" s="22">
+        <f>$D38/$H38</f>
+        <v>5.0471063257065945E-3</v>
+      </c>
+      <c r="Z38" s="22">
+        <f t="shared" ref="Z38:AB38" si="18">$D38/$H38</f>
+        <v>5.0471063257065945E-3</v>
+      </c>
+      <c r="AA38" s="22">
+        <f t="shared" si="18"/>
+        <v>5.0471063257065945E-3</v>
+      </c>
+      <c r="AB38" s="22">
+        <f t="shared" si="18"/>
+        <v>5.0471063257065945E-3</v>
+      </c>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
       <c r="AE38" s="7"/>
@@ -5882,13 +6414,13 @@
         <v>93083151</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C39" s="3">
         <v>432</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>9.0847913862718704E-3</v>
       </c>
       <c r="E39" s="3">
@@ -5926,8 +6458,14 @@
       <c r="AD39" s="7"/>
       <c r="AE39" s="7"/>
       <c r="AF39" s="7"/>
-      <c r="AG39" s="7"/>
-      <c r="AH39" s="7"/>
+      <c r="AG39" s="22">
+        <f>$D39/$H39</f>
+        <v>4.5423956931359352E-3</v>
+      </c>
+      <c r="AH39" s="22">
+        <f>$D39/$H39</f>
+        <v>4.5423956931359352E-3</v>
+      </c>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
@@ -5945,13 +6483,13 @@
         <v>93082595</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C40" s="3">
         <v>500</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E40" s="3">
@@ -5968,10 +6506,22 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
       <c r="K40" s="7"/>
-      <c r="L40" s="7"/>
-      <c r="M40" s="7"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="L40" s="22">
+        <f>$D40/$H40</f>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="M40" s="22">
+        <f t="shared" ref="M40:O40" si="19">$D40/$H40</f>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="N40" s="22">
+        <f t="shared" si="19"/>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="O40" s="22">
+        <f t="shared" si="19"/>
+        <v>2.628701211305518E-3</v>
+      </c>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -6008,28 +6558,37 @@
         <v>93082591</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="3">
         <v>504</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.059892328398385E-2</v>
       </c>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
+      <c r="E41" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="7"/>
+      <c r="L41" s="22">
+        <f>$D41/$H41</f>
+        <v>5.299461641991925E-3</v>
+      </c>
       <c r="M41" s="7"/>
-      <c r="N41" s="7"/>
+      <c r="N41" s="22">
+        <f>$D41/$H41</f>
+        <v>5.299461641991925E-3</v>
+      </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
@@ -6067,21 +6626,25 @@
         <v>93082597</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C42" s="3">
         <v>1000</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>2.1029609690444144E-2</v>
       </c>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
+      <c r="E42" s="3">
+        <v>7</v>
+      </c>
+      <c r="F42" s="3">
+        <v>10</v>
+      </c>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
@@ -6089,10 +6652,22 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="7"/>
-      <c r="Q42" s="7"/>
-      <c r="R42" s="7"/>
+      <c r="O42" s="22">
+        <f>$D42/$H42</f>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="P42" s="22">
+        <f t="shared" ref="P42:R42" si="20">$D42/$H42</f>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="Q42" s="22">
+        <f t="shared" si="20"/>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="R42" s="22">
+        <f t="shared" si="20"/>
+        <v>5.257402422611036E-3</v>
+      </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
@@ -6126,21 +6701,25 @@
         <v>93082596</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C43" s="3">
         <v>500</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.0514804845222072E-2</v>
       </c>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="3">
+        <v>7</v>
+      </c>
+      <c r="F43" s="3">
+        <v>8</v>
+      </c>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
@@ -6148,8 +6727,14 @@
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
+      <c r="O43" s="22">
+        <f>$D43/$H43</f>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="P43" s="22">
+        <f>$D43/$H43</f>
+        <v>5.257402422611036E-3</v>
+      </c>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
@@ -6185,21 +6770,25 @@
         <v>93082590</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C44" s="3">
         <v>500</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.0514804845222072E-2</v>
       </c>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
+      <c r="E44" s="3">
+        <v>9</v>
+      </c>
+      <c r="F44" s="3">
+        <v>13</v>
+      </c>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
@@ -6209,11 +6798,26 @@
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
+      <c r="Q44" s="22">
+        <f>$D44/$H44</f>
+        <v>2.1029609690444142E-3</v>
+      </c>
+      <c r="R44" s="22">
+        <f t="shared" ref="R44:U44" si="21">$D44/$H44</f>
+        <v>2.1029609690444142E-3</v>
+      </c>
+      <c r="S44" s="22">
+        <f t="shared" si="21"/>
+        <v>2.1029609690444142E-3</v>
+      </c>
+      <c r="T44" s="22">
+        <f t="shared" si="21"/>
+        <v>2.1029609690444142E-3</v>
+      </c>
+      <c r="U44" s="22">
+        <f t="shared" si="21"/>
+        <v>2.1029609690444142E-3</v>
+      </c>
       <c r="V44" s="7"/>
       <c r="W44" s="7"/>
       <c r="X44" s="7"/>
@@ -6244,21 +6848,25 @@
         <v>93082593</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" s="3">
         <v>840</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.7664872139973083E-2</v>
       </c>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
+      <c r="E45" s="3">
+        <v>13</v>
+      </c>
+      <c r="F45" s="3">
+        <v>19</v>
+      </c>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
@@ -6272,13 +6880,34 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
+      <c r="U45" s="22">
+        <f>$D45/$H45</f>
+        <v>2.5235531628532977E-3</v>
+      </c>
+      <c r="V45" s="22">
+        <f t="shared" ref="V45:AA45" si="22">$D45/$H45</f>
+        <v>2.5235531628532977E-3</v>
+      </c>
+      <c r="W45" s="22">
+        <f t="shared" si="22"/>
+        <v>2.5235531628532977E-3</v>
+      </c>
+      <c r="X45" s="22">
+        <f t="shared" si="22"/>
+        <v>2.5235531628532977E-3</v>
+      </c>
+      <c r="Y45" s="22">
+        <f t="shared" si="22"/>
+        <v>2.5235531628532977E-3</v>
+      </c>
+      <c r="Z45" s="22">
+        <f t="shared" si="22"/>
+        <v>2.5235531628532977E-3</v>
+      </c>
+      <c r="AA45" s="22">
+        <f t="shared" si="22"/>
+        <v>2.5235531628532977E-3</v>
+      </c>
       <c r="AB45" s="7"/>
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
@@ -6303,21 +6932,25 @@
         <v>93082592</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" s="3">
         <v>250</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="E46" s="7"/>
-      <c r="F46" s="7"/>
+      <c r="E46" s="3">
+        <v>21</v>
+      </c>
+      <c r="F46" s="3">
+        <v>22</v>
+      </c>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
@@ -6339,8 +6972,14 @@
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="7"/>
-      <c r="AD46" s="7"/>
+      <c r="AC46" s="22">
+        <f>$D46/$H46</f>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="AD46" s="22">
+        <f>$D46/$H46</f>
+        <v>2.628701211305518E-3</v>
+      </c>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
@@ -6362,21 +7001,25 @@
         <v>93082598</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C47" s="3">
         <v>400</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>8.4118438761776586E-3</v>
       </c>
-      <c r="E47" s="7"/>
-      <c r="F47" s="7"/>
+      <c r="E47" s="3">
+        <v>29</v>
+      </c>
+      <c r="F47" s="3">
+        <v>32</v>
+      </c>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
@@ -6406,10 +7049,22 @@
       <c r="AH47" s="7"/>
       <c r="AI47" s="7"/>
       <c r="AJ47" s="7"/>
-      <c r="AK47" s="7"/>
-      <c r="AL47" s="7"/>
-      <c r="AM47" s="7"/>
-      <c r="AN47" s="7"/>
+      <c r="AK47" s="22">
+        <f>$D47/$H47</f>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="AL47" s="22">
+        <f t="shared" ref="AL47:AN47" si="23">$D47/$H47</f>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="AM47" s="22">
+        <f t="shared" si="23"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="AN47" s="22">
+        <f t="shared" si="23"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
       <c r="AO47" s="7"/>
       <c r="AP47" s="7"/>
       <c r="AQ47" s="7"/>
@@ -6421,32 +7076,54 @@
         <v>93084443</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C48" s="3">
         <v>792</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.6655450874831765E-2</v>
       </c>
-      <c r="E48" s="7"/>
-      <c r="F48" s="7"/>
+      <c r="E48" s="3">
+        <v>5</v>
+      </c>
+      <c r="F48" s="3">
+        <v>10</v>
+      </c>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
-      <c r="P48" s="7"/>
-      <c r="Q48" s="7"/>
-      <c r="R48" s="7"/>
+      <c r="M48" s="22">
+        <f>$D48/$H48</f>
+        <v>2.7759084791386273E-3</v>
+      </c>
+      <c r="N48" s="22">
+        <f t="shared" ref="N48:R48" si="24">$D48/$H48</f>
+        <v>2.7759084791386273E-3</v>
+      </c>
+      <c r="O48" s="22">
+        <f t="shared" si="24"/>
+        <v>2.7759084791386273E-3</v>
+      </c>
+      <c r="P48" s="22">
+        <f t="shared" si="24"/>
+        <v>2.7759084791386273E-3</v>
+      </c>
+      <c r="Q48" s="22">
+        <f t="shared" si="24"/>
+        <v>2.7759084791386273E-3</v>
+      </c>
+      <c r="R48" s="22">
+        <f t="shared" si="24"/>
+        <v>2.7759084791386273E-3</v>
+      </c>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
@@ -6480,25 +7157,31 @@
         <v>93084153</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C49" s="3">
         <v>24</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>5.0471063257065949E-4</v>
       </c>
-      <c r="E49" s="7"/>
-      <c r="F49" s="7"/>
+      <c r="E49" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="7"/>
+      <c r="K49" s="22">
+        <f>$D49/$H49</f>
+        <v>2.5235531628532975E-4</v>
+      </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
       <c r="N49" s="7"/>
@@ -6521,7 +7204,10 @@
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
-      <c r="AH49" s="7"/>
+      <c r="AH49" s="22">
+        <f>$D49/$H49</f>
+        <v>2.5235531628532975E-4</v>
+      </c>
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
       <c r="AK49" s="7"/>
@@ -6539,25 +7225,31 @@
         <v>93081197</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C50" s="3">
         <v>60</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.2617765814266486E-3</v>
       </c>
-      <c r="E50" s="7"/>
-      <c r="F50" s="7"/>
+      <c r="E50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="7"/>
+      <c r="K50" s="22">
+        <f>$D50/$H50</f>
+        <v>6.3088829071332431E-4</v>
+      </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
       <c r="N50" s="7"/>
@@ -6580,7 +7272,10 @@
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
-      <c r="AH50" s="7"/>
+      <c r="AH50" s="22">
+        <f>$D50/$H50</f>
+        <v>6.3088829071332431E-4</v>
+      </c>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="7"/>
       <c r="AK50" s="7"/>
@@ -6594,50 +7289,117 @@
       <c r="AS50" s="7"/>
     </row>
     <row r="51" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="17">
-        <v>93083899</v>
+      <c r="A51" s="20">
+        <v>93085087</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C51" s="3">
         <v>360</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>7.5706594885598926E-3</v>
       </c>
-      <c r="E51" s="7"/>
-      <c r="F51" s="7"/>
+      <c r="E51" s="3">
+        <v>4</v>
+      </c>
+      <c r="F51" s="3">
+        <v>24</v>
+      </c>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
       <c r="K51" s="7"/>
-      <c r="L51" s="7"/>
-      <c r="M51" s="7"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
-      <c r="P51" s="7"/>
-      <c r="Q51" s="7"/>
-      <c r="R51" s="7"/>
-      <c r="S51" s="7"/>
-      <c r="T51" s="7"/>
-      <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
-      <c r="X51" s="7"/>
-      <c r="Y51" s="7"/>
-      <c r="Z51" s="7"/>
-      <c r="AA51" s="7"/>
-      <c r="AB51" s="7"/>
-      <c r="AC51" s="7"/>
-      <c r="AD51" s="7"/>
-      <c r="AE51" s="7"/>
-      <c r="AF51" s="7"/>
+      <c r="L51" s="22">
+        <f>$D51/$H51</f>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="M51" s="22">
+        <f t="shared" ref="M51:AF52" si="25">$D51/$H51</f>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="N51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="O51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="P51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="Q51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="R51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="S51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="T51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="U51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="V51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="W51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="X51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="Y51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="Z51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="AA51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="AB51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="AC51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="AD51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="AE51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
+      <c r="AF51" s="22">
+        <f t="shared" si="25"/>
+        <v>3.605075946933282E-4</v>
+      </c>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
@@ -6657,21 +7419,25 @@
         <v>93082602</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C52" s="3">
         <v>400</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>8.4118438761776586E-3</v>
       </c>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
+      <c r="E52" s="3">
+        <v>14</v>
+      </c>
+      <c r="F52" s="3">
+        <v>18</v>
+      </c>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
@@ -6686,11 +7452,26 @@
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
-      <c r="X52" s="7"/>
-      <c r="Y52" s="7"/>
-      <c r="Z52" s="7"/>
+      <c r="V52" s="22">
+        <f>$D52/$H52</f>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="W52" s="22">
+        <f t="shared" si="25"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="X52" s="22">
+        <f t="shared" si="25"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="Y52" s="22">
+        <f t="shared" si="25"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
+      <c r="Z52" s="22">
+        <f t="shared" si="25"/>
+        <v>1.6823687752355316E-3</v>
+      </c>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
@@ -6716,21 +7497,25 @@
         <v>93082604</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C53" s="3">
         <v>400</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>8.4118438761776586E-3</v>
       </c>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
+      <c r="E53" s="3">
+        <v>21</v>
+      </c>
+      <c r="F53" s="3">
+        <v>24</v>
+      </c>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
@@ -6752,10 +7537,22 @@
       <c r="Z53" s="7"/>
       <c r="AA53" s="7"/>
       <c r="AB53" s="7"/>
-      <c r="AC53" s="7"/>
-      <c r="AD53" s="7"/>
-      <c r="AE53" s="7"/>
-      <c r="AF53" s="7"/>
+      <c r="AC53" s="22">
+        <f>$D53/$H53</f>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="AD53" s="22">
+        <f t="shared" ref="AD53:AF53" si="26">$D53/$H53</f>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="AE53" s="22">
+        <f t="shared" si="26"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="AF53" s="22">
+        <f t="shared" si="26"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
@@ -6775,21 +7572,25 @@
         <v>93082603</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C54" s="3">
         <v>500</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.0514804845222072E-2</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
+      <c r="E54" s="3">
+        <v>25</v>
+      </c>
+      <c r="F54" s="3">
+        <v>28</v>
+      </c>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
@@ -6815,10 +7616,22 @@
       <c r="AD54" s="7"/>
       <c r="AE54" s="7"/>
       <c r="AF54" s="7"/>
-      <c r="AG54" s="7"/>
-      <c r="AH54" s="7"/>
-      <c r="AI54" s="7"/>
-      <c r="AJ54" s="7"/>
+      <c r="AG54" s="22">
+        <f>$D54/$H54</f>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="AH54" s="22">
+        <f t="shared" ref="AH54:AJ54" si="27">$D54/$H54</f>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="AI54" s="22">
+        <f t="shared" si="27"/>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="AJ54" s="22">
+        <f t="shared" si="27"/>
+        <v>2.628701211305518E-3</v>
+      </c>
       <c r="AK54" s="7"/>
       <c r="AL54" s="7"/>
       <c r="AM54" s="7"/>
@@ -6834,37 +7647,77 @@
         <v>93083385</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C55" s="3">
         <v>1060</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>2.2291386271870793E-2</v>
       </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="7"/>
+      <c r="E55" s="3">
+        <v>4</v>
+      </c>
+      <c r="F55" s="3">
+        <v>15</v>
+      </c>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="7"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
-      <c r="P55" s="7"/>
-      <c r="Q55" s="7"/>
-      <c r="R55" s="7"/>
-      <c r="S55" s="7"/>
-      <c r="T55" s="7"/>
-      <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
+      <c r="L55" s="22">
+        <f>$D55/$H55</f>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="M55" s="22">
+        <f t="shared" ref="M55:W57" si="28">$D55/$H55</f>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="N55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="O55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="P55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="Q55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="R55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="S55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="T55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="U55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="V55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
+      <c r="W55" s="22">
+        <f t="shared" si="28"/>
+        <v>1.8576155226558994E-3</v>
+      </c>
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
@@ -6893,31 +7746,53 @@
         <v>93085122</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C56" s="3">
         <v>800</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.6823687752355317E-2</v>
       </c>
-      <c r="E56" s="7"/>
-      <c r="F56" s="7"/>
+      <c r="E56" s="3">
+        <v>4</v>
+      </c>
+      <c r="F56" s="3">
+        <v>9</v>
+      </c>
       <c r="G56" s="7"/>
       <c r="H56" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="7"/>
-      <c r="M56" s="7"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
-      <c r="P56" s="7"/>
-      <c r="Q56" s="7"/>
+      <c r="L56" s="22">
+        <f>$D56/$H56</f>
+        <v>2.8039479587258862E-3</v>
+      </c>
+      <c r="M56" s="22">
+        <f t="shared" si="28"/>
+        <v>2.8039479587258862E-3</v>
+      </c>
+      <c r="N56" s="22">
+        <f t="shared" si="28"/>
+        <v>2.8039479587258862E-3</v>
+      </c>
+      <c r="O56" s="22">
+        <f t="shared" si="28"/>
+        <v>2.8039479587258862E-3</v>
+      </c>
+      <c r="P56" s="22">
+        <f t="shared" si="28"/>
+        <v>2.8039479587258862E-3</v>
+      </c>
+      <c r="Q56" s="22">
+        <f t="shared" si="28"/>
+        <v>2.8039479587258862E-3</v>
+      </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
@@ -6952,31 +7827,53 @@
         <v>93081783</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C57" s="3">
         <v>1080</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>2.2711978465679676E-2</v>
       </c>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
+      <c r="E57" s="3">
+        <v>4</v>
+      </c>
+      <c r="F57" s="3">
+        <v>9</v>
+      </c>
       <c r="G57" s="7"/>
       <c r="H57" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="7"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
+      <c r="L57" s="22">
+        <f>$D57/$H57</f>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="M57" s="22">
+        <f t="shared" si="28"/>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="N57" s="22">
+        <f t="shared" si="28"/>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="O57" s="22">
+        <f t="shared" si="28"/>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="P57" s="22">
+        <f t="shared" si="28"/>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="Q57" s="22">
+        <f t="shared" si="28"/>
+        <v>3.7853297442799459E-3</v>
+      </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
@@ -7011,21 +7908,25 @@
         <v>93083731</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C58" s="3">
         <v>1080</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>2.2711978465679676E-2</v>
       </c>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
+      <c r="E58" s="3">
+        <v>21</v>
+      </c>
+      <c r="F58" s="3">
+        <v>26</v>
+      </c>
       <c r="G58" s="7"/>
       <c r="H58" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
@@ -7047,12 +7948,30 @@
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
-      <c r="AC58" s="7"/>
-      <c r="AD58" s="7"/>
-      <c r="AE58" s="7"/>
-      <c r="AF58" s="7"/>
-      <c r="AG58" s="7"/>
-      <c r="AH58" s="7"/>
+      <c r="AC58" s="22">
+        <f>$D58/$H58</f>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="AD58" s="22">
+        <f t="shared" ref="AD58:AH58" si="29">$D58/$H58</f>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="AE58" s="22">
+        <f t="shared" si="29"/>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="AF58" s="22">
+        <f t="shared" si="29"/>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="AG58" s="22">
+        <f t="shared" si="29"/>
+        <v>3.7853297442799459E-3</v>
+      </c>
+      <c r="AH58" s="22">
+        <f t="shared" si="29"/>
+        <v>3.7853297442799459E-3</v>
+      </c>
       <c r="AI58" s="7"/>
       <c r="AJ58" s="7"/>
       <c r="AK58" s="7"/>
@@ -7070,21 +7989,25 @@
         <v>93084875</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C59" s="3">
         <v>432</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>9.0847913862718704E-3</v>
       </c>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
+      <c r="E59" s="3">
+        <v>25</v>
+      </c>
+      <c r="F59" s="3">
+        <v>26</v>
+      </c>
       <c r="G59" s="7"/>
       <c r="H59" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
@@ -7110,8 +8033,14 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
       <c r="AF59" s="7"/>
-      <c r="AG59" s="7"/>
-      <c r="AH59" s="7"/>
+      <c r="AG59" s="22">
+        <f>$D59/$H59</f>
+        <v>4.5423956931359352E-3</v>
+      </c>
+      <c r="AH59" s="22">
+        <f>$D59/$H59</f>
+        <v>4.5423956931359352E-3</v>
+      </c>
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7"/>
       <c r="AK59" s="7"/>
@@ -7129,21 +8058,25 @@
         <v>93078452</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C60" s="3">
         <v>800</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.6823687752355317E-2</v>
       </c>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
+      <c r="E60" s="3">
+        <v>11</v>
+      </c>
+      <c r="F60" s="3">
+        <v>18</v>
+      </c>
       <c r="G60" s="7"/>
       <c r="H60" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
@@ -7154,15 +8087,39 @@
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="22">
+        <f t="shared" ref="S60:Z61" si="30">$D60/$H60</f>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="T60" s="22">
+        <f t="shared" si="30"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="U60" s="22">
+        <f t="shared" si="30"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="V60" s="22">
+        <f t="shared" si="30"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="W60" s="22">
+        <f t="shared" si="30"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="X60" s="22">
+        <f t="shared" si="30"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="Y60" s="22">
+        <f t="shared" si="30"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="Z60" s="22">
+        <f t="shared" si="30"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
       <c r="AA60" s="7"/>
       <c r="AB60" s="7"/>
       <c r="AC60" s="7"/>
@@ -7188,21 +8145,25 @@
         <v>93078559</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C61" s="3">
         <v>60</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>1.2617765814266486E-3</v>
       </c>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
+      <c r="E61" s="3">
+        <v>12</v>
+      </c>
+      <c r="F61" s="3">
+        <v>14</v>
+      </c>
       <c r="G61" s="7"/>
       <c r="H61" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
@@ -7215,9 +8176,18 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
-      <c r="T61" s="7"/>
-      <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
+      <c r="T61" s="22">
+        <f>$D61/$H61</f>
+        <v>4.2059219380888286E-4</v>
+      </c>
+      <c r="U61" s="22">
+        <f t="shared" si="30"/>
+        <v>4.2059219380888286E-4</v>
+      </c>
+      <c r="V61" s="22">
+        <f t="shared" si="30"/>
+        <v>4.2059219380888286E-4</v>
+      </c>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
@@ -7247,17 +8217,21 @@
         <v>93085026</v>
       </c>
       <c r="B62" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="3">
         <v>36</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>7.5706594885598924E-4</v>
       </c>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
+      <c r="E62" s="3">
+        <v>15</v>
+      </c>
+      <c r="F62" s="3">
+        <v>15</v>
+      </c>
       <c r="G62" s="7"/>
       <c r="H62" s="6">
         <f t="shared" si="1"/>
@@ -7277,7 +8251,10 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
+      <c r="W62" s="22">
+        <f>$D62/$H62</f>
+        <v>7.5706594885598924E-4</v>
+      </c>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
@@ -7306,17 +8283,21 @@
         <v>93086353</v>
       </c>
       <c r="B63" s="14" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C63" s="3">
         <v>32</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>6.7294751009421266E-4</v>
       </c>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
+      <c r="E63" s="3">
+        <v>18</v>
+      </c>
+      <c r="F63" s="3">
+        <v>18</v>
+      </c>
       <c r="G63" s="7"/>
       <c r="H63" s="6">
         <f t="shared" si="1"/>
@@ -7339,7 +8320,10 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
-      <c r="Z63" s="7"/>
+      <c r="Z63" s="22">
+        <f>$D63/$H63</f>
+        <v>6.7294751009421266E-4</v>
+      </c>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
       <c r="AC63" s="7"/>
@@ -7365,17 +8349,21 @@
         <v>93085988</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C64" s="3">
         <v>16</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>3.3647375504710633E-4</v>
       </c>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
+      <c r="E64" s="3">
+        <v>19</v>
+      </c>
+      <c r="F64" s="3">
+        <v>19</v>
+      </c>
       <c r="G64" s="7"/>
       <c r="H64" s="6">
         <f t="shared" si="1"/>
@@ -7399,7 +8387,10 @@
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
-      <c r="AA64" s="7"/>
+      <c r="AA64" s="22">
+        <f>$D64/$H64</f>
+        <v>3.3647375504710633E-4</v>
+      </c>
       <c r="AB64" s="7"/>
       <c r="AC64" s="7"/>
       <c r="AD64" s="7"/>
@@ -7424,17 +8415,21 @@
         <v>93081196</v>
       </c>
       <c r="B65" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65" s="3">
         <v>18</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="16"/>
         <v>3.7853297442799462E-4</v>
       </c>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
+      <c r="E65" s="3">
+        <v>20</v>
+      </c>
+      <c r="F65" s="3">
+        <v>20</v>
+      </c>
       <c r="G65" s="7"/>
       <c r="H65" s="6">
         <f t="shared" si="1"/>
@@ -7459,7 +8454,10 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
-      <c r="AB65" s="7"/>
+      <c r="AB65" s="22">
+        <f>$D65/$H65</f>
+        <v>3.7853297442799462E-4</v>
+      </c>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
       <c r="AE65" s="7"/>
@@ -7483,38 +8481,81 @@
         <v>93076942</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C66" s="3">
         <v>216</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" ref="D66:D97" si="3">C66/$C$93</f>
+        <f t="shared" ref="D66:D92" si="31">C66/$C$93</f>
         <v>4.5423956931359352E-3</v>
       </c>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
+      <c r="E66" s="3">
+        <v>4</v>
+      </c>
+      <c r="F66" s="3">
+        <v>16</v>
+      </c>
       <c r="G66" s="7"/>
       <c r="H66" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
+      <c r="L66" s="22">
+        <f>$D66/$H66</f>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="M66" s="22">
+        <f t="shared" ref="M66:X66" si="32">$D66/$H66</f>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="N66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="O66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="P66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="Q66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="R66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="S66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="T66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="U66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="V66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="W66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
+      <c r="X66" s="22">
+        <f t="shared" si="32"/>
+        <v>3.4941505331814889E-4</v>
+      </c>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
       <c r="AA66" s="7"/>
@@ -7542,21 +8583,25 @@
         <v>93084517</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C67" s="3">
         <v>900</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.8926648721399732E-2</v>
       </c>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
+      <c r="E67" s="3">
+        <v>18</v>
+      </c>
+      <c r="F67" s="3">
+        <v>25</v>
+      </c>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <f t="shared" ref="H67:H92" si="4">F67-E67+1</f>
-        <v>1</v>
+        <f t="shared" ref="H67:H92" si="33">F67-E67+1</f>
+        <v>8</v>
       </c>
       <c r="I67" s="7"/>
       <c r="J67" s="7"/>
@@ -7575,14 +8620,38 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
-      <c r="Z67" s="7"/>
-      <c r="AA67" s="7"/>
-      <c r="AB67" s="7"/>
-      <c r="AC67" s="7"/>
-      <c r="AD67" s="7"/>
-      <c r="AE67" s="7"/>
-      <c r="AF67" s="7"/>
-      <c r="AG67" s="7"/>
+      <c r="Z67" s="22">
+        <f>$D67/$H67</f>
+        <v>2.3658310901749665E-3</v>
+      </c>
+      <c r="AA67" s="22">
+        <f t="shared" ref="AA67:AG68" si="34">$D67/$H67</f>
+        <v>2.3658310901749665E-3</v>
+      </c>
+      <c r="AB67" s="22">
+        <f t="shared" si="34"/>
+        <v>2.3658310901749665E-3</v>
+      </c>
+      <c r="AC67" s="22">
+        <f t="shared" si="34"/>
+        <v>2.3658310901749665E-3</v>
+      </c>
+      <c r="AD67" s="22">
+        <f t="shared" si="34"/>
+        <v>2.3658310901749665E-3</v>
+      </c>
+      <c r="AE67" s="22">
+        <f t="shared" si="34"/>
+        <v>2.3658310901749665E-3</v>
+      </c>
+      <c r="AF67" s="22">
+        <f t="shared" si="34"/>
+        <v>2.3658310901749665E-3</v>
+      </c>
+      <c r="AG67" s="22">
+        <f t="shared" si="34"/>
+        <v>2.3658310901749665E-3</v>
+      </c>
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
       <c r="AJ67" s="7"/>
@@ -7601,21 +8670,25 @@
         <v>93084693</v>
       </c>
       <c r="B68" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C68" s="3">
         <v>600</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.2617765814266487E-2</v>
       </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="7"/>
+      <c r="E68" s="3">
+        <v>18</v>
+      </c>
+      <c r="F68" s="3">
+        <v>21</v>
+      </c>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>4</v>
       </c>
       <c r="I68" s="7"/>
       <c r="J68" s="7"/>
@@ -7634,10 +8707,22 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
-      <c r="Z68" s="7"/>
-      <c r="AA68" s="7"/>
-      <c r="AB68" s="7"/>
-      <c r="AC68" s="7"/>
+      <c r="Z68" s="22">
+        <f>$D68/$H68</f>
+        <v>3.1544414535666218E-3</v>
+      </c>
+      <c r="AA68" s="22">
+        <f t="shared" si="34"/>
+        <v>3.1544414535666218E-3</v>
+      </c>
+      <c r="AB68" s="22">
+        <f t="shared" si="34"/>
+        <v>3.1544414535666218E-3</v>
+      </c>
+      <c r="AC68" s="22">
+        <f t="shared" si="34"/>
+        <v>3.1544414535666218E-3</v>
+      </c>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
       <c r="AF68" s="7"/>
@@ -7660,20 +8745,24 @@
         <v>93084512</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C69" s="3">
         <v>12</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>2.5235531628532975E-4</v>
       </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="7"/>
+      <c r="E69" s="3">
+        <v>33</v>
+      </c>
+      <c r="F69" s="3">
+        <v>33</v>
+      </c>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I69" s="7"/>
@@ -7708,7 +8797,10 @@
       <c r="AL69" s="7"/>
       <c r="AM69" s="7"/>
       <c r="AN69" s="7"/>
-      <c r="AO69" s="7"/>
+      <c r="AO69" s="22">
+        <f>$D69/$H69</f>
+        <v>2.5235531628532975E-4</v>
+      </c>
       <c r="AP69" s="7"/>
       <c r="AQ69" s="7"/>
       <c r="AR69" s="7"/>
@@ -7719,21 +8811,25 @@
         <v>93078761</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C70" s="3">
         <v>1620</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>3.4067967698519518E-2</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="7"/>
+      <c r="E70" s="3">
+        <v>7</v>
+      </c>
+      <c r="F70" s="3">
+        <v>19</v>
+      </c>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>13</v>
       </c>
       <c r="I70" s="7"/>
       <c r="J70" s="7"/>
@@ -7741,19 +8837,58 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
-      <c r="P70" s="7"/>
-      <c r="Q70" s="7"/>
-      <c r="R70" s="7"/>
-      <c r="S70" s="7"/>
-      <c r="T70" s="7"/>
-      <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
-      <c r="X70" s="7"/>
-      <c r="Y70" s="7"/>
-      <c r="Z70" s="7"/>
-      <c r="AA70" s="7"/>
+      <c r="O70" s="22">
+        <f>$D70/$H70</f>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="P70" s="22">
+        <f t="shared" ref="P70:AA70" si="35">$D70/$H70</f>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="Q70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="R70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="S70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="T70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="U70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="V70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="W70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="X70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="Y70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="Z70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
+      <c r="AA70" s="22">
+        <f t="shared" si="35"/>
+        <v>2.6206128998861166E-3</v>
+      </c>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
       <c r="AD70" s="7"/>
@@ -7778,21 +8913,25 @@
         <v>93087590</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C71" s="3">
         <v>600</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.2617765814266487E-2</v>
       </c>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
+      <c r="E71" s="3">
+        <v>21</v>
+      </c>
+      <c r="F71" s="3">
+        <v>28</v>
+      </c>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>8</v>
       </c>
       <c r="I71" s="7"/>
       <c r="J71" s="7"/>
@@ -7814,14 +8953,38 @@
       <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
-      <c r="AC71" s="7"/>
-      <c r="AD71" s="7"/>
-      <c r="AE71" s="7"/>
-      <c r="AF71" s="7"/>
-      <c r="AG71" s="7"/>
-      <c r="AH71" s="7"/>
-      <c r="AI71" s="7"/>
-      <c r="AJ71" s="7"/>
+      <c r="AC71" s="22">
+        <f>$D71/$H71</f>
+        <v>1.5772207267833109E-3</v>
+      </c>
+      <c r="AD71" s="22">
+        <f t="shared" ref="AD71:AJ72" si="36">$D71/$H71</f>
+        <v>1.5772207267833109E-3</v>
+      </c>
+      <c r="AE71" s="22">
+        <f t="shared" si="36"/>
+        <v>1.5772207267833109E-3</v>
+      </c>
+      <c r="AF71" s="22">
+        <f t="shared" si="36"/>
+        <v>1.5772207267833109E-3</v>
+      </c>
+      <c r="AG71" s="22">
+        <f t="shared" si="36"/>
+        <v>1.5772207267833109E-3</v>
+      </c>
+      <c r="AH71" s="22">
+        <f t="shared" si="36"/>
+        <v>1.5772207267833109E-3</v>
+      </c>
+      <c r="AI71" s="22">
+        <f t="shared" si="36"/>
+        <v>1.5772207267833109E-3</v>
+      </c>
+      <c r="AJ71" s="22">
+        <f t="shared" si="36"/>
+        <v>1.5772207267833109E-3</v>
+      </c>
       <c r="AK71" s="7"/>
       <c r="AL71" s="7"/>
       <c r="AM71" s="7"/>
@@ -7837,21 +9000,25 @@
         <v>93084694</v>
       </c>
       <c r="B72" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C72" s="3">
         <v>600</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.2617765814266487E-2</v>
       </c>
-      <c r="E72" s="7"/>
-      <c r="F72" s="7"/>
+      <c r="E72" s="3">
+        <v>21</v>
+      </c>
+      <c r="F72" s="3">
+        <v>24</v>
+      </c>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>4</v>
       </c>
       <c r="I72" s="7"/>
       <c r="J72" s="7"/>
@@ -7873,10 +9040,22 @@
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
-      <c r="AC72" s="7"/>
-      <c r="AD72" s="7"/>
-      <c r="AE72" s="7"/>
-      <c r="AF72" s="7"/>
+      <c r="AC72" s="22">
+        <f>$D72/$H72</f>
+        <v>3.1544414535666218E-3</v>
+      </c>
+      <c r="AD72" s="22">
+        <f t="shared" si="36"/>
+        <v>3.1544414535666218E-3</v>
+      </c>
+      <c r="AE72" s="22">
+        <f t="shared" si="36"/>
+        <v>3.1544414535666218E-3</v>
+      </c>
+      <c r="AF72" s="22">
+        <f t="shared" si="36"/>
+        <v>3.1544414535666218E-3</v>
+      </c>
       <c r="AG72" s="7"/>
       <c r="AH72" s="7"/>
       <c r="AI72" s="7"/>
@@ -7896,20 +9075,24 @@
         <v>93084829</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C73" s="3">
         <v>18</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>3.7853297442799462E-4</v>
       </c>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
+      <c r="E73" s="3">
+        <v>33</v>
+      </c>
+      <c r="F73" s="3">
+        <v>33</v>
+      </c>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I73" s="7"/>
@@ -7944,7 +9127,10 @@
       <c r="AL73" s="7"/>
       <c r="AM73" s="7"/>
       <c r="AN73" s="7"/>
-      <c r="AO73" s="7"/>
+      <c r="AO73" s="22">
+        <f>$D73/$H73</f>
+        <v>3.7853297442799462E-4</v>
+      </c>
       <c r="AP73" s="7"/>
       <c r="AQ73" s="7"/>
       <c r="AR73" s="7"/>
@@ -7955,20 +9141,24 @@
         <v>93083354</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C74" s="3">
         <v>50</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.0514804845222073E-3</v>
       </c>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
+      <c r="E74" s="3">
+        <v>12</v>
+      </c>
+      <c r="F74" s="3">
+        <v>12</v>
+      </c>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I74" s="7"/>
@@ -7982,7 +9172,10 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
-      <c r="T74" s="7"/>
+      <c r="T74" s="22">
+        <f>$D74/$H74</f>
+        <v>1.0514804845222073E-3</v>
+      </c>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
       <c r="W74" s="7"/>
@@ -8014,20 +9207,24 @@
         <v>93068361</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C75" s="3">
         <v>4</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>8.4118438761776582E-5</v>
       </c>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
+      <c r="E75" s="3">
+        <v>13</v>
+      </c>
+      <c r="F75" s="3">
+        <v>13</v>
+      </c>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I75" s="7"/>
@@ -8042,7 +9239,10 @@
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
-      <c r="U75" s="7"/>
+      <c r="U75" s="22">
+        <f>$D75/$H75</f>
+        <v>8.4118438761776582E-5</v>
+      </c>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
       <c r="X75" s="7"/>
@@ -8073,20 +9273,24 @@
         <v>93078933</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C76" s="3">
         <v>4</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>8.4118438761776582E-5</v>
       </c>
-      <c r="E76" s="7"/>
-      <c r="F76" s="7"/>
+      <c r="E76" s="3">
+        <v>13</v>
+      </c>
+      <c r="F76" s="3">
+        <v>13</v>
+      </c>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I76" s="7"/>
@@ -8101,7 +9305,10 @@
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
-      <c r="U76" s="7"/>
+      <c r="U76" s="22">
+        <f>$D76/$H76</f>
+        <v>8.4118438761776582E-5</v>
+      </c>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
       <c r="X76" s="7"/>
@@ -8132,20 +9339,24 @@
         <v>93083353</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C77" s="3">
         <v>45</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>9.4633243606998658E-4</v>
       </c>
-      <c r="E77" s="7"/>
-      <c r="F77" s="7"/>
+      <c r="E77" s="3">
+        <v>13</v>
+      </c>
+      <c r="F77" s="3">
+        <v>13</v>
+      </c>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I77" s="7"/>
@@ -8160,7 +9371,10 @@
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
-      <c r="U77" s="7"/>
+      <c r="U77" s="22">
+        <f>$D77/$H77</f>
+        <v>9.4633243606998658E-4</v>
+      </c>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
       <c r="X77" s="7"/>
@@ -8191,30 +9405,43 @@
         <v>93072684</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C78" s="3">
         <v>300</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>6.3088829071332436E-3</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="7"/>
+      <c r="E78" s="3">
+        <v>6</v>
+      </c>
+      <c r="F78" s="3">
+        <v>8</v>
+      </c>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>3</v>
       </c>
       <c r="I78" s="7"/>
       <c r="J78" s="7"/>
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
-      <c r="P78" s="7"/>
+      <c r="N78" s="22">
+        <f>$D78/$H78</f>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="O78" s="22">
+        <f t="shared" ref="O78:P78" si="37">$D78/$H78</f>
+        <v>2.1029609690444147E-3</v>
+      </c>
+      <c r="P78" s="22">
+        <f t="shared" si="37"/>
+        <v>2.1029609690444147E-3</v>
+      </c>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
@@ -8250,20 +9477,24 @@
         <v>93083355</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C79" s="3">
         <v>50</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.0514804845222073E-3</v>
       </c>
-      <c r="E79" s="7"/>
-      <c r="F79" s="7"/>
+      <c r="E79" s="3">
+        <v>10</v>
+      </c>
+      <c r="F79" s="3">
+        <v>10</v>
+      </c>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I79" s="7"/>
@@ -8275,7 +9506,10 @@
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
-      <c r="R79" s="7"/>
+      <c r="R79" s="22">
+        <f>$D79/$H79</f>
+        <v>1.0514804845222073E-3</v>
+      </c>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
@@ -8309,20 +9543,24 @@
         <v>93083358</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C80" s="3">
         <v>45</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>9.4633243606998658E-4</v>
       </c>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
+      <c r="E80" s="3">
+        <v>11</v>
+      </c>
+      <c r="F80" s="3">
+        <v>11</v>
+      </c>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I80" s="7"/>
@@ -8335,7 +9573,10 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
+      <c r="S80" s="22">
+        <f>$D80/$H80</f>
+        <v>9.4633243606998658E-4</v>
+      </c>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
       <c r="V80" s="7"/>
@@ -8368,21 +9609,25 @@
         <v>93087272</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C81" s="3">
         <v>720</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.5141318977119785E-2</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="7"/>
+      <c r="E81" s="3">
+        <v>10</v>
+      </c>
+      <c r="F81" s="3">
+        <v>14</v>
+      </c>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>5</v>
       </c>
       <c r="I81" s="7"/>
       <c r="J81" s="7"/>
@@ -8393,11 +9638,26 @@
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
-      <c r="R81" s="7"/>
-      <c r="S81" s="7"/>
-      <c r="T81" s="7"/>
-      <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
+      <c r="R81" s="22">
+        <f>$D81/$H81</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="S81" s="22">
+        <f t="shared" ref="S81:V81" si="38">$D81/$H81</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="T81" s="22">
+        <f t="shared" si="38"/>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="U81" s="22">
+        <f t="shared" si="38"/>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="V81" s="22">
+        <f t="shared" si="38"/>
+        <v>3.028263795423957E-3</v>
+      </c>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
@@ -8427,21 +9687,25 @@
         <v>93087274</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C82" s="3">
         <v>720</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.5141318977119785E-2</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="7"/>
+      <c r="E82" s="3">
+        <v>15</v>
+      </c>
+      <c r="F82" s="3">
+        <v>19</v>
+      </c>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>5</v>
       </c>
       <c r="I82" s="7"/>
       <c r="J82" s="7"/>
@@ -8457,11 +9721,26 @@
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
-      <c r="X82" s="7"/>
-      <c r="Y82" s="7"/>
-      <c r="Z82" s="7"/>
-      <c r="AA82" s="7"/>
+      <c r="W82" s="22">
+        <f>$D82/$H82</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="X82" s="22">
+        <f t="shared" ref="X82:AA82" si="39">$D82/$H82</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="Y82" s="22">
+        <f t="shared" si="39"/>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="Z82" s="22">
+        <f t="shared" si="39"/>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="AA82" s="22">
+        <f t="shared" si="39"/>
+        <v>3.028263795423957E-3</v>
+      </c>
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
       <c r="AD82" s="7"/>
@@ -8486,21 +9765,25 @@
         <v>93087275</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C83" s="3">
         <v>720</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.5141318977119785E-2</v>
       </c>
-      <c r="E83" s="7"/>
-      <c r="F83" s="7"/>
+      <c r="E83" s="3">
+        <v>20</v>
+      </c>
+      <c r="F83" s="3">
+        <v>24</v>
+      </c>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>5</v>
       </c>
       <c r="I83" s="7"/>
       <c r="J83" s="7"/>
@@ -8521,11 +9804,26 @@
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="7"/>
-      <c r="AB83" s="7"/>
-      <c r="AC83" s="7"/>
-      <c r="AD83" s="7"/>
-      <c r="AE83" s="7"/>
-      <c r="AF83" s="7"/>
+      <c r="AB83" s="22">
+        <f>$D83/$H83</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="AC83" s="22">
+        <f t="shared" ref="AC83:AF83" si="40">$D83/$H83</f>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="AD83" s="22">
+        <f t="shared" si="40"/>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="AE83" s="22">
+        <f t="shared" si="40"/>
+        <v>3.028263795423957E-3</v>
+      </c>
+      <c r="AF83" s="22">
+        <f t="shared" si="40"/>
+        <v>3.028263795423957E-3</v>
+      </c>
       <c r="AG83" s="7"/>
       <c r="AH83" s="7"/>
       <c r="AI83" s="7"/>
@@ -8545,21 +9843,25 @@
         <v>93084250</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C84" s="3">
         <v>360</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>7.5706594885598926E-3</v>
       </c>
-      <c r="E84" s="7"/>
-      <c r="F84" s="7"/>
+      <c r="E84" s="3">
+        <v>9</v>
+      </c>
+      <c r="F84" s="3">
+        <v>12</v>
+      </c>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>4</v>
       </c>
       <c r="I84" s="7"/>
       <c r="J84" s="7"/>
@@ -8569,10 +9871,22 @@
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
-      <c r="Q84" s="7"/>
-      <c r="R84" s="7"/>
-      <c r="S84" s="7"/>
-      <c r="T84" s="7"/>
+      <c r="Q84" s="22">
+        <f>$D84/$H84</f>
+        <v>1.8926648721399732E-3</v>
+      </c>
+      <c r="R84" s="22">
+        <f t="shared" ref="R84:T84" si="41">$D84/$H84</f>
+        <v>1.8926648721399732E-3</v>
+      </c>
+      <c r="S84" s="22">
+        <f t="shared" si="41"/>
+        <v>1.8926648721399732E-3</v>
+      </c>
+      <c r="T84" s="22">
+        <f t="shared" si="41"/>
+        <v>1.8926648721399732E-3</v>
+      </c>
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
       <c r="W84" s="7"/>
@@ -8604,20 +9918,24 @@
         <v>93085863</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C85" s="3">
         <v>36</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>7.5706594885598924E-4</v>
       </c>
-      <c r="E85" s="7"/>
-      <c r="F85" s="7"/>
+      <c r="E85" s="3">
+        <v>31</v>
+      </c>
+      <c r="F85" s="3">
+        <v>31</v>
+      </c>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="33"/>
         <v>1</v>
       </c>
       <c r="I85" s="7"/>
@@ -8650,7 +9968,10 @@
       <c r="AJ85" s="7"/>
       <c r="AK85" s="7"/>
       <c r="AL85" s="7"/>
-      <c r="AM85" s="7"/>
+      <c r="AM85" s="22">
+        <f>$D85/$H85</f>
+        <v>7.5706594885598924E-4</v>
+      </c>
       <c r="AN85" s="7"/>
       <c r="AO85" s="7"/>
       <c r="AP85" s="7"/>
@@ -8663,21 +9984,25 @@
         <v>93082585</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C86" s="3">
         <v>192</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>4.0376850605652759E-3</v>
       </c>
-      <c r="E86" s="7"/>
-      <c r="F86" s="7"/>
+      <c r="E86" s="3">
+        <v>28</v>
+      </c>
+      <c r="F86" s="3">
+        <v>29</v>
+      </c>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>2</v>
       </c>
       <c r="I86" s="7"/>
       <c r="J86" s="7"/>
@@ -8706,8 +10031,14 @@
       <c r="AG86" s="7"/>
       <c r="AH86" s="7"/>
       <c r="AI86" s="7"/>
-      <c r="AJ86" s="7"/>
-      <c r="AK86" s="7"/>
+      <c r="AJ86" s="22">
+        <f>$D86/$H86</f>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="AK86" s="22">
+        <f>$D86/$H86</f>
+        <v>2.018842530282638E-3</v>
+      </c>
       <c r="AL86" s="7"/>
       <c r="AM86" s="7"/>
       <c r="AN86" s="7"/>
@@ -8722,21 +10053,25 @@
         <v>93082581</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C87" s="3">
         <v>500</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.0514804845222072E-2</v>
       </c>
-      <c r="E87" s="7"/>
-      <c r="F87" s="7"/>
+      <c r="E87" s="3">
+        <v>28</v>
+      </c>
+      <c r="F87" s="3">
+        <v>29</v>
+      </c>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>2</v>
       </c>
       <c r="I87" s="7"/>
       <c r="J87" s="7"/>
@@ -8765,8 +10100,14 @@
       <c r="AG87" s="7"/>
       <c r="AH87" s="7"/>
       <c r="AI87" s="7"/>
-      <c r="AJ87" s="7"/>
-      <c r="AK87" s="7"/>
+      <c r="AJ87" s="22">
+        <f>$D87/$H87</f>
+        <v>5.257402422611036E-3</v>
+      </c>
+      <c r="AK87" s="22">
+        <f>$D87/$H87</f>
+        <v>5.257402422611036E-3</v>
+      </c>
       <c r="AL87" s="7"/>
       <c r="AM87" s="7"/>
       <c r="AN87" s="7"/>
@@ -8781,21 +10122,24 @@
         <v>93082586</v>
       </c>
       <c r="B88" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C88" s="3">
         <v>144</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="E88" s="7"/>
-      <c r="F88" s="7"/>
+      <c r="E88" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I88" s="7"/>
       <c r="J88" s="7"/>
@@ -8825,10 +10169,16 @@
       <c r="AH88" s="7"/>
       <c r="AI88" s="7"/>
       <c r="AJ88" s="7"/>
-      <c r="AK88" s="7"/>
+      <c r="AK88" s="22">
+        <f>$D88/$H88</f>
+        <v>1.5141318977119785E-3</v>
+      </c>
       <c r="AL88" s="7"/>
       <c r="AM88" s="7"/>
-      <c r="AN88" s="7"/>
+      <c r="AN88" s="22">
+        <f>$D88/$H88</f>
+        <v>1.5141318977119785E-3</v>
+      </c>
       <c r="AO88" s="7"/>
       <c r="AP88" s="7"/>
       <c r="AQ88" s="7"/>
@@ -8840,21 +10190,24 @@
         <v>93085864</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C89" s="3">
         <v>33</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>6.9397711978465683E-4</v>
       </c>
-      <c r="E89" s="7"/>
-      <c r="F89" s="7"/>
+      <c r="E89" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I89" s="7"/>
       <c r="J89" s="7"/>
@@ -8885,9 +10238,15 @@
       <c r="AI89" s="7"/>
       <c r="AJ89" s="7"/>
       <c r="AK89" s="7"/>
-      <c r="AL89" s="7"/>
+      <c r="AL89" s="22">
+        <f>$D89/$H89</f>
+        <v>3.4698855989232841E-4</v>
+      </c>
       <c r="AM89" s="7"/>
-      <c r="AN89" s="7"/>
+      <c r="AN89" s="22">
+        <f>$D89/$H89</f>
+        <v>3.4698855989232841E-4</v>
+      </c>
       <c r="AO89" s="7"/>
       <c r="AP89" s="7"/>
       <c r="AQ89" s="7"/>
@@ -8899,21 +10258,25 @@
         <v>93083038</v>
       </c>
       <c r="B90" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C90" s="3">
         <v>480</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>1.0094212651413189E-2</v>
       </c>
-      <c r="E90" s="7"/>
-      <c r="F90" s="7"/>
+      <c r="E90" s="3">
+        <v>12</v>
+      </c>
+      <c r="F90" s="3">
+        <v>16</v>
+      </c>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>5</v>
       </c>
       <c r="I90" s="7"/>
       <c r="J90" s="7"/>
@@ -8926,11 +10289,26 @@
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
-      <c r="T90" s="7"/>
-      <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
-      <c r="X90" s="7"/>
+      <c r="T90" s="22">
+        <f>$D90/$H90</f>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="U90" s="22">
+        <f t="shared" ref="U90:X90" si="42">$D90/$H90</f>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="V90" s="22">
+        <f t="shared" si="42"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="W90" s="22">
+        <f t="shared" si="42"/>
+        <v>2.018842530282638E-3</v>
+      </c>
+      <c r="X90" s="22">
+        <f t="shared" si="42"/>
+        <v>2.018842530282638E-3</v>
+      </c>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="7"/>
@@ -8958,21 +10336,24 @@
         <v>93087239</v>
       </c>
       <c r="B91" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C91" s="3">
         <v>200</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>4.2059219380888293E-3</v>
       </c>
-      <c r="E91" s="7"/>
-      <c r="F91" s="7"/>
+      <c r="E91" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>138</v>
+      </c>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I91" s="7"/>
       <c r="J91" s="7"/>
@@ -8985,8 +10366,14 @@
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
-      <c r="T91" s="7"/>
-      <c r="U91" s="7"/>
+      <c r="T91" s="22">
+        <f>$D91/$H91</f>
+        <v>1.4019739793629431E-3</v>
+      </c>
+      <c r="U91" s="22">
+        <f>$D91/$H91</f>
+        <v>1.4019739793629431E-3</v>
+      </c>
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
       <c r="X91" s="7"/>
@@ -9003,7 +10390,10 @@
       <c r="AI91" s="7"/>
       <c r="AJ91" s="7"/>
       <c r="AK91" s="7"/>
-      <c r="AL91" s="7"/>
+      <c r="AL91" s="7">
+        <f>$D91/$H91</f>
+        <v>1.4019739793629431E-3</v>
+      </c>
       <c r="AM91" s="7"/>
       <c r="AN91" s="7"/>
       <c r="AO91" s="7"/>
@@ -9017,21 +10407,25 @@
         <v>93087243</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C92" s="3">
         <v>300</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="31"/>
         <v>6.3088829071332436E-3</v>
       </c>
-      <c r="E92" s="7"/>
-      <c r="F92" s="7"/>
+      <c r="E92" s="3">
+        <v>28</v>
+      </c>
+      <c r="F92" s="3">
+        <v>29</v>
+      </c>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <f t="shared" si="4"/>
-        <v>1</v>
+        <f t="shared" si="33"/>
+        <v>2</v>
       </c>
       <c r="I92" s="7"/>
       <c r="J92" s="7"/>
@@ -9060,8 +10454,14 @@
       <c r="AG92" s="7"/>
       <c r="AH92" s="7"/>
       <c r="AI92" s="7"/>
-      <c r="AJ92" s="7"/>
-      <c r="AK92" s="7"/>
+      <c r="AJ92" s="22">
+        <f>$D92/$H92</f>
+        <v>3.1544414535666218E-3</v>
+      </c>
+      <c r="AK92" s="22">
+        <f>$D92/$H92</f>
+        <v>3.1544414535666218E-3</v>
+      </c>
       <c r="AL92" s="7"/>
       <c r="AM92" s="7"/>
       <c r="AN92" s="7"/>
@@ -9072,15 +10472,15 @@
       <c r="AS92" s="7"/>
     </row>
     <row r="93" spans="1:45" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="17">
+      <c r="C93" s="24">
         <f>SUM(C2:C92)</f>
         <v>47552</v>
       </c>
-      <c r="D93" s="18">
+      <c r="D93" s="23">
         <f>SUM(D2:D92)</f>
         <v>0.99999999999999933</v>
       </c>
-      <c r="G93" s="18">
+      <c r="G93" s="23">
         <f>SUMPRODUCT(G2:G92,D2:D92)</f>
         <v>0</v>
       </c>
@@ -9088,151 +10488,151 @@
         <v>27</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" ref="I93:AS93" si="5">SUM(I2:I92)</f>
+        <f t="shared" ref="I93:AS93" si="43">SUM(I2:I92)</f>
+        <v>1.802537973466641E-3</v>
+      </c>
+      <c r="J93" s="9">
+        <f t="shared" si="43"/>
+        <v>7.73288790617189E-3</v>
+      </c>
+      <c r="K93" s="9">
+        <f t="shared" si="43"/>
+        <v>2.7579582051528554E-2</v>
+      </c>
+      <c r="L93" s="9">
+        <f t="shared" si="43"/>
+        <v>4.3865435610262321E-2</v>
+      </c>
+      <c r="M93" s="9">
+        <f t="shared" si="43"/>
+        <v>4.2348499764591617E-2</v>
+      </c>
+      <c r="N93" s="9">
+        <f t="shared" si="43"/>
+        <v>5.0003277691913282E-2</v>
+      </c>
+      <c r="O93" s="9">
+        <f t="shared" si="43"/>
+        <v>5.7586878478744219E-2</v>
+      </c>
+      <c r="P93" s="9">
+        <f t="shared" si="43"/>
+        <v>4.0372440550140755E-2</v>
+      </c>
+      <c r="Q93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.6979663520082431E-2</v>
+      </c>
+      <c r="R93" s="9">
+        <f t="shared" si="43"/>
+        <v>2.9212727674411725E-2</v>
+      </c>
+      <c r="S93" s="9">
+        <f t="shared" si="43"/>
+        <v>2.2467480366201765E-2</v>
+      </c>
+      <c r="T93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.4029760056005019E-2</v>
+      </c>
+      <c r="U93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.7752000971213631E-2</v>
+      </c>
+      <c r="V93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.5319576117018921E-2</v>
+      </c>
+      <c r="W93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.4058800945577533E-2</v>
+      </c>
+      <c r="X93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.4245263484832797E-2</v>
+      </c>
+      <c r="Y93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.9363546951030129E-2</v>
+      </c>
+      <c r="Z93" s="9">
+        <f t="shared" si="43"/>
+        <v>4.4654296326150297E-2</v>
+      </c>
+      <c r="AA93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.8513650296540615E-2</v>
+      </c>
+      <c r="AB93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.3411543453182084E-2</v>
+      </c>
+      <c r="AC93" s="9">
+        <f t="shared" si="43"/>
+        <v>4.3001045472024622E-2</v>
+      </c>
+      <c r="AD93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.3537721111324748E-2</v>
+      </c>
+      <c r="AE93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.0909019900019229E-2</v>
+      </c>
+      <c r="AF93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.0909019900019229E-2</v>
+      </c>
+      <c r="AG93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.2414139107863872E-2</v>
+      </c>
+      <c r="AH93" s="9">
+        <f t="shared" si="43"/>
+        <v>3.9669855156059732E-2</v>
+      </c>
+      <c r="AI93" s="9">
+        <f t="shared" si="43"/>
+        <v>2.5916490418509262E-2</v>
+      </c>
+      <c r="AJ93" s="9">
+        <f t="shared" si="43"/>
+        <v>2.3729411010703069E-2</v>
+      </c>
+      <c r="AK93" s="9">
+        <f t="shared" si="43"/>
+        <v>2.17235868102288E-2</v>
+      </c>
+      <c r="AL93" s="9">
+        <f t="shared" si="43"/>
+        <v>7.4900459847465229E-3</v>
+      </c>
+      <c r="AM93" s="9">
+        <f t="shared" si="43"/>
+        <v>1.1166722745625841E-2</v>
+      </c>
+      <c r="AN93" s="9">
+        <f t="shared" si="43"/>
+        <v>6.5927826379542391E-3</v>
+      </c>
+      <c r="AO93" s="9">
+        <f t="shared" si="43"/>
+        <v>1.1355989232839838E-3</v>
+      </c>
+      <c r="AP93" s="9">
+        <f t="shared" si="43"/>
+        <v>5.0471063257065949E-4</v>
+      </c>
+      <c r="AQ93" s="9">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="J93" s="9">
-        <f t="shared" si="5"/>
+      <c r="AR93" s="9">
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
-      <c r="K93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="L93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="M93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="N93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="O93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="P93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Q93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="R93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="T93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="U93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="X93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Y93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="Z93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AB93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AC93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AD93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AE93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AF93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AG93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AH93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AI93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AJ93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AK93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AL93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AM93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AN93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AO93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AP93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AQ93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AR93" s="9">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
       <c r="AS93" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -9242,175 +10642,163 @@
       </c>
       <c r="I94" s="11">
         <f>I93</f>
-        <v>0</v>
+        <v>1.802537973466641E-3</v>
       </c>
       <c r="J94" s="11">
         <f>J93+I94</f>
-        <v>0</v>
+        <v>9.5354258796385306E-3</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" ref="K94:Q94" si="6">K93+J94</f>
-        <v>0</v>
+        <f t="shared" ref="K94:Q94" si="44">K93+J94</f>
+        <v>3.7115007931167086E-2</v>
       </c>
       <c r="L94" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>8.0980443541429414E-2</v>
       </c>
       <c r="M94" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>0.12332894330602104</v>
       </c>
       <c r="N94" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>0.17333222099793433</v>
       </c>
       <c r="O94" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>0.23091909947667855</v>
       </c>
       <c r="P94" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>0.27129154002681932</v>
       </c>
       <c r="Q94" s="11">
-        <f t="shared" si="6"/>
-        <v>0</v>
+        <f t="shared" si="44"/>
+        <v>0.30827120354690174</v>
       </c>
       <c r="R94" s="11">
-        <f t="shared" ref="R94" si="7">R93+Q94</f>
-        <v>0</v>
+        <f t="shared" ref="R94" si="45">R93+Q94</f>
+        <v>0.33748393122131348</v>
       </c>
       <c r="S94" s="11">
-        <f t="shared" ref="S94" si="8">S93+R94</f>
-        <v>0</v>
+        <f t="shared" ref="S94" si="46">S93+R94</f>
+        <v>0.35995141158751526</v>
       </c>
       <c r="T94" s="11">
-        <f t="shared" ref="T94" si="9">T93+S94</f>
-        <v>0</v>
+        <f t="shared" ref="T94" si="47">T93+S94</f>
+        <v>0.39398117164352026</v>
       </c>
       <c r="U94" s="11">
-        <f t="shared" ref="U94" si="10">U93+T94</f>
-        <v>0</v>
+        <f t="shared" ref="U94" si="48">U93+T94</f>
+        <v>0.43173317261473387</v>
       </c>
       <c r="V94" s="11">
-        <f t="shared" ref="V94" si="11">V93+U94</f>
-        <v>0</v>
+        <f t="shared" ref="V94" si="49">V93+U94</f>
+        <v>0.46705274873175279</v>
       </c>
       <c r="W94" s="11">
-        <f t="shared" ref="W94" si="12">W93+V94</f>
-        <v>0</v>
+        <f t="shared" ref="W94" si="50">W93+V94</f>
+        <v>0.50111154967733029</v>
       </c>
       <c r="X94" s="11">
-        <f t="shared" ref="X94" si="13">X93+W94</f>
-        <v>0</v>
+        <f t="shared" ref="X94" si="51">X93+W94</f>
+        <v>0.5353568131621631</v>
       </c>
       <c r="Y94" s="11">
-        <f t="shared" ref="Y94" si="14">Y93+X94</f>
-        <v>0</v>
+        <f t="shared" ref="Y94" si="52">Y93+X94</f>
+        <v>0.57472036011319327</v>
       </c>
       <c r="Z94" s="11">
-        <f t="shared" ref="Z94" si="15">Z93+Y94</f>
-        <v>0</v>
+        <f t="shared" ref="Z94" si="53">Z93+Y94</f>
+        <v>0.61937465643934353</v>
       </c>
       <c r="AA94" s="11">
-        <f t="shared" ref="AA94" si="16">AA93+Z94</f>
-        <v>0</v>
+        <f t="shared" ref="AA94" si="54">AA93+Z94</f>
+        <v>0.65788830673588417</v>
       </c>
       <c r="AB94" s="11">
-        <f t="shared" ref="AB94" si="17">AB93+AA94</f>
-        <v>0</v>
+        <f t="shared" ref="AB94" si="55">AB93+AA94</f>
+        <v>0.69129985018906626</v>
       </c>
       <c r="AC94" s="11">
-        <f t="shared" ref="AC94" si="18">AC93+AB94</f>
-        <v>0</v>
+        <f t="shared" ref="AC94" si="56">AC93+AB94</f>
+        <v>0.73430089566109091</v>
       </c>
       <c r="AD94" s="11">
-        <f t="shared" ref="AD94" si="19">AD93+AC94</f>
-        <v>0</v>
+        <f t="shared" ref="AD94" si="57">AD93+AC94</f>
+        <v>0.76783861677241561</v>
       </c>
       <c r="AE94" s="11">
-        <f t="shared" ref="AE94" si="20">AE93+AD94</f>
-        <v>0</v>
+        <f t="shared" ref="AE94" si="58">AE93+AD94</f>
+        <v>0.79874763667243487</v>
       </c>
       <c r="AF94" s="11">
-        <f t="shared" ref="AF94" si="21">AF93+AE94</f>
-        <v>0</v>
+        <f t="shared" ref="AF94" si="59">AF93+AE94</f>
+        <v>0.82965665657245413</v>
       </c>
       <c r="AG94" s="11">
-        <f t="shared" ref="AG94" si="22">AG93+AF94</f>
-        <v>0</v>
+        <f t="shared" ref="AG94" si="60">AG93+AF94</f>
+        <v>0.86207079568031797</v>
       </c>
       <c r="AH94" s="11">
-        <f t="shared" ref="AH94" si="23">AH93+AG94</f>
-        <v>0</v>
+        <f t="shared" ref="AH94" si="61">AH93+AG94</f>
+        <v>0.90174065083637767</v>
       </c>
       <c r="AI94" s="11">
-        <f t="shared" ref="AI94" si="24">AI93+AH94</f>
-        <v>0</v>
+        <f t="shared" ref="AI94" si="62">AI93+AH94</f>
+        <v>0.92765714125488696</v>
       </c>
       <c r="AJ94" s="11">
-        <f t="shared" ref="AJ94" si="25">AJ93+AI94</f>
-        <v>0</v>
+        <f t="shared" ref="AJ94" si="63">AJ93+AI94</f>
+        <v>0.95138655226558999</v>
       </c>
       <c r="AK94" s="11">
-        <f t="shared" ref="AK94" si="26">AK93+AJ94</f>
-        <v>0</v>
+        <f t="shared" ref="AK94" si="64">AK93+AJ94</f>
+        <v>0.97311013907581878</v>
       </c>
       <c r="AL94" s="11">
-        <f t="shared" ref="AL94" si="27">AL93+AK94</f>
-        <v>0</v>
+        <f t="shared" ref="AL94" si="65">AL93+AK94</f>
+        <v>0.98060018506056534</v>
       </c>
       <c r="AM94" s="11">
-        <f t="shared" ref="AM94" si="28">AM93+AL94</f>
-        <v>0</v>
+        <f t="shared" ref="AM94" si="66">AM93+AL94</f>
+        <v>0.99176690780619114</v>
       </c>
       <c r="AN94" s="11">
-        <f t="shared" ref="AN94" si="29">AN93+AM94</f>
-        <v>0</v>
+        <f t="shared" ref="AN94" si="67">AN93+AM94</f>
+        <v>0.99835969044414541</v>
       </c>
       <c r="AO94" s="11">
-        <f t="shared" ref="AO94" si="30">AO93+AN94</f>
-        <v>0</v>
+        <f t="shared" ref="AO94" si="68">AO93+AN94</f>
+        <v>0.99949528936742937</v>
       </c>
       <c r="AP94" s="11">
-        <f t="shared" ref="AP94" si="31">AP93+AO94</f>
-        <v>0</v>
+        <f>AP93+AO94</f>
+        <v>1</v>
       </c>
       <c r="AQ94" s="11">
-        <f t="shared" ref="AQ94" si="32">AQ93+AP94</f>
-        <v>0</v>
+        <f t="shared" ref="AQ94" si="69">AQ93+AP94</f>
+        <v>1</v>
       </c>
       <c r="AR94" s="11">
-        <f t="shared" ref="AR94" si="33">AR93+AQ94</f>
-        <v>0</v>
+        <f t="shared" ref="AR94" si="70">AR93+AQ94</f>
+        <v>1</v>
       </c>
       <c r="AS94" s="11">
         <f>AS93+Q94</f>
-        <v>0</v>
+        <v>0.30827120354690174</v>
       </c>
     </row>
     <row r="95" spans="1:45" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H95" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I95" s="13">
-        <v>6.5600000000000006E-2</v>
-      </c>
-      <c r="J95" s="13">
-        <v>0.2019</v>
-      </c>
-      <c r="K95" s="13">
-        <v>0.44180000000000003</v>
-      </c>
-      <c r="L95" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="M95" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="N95" s="13">
-        <v>0.8</v>
-      </c>
+      <c r="I95" s="13"/>
+      <c r="J95" s="13"/>
+      <c r="K95" s="13"/>
+      <c r="L95" s="13"/>
+      <c r="M95" s="13"/>
+      <c r="N95" s="13"/>
       <c r="O95" s="13"/>
       <c r="P95" s="13"/>
       <c r="Q95" s="13"/>
@@ -9454,7 +10842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37837414-F9FA-4B2A-9430-6FB50EB8546F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>

--- a/daily_s_curve.xlsx
+++ b/daily_s_curve.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coldshutdown_daily_progress_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F254AE-59F4-4D5F-847A-4611FF184C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8FF05C-D538-4FC0-B142-F0BB3B4035EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="134">
   <si>
     <t>task1</t>
   </si>
@@ -430,24 +430,6 @@
   </si>
   <si>
     <t>Day31</t>
-  </si>
-  <si>
-    <t>Day32</t>
-  </si>
-  <si>
-    <t>Day33</t>
-  </si>
-  <si>
-    <t>Day34</t>
-  </si>
-  <si>
-    <t>Day35</t>
-  </si>
-  <si>
-    <t>Day36</t>
-  </si>
-  <si>
-    <t>Day37</t>
   </si>
   <si>
     <t>-</t>
@@ -629,7 +611,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -680,9 +662,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -828,9 +807,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$AS$1</c:f>
+              <c:f>Sheet1!$I$1:$AM$1</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>Day1</c:v>
                 </c:pt>
@@ -923,144 +902,108 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Day31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Day32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Day33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Day34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Day35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Day36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Day37</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$94:$AS$94</c:f>
+              <c:f>Sheet1!$I$94:$AM$94</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1.802537973466641E-3</c:v>
+                  <c:v>2.8540184579888481E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9.5354258796385306E-3</c:v>
+                  <c:v>1.0586906364160738E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.7115007931167086E-2</c:v>
+                  <c:v>4.056275709883727E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0980443541429414E-2</c:v>
+                  <c:v>8.3036127418011835E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.12332894330602104</c:v>
+                  <c:v>0.1240346211108966</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17333222099793433</c:v>
+                  <c:v>0.17243553741481771</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.23091909947667855</c:v>
+                  <c:v>0.22418609308789367</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.27129154002681932</c:v>
+                  <c:v>0.26395958505527201</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.30827120354690174</c:v>
+                  <c:v>0.31095624724632526</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.33748393122131348</c:v>
+                  <c:v>0.34955508530099449</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35995141158751526</c:v>
+                  <c:v>0.38278261054722945</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39398117164352026</c:v>
+                  <c:v>0.41485350726048997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.43173317261473387</c:v>
+                  <c:v>0.44677719670591742</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.46705274873175279</c:v>
+                  <c:v>0.4774391095699182</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.50111154967733029</c:v>
+                  <c:v>0.50756126245186428</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.5353568131621631</c:v>
+                  <c:v>0.54275575719114544</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.57472036011319327</c:v>
+                  <c:v>0.58173666011622915</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.61937465643934353</c:v>
+                  <c:v>0.63210089076675025</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.65788830673588417</c:v>
+                  <c:v>0.67590388319385275</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.69129985018906626</c:v>
+                  <c:v>0.71712832194045006</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.73430089566109091</c:v>
+                  <c:v>0.76018233673011604</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.76783861677241561</c:v>
+                  <c:v>0.79844270733192335</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.79874763667243487</c:v>
+                  <c:v>0.83739405082355955</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.82965665657245413</c:v>
+                  <c:v>0.87096181423444208</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.86207079568031797</c:v>
+                  <c:v>0.90490811061975263</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.90174065083637767</c:v>
+                  <c:v>0.94903624303018652</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.92765714125488696</c:v>
+                  <c:v>0.96971986557072365</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.95138655226558999</c:v>
+                  <c:v>0.98104180686406472</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.97311013907581878</c:v>
+                  <c:v>0.99198070883804412</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.98060018506056534</c:v>
+                  <c:v>0.99599035441902217</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.99176690780619114</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.99835969044414541</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.99949528936742937</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.30827120354690174</c:v>
+                  <c:v>1.0000000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1104,9 +1047,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$AS$1</c:f>
+              <c:f>Sheet1!$I$1:$AM$1</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>Day1</c:v>
                 </c:pt>
@@ -1199,34 +1142,16 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Day31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Day32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Day33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Day34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Day35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Day36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Day37</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$95:$AS$95</c:f>
+              <c:f>Sheet1!$I$95:$AM$95</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="31"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1480,9 +1405,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$I$1:$AS$1</c:f>
+              <c:f>Sheet1!$I$1:$AM$1</c:f>
               <c:strCache>
-                <c:ptCount val="37"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
                   <c:v>Day1</c:v>
                 </c:pt>
@@ -1575,144 +1500,108 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>Day31</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>Day32</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>Day33</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>Day34</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>Day35</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>Day36</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>Day37</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$93:$AS$93</c:f>
+              <c:f>Sheet1!$I$93:$AM$93</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>1.802537973466641E-3</c:v>
+                  <c:v>2.8540184579888481E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>7.73288790617189E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7579582051528554E-2</c:v>
+                  <c:v>2.9975850734676533E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.3865435610262321E-2</c:v>
+                  <c:v>4.2473370319174572E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2348499764591617E-2</c:v>
+                  <c:v>4.099849369288476E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0003277691913282E-2</c:v>
+                  <c:v>4.8400916303921099E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.7586878478744219E-2</c:v>
+                  <c:v>5.1750555673075946E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0372440550140755E-2</c:v>
+                  <c:v>3.9773491967378331E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.6979663520082431E-2</c:v>
+                  <c:v>4.6996662191053265E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.9212727674411725E-2</c:v>
+                  <c:v>3.8598838054669245E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2467480366201765E-2</c:v>
+                  <c:v>3.3227525246234964E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.4029760056005019E-2</c:v>
+                  <c:v>3.2070896713260535E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.7752000971213631E-2</c:v>
+                  <c:v>3.1923689445427429E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.5319576117018921E-2</c:v>
+                  <c:v>3.066191286400077E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.4058800945577533E-2</c:v>
+                  <c:v>3.012215288194604E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.4245263484832797E-2</c:v>
+                  <c:v>3.5194494739281171E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.9363546951030129E-2</c:v>
+                  <c:v>3.8980902925083702E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4.4654296326150297E-2</c:v>
+                  <c:v>5.0364230650521112E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>3.8513650296540615E-2</c:v>
+                  <c:v>4.380299242710254E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>3.3411543453182084E-2</c:v>
+                  <c:v>4.1224438746597314E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3001045472024622E-2</c:v>
+                  <c:v>4.3054014789665966E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.3537721111324748E-2</c:v>
+                  <c:v>3.8260370601807349E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.0909019900019229E-2</c:v>
+                  <c:v>3.8951343491636224E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.0909019900019229E-2</c:v>
+                  <c:v>3.3567763410882523E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.2414139107863872E-2</c:v>
+                  <c:v>3.3946296385310513E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>3.9669855156059732E-2</c:v>
+                  <c:v>4.4128132410433889E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.5916490418509262E-2</c:v>
+                  <c:v>2.0683622540537076E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.3729411010703069E-2</c:v>
+                  <c:v>1.1321941293341025E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.17235868102288E-2</c:v>
+                  <c:v>1.0938901973979362E-2</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>7.4900459847465229E-3</c:v>
+                  <c:v>4.0096455809780166E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.1166722745625841E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.5927826379542391E-3</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.1355989232839838E-3</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>5.0471063257065949E-4</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>4.0096455809780166E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3393,11 +3282,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB79112-5215-4682-8159-41C9E41DBEC3}">
-  <dimension ref="A1:AS95"/>
+  <dimension ref="A1:AM95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,12 +3302,11 @@
     <col min="9" max="11" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
     <col min="13" max="17" width="11.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="44" width="11.140625" style="2" customWidth="1"/>
-    <col min="45" max="45" width="12.5703125" style="2" customWidth="1"/>
-    <col min="46" max="16384" width="9.140625" style="2"/>
+    <col min="18" max="39" width="11.140625" style="2" customWidth="1"/>
+    <col min="40" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>47</v>
       </c>
@@ -3536,26 +3424,8 @@
       <c r="AM1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AN1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>137</v>
-      </c>
     </row>
-    <row r="2" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>93085573</v>
       </c>
@@ -3582,7 +3452,7 @@
       </c>
       <c r="I2" s="5"/>
       <c r="J2" s="5"/>
-      <c r="K2" s="21">
+      <c r="K2" s="20">
         <f>$D2/$H2</f>
         <v>1.2617765814266487E-4</v>
       </c>
@@ -3614,14 +3484,8 @@
       <c r="AK2" s="5"/>
       <c r="AL2" s="5"/>
       <c r="AM2" s="5"/>
-      <c r="AN2" s="5"/>
-      <c r="AO2" s="5"/>
-      <c r="AP2" s="5"/>
-      <c r="AQ2" s="5"/>
-      <c r="AR2" s="5"/>
-      <c r="AS2" s="18"/>
     </row>
-    <row r="3" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>93084280</v>
       </c>
@@ -3648,7 +3512,7 @@
       </c>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
-      <c r="K3" s="21">
+      <c r="K3" s="20">
         <f>$D3/$H3</f>
         <v>8.4118438761776582E-5</v>
       </c>
@@ -3680,14 +3544,8 @@
       <c r="AK3" s="5"/>
       <c r="AL3" s="5"/>
       <c r="AM3" s="5"/>
-      <c r="AN3" s="5"/>
-      <c r="AO3" s="5"/>
-      <c r="AP3" s="5"/>
-      <c r="AQ3" s="5"/>
-      <c r="AR3" s="5"/>
-      <c r="AS3" s="18"/>
     </row>
-    <row r="4" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>93085735</v>
       </c>
@@ -3702,23 +3560,23 @@
         <v>1.0514804845222073E-3</v>
       </c>
       <c r="E4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I4" s="5"/>
+      <c r="I4" s="20">
+        <f>$D4/$H4</f>
+        <v>1.0514804845222073E-3</v>
+      </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
-      <c r="L4" s="21">
-        <f>$D4/$H4</f>
-        <v>1.0514804845222073E-3</v>
-      </c>
+      <c r="L4" s="5"/>
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
@@ -3746,14 +3604,8 @@
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
       <c r="AM4" s="5"/>
-      <c r="AN4" s="5"/>
-      <c r="AO4" s="5"/>
-      <c r="AP4" s="5"/>
-      <c r="AQ4" s="5"/>
-      <c r="AR4" s="5"/>
-      <c r="AS4" s="18"/>
     </row>
-    <row r="5" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>93087475</v>
       </c>
@@ -3768,10 +3620,10 @@
         <v>2.5235531628532975E-4</v>
       </c>
       <c r="E5" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F5" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="3">
@@ -3781,12 +3633,12 @@
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="21">
+      <c r="L5" s="20">
         <f>$D5/$H5</f>
         <v>2.5235531628532975E-4</v>
       </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -3812,14 +3664,8 @@
       <c r="AK5" s="5"/>
       <c r="AL5" s="5"/>
       <c r="AM5" s="5"/>
-      <c r="AN5" s="5"/>
-      <c r="AO5" s="5"/>
-      <c r="AP5" s="5"/>
-      <c r="AQ5" s="5"/>
-      <c r="AR5" s="5"/>
-      <c r="AS5" s="18"/>
     </row>
-    <row r="6" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>93085866</v>
       </c>
@@ -3864,23 +3710,23 @@
       <c r="Z6" s="5"/>
       <c r="AA6" s="5"/>
       <c r="AB6" s="5"/>
-      <c r="AC6" s="21">
+      <c r="AC6" s="20">
         <f>$D6/$H6</f>
         <v>1.7664872139973083E-3</v>
       </c>
-      <c r="AD6" s="21">
+      <c r="AD6" s="20">
         <f t="shared" ref="AD6:AG6" si="2">$D6/$H6</f>
         <v>1.7664872139973083E-3</v>
       </c>
-      <c r="AE6" s="21">
+      <c r="AE6" s="20">
         <f t="shared" si="2"/>
         <v>1.7664872139973083E-3</v>
       </c>
-      <c r="AF6" s="21">
+      <c r="AF6" s="20">
         <f t="shared" si="2"/>
         <v>1.7664872139973083E-3</v>
       </c>
-      <c r="AG6" s="21">
+      <c r="AG6" s="20">
         <f t="shared" si="2"/>
         <v>1.7664872139973083E-3</v>
       </c>
@@ -3890,14 +3736,8 @@
       <c r="AK6" s="5"/>
       <c r="AL6" s="5"/>
       <c r="AM6" s="5"/>
-      <c r="AN6" s="5"/>
-      <c r="AO6" s="5"/>
-      <c r="AP6" s="5"/>
-      <c r="AQ6" s="5"/>
-      <c r="AR6" s="5"/>
-      <c r="AS6" s="18"/>
     </row>
-    <row r="7" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>93083567</v>
       </c>
@@ -3935,11 +3775,11 @@
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
-      <c r="V7" s="21">
+      <c r="V7" s="20">
         <f>$D7/$H7</f>
         <v>5.0471063257065949E-4</v>
       </c>
-      <c r="W7" s="21">
+      <c r="W7" s="20">
         <f>$D7/$H7</f>
         <v>5.0471063257065949E-4</v>
       </c>
@@ -3959,14 +3799,8 @@
       <c r="AK7" s="5"/>
       <c r="AL7" s="5"/>
       <c r="AM7" s="5"/>
-      <c r="AN7" s="5"/>
-      <c r="AO7" s="5"/>
-      <c r="AP7" s="5"/>
-      <c r="AQ7" s="5"/>
-      <c r="AR7" s="5"/>
-      <c r="AS7" s="5"/>
     </row>
-    <row r="8" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>93087455</v>
       </c>
@@ -3981,10 +3815,10 @@
         <v>3.1544414535666216E-4</v>
       </c>
       <c r="E8" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F8" s="3">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G8" s="16"/>
       <c r="H8" s="3">
@@ -3999,23 +3833,23 @@
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
-      <c r="Q8" s="21">
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="5"/>
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="20">
         <f>$D8/$H8</f>
         <v>1.0514804845222071E-4</v>
       </c>
-      <c r="R8" s="21">
-        <f>$D8/$H8</f>
+      <c r="W8" s="20">
+        <f t="shared" ref="W8:X8" si="3">$D8/$H8</f>
         <v>1.0514804845222071E-4</v>
       </c>
-      <c r="S8" s="21">
-        <f>$D8/$H8</f>
+      <c r="X8" s="20">
+        <f t="shared" si="3"/>
         <v>1.0514804845222071E-4</v>
       </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
       <c r="AA8" s="5"/>
@@ -4031,14 +3865,8 @@
       <c r="AK8" s="5"/>
       <c r="AL8" s="5"/>
       <c r="AM8" s="5"/>
-      <c r="AN8" s="5"/>
-      <c r="AO8" s="5"/>
-      <c r="AP8" s="5"/>
-      <c r="AQ8" s="5"/>
-      <c r="AR8" s="5"/>
-      <c r="AS8" s="18"/>
     </row>
-    <row r="9" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>93082605</v>
       </c>
@@ -4053,10 +3881,10 @@
         <v>1.009421265141319E-3</v>
       </c>
       <c r="E9" s="3">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F9" s="3">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="3">
@@ -4092,22 +3920,16 @@
       <c r="AI9" s="5"/>
       <c r="AJ9" s="5"/>
       <c r="AK9" s="5"/>
-      <c r="AL9" s="5"/>
-      <c r="AM9" s="5"/>
-      <c r="AN9" s="5"/>
-      <c r="AO9" s="21">
+      <c r="AL9" s="20">
         <f>$D9/$H9</f>
         <v>5.0471063257065949E-4</v>
       </c>
-      <c r="AP9" s="21">
+      <c r="AM9" s="20">
         <f>$D9/$H9</f>
         <v>5.0471063257065949E-4</v>
       </c>
-      <c r="AQ9" s="5"/>
-      <c r="AR9" s="5"/>
-      <c r="AS9" s="5"/>
     </row>
-    <row r="10" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>93083114</v>
       </c>
@@ -4122,21 +3944,21 @@
         <v>2.018842530282638E-3</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="5"/>
-      <c r="J10" s="21">
+      <c r="J10" s="20">
         <f>$D10/$H10</f>
         <v>6.7294751009421266E-4</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="20">
         <f>$D10/$H10</f>
         <v>6.7294751009421266E-4</v>
       </c>
@@ -4153,7 +3975,7 @@
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
       <c r="X10" s="5"/>
-      <c r="Y10" s="21">
+      <c r="Y10" s="20">
         <f>$D10/$H10</f>
         <v>6.7294751009421266E-4</v>
       </c>
@@ -4171,14 +3993,8 @@
       <c r="AK10" s="5"/>
       <c r="AL10" s="5"/>
       <c r="AM10" s="5"/>
-      <c r="AN10" s="5"/>
-      <c r="AO10" s="5"/>
-      <c r="AP10" s="5"/>
-      <c r="AQ10" s="5"/>
-      <c r="AR10" s="5"/>
-      <c r="AS10" s="5"/>
     </row>
-    <row r="11" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>93082661</v>
       </c>
@@ -4193,60 +4009,54 @@
         <v>3.5329744279946162E-3</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="6">
         <v>2</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="22">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="21">
         <f>$D11/$H11</f>
         <v>1.7664872139973081E-3</v>
       </c>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="19"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-      <c r="W11" s="19"/>
-      <c r="X11" s="19"/>
-      <c r="Y11" s="22">
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="18"/>
+      <c r="X11" s="18"/>
+      <c r="Y11" s="21">
         <f>$D11/$H11</f>
         <v>1.7664872139973081E-3</v>
       </c>
-      <c r="Z11" s="19"/>
-      <c r="AA11" s="19"/>
-      <c r="AB11" s="19"/>
-      <c r="AC11" s="19"/>
-      <c r="AD11" s="19"/>
-      <c r="AE11" s="19"/>
-      <c r="AF11" s="19"/>
-      <c r="AG11" s="19"/>
-      <c r="AH11" s="19"/>
-      <c r="AI11" s="19"/>
-      <c r="AJ11" s="19"/>
-      <c r="AK11" s="19"/>
-      <c r="AL11" s="19"/>
-      <c r="AM11" s="19"/>
-      <c r="AN11" s="19"/>
-      <c r="AO11" s="19"/>
-      <c r="AP11" s="19"/>
-      <c r="AQ11" s="19"/>
-      <c r="AR11" s="19"/>
-      <c r="AS11" s="19"/>
+      <c r="Z11" s="18"/>
+      <c r="AA11" s="18"/>
+      <c r="AB11" s="18"/>
+      <c r="AC11" s="18"/>
+      <c r="AD11" s="18"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="18"/>
     </row>
-    <row r="12" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
         <v>93082634</v>
       </c>
@@ -4273,36 +4083,36 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="21">
+      <c r="K12" s="20">
         <f>$D12/$H12</f>
         <v>7.0974932705248988E-4</v>
       </c>
-      <c r="L12" s="21">
-        <f t="shared" ref="L12:R12" si="3">$D12/$H12</f>
+      <c r="L12" s="20">
+        <f t="shared" ref="L12:R12" si="4">$D12/$H12</f>
         <v>7.0974932705248988E-4</v>
       </c>
-      <c r="M12" s="21">
-        <f t="shared" si="3"/>
+      <c r="M12" s="20">
+        <f t="shared" si="4"/>
         <v>7.0974932705248988E-4</v>
       </c>
-      <c r="N12" s="21">
-        <f t="shared" si="3"/>
+      <c r="N12" s="20">
+        <f t="shared" si="4"/>
         <v>7.0974932705248988E-4</v>
       </c>
-      <c r="O12" s="21">
-        <f t="shared" si="3"/>
+      <c r="O12" s="20">
+        <f t="shared" si="4"/>
         <v>7.0974932705248988E-4</v>
       </c>
-      <c r="P12" s="21">
-        <f t="shared" si="3"/>
+      <c r="P12" s="20">
+        <f t="shared" si="4"/>
         <v>7.0974932705248988E-4</v>
       </c>
-      <c r="Q12" s="21">
-        <f t="shared" si="3"/>
+      <c r="Q12" s="20">
+        <f t="shared" si="4"/>
         <v>7.0974932705248988E-4</v>
       </c>
-      <c r="R12" s="21">
-        <f t="shared" si="3"/>
+      <c r="R12" s="20">
+        <f t="shared" si="4"/>
         <v>7.0974932705248988E-4</v>
       </c>
       <c r="S12" s="4"/>
@@ -4326,15 +4136,9 @@
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
       <c r="AM12" s="4"/>
-      <c r="AN12" s="4"/>
-      <c r="AO12" s="4"/>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
     </row>
-    <row r="13" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="20">
+    <row r="13" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="19">
         <v>93082667</v>
       </c>
       <c r="B13" s="14" t="s">
@@ -4348,10 +4152,10 @@
         <v>3.028263795423957E-2</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6">
@@ -4359,11 +4163,11 @@
       </c>
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
-      <c r="K13" s="22">
+      <c r="K13" s="21">
         <f>$D13/$H13</f>
         <v>5.0471063257065954E-3</v>
       </c>
-      <c r="L13" s="22">
+      <c r="L13" s="21">
         <f>$D13/$H13</f>
         <v>5.0471063257065954E-3</v>
       </c>
@@ -4380,20 +4184,20 @@
       <c r="W13" s="7"/>
       <c r="X13" s="7"/>
       <c r="Y13" s="7"/>
-      <c r="Z13" s="22">
+      <c r="Z13" s="21">
         <f>$D13/$H13</f>
         <v>5.0471063257065954E-3</v>
       </c>
-      <c r="AA13" s="22">
-        <f t="shared" ref="AA13:AC13" si="4">$D13/$H13</f>
+      <c r="AA13" s="21">
+        <f t="shared" ref="AA13:AC13" si="5">$D13/$H13</f>
         <v>5.0471063257065954E-3</v>
       </c>
-      <c r="AB13" s="22">
-        <f t="shared" si="4"/>
+      <c r="AB13" s="21">
+        <f t="shared" si="5"/>
         <v>5.0471063257065954E-3</v>
       </c>
-      <c r="AC13" s="22">
-        <f t="shared" si="4"/>
+      <c r="AC13" s="21">
+        <f t="shared" si="5"/>
         <v>5.0471063257065954E-3</v>
       </c>
       <c r="AD13" s="7"/>
@@ -4406,14 +4210,8 @@
       <c r="AK13" s="7"/>
       <c r="AL13" s="7"/>
       <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
-      <c r="AP13" s="7"/>
-      <c r="AQ13" s="7"/>
-      <c r="AR13" s="7"/>
-      <c r="AS13" s="7"/>
     </row>
-    <row r="14" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A14" s="17">
         <v>93082663</v>
       </c>
@@ -4440,28 +4238,28 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="21">
+      <c r="K14" s="20">
         <f>$D14/$H14</f>
         <v>5.0471063257065949E-4</v>
       </c>
-      <c r="L14" s="21">
-        <f t="shared" ref="L14:S17" si="5">$D14/$H14</f>
+      <c r="L14" s="20">
+        <f t="shared" ref="L14:S17" si="6">$D14/$H14</f>
         <v>5.0471063257065949E-4</v>
       </c>
-      <c r="M14" s="21">
-        <f t="shared" si="5"/>
+      <c r="M14" s="20">
+        <f t="shared" si="6"/>
         <v>5.0471063257065949E-4</v>
       </c>
-      <c r="N14" s="21">
-        <f t="shared" si="5"/>
+      <c r="N14" s="20">
+        <f t="shared" si="6"/>
         <v>5.0471063257065949E-4</v>
       </c>
-      <c r="O14" s="21">
-        <f t="shared" si="5"/>
+      <c r="O14" s="20">
+        <f t="shared" si="6"/>
         <v>5.0471063257065949E-4</v>
       </c>
-      <c r="P14" s="21">
-        <f t="shared" si="5"/>
+      <c r="P14" s="20">
+        <f t="shared" si="6"/>
         <v>5.0471063257065949E-4</v>
       </c>
       <c r="Q14" s="4"/>
@@ -4487,14 +4285,8 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
       <c r="AM14" s="4"/>
-      <c r="AN14" s="4"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
     </row>
-    <row r="15" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>93082636</v>
       </c>
@@ -4522,36 +4314,36 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="22">
+      <c r="L15" s="21">
         <f>$D15/$H15</f>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="M15" s="22">
-        <f t="shared" si="5"/>
+      <c r="M15" s="21">
+        <f t="shared" si="6"/>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="N15" s="22">
-        <f t="shared" si="5"/>
+      <c r="N15" s="21">
+        <f t="shared" si="6"/>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="O15" s="22">
-        <f t="shared" si="5"/>
+      <c r="O15" s="21">
+        <f t="shared" si="6"/>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="P15" s="22">
-        <f t="shared" si="5"/>
+      <c r="P15" s="21">
+        <f t="shared" si="6"/>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="Q15" s="22">
-        <f t="shared" si="5"/>
+      <c r="Q15" s="21">
+        <f t="shared" si="6"/>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="R15" s="22">
-        <f t="shared" si="5"/>
+      <c r="R15" s="21">
+        <f t="shared" si="6"/>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="S15" s="22">
-        <f t="shared" si="5"/>
+      <c r="S15" s="21">
+        <f t="shared" si="6"/>
         <v>1.6823687752355316E-3</v>
       </c>
       <c r="T15" s="7"/>
@@ -4574,14 +4366,8 @@
       <c r="AK15" s="7"/>
       <c r="AL15" s="7"/>
       <c r="AM15" s="7"/>
-      <c r="AN15" s="7"/>
-      <c r="AO15" s="7"/>
-      <c r="AP15" s="7"/>
-      <c r="AQ15" s="7"/>
-      <c r="AR15" s="7"/>
-      <c r="AS15" s="7"/>
     </row>
-    <row r="16" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>93082662</v>
       </c>
@@ -4610,16 +4396,16 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="21">
+      <c r="M16" s="20">
         <f>$D16/$H16</f>
         <v>1.4019739793629431E-3</v>
       </c>
-      <c r="N16" s="21">
-        <f t="shared" si="5"/>
+      <c r="N16" s="20">
+        <f t="shared" si="6"/>
         <v>1.4019739793629431E-3</v>
       </c>
-      <c r="O16" s="21">
-        <f t="shared" si="5"/>
+      <c r="O16" s="20">
+        <f t="shared" si="6"/>
         <v>1.4019739793629431E-3</v>
       </c>
       <c r="P16" s="4"/>
@@ -4646,15 +4432,9 @@
       <c r="AK16" s="4"/>
       <c r="AL16" s="4"/>
       <c r="AM16" s="4"/>
-      <c r="AN16" s="4"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
     </row>
-    <row r="17" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="20">
+    <row r="17" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="19">
         <v>93087257</v>
       </c>
       <c r="B17" s="14" t="s">
@@ -4668,10 +4448,10 @@
         <v>3.1670592193808883E-2</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6">
@@ -4681,16 +4461,16 @@
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
       <c r="L17" s="7"/>
-      <c r="M17" s="22">
+      <c r="M17" s="21">
         <f>$D17/$H17</f>
         <v>6.3341184387617766E-3</v>
       </c>
-      <c r="N17" s="22">
-        <f t="shared" si="5"/>
+      <c r="N17" s="21">
+        <f t="shared" si="6"/>
         <v>6.3341184387617766E-3</v>
       </c>
-      <c r="O17" s="22">
-        <f t="shared" si="5"/>
+      <c r="O17" s="21">
+        <f t="shared" si="6"/>
         <v>6.3341184387617766E-3</v>
       </c>
       <c r="P17" s="7"/>
@@ -4701,11 +4481,11 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
       <c r="W17" s="7"/>
-      <c r="X17" s="22">
+      <c r="X17" s="21">
         <f>$D17/$H17</f>
         <v>6.3341184387617766E-3</v>
       </c>
-      <c r="Y17" s="22">
+      <c r="Y17" s="21">
         <f>$D17/$H17</f>
         <v>6.3341184387617766E-3</v>
       </c>
@@ -4723,15 +4503,9 @@
       <c r="AK17" s="7"/>
       <c r="AL17" s="7"/>
       <c r="AM17" s="7"/>
-      <c r="AN17" s="7"/>
-      <c r="AO17" s="7"/>
-      <c r="AP17" s="7"/>
-      <c r="AQ17" s="7"/>
-      <c r="AR17" s="7"/>
-      <c r="AS17" s="7"/>
     </row>
-    <row r="18" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="20">
+    <row r="18" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="19">
         <v>93087360</v>
       </c>
       <c r="B18" s="14" t="s">
@@ -4745,14 +4519,14 @@
         <v>1.0094212651413189E-2</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="6">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -4761,65 +4535,59 @@
       <c r="M18" s="4"/>
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="21">
+      <c r="P18" s="20">
         <f>$D18/$H18</f>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="Q18" s="21">
-        <f t="shared" ref="Q18:Z20" si="6">$D18/$H18</f>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="R18" s="21">
-        <f t="shared" si="6"/>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="S18" s="21">
-        <f t="shared" si="6"/>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="T18" s="21">
-        <f t="shared" si="6"/>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="U18" s="21">
-        <f t="shared" si="6"/>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="V18" s="21">
-        <f t="shared" si="6"/>
-        <v>7.210151893866564E-4</v>
-      </c>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="Q18" s="20">
+        <f t="shared" ref="Q18:Z20" si="7">$D18/$H18</f>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="R18" s="20">
+        <f t="shared" si="7"/>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="S18" s="20">
+        <f t="shared" si="7"/>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="T18" s="20">
+        <f t="shared" si="7"/>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="U18" s="20">
+        <f t="shared" si="7"/>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="V18" s="5"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
       <c r="Y18" s="4"/>
-      <c r="Z18" s="21">
+      <c r="Z18" s="20">
         <f>$D18/$H18</f>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="AA18" s="21">
-        <f t="shared" ref="AA18:AF18" si="7">$D18/$H18</f>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="AB18" s="21">
-        <f t="shared" si="7"/>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="AC18" s="21">
-        <f t="shared" si="7"/>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="AD18" s="21">
-        <f t="shared" si="7"/>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="AE18" s="21">
-        <f t="shared" si="7"/>
-        <v>7.210151893866564E-4</v>
-      </c>
-      <c r="AF18" s="21">
-        <f t="shared" si="7"/>
-        <v>7.210151893866564E-4</v>
-      </c>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="AA18" s="20">
+        <f t="shared" ref="AA18:AE18" si="8">$D18/$H18</f>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="AB18" s="20">
+        <f t="shared" si="8"/>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="AC18" s="20">
+        <f t="shared" si="8"/>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="AD18" s="20">
+        <f t="shared" si="8"/>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="AE18" s="20">
+        <f t="shared" si="8"/>
+        <v>8.4118438761776571E-4</v>
+      </c>
+      <c r="AF18" s="5"/>
       <c r="AG18" s="4"/>
       <c r="AH18" s="4"/>
       <c r="AI18" s="4"/>
@@ -4827,19 +4595,13 @@
       <c r="AK18" s="4"/>
       <c r="AL18" s="4"/>
       <c r="AM18" s="4"/>
-      <c r="AN18" s="4"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
     </row>
-    <row r="19" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>93082664</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C19" s="3">
         <v>960</v>
@@ -4867,44 +4629,44 @@
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
       <c r="P19" s="7"/>
-      <c r="Q19" s="22">
+      <c r="Q19" s="21">
         <f>$D19/$H19</f>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="R19" s="22">
-        <f t="shared" si="6"/>
+      <c r="R19" s="21">
+        <f t="shared" si="7"/>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="S19" s="22">
-        <f t="shared" si="6"/>
+      <c r="S19" s="21">
+        <f t="shared" si="7"/>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="T19" s="22">
-        <f t="shared" si="6"/>
+      <c r="T19" s="21">
+        <f t="shared" si="7"/>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="U19" s="22">
-        <f t="shared" si="6"/>
+      <c r="U19" s="21">
+        <f t="shared" si="7"/>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="V19" s="22">
-        <f t="shared" si="6"/>
+      <c r="V19" s="21">
+        <f t="shared" si="7"/>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="W19" s="22">
-        <f t="shared" si="6"/>
+      <c r="W19" s="21">
+        <f t="shared" si="7"/>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="X19" s="22">
-        <f t="shared" si="6"/>
+      <c r="X19" s="21">
+        <f t="shared" si="7"/>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="Y19" s="22">
-        <f t="shared" si="6"/>
+      <c r="Y19" s="21">
+        <f t="shared" si="7"/>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="Z19" s="22">
-        <f t="shared" si="6"/>
+      <c r="Z19" s="21">
+        <f t="shared" si="7"/>
         <v>2.018842530282638E-3</v>
       </c>
       <c r="AA19" s="7"/>
@@ -4920,14 +4682,8 @@
       <c r="AK19" s="7"/>
       <c r="AL19" s="7"/>
       <c r="AM19" s="7"/>
-      <c r="AN19" s="7"/>
-      <c r="AO19" s="7"/>
-      <c r="AP19" s="7"/>
-      <c r="AQ19" s="7"/>
-      <c r="AR19" s="7"/>
-      <c r="AS19" s="7"/>
     </row>
-    <row r="20" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>93082632</v>
       </c>
@@ -4960,28 +4716,28 @@
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
-      <c r="Q20" s="21">
+      <c r="Q20" s="20">
         <f>$D20/$H20</f>
         <v>8.7623373710183933E-4</v>
       </c>
-      <c r="R20" s="21">
-        <f t="shared" si="6"/>
+      <c r="R20" s="20">
+        <f t="shared" si="7"/>
         <v>8.7623373710183933E-4</v>
       </c>
-      <c r="S20" s="21">
-        <f t="shared" si="6"/>
+      <c r="S20" s="20">
+        <f t="shared" si="7"/>
         <v>8.7623373710183933E-4</v>
       </c>
-      <c r="T20" s="21">
-        <f t="shared" si="6"/>
+      <c r="T20" s="20">
+        <f t="shared" si="7"/>
         <v>8.7623373710183933E-4</v>
       </c>
-      <c r="U20" s="21">
-        <f t="shared" si="6"/>
+      <c r="U20" s="20">
+        <f t="shared" si="7"/>
         <v>8.7623373710183933E-4</v>
       </c>
-      <c r="V20" s="21">
-        <f t="shared" si="6"/>
+      <c r="V20" s="20">
+        <f t="shared" si="7"/>
         <v>8.7623373710183933E-4</v>
       </c>
       <c r="W20" s="4"/>
@@ -5001,14 +4757,8 @@
       <c r="AK20" s="4"/>
       <c r="AL20" s="4"/>
       <c r="AM20" s="4"/>
-      <c r="AN20" s="4"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
     </row>
-    <row r="21" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>93082666</v>
       </c>
@@ -5050,20 +4800,20 @@
       <c r="W21" s="7"/>
       <c r="X21" s="7"/>
       <c r="Y21" s="7"/>
-      <c r="Z21" s="22">
+      <c r="Z21" s="21">
         <f>$D21/$H21</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AA21" s="22">
-        <f t="shared" ref="AA21:AC21" si="8">$D21/$H21</f>
+      <c r="AA21" s="21">
+        <f t="shared" ref="AA21:AC21" si="9">$D21/$H21</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AB21" s="22">
-        <f t="shared" si="8"/>
+      <c r="AB21" s="21">
+        <f t="shared" si="9"/>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AC21" s="22">
-        <f t="shared" si="8"/>
+      <c r="AC21" s="21">
+        <f t="shared" si="9"/>
         <v>2.1029609690444147E-3</v>
       </c>
       <c r="AD21" s="7"/>
@@ -5076,14 +4826,8 @@
       <c r="AK21" s="7"/>
       <c r="AL21" s="7"/>
       <c r="AM21" s="7"/>
-      <c r="AN21" s="7"/>
-      <c r="AO21" s="7"/>
-      <c r="AP21" s="7"/>
-      <c r="AQ21" s="7"/>
-      <c r="AR21" s="7"/>
-      <c r="AS21" s="7"/>
     </row>
-    <row r="22" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>93082641</v>
       </c>
@@ -5129,16 +4873,16 @@
       <c r="AA22" s="4"/>
       <c r="AB22" s="4"/>
       <c r="AC22" s="4"/>
-      <c r="AD22" s="21">
+      <c r="AD22" s="20">
         <f>$D22/$H22</f>
         <v>8.4118438761776571E-4</v>
       </c>
-      <c r="AE22" s="21">
-        <f t="shared" ref="AE22:AF22" si="9">$D22/$H22</f>
+      <c r="AE22" s="20">
+        <f t="shared" ref="AE22:AF22" si="10">$D22/$H22</f>
         <v>8.4118438761776571E-4</v>
       </c>
-      <c r="AF22" s="21">
-        <f t="shared" si="9"/>
+      <c r="AF22" s="20">
+        <f t="shared" si="10"/>
         <v>8.4118438761776571E-4</v>
       </c>
       <c r="AG22" s="4"/>
@@ -5148,14 +4892,8 @@
       <c r="AK22" s="4"/>
       <c r="AL22" s="4"/>
       <c r="AM22" s="4"/>
-      <c r="AN22" s="4"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
     </row>
-    <row r="23" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>93082665</v>
       </c>
@@ -5205,29 +4943,23 @@
       <c r="AE23" s="7"/>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7"/>
-      <c r="AH23" s="22">
+      <c r="AH23" s="21">
         <f>$D23/$H23</f>
         <v>2.2431583669807087E-3</v>
       </c>
-      <c r="AI23" s="22">
-        <f t="shared" ref="AI23:AJ23" si="10">$D23/$H23</f>
+      <c r="AI23" s="21">
+        <f t="shared" ref="AI23:AJ23" si="11">$D23/$H23</f>
         <v>2.2431583669807087E-3</v>
       </c>
-      <c r="AJ23" s="22">
-        <f t="shared" si="10"/>
+      <c r="AJ23" s="21">
+        <f t="shared" si="11"/>
         <v>2.2431583669807087E-3</v>
       </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
       <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
     </row>
-    <row r="24" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>93084780</v>
       </c>
@@ -5277,11 +5009,11 @@
       <c r="AE24" s="4"/>
       <c r="AF24" s="4"/>
       <c r="AG24" s="4"/>
-      <c r="AH24" s="21">
+      <c r="AH24" s="20">
         <f>$D24/$H24</f>
         <v>2.5235531628532972E-3</v>
       </c>
-      <c r="AI24" s="21">
+      <c r="AI24" s="20">
         <f>$D24/$H24</f>
         <v>2.5235531628532972E-3</v>
       </c>
@@ -5289,14 +5021,8 @@
       <c r="AK24" s="4"/>
       <c r="AL24" s="4"/>
       <c r="AM24" s="4"/>
-      <c r="AN24" s="4"/>
-      <c r="AO24" s="4"/>
-      <c r="AP24" s="4"/>
-      <c r="AQ24" s="4"/>
-      <c r="AR24" s="4"/>
-      <c r="AS24" s="4"/>
     </row>
-    <row r="25" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17">
         <v>93086458</v>
       </c>
@@ -5346,11 +5072,11 @@
       <c r="AE25" s="7"/>
       <c r="AF25" s="7"/>
       <c r="AG25" s="7"/>
-      <c r="AH25" s="22">
+      <c r="AH25" s="21">
         <f>$D25/$H25</f>
         <v>5.0471063257065945E-3</v>
       </c>
-      <c r="AI25" s="22">
+      <c r="AI25" s="21">
         <f>$D25/$H25</f>
         <v>5.0471063257065945E-3</v>
       </c>
@@ -5358,14 +5084,8 @@
       <c r="AK25" s="7"/>
       <c r="AL25" s="7"/>
       <c r="AM25" s="7"/>
-      <c r="AN25" s="7"/>
-      <c r="AO25" s="7"/>
-      <c r="AP25" s="7"/>
-      <c r="AQ25" s="7"/>
-      <c r="AR25" s="7"/>
-      <c r="AS25" s="7"/>
     </row>
-    <row r="26" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>93083112</v>
       </c>
@@ -5383,12 +5103,12 @@
         <v>29</v>
       </c>
       <c r="F26" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G26" s="4"/>
       <c r="H26" s="6">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -5418,29 +5138,20 @@
       <c r="AH26" s="4"/>
       <c r="AI26" s="4"/>
       <c r="AJ26" s="4"/>
-      <c r="AK26" s="21">
+      <c r="AK26" s="20">
         <f>$D26/$H26</f>
-        <v>2.628701211305518E-3</v>
-      </c>
-      <c r="AL26" s="21">
-        <f t="shared" ref="AL26:AN26" si="11">$D26/$H26</f>
-        <v>2.628701211305518E-3</v>
-      </c>
-      <c r="AM26" s="21">
-        <f t="shared" si="11"/>
-        <v>2.628701211305518E-3</v>
-      </c>
-      <c r="AN26" s="21">
-        <f t="shared" si="11"/>
-        <v>2.628701211305518E-3</v>
-      </c>
-      <c r="AO26" s="4"/>
-      <c r="AP26" s="4"/>
-      <c r="AQ26" s="4"/>
-      <c r="AR26" s="4"/>
-      <c r="AS26" s="4"/>
+        <v>3.5049349484073573E-3</v>
+      </c>
+      <c r="AL26" s="20">
+        <f t="shared" ref="AL26:AM26" si="12">$D26/$H26</f>
+        <v>3.5049349484073573E-3</v>
+      </c>
+      <c r="AM26" s="20">
+        <f t="shared" si="12"/>
+        <v>3.5049349484073573E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
         <v>93077720</v>
       </c>
@@ -5466,36 +5177,36 @@
         <v>8</v>
       </c>
       <c r="I27" s="7"/>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <f>$D27/$H27</f>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="K27" s="22">
-        <f t="shared" ref="K27:Z29" si="12">$D27/$H27</f>
+      <c r="K27" s="21">
+        <f t="shared" ref="K27:Z29" si="13">$D27/$H27</f>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="L27" s="22">
-        <f t="shared" si="12"/>
+      <c r="L27" s="21">
+        <f t="shared" si="13"/>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="M27" s="22">
-        <f t="shared" si="12"/>
+      <c r="M27" s="21">
+        <f t="shared" si="13"/>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="N27" s="22">
-        <f t="shared" si="12"/>
+      <c r="N27" s="21">
+        <f t="shared" si="13"/>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="O27" s="22">
-        <f t="shared" si="12"/>
+      <c r="O27" s="21">
+        <f t="shared" si="13"/>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="P27" s="22">
-        <f t="shared" si="12"/>
+      <c r="P27" s="21">
+        <f t="shared" si="13"/>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="Q27" s="22">
-        <f t="shared" si="12"/>
+      <c r="Q27" s="21">
+        <f t="shared" si="13"/>
         <v>5.257402422611036E-3</v>
       </c>
       <c r="R27" s="7"/>
@@ -5520,14 +5231,8 @@
       <c r="AK27" s="7"/>
       <c r="AL27" s="7"/>
       <c r="AM27" s="7"/>
-      <c r="AN27" s="7"/>
-      <c r="AO27" s="7"/>
-      <c r="AP27" s="7"/>
-      <c r="AQ27" s="7"/>
-      <c r="AR27" s="7"/>
-      <c r="AS27" s="7"/>
     </row>
-    <row r="28" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
         <v>93066773</v>
       </c>
@@ -5552,129 +5257,123 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="I28" s="21">
+      <c r="I28" s="20">
         <f>$D28/$H28</f>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="J28" s="21">
-        <f t="shared" ref="J28" si="13">$D28/$H28</f>
+      <c r="J28" s="20">
+        <f t="shared" ref="J28" si="14">$D28/$H28</f>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="K28" s="21">
-        <f t="shared" si="12"/>
+      <c r="K28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="L28" s="21">
-        <f t="shared" si="12"/>
+      <c r="L28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="M28" s="21">
-        <f t="shared" si="12"/>
+      <c r="M28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="N28" s="21">
-        <f t="shared" si="12"/>
+      <c r="N28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="O28" s="21">
-        <f t="shared" si="12"/>
+      <c r="O28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="P28" s="21">
-        <f t="shared" si="12"/>
+      <c r="P28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="Q28" s="21">
-        <f t="shared" si="12"/>
+      <c r="Q28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="R28" s="21">
-        <f t="shared" si="12"/>
+      <c r="R28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="S28" s="21">
-        <f t="shared" si="12"/>
+      <c r="S28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="T28" s="21">
-        <f t="shared" si="12"/>
+      <c r="T28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="U28" s="21">
-        <f t="shared" si="12"/>
+      <c r="U28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="V28" s="21">
-        <f t="shared" si="12"/>
+      <c r="V28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="W28" s="21">
-        <f t="shared" si="12"/>
+      <c r="W28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="X28" s="21">
-        <f t="shared" si="12"/>
+      <c r="X28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="Y28" s="21">
-        <f t="shared" si="12"/>
+      <c r="Y28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="Z28" s="21">
-        <f t="shared" si="12"/>
+      <c r="Z28" s="20">
+        <f t="shared" si="13"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AA28" s="21">
-        <f t="shared" ref="AA28:AJ28" si="14">$D28/$H28</f>
+      <c r="AA28" s="20">
+        <f t="shared" ref="AA28:AJ28" si="15">$D28/$H28</f>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AB28" s="21">
-        <f t="shared" si="14"/>
+      <c r="AB28" s="20">
+        <f t="shared" si="15"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AC28" s="21">
-        <f t="shared" si="14"/>
+      <c r="AC28" s="20">
+        <f t="shared" si="15"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AD28" s="21">
-        <f t="shared" si="14"/>
+      <c r="AD28" s="20">
+        <f t="shared" si="15"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AE28" s="21">
-        <f t="shared" si="14"/>
+      <c r="AE28" s="20">
+        <f t="shared" si="15"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AF28" s="21">
-        <f t="shared" si="14"/>
+      <c r="AF28" s="20">
+        <f t="shared" si="15"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AG28" s="21">
-        <f t="shared" si="14"/>
+      <c r="AG28" s="20">
+        <f t="shared" si="15"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AH28" s="21">
-        <f t="shared" si="14"/>
+      <c r="AH28" s="20">
+        <f t="shared" si="15"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AI28" s="21">
-        <f t="shared" si="14"/>
+      <c r="AI28" s="20">
+        <f t="shared" si="15"/>
         <v>1.802537973466641E-3</v>
       </c>
-      <c r="AJ28" s="21">
-        <f t="shared" si="14"/>
+      <c r="AJ28" s="20">
+        <f t="shared" si="15"/>
         <v>1.802537973466641E-3</v>
       </c>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
       <c r="AM28" s="4"/>
-      <c r="AN28" s="4"/>
-      <c r="AO28" s="4"/>
-      <c r="AP28" s="4"/>
-      <c r="AQ28" s="4"/>
-      <c r="AR28" s="4"/>
-      <c r="AS28" s="4"/>
     </row>
-    <row r="29" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
         <v>93083111</v>
       </c>
@@ -5701,24 +5400,24 @@
       </c>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="22">
+      <c r="K29" s="21">
         <f>$D29/$H29</f>
         <v>1.0094212651413189E-2</v>
       </c>
-      <c r="L29" s="22">
-        <f t="shared" si="12"/>
+      <c r="L29" s="21">
+        <f t="shared" si="13"/>
         <v>1.0094212651413189E-2</v>
       </c>
-      <c r="M29" s="22">
-        <f t="shared" si="12"/>
+      <c r="M29" s="21">
+        <f t="shared" si="13"/>
         <v>1.0094212651413189E-2</v>
       </c>
-      <c r="N29" s="22">
-        <f t="shared" si="12"/>
+      <c r="N29" s="21">
+        <f t="shared" si="13"/>
         <v>1.0094212651413189E-2</v>
       </c>
-      <c r="O29" s="22">
-        <f t="shared" si="12"/>
+      <c r="O29" s="21">
+        <f t="shared" si="13"/>
         <v>1.0094212651413189E-2</v>
       </c>
       <c r="P29" s="7"/>
@@ -5745,14 +5444,8 @@
       <c r="AK29" s="7"/>
       <c r="AL29" s="7"/>
       <c r="AM29" s="7"/>
-      <c r="AN29" s="7"/>
-      <c r="AO29" s="7"/>
-      <c r="AP29" s="7"/>
-      <c r="AQ29" s="7"/>
-      <c r="AR29" s="7"/>
-      <c r="AS29" s="7"/>
     </row>
-    <row r="30" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
         <v>93082680</v>
       </c>
@@ -5784,7 +5477,7 @@
       <c r="M30" s="7"/>
       <c r="N30" s="7"/>
       <c r="O30" s="7"/>
-      <c r="P30" s="22">
+      <c r="P30" s="21">
         <f>$D30/$H30</f>
         <v>2.5235531628532972E-3</v>
       </c>
@@ -5811,14 +5504,8 @@
       <c r="AK30" s="7"/>
       <c r="AL30" s="7"/>
       <c r="AM30" s="7"/>
-      <c r="AN30" s="7"/>
-      <c r="AO30" s="7"/>
-      <c r="AP30" s="7"/>
-      <c r="AQ30" s="7"/>
-      <c r="AR30" s="7"/>
-      <c r="AS30" s="7"/>
     </row>
-    <row r="31" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
         <v>93083117</v>
       </c>
@@ -5833,10 +5520,10 @@
         <v>0.13164535666218036</v>
       </c>
       <c r="E31" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F31" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="G31" s="7"/>
       <c r="H31" s="6">
@@ -5851,79 +5538,73 @@
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
       <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="22">
+      <c r="Q31" s="21">
         <f>$D31/$H31</f>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="U31" s="22">
-        <f t="shared" ref="U31:AG31" si="15">$D31/$H31</f>
+      <c r="R31" s="21">
+        <f t="shared" ref="R31:S31" si="16">$D31/$H31</f>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="V31" s="22">
-        <f t="shared" si="15"/>
+      <c r="S31" s="21">
+        <f t="shared" si="16"/>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="W31" s="22">
-        <f t="shared" si="15"/>
+      <c r="T31" s="21">
+        <f>$D31/$H31</f>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="X31" s="22">
-        <f t="shared" si="15"/>
+      <c r="U31" s="21">
+        <f t="shared" ref="U31:AD31" si="17">$D31/$H31</f>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="Y31" s="22">
-        <f t="shared" si="15"/>
+      <c r="V31" s="21">
+        <f t="shared" si="17"/>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="Z31" s="22">
-        <f t="shared" si="15"/>
+      <c r="W31" s="21">
+        <f t="shared" si="17"/>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="AA31" s="22">
-        <f t="shared" si="15"/>
+      <c r="X31" s="21">
+        <f t="shared" si="17"/>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="AB31" s="22">
-        <f t="shared" si="15"/>
+      <c r="Y31" s="21">
+        <f t="shared" si="17"/>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="AC31" s="22">
-        <f t="shared" si="15"/>
+      <c r="Z31" s="21">
+        <f t="shared" si="17"/>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="AD31" s="22">
-        <f t="shared" si="15"/>
+      <c r="AA31" s="21">
+        <f t="shared" si="17"/>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="AE31" s="22">
-        <f t="shared" si="15"/>
+      <c r="AB31" s="21">
+        <f t="shared" si="17"/>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="AF31" s="22">
-        <f t="shared" si="15"/>
+      <c r="AC31" s="21">
+        <f t="shared" si="17"/>
         <v>9.403239761584312E-3</v>
       </c>
-      <c r="AG31" s="22">
-        <f t="shared" si="15"/>
+      <c r="AD31" s="21">
+        <f t="shared" si="17"/>
         <v>9.403239761584312E-3</v>
       </c>
+      <c r="AE31" s="18"/>
+      <c r="AF31" s="18"/>
+      <c r="AG31" s="18"/>
       <c r="AH31" s="7"/>
       <c r="AI31" s="7"/>
       <c r="AJ31" s="7"/>
       <c r="AK31" s="7"/>
       <c r="AL31" s="7"/>
       <c r="AM31" s="7"/>
-      <c r="AN31" s="7"/>
-      <c r="AO31" s="7"/>
-      <c r="AP31" s="7"/>
-      <c r="AQ31" s="7"/>
-      <c r="AR31" s="7"/>
-      <c r="AS31" s="7"/>
     </row>
-    <row r="32" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
         <v>93083142</v>
       </c>
@@ -5938,10 +5619,10 @@
         <v>2.0188425302826378E-2</v>
       </c>
       <c r="E32" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F32" s="3">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="6">
@@ -5970,29 +5651,23 @@
       <c r="AB32" s="7"/>
       <c r="AC32" s="7"/>
       <c r="AD32" s="7"/>
-      <c r="AE32" s="7"/>
-      <c r="AF32" s="7"/>
-      <c r="AG32" s="7"/>
-      <c r="AH32" s="22">
+      <c r="AE32" s="21">
         <f>$D32/$H32</f>
         <v>1.0094212651413189E-2</v>
       </c>
-      <c r="AI32" s="22">
+      <c r="AF32" s="21">
         <f>$D32/$H32</f>
         <v>1.0094212651413189E-2</v>
       </c>
+      <c r="AG32" s="7"/>
+      <c r="AH32" s="18"/>
+      <c r="AI32" s="18"/>
       <c r="AJ32" s="7"/>
       <c r="AK32" s="7"/>
       <c r="AL32" s="7"/>
       <c r="AM32" s="7"/>
-      <c r="AN32" s="7"/>
-      <c r="AO32" s="7"/>
-      <c r="AP32" s="7"/>
-      <c r="AQ32" s="7"/>
-      <c r="AR32" s="7"/>
-      <c r="AS32" s="7"/>
     </row>
-    <row r="33" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A33" s="17">
         <v>93083149</v>
       </c>
@@ -6007,10 +5682,10 @@
         <v>1.0094212651413189E-2</v>
       </c>
       <c r="E33" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F33" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G33" s="7"/>
       <c r="H33" s="6">
@@ -6041,27 +5716,21 @@
       <c r="AD33" s="7"/>
       <c r="AE33" s="7"/>
       <c r="AF33" s="7"/>
-      <c r="AG33" s="7"/>
-      <c r="AH33" s="7"/>
-      <c r="AI33" s="7"/>
-      <c r="AJ33" s="22">
+      <c r="AG33" s="21">
         <f>$D33/$H33</f>
         <v>5.0471063257065945E-3</v>
       </c>
-      <c r="AK33" s="22">
+      <c r="AH33" s="21">
         <f>$D33/$H33</f>
         <v>5.0471063257065945E-3</v>
       </c>
+      <c r="AI33" s="7"/>
+      <c r="AJ33" s="18"/>
+      <c r="AK33" s="18"/>
       <c r="AL33" s="7"/>
       <c r="AM33" s="7"/>
-      <c r="AN33" s="7"/>
-      <c r="AO33" s="7"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
-      <c r="AR33" s="7"/>
-      <c r="AS33" s="7"/>
     </row>
-    <row r="34" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A34" s="17">
         <v>93083167</v>
       </c>
@@ -6072,14 +5741,14 @@
         <v>48</v>
       </c>
       <c r="D34" s="4">
-        <f t="shared" ref="D34:D65" si="16">C34/$C$93</f>
+        <f t="shared" ref="D34:D65" si="18">C34/$C$93</f>
         <v>1.009421265141319E-3</v>
       </c>
       <c r="E34" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F34" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G34" s="7"/>
       <c r="H34" s="6">
@@ -6112,22 +5781,16 @@
       <c r="AF34" s="7"/>
       <c r="AG34" s="7"/>
       <c r="AH34" s="7"/>
-      <c r="AI34" s="7"/>
+      <c r="AI34" s="21">
+        <f>$D34/$H34</f>
+        <v>1.009421265141319E-3</v>
+      </c>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
-      <c r="AL34" s="22">
-        <f>$D34/$H34</f>
-        <v>1.009421265141319E-3</v>
-      </c>
+      <c r="AL34" s="18"/>
       <c r="AM34" s="7"/>
-      <c r="AN34" s="7"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="7"/>
-      <c r="AQ34" s="7"/>
-      <c r="AR34" s="7"/>
-      <c r="AS34" s="7"/>
     </row>
-    <row r="35" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
         <v>93083150</v>
       </c>
@@ -6138,19 +5801,19 @@
         <v>270</v>
       </c>
       <c r="D35" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.677994616419919E-3</v>
       </c>
       <c r="E35" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F35" s="3">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G35" s="7"/>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
@@ -6179,22 +5842,19 @@
       <c r="AG35" s="7"/>
       <c r="AH35" s="7"/>
       <c r="AI35" s="7"/>
-      <c r="AJ35" s="7"/>
-      <c r="AK35" s="7"/>
+      <c r="AJ35" s="21">
+        <f>$D35/$H35</f>
+        <v>2.8389973082099595E-3</v>
+      </c>
+      <c r="AK35" s="21">
+        <f>$D35/$H35</f>
+        <v>2.8389973082099595E-3</v>
+      </c>
       <c r="AL35" s="7"/>
-      <c r="AM35" s="22">
-        <f>$D35/$H35</f>
-        <v>5.677994616419919E-3</v>
-      </c>
-      <c r="AN35" s="7"/>
-      <c r="AO35" s="7"/>
-      <c r="AP35" s="7"/>
-      <c r="AQ35" s="7"/>
-      <c r="AR35" s="7"/>
-      <c r="AS35" s="7"/>
+      <c r="AM35" s="18"/>
     </row>
-    <row r="36" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="20">
+    <row r="36" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
         <v>93083546</v>
       </c>
       <c r="B36" s="14" t="s">
@@ -6204,14 +5864,14 @@
         <v>60</v>
       </c>
       <c r="D36" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2617765814266486E-3</v>
       </c>
       <c r="E36" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F36" s="3">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G36" s="7"/>
       <c r="H36" s="6">
@@ -6220,19 +5880,19 @@
       </c>
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
-      <c r="K36" s="22">
-        <f>$D36/$H36</f>
-        <v>6.3088829071332431E-4</v>
-      </c>
-      <c r="L36" s="22">
-        <f>$D36/$H36</f>
-        <v>6.3088829071332431E-4</v>
-      </c>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
       <c r="M36" s="7"/>
       <c r="N36" s="7"/>
       <c r="O36" s="7"/>
-      <c r="P36" s="7"/>
-      <c r="Q36" s="7"/>
+      <c r="P36" s="21">
+        <f>$D36/$H36</f>
+        <v>6.3088829071332431E-4</v>
+      </c>
+      <c r="Q36" s="21">
+        <f>$D36/$H36</f>
+        <v>6.3088829071332431E-4</v>
+      </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
@@ -6255,14 +5915,8 @@
       <c r="AK36" s="7"/>
       <c r="AL36" s="7"/>
       <c r="AM36" s="7"/>
-      <c r="AN36" s="7"/>
-      <c r="AO36" s="7"/>
-      <c r="AP36" s="7"/>
-      <c r="AQ36" s="7"/>
-      <c r="AR36" s="7"/>
-      <c r="AS36" s="7"/>
     </row>
-    <row r="37" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
         <v>93085868</v>
       </c>
@@ -6273,14 +5927,14 @@
         <v>432</v>
       </c>
       <c r="D37" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.0847913862718704E-3</v>
       </c>
       <c r="E37" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F37" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
@@ -6299,23 +5953,23 @@
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
-      <c r="U37" s="22">
+      <c r="U37" s="18"/>
+      <c r="V37" s="18"/>
+      <c r="W37" s="18"/>
+      <c r="X37" s="7"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="21">
         <f>$D37/$H37</f>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="V37" s="22">
-        <f t="shared" ref="V37:W37" si="17">$D37/$H37</f>
+      <c r="AA37" s="21">
+        <f t="shared" ref="AA37:AB37" si="19">$D37/$H37</f>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="W37" s="22">
-        <f t="shared" si="17"/>
+      <c r="AB37" s="21">
+        <f t="shared" si="19"/>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="X37" s="7"/>
-      <c r="Y37" s="7"/>
-      <c r="Z37" s="7"/>
-      <c r="AA37" s="7"/>
-      <c r="AB37" s="7"/>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
       <c r="AE37" s="7"/>
@@ -6327,14 +5981,8 @@
       <c r="AK37" s="7"/>
       <c r="AL37" s="7"/>
       <c r="AM37" s="7"/>
-      <c r="AN37" s="7"/>
-      <c r="AO37" s="7"/>
-      <c r="AP37" s="7"/>
-      <c r="AQ37" s="7"/>
-      <c r="AR37" s="7"/>
-      <c r="AS37" s="7"/>
     </row>
-    <row r="38" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A38" s="17">
         <v>93083152</v>
       </c>
@@ -6345,7 +5993,7 @@
         <v>960</v>
       </c>
       <c r="D38" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.0188425302826378E-2</v>
       </c>
       <c r="E38" s="3">
@@ -6375,20 +6023,20 @@
       <c r="V38" s="7"/>
       <c r="W38" s="7"/>
       <c r="X38" s="7"/>
-      <c r="Y38" s="22">
+      <c r="Y38" s="21">
         <f>$D38/$H38</f>
         <v>5.0471063257065945E-3</v>
       </c>
-      <c r="Z38" s="22">
-        <f t="shared" ref="Z38:AB38" si="18">$D38/$H38</f>
+      <c r="Z38" s="21">
+        <f t="shared" ref="Z38:AB38" si="20">$D38/$H38</f>
         <v>5.0471063257065945E-3</v>
       </c>
-      <c r="AA38" s="22">
-        <f t="shared" si="18"/>
+      <c r="AA38" s="21">
+        <f t="shared" si="20"/>
         <v>5.0471063257065945E-3</v>
       </c>
-      <c r="AB38" s="22">
-        <f t="shared" si="18"/>
+      <c r="AB38" s="21">
+        <f t="shared" si="20"/>
         <v>5.0471063257065945E-3</v>
       </c>
       <c r="AC38" s="7"/>
@@ -6402,14 +6050,8 @@
       <c r="AK38" s="7"/>
       <c r="AL38" s="7"/>
       <c r="AM38" s="7"/>
-      <c r="AN38" s="7"/>
-      <c r="AO38" s="7"/>
-      <c r="AP38" s="7"/>
-      <c r="AQ38" s="7"/>
-      <c r="AR38" s="7"/>
-      <c r="AS38" s="7"/>
     </row>
-    <row r="39" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A39" s="17">
         <v>93083151</v>
       </c>
@@ -6420,14 +6062,14 @@
         <v>432</v>
       </c>
       <c r="D39" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.0847913862718704E-3</v>
       </c>
       <c r="E39" s="3">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F39" s="3">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
@@ -6455,30 +6097,24 @@
       <c r="AA39" s="7"/>
       <c r="AB39" s="7"/>
       <c r="AC39" s="7"/>
-      <c r="AD39" s="7"/>
-      <c r="AE39" s="7"/>
-      <c r="AF39" s="7"/>
-      <c r="AG39" s="22">
+      <c r="AD39" s="21">
         <f>$D39/$H39</f>
         <v>4.5423956931359352E-3</v>
       </c>
-      <c r="AH39" s="22">
+      <c r="AE39" s="21">
         <f>$D39/$H39</f>
         <v>4.5423956931359352E-3</v>
       </c>
+      <c r="AF39" s="7"/>
+      <c r="AG39" s="18"/>
+      <c r="AH39" s="18"/>
       <c r="AI39" s="7"/>
       <c r="AJ39" s="7"/>
       <c r="AK39" s="7"/>
       <c r="AL39" s="7"/>
       <c r="AM39" s="7"/>
-      <c r="AN39" s="7"/>
-      <c r="AO39" s="7"/>
-      <c r="AP39" s="7"/>
-      <c r="AQ39" s="7"/>
-      <c r="AR39" s="7"/>
-      <c r="AS39" s="7"/>
     </row>
-    <row r="40" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A40" s="17">
         <v>93082595</v>
       </c>
@@ -6489,14 +6125,14 @@
         <v>500</v>
       </c>
       <c r="D40" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E40" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
@@ -6505,23 +6141,23 @@
       </c>
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
-      <c r="K40" s="7"/>
-      <c r="L40" s="22">
+      <c r="K40" s="21">
         <f>$D40/$H40</f>
         <v>2.628701211305518E-3</v>
       </c>
-      <c r="M40" s="22">
-        <f t="shared" ref="M40:O40" si="19">$D40/$H40</f>
+      <c r="L40" s="21">
+        <f>$D40/$H40</f>
         <v>2.628701211305518E-3</v>
       </c>
-      <c r="N40" s="22">
-        <f t="shared" si="19"/>
+      <c r="M40" s="21">
+        <f t="shared" ref="M40:N40" si="21">$D40/$H40</f>
         <v>2.628701211305518E-3</v>
       </c>
-      <c r="O40" s="22">
-        <f t="shared" si="19"/>
+      <c r="N40" s="21">
+        <f t="shared" si="21"/>
         <v>2.628701211305518E-3</v>
       </c>
+      <c r="O40" s="18"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
@@ -6546,14 +6182,8 @@
       <c r="AK40" s="7"/>
       <c r="AL40" s="7"/>
       <c r="AM40" s="7"/>
-      <c r="AN40" s="7"/>
-      <c r="AO40" s="7"/>
-      <c r="AP40" s="7"/>
-      <c r="AQ40" s="7"/>
-      <c r="AR40" s="7"/>
-      <c r="AS40" s="7"/>
     </row>
-    <row r="41" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A41" s="17">
         <v>93082591</v>
       </c>
@@ -6564,14 +6194,14 @@
         <v>504</v>
       </c>
       <c r="D41" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.059892328398385E-2</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
@@ -6580,12 +6210,12 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
       <c r="K41" s="7"/>
-      <c r="L41" s="22">
+      <c r="L41" s="21">
         <f>$D41/$H41</f>
         <v>5.299461641991925E-3</v>
       </c>
       <c r="M41" s="7"/>
-      <c r="N41" s="22">
+      <c r="N41" s="21">
         <f>$D41/$H41</f>
         <v>5.299461641991925E-3</v>
       </c>
@@ -6614,14 +6244,8 @@
       <c r="AK41" s="7"/>
       <c r="AL41" s="7"/>
       <c r="AM41" s="7"/>
-      <c r="AN41" s="7"/>
-      <c r="AO41" s="7"/>
-      <c r="AP41" s="7"/>
-      <c r="AQ41" s="7"/>
-      <c r="AR41" s="7"/>
-      <c r="AS41" s="7"/>
     </row>
-    <row r="42" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A42" s="17">
         <v>93082597</v>
       </c>
@@ -6632,7 +6256,7 @@
         <v>1000</v>
       </c>
       <c r="D42" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.1029609690444144E-2</v>
       </c>
       <c r="E42" s="3">
@@ -6652,20 +6276,20 @@
       <c r="L42" s="7"/>
       <c r="M42" s="7"/>
       <c r="N42" s="7"/>
-      <c r="O42" s="22">
+      <c r="O42" s="21">
         <f>$D42/$H42</f>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="P42" s="22">
-        <f t="shared" ref="P42:R42" si="20">$D42/$H42</f>
+      <c r="P42" s="21">
+        <f t="shared" ref="P42:R42" si="22">$D42/$H42</f>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="Q42" s="22">
-        <f t="shared" si="20"/>
+      <c r="Q42" s="21">
+        <f t="shared" si="22"/>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="R42" s="22">
-        <f t="shared" si="20"/>
+      <c r="R42" s="21">
+        <f t="shared" si="22"/>
         <v>5.257402422611036E-3</v>
       </c>
       <c r="S42" s="7"/>
@@ -6689,14 +6313,8 @@
       <c r="AK42" s="7"/>
       <c r="AL42" s="7"/>
       <c r="AM42" s="7"/>
-      <c r="AN42" s="7"/>
-      <c r="AO42" s="7"/>
-      <c r="AP42" s="7"/>
-      <c r="AQ42" s="7"/>
-      <c r="AR42" s="7"/>
-      <c r="AS42" s="7"/>
     </row>
-    <row r="43" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A43" s="17">
         <v>93082596</v>
       </c>
@@ -6707,7 +6325,7 @@
         <v>500</v>
       </c>
       <c r="D43" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E43" s="3">
@@ -6727,11 +6345,11 @@
       <c r="L43" s="7"/>
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
-      <c r="O43" s="22">
+      <c r="O43" s="21">
         <f>$D43/$H43</f>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="P43" s="22">
+      <c r="P43" s="21">
         <f>$D43/$H43</f>
         <v>5.257402422611036E-3</v>
       </c>
@@ -6758,14 +6376,8 @@
       <c r="AK43" s="7"/>
       <c r="AL43" s="7"/>
       <c r="AM43" s="7"/>
-      <c r="AN43" s="7"/>
-      <c r="AO43" s="7"/>
-      <c r="AP43" s="7"/>
-      <c r="AQ43" s="7"/>
-      <c r="AR43" s="7"/>
-      <c r="AS43" s="7"/>
     </row>
-    <row r="44" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A44" s="17">
         <v>93082590</v>
       </c>
@@ -6776,14 +6388,14 @@
         <v>500</v>
       </c>
       <c r="D44" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E44" s="3">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F44" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
@@ -6798,31 +6410,31 @@
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
       <c r="P44" s="7"/>
-      <c r="Q44" s="22">
+      <c r="Q44" s="18"/>
+      <c r="R44" s="18"/>
+      <c r="S44" s="18"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="18"/>
+      <c r="V44" s="21">
         <f>$D44/$H44</f>
         <v>2.1029609690444142E-3</v>
       </c>
-      <c r="R44" s="22">
-        <f t="shared" ref="R44:U44" si="21">$D44/$H44</f>
+      <c r="W44" s="21">
+        <f t="shared" ref="W44:Z44" si="23">$D44/$H44</f>
         <v>2.1029609690444142E-3</v>
       </c>
-      <c r="S44" s="22">
-        <f t="shared" si="21"/>
+      <c r="X44" s="21">
+        <f t="shared" si="23"/>
         <v>2.1029609690444142E-3</v>
       </c>
-      <c r="T44" s="22">
-        <f t="shared" si="21"/>
+      <c r="Y44" s="21">
+        <f t="shared" si="23"/>
         <v>2.1029609690444142E-3</v>
       </c>
-      <c r="U44" s="22">
-        <f t="shared" si="21"/>
+      <c r="Z44" s="21">
+        <f t="shared" si="23"/>
         <v>2.1029609690444142E-3</v>
       </c>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
       <c r="AC44" s="7"/>
@@ -6836,14 +6448,8 @@
       <c r="AK44" s="7"/>
       <c r="AL44" s="7"/>
       <c r="AM44" s="7"/>
-      <c r="AN44" s="7"/>
-      <c r="AO44" s="7"/>
-      <c r="AP44" s="7"/>
-      <c r="AQ44" s="7"/>
-      <c r="AR44" s="7"/>
-      <c r="AS44" s="7"/>
     </row>
-    <row r="45" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A45" s="17">
         <v>93082593</v>
       </c>
@@ -6854,14 +6460,14 @@
         <v>840</v>
       </c>
       <c r="D45" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.7664872139973083E-2</v>
       </c>
       <c r="E45" s="3">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F45" s="3">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
@@ -6880,39 +6486,39 @@
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
-      <c r="U45" s="22">
+      <c r="U45" s="18"/>
+      <c r="V45" s="18"/>
+      <c r="W45" s="18"/>
+      <c r="X45" s="18"/>
+      <c r="Y45" s="18"/>
+      <c r="Z45" s="21">
+        <f t="shared" ref="Z45" si="24">$D45/$H45</f>
+        <v>2.5235531628532977E-3</v>
+      </c>
+      <c r="AA45" s="21">
         <f>$D45/$H45</f>
         <v>2.5235531628532977E-3</v>
       </c>
-      <c r="V45" s="22">
-        <f t="shared" ref="V45:AA45" si="22">$D45/$H45</f>
+      <c r="AB45" s="21">
+        <f t="shared" ref="AB45:AF45" si="25">$D45/$H45</f>
         <v>2.5235531628532977E-3</v>
       </c>
-      <c r="W45" s="22">
-        <f t="shared" si="22"/>
+      <c r="AC45" s="21">
+        <f t="shared" si="25"/>
         <v>2.5235531628532977E-3</v>
       </c>
-      <c r="X45" s="22">
-        <f t="shared" si="22"/>
+      <c r="AD45" s="21">
+        <f t="shared" si="25"/>
         <v>2.5235531628532977E-3</v>
       </c>
-      <c r="Y45" s="22">
-        <f t="shared" si="22"/>
+      <c r="AE45" s="21">
+        <f t="shared" si="25"/>
         <v>2.5235531628532977E-3</v>
       </c>
-      <c r="Z45" s="22">
-        <f t="shared" si="22"/>
+      <c r="AF45" s="21">
+        <f t="shared" si="25"/>
         <v>2.5235531628532977E-3</v>
       </c>
-      <c r="AA45" s="22">
-        <f t="shared" si="22"/>
-        <v>2.5235531628532977E-3</v>
-      </c>
-      <c r="AB45" s="7"/>
-      <c r="AC45" s="7"/>
-      <c r="AD45" s="7"/>
-      <c r="AE45" s="7"/>
-      <c r="AF45" s="7"/>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
       <c r="AI45" s="7"/>
@@ -6920,14 +6526,8 @@
       <c r="AK45" s="7"/>
       <c r="AL45" s="7"/>
       <c r="AM45" s="7"/>
-      <c r="AN45" s="7"/>
-      <c r="AO45" s="7"/>
-      <c r="AP45" s="7"/>
-      <c r="AQ45" s="7"/>
-      <c r="AR45" s="7"/>
-      <c r="AS45" s="7"/>
     </row>
-    <row r="46" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A46" s="17">
         <v>93082592</v>
       </c>
@@ -6938,14 +6538,14 @@
         <v>250</v>
       </c>
       <c r="D46" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.257402422611036E-3</v>
       </c>
       <c r="E46" s="3">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F46" s="3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
@@ -6972,31 +6572,25 @@
       <c r="Z46" s="7"/>
       <c r="AA46" s="7"/>
       <c r="AB46" s="7"/>
-      <c r="AC46" s="22">
-        <f>$D46/$H46</f>
-        <v>2.628701211305518E-3</v>
-      </c>
-      <c r="AD46" s="22">
-        <f>$D46/$H46</f>
-        <v>2.628701211305518E-3</v>
-      </c>
+      <c r="AC46" s="18"/>
+      <c r="AD46" s="18"/>
       <c r="AE46" s="7"/>
       <c r="AF46" s="7"/>
       <c r="AG46" s="7"/>
-      <c r="AH46" s="7"/>
-      <c r="AI46" s="7"/>
+      <c r="AH46" s="21">
+        <f>$D46/$H46</f>
+        <v>2.628701211305518E-3</v>
+      </c>
+      <c r="AI46" s="21">
+        <f>$D46/$H46</f>
+        <v>2.628701211305518E-3</v>
+      </c>
       <c r="AJ46" s="7"/>
       <c r="AK46" s="7"/>
       <c r="AL46" s="7"/>
       <c r="AM46" s="7"/>
-      <c r="AN46" s="7"/>
-      <c r="AO46" s="7"/>
-      <c r="AP46" s="7"/>
-      <c r="AQ46" s="7"/>
-      <c r="AR46" s="7"/>
-      <c r="AS46" s="7"/>
     </row>
-    <row r="47" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A47" s="17">
         <v>93082598</v>
       </c>
@@ -7007,14 +6601,14 @@
         <v>400</v>
       </c>
       <c r="D47" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.4118438761776586E-3</v>
       </c>
       <c r="E47" s="3">
+        <v>26</v>
+      </c>
+      <c r="F47" s="3">
         <v>29</v>
-      </c>
-      <c r="F47" s="3">
-        <v>32</v>
       </c>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
@@ -7046,32 +6640,26 @@
       <c r="AE47" s="7"/>
       <c r="AF47" s="7"/>
       <c r="AG47" s="7"/>
-      <c r="AH47" s="7"/>
-      <c r="AI47" s="7"/>
-      <c r="AJ47" s="7"/>
-      <c r="AK47" s="22">
+      <c r="AH47" s="21">
         <f>$D47/$H47</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AL47" s="22">
-        <f t="shared" ref="AL47:AN47" si="23">$D47/$H47</f>
+      <c r="AI47" s="21">
+        <f t="shared" ref="AI47:AJ47" si="26">$D47/$H47</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AM47" s="22">
-        <f t="shared" si="23"/>
+      <c r="AJ47" s="21">
+        <f t="shared" si="26"/>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AN47" s="22">
-        <f t="shared" si="23"/>
+      <c r="AK47" s="21">
+        <f>$D47/$H47</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AO47" s="7"/>
-      <c r="AP47" s="7"/>
-      <c r="AQ47" s="7"/>
-      <c r="AR47" s="7"/>
-      <c r="AS47" s="7"/>
+      <c r="AL47" s="18"/>
+      <c r="AM47" s="18"/>
     </row>
-    <row r="48" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A48" s="17">
         <v>93084443</v>
       </c>
@@ -7082,54 +6670,72 @@
         <v>792</v>
       </c>
       <c r="D48" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6655450874831765E-2</v>
       </c>
       <c r="E48" s="3">
         <v>5</v>
       </c>
       <c r="F48" s="3">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
       <c r="K48" s="7"/>
       <c r="L48" s="7"/>
-      <c r="M48" s="22">
+      <c r="M48" s="21">
         <f>$D48/$H48</f>
-        <v>2.7759084791386273E-3</v>
-      </c>
-      <c r="N48" s="22">
-        <f t="shared" ref="N48:R48" si="24">$D48/$H48</f>
-        <v>2.7759084791386273E-3</v>
-      </c>
-      <c r="O48" s="22">
-        <f t="shared" si="24"/>
-        <v>2.7759084791386273E-3</v>
-      </c>
-      <c r="P48" s="22">
-        <f t="shared" si="24"/>
-        <v>2.7759084791386273E-3</v>
-      </c>
-      <c r="Q48" s="22">
-        <f t="shared" si="24"/>
-        <v>2.7759084791386273E-3</v>
-      </c>
-      <c r="R48" s="22">
-        <f t="shared" si="24"/>
-        <v>2.7759084791386273E-3</v>
-      </c>
-      <c r="S48" s="7"/>
-      <c r="T48" s="7"/>
-      <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
-      <c r="X48" s="7"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="N48" s="21">
+        <f t="shared" ref="N48:X48" si="27">$D48/$H48</f>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="O48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="P48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="Q48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="R48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="S48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="T48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="U48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="V48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="W48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
+      <c r="X48" s="21">
+        <f t="shared" si="27"/>
+        <v>1.3879542395693137E-3</v>
+      </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
       <c r="AA48" s="7"/>
@@ -7145,14 +6751,8 @@
       <c r="AK48" s="7"/>
       <c r="AL48" s="7"/>
       <c r="AM48" s="7"/>
-      <c r="AN48" s="7"/>
-      <c r="AO48" s="7"/>
-      <c r="AP48" s="7"/>
-      <c r="AQ48" s="7"/>
-      <c r="AR48" s="7"/>
-      <c r="AS48" s="7"/>
     </row>
-    <row r="49" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A49" s="17">
         <v>93084153</v>
       </c>
@@ -7163,14 +6763,14 @@
         <v>24</v>
       </c>
       <c r="D49" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>5.0471063257065949E-4</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
@@ -7178,7 +6778,7 @@
       </c>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="22">
+      <c r="K49" s="21">
         <f>$D49/$H49</f>
         <v>2.5235531628532975E-4</v>
       </c>
@@ -7204,7 +6804,7 @@
       <c r="AE49" s="7"/>
       <c r="AF49" s="7"/>
       <c r="AG49" s="7"/>
-      <c r="AH49" s="22">
+      <c r="AH49" s="21">
         <f>$D49/$H49</f>
         <v>2.5235531628532975E-4</v>
       </c>
@@ -7213,14 +6813,8 @@
       <c r="AK49" s="7"/>
       <c r="AL49" s="7"/>
       <c r="AM49" s="7"/>
-      <c r="AN49" s="7"/>
-      <c r="AO49" s="7"/>
-      <c r="AP49" s="7"/>
-      <c r="AQ49" s="7"/>
-      <c r="AR49" s="7"/>
-      <c r="AS49" s="7"/>
     </row>
-    <row r="50" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A50" s="17">
         <v>93081197</v>
       </c>
@@ -7231,14 +6825,14 @@
         <v>60</v>
       </c>
       <c r="D50" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2617765814266486E-3</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
@@ -7246,7 +6840,7 @@
       </c>
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
-      <c r="K50" s="22">
+      <c r="K50" s="21">
         <f>$D50/$H50</f>
         <v>6.3088829071332431E-4</v>
       </c>
@@ -7272,7 +6866,7 @@
       <c r="AE50" s="7"/>
       <c r="AF50" s="7"/>
       <c r="AG50" s="7"/>
-      <c r="AH50" s="22">
+      <c r="AH50" s="21">
         <f>$D50/$H50</f>
         <v>6.3088829071332431E-4</v>
       </c>
@@ -7281,15 +6875,9 @@
       <c r="AK50" s="7"/>
       <c r="AL50" s="7"/>
       <c r="AM50" s="7"/>
-      <c r="AN50" s="7"/>
-      <c r="AO50" s="7"/>
-      <c r="AP50" s="7"/>
-      <c r="AQ50" s="7"/>
-      <c r="AR50" s="7"/>
-      <c r="AS50" s="7"/>
     </row>
-    <row r="51" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="20">
+    <row r="51" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A51" s="19">
         <v>93085087</v>
       </c>
       <c r="B51" s="14" t="s">
@@ -7299,107 +6887,101 @@
         <v>360</v>
       </c>
       <c r="D51" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.5706594885598926E-3</v>
       </c>
       <c r="E51" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="3">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
-      <c r="K51" s="7"/>
-      <c r="L51" s="22">
+      <c r="K51" s="21">
         <f>$D51/$H51</f>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="M51" s="22">
-        <f t="shared" ref="M51:AF52" si="25">$D51/$H51</f>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="N51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="O51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="P51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="Q51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="R51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="S51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="T51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="U51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="V51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="W51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="X51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="Y51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="Z51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="AA51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="AB51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="AC51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="AD51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="AE51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
-      <c r="AF51" s="22">
-        <f t="shared" si="25"/>
-        <v>3.605075946933282E-4</v>
-      </c>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="L51" s="21">
+        <f>$D51/$H51</f>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="M51" s="21">
+        <f t="shared" ref="M51:AC52" si="28">$D51/$H51</f>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="N51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="O51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="P51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="Q51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="R51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="S51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="T51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="U51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="V51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="W51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="X51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="Y51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="Z51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="AA51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="AB51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="AC51" s="21">
+        <f t="shared" si="28"/>
+        <v>3.984557625557838E-4</v>
+      </c>
+      <c r="AD51" s="18"/>
+      <c r="AE51" s="18"/>
+      <c r="AF51" s="18"/>
       <c r="AG51" s="7"/>
       <c r="AH51" s="7"/>
       <c r="AI51" s="7"/>
@@ -7407,14 +6989,8 @@
       <c r="AK51" s="7"/>
       <c r="AL51" s="7"/>
       <c r="AM51" s="7"/>
-      <c r="AN51" s="7"/>
-      <c r="AO51" s="7"/>
-      <c r="AP51" s="7"/>
-      <c r="AQ51" s="7"/>
-      <c r="AR51" s="7"/>
-      <c r="AS51" s="7"/>
     </row>
-    <row r="52" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A52" s="17">
         <v>93082602</v>
       </c>
@@ -7425,14 +7001,14 @@
         <v>400</v>
       </c>
       <c r="D52" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.4118438761776586E-3</v>
       </c>
       <c r="E52" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
@@ -7451,27 +7027,27 @@
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
-      <c r="U52" s="7"/>
-      <c r="V52" s="22">
+      <c r="U52" s="21">
         <f>$D52/$H52</f>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="W52" s="22">
-        <f t="shared" si="25"/>
+      <c r="V52" s="21">
+        <f>$D52/$H52</f>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="X52" s="22">
-        <f t="shared" si="25"/>
+      <c r="W52" s="21">
+        <f t="shared" si="28"/>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="Y52" s="22">
-        <f t="shared" si="25"/>
+      <c r="X52" s="21">
+        <f t="shared" si="28"/>
         <v>1.6823687752355316E-3</v>
       </c>
-      <c r="Z52" s="22">
-        <f t="shared" si="25"/>
+      <c r="Y52" s="21">
+        <f t="shared" si="28"/>
         <v>1.6823687752355316E-3</v>
       </c>
+      <c r="Z52" s="18"/>
       <c r="AA52" s="7"/>
       <c r="AB52" s="7"/>
       <c r="AC52" s="7"/>
@@ -7485,14 +7061,8 @@
       <c r="AK52" s="7"/>
       <c r="AL52" s="7"/>
       <c r="AM52" s="7"/>
-      <c r="AN52" s="7"/>
-      <c r="AO52" s="7"/>
-      <c r="AP52" s="7"/>
-      <c r="AQ52" s="7"/>
-      <c r="AR52" s="7"/>
-      <c r="AS52" s="7"/>
     </row>
-    <row r="53" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A53" s="17">
         <v>93082604</v>
       </c>
@@ -7503,14 +7073,14 @@
         <v>400</v>
       </c>
       <c r="D53" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>8.4118438761776586E-3</v>
       </c>
       <c r="E53" s="3">
+        <v>18</v>
+      </c>
+      <c r="F53" s="3">
         <v>21</v>
-      </c>
-      <c r="F53" s="3">
-        <v>24</v>
       </c>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
@@ -7534,25 +7104,25 @@
       <c r="W53" s="7"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
-      <c r="Z53" s="7"/>
-      <c r="AA53" s="7"/>
-      <c r="AB53" s="7"/>
-      <c r="AC53" s="22">
+      <c r="Z53" s="21">
         <f>$D53/$H53</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AD53" s="22">
-        <f t="shared" ref="AD53:AF53" si="26">$D53/$H53</f>
+      <c r="AA53" s="21">
+        <f t="shared" ref="AA53:AB53" si="29">$D53/$H53</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AE53" s="22">
-        <f t="shared" si="26"/>
+      <c r="AB53" s="21">
+        <f t="shared" si="29"/>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="AF53" s="22">
-        <f t="shared" si="26"/>
+      <c r="AC53" s="21">
+        <f>$D53/$H53</f>
         <v>2.1029609690444147E-3</v>
       </c>
+      <c r="AD53" s="18"/>
+      <c r="AE53" s="18"/>
+      <c r="AF53" s="18"/>
       <c r="AG53" s="7"/>
       <c r="AH53" s="7"/>
       <c r="AI53" s="7"/>
@@ -7560,14 +7130,8 @@
       <c r="AK53" s="7"/>
       <c r="AL53" s="7"/>
       <c r="AM53" s="7"/>
-      <c r="AN53" s="7"/>
-      <c r="AO53" s="7"/>
-      <c r="AP53" s="7"/>
-      <c r="AQ53" s="7"/>
-      <c r="AR53" s="7"/>
-      <c r="AS53" s="7"/>
     </row>
-    <row r="54" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A54" s="17">
         <v>93082603</v>
       </c>
@@ -7578,14 +7142,14 @@
         <v>500</v>
       </c>
       <c r="D54" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E54" s="3">
+        <v>22</v>
+      </c>
+      <c r="F54" s="3">
         <v>25</v>
-      </c>
-      <c r="F54" s="3">
-        <v>28</v>
       </c>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
@@ -7613,36 +7177,30 @@
       <c r="AA54" s="7"/>
       <c r="AB54" s="7"/>
       <c r="AC54" s="7"/>
-      <c r="AD54" s="7"/>
-      <c r="AE54" s="7"/>
-      <c r="AF54" s="7"/>
-      <c r="AG54" s="22">
+      <c r="AD54" s="21">
         <f>$D54/$H54</f>
         <v>2.628701211305518E-3</v>
       </c>
-      <c r="AH54" s="22">
-        <f t="shared" ref="AH54:AJ54" si="27">$D54/$H54</f>
+      <c r="AE54" s="21">
+        <f t="shared" ref="AE54:AF54" si="30">$D54/$H54</f>
         <v>2.628701211305518E-3</v>
       </c>
-      <c r="AI54" s="22">
-        <f t="shared" si="27"/>
+      <c r="AF54" s="21">
+        <f t="shared" si="30"/>
         <v>2.628701211305518E-3</v>
       </c>
-      <c r="AJ54" s="22">
-        <f t="shared" si="27"/>
+      <c r="AG54" s="21">
+        <f>$D54/$H54</f>
         <v>2.628701211305518E-3</v>
       </c>
+      <c r="AH54" s="18"/>
+      <c r="AI54" s="18"/>
+      <c r="AJ54" s="18"/>
       <c r="AK54" s="7"/>
       <c r="AL54" s="7"/>
       <c r="AM54" s="7"/>
-      <c r="AN54" s="7"/>
-      <c r="AO54" s="7"/>
-      <c r="AP54" s="7"/>
-      <c r="AQ54" s="7"/>
-      <c r="AR54" s="7"/>
-      <c r="AS54" s="7"/>
     </row>
-    <row r="55" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A55" s="17">
         <v>93083385</v>
       </c>
@@ -7653,72 +7211,71 @@
         <v>1060</v>
       </c>
       <c r="D55" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2291386271870793E-2</v>
       </c>
-      <c r="E55" s="3">
-        <v>4</v>
-      </c>
-      <c r="F55" s="3">
-        <v>15</v>
+      <c r="E55" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>132</v>
       </c>
       <c r="G55" s="7"/>
       <c r="H55" s="6">
-        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
       <c r="K55" s="7"/>
-      <c r="L55" s="22">
+      <c r="L55" s="21">
         <f>$D55/$H55</f>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="M55" s="22">
-        <f t="shared" ref="M55:W57" si="28">$D55/$H55</f>
+      <c r="M55" s="21">
+        <f t="shared" ref="M55:X57" si="31">$D55/$H55</f>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="N55" s="22">
-        <f t="shared" si="28"/>
+      <c r="N55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="O55" s="22">
-        <f t="shared" si="28"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="P55" s="22">
-        <f t="shared" si="28"/>
+      <c r="Q55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="Q55" s="22">
-        <f t="shared" si="28"/>
+      <c r="R55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="R55" s="22">
-        <f t="shared" si="28"/>
+      <c r="S55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="S55" s="22">
-        <f t="shared" si="28"/>
+      <c r="T55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="T55" s="22">
-        <f t="shared" si="28"/>
+      <c r="U55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="U55" s="22">
-        <f t="shared" si="28"/>
+      <c r="V55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="V55" s="22">
-        <f t="shared" si="28"/>
+      <c r="W55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="W55" s="22">
-        <f t="shared" si="28"/>
+      <c r="X55" s="21">
+        <f t="shared" si="31"/>
         <v>1.8576155226558994E-3</v>
       </c>
-      <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
       <c r="AA55" s="7"/>
@@ -7734,14 +7291,8 @@
       <c r="AK55" s="7"/>
       <c r="AL55" s="7"/>
       <c r="AM55" s="7"/>
-      <c r="AN55" s="7"/>
-      <c r="AO55" s="7"/>
-      <c r="AP55" s="7"/>
-      <c r="AQ55" s="7"/>
-      <c r="AR55" s="7"/>
-      <c r="AS55" s="7"/>
     </row>
-    <row r="56" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A56" s="17">
         <v>93085122</v>
       </c>
@@ -7752,7 +7303,7 @@
         <v>800</v>
       </c>
       <c r="D56" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6823687752355317E-2</v>
       </c>
       <c r="E56" s="3">
@@ -7769,28 +7320,28 @@
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
       <c r="K56" s="7"/>
-      <c r="L56" s="22">
+      <c r="L56" s="21">
         <f>$D56/$H56</f>
         <v>2.8039479587258862E-3</v>
       </c>
-      <c r="M56" s="22">
-        <f t="shared" si="28"/>
+      <c r="M56" s="21">
+        <f t="shared" si="31"/>
         <v>2.8039479587258862E-3</v>
       </c>
-      <c r="N56" s="22">
-        <f t="shared" si="28"/>
+      <c r="N56" s="21">
+        <f t="shared" si="31"/>
         <v>2.8039479587258862E-3</v>
       </c>
-      <c r="O56" s="22">
-        <f t="shared" si="28"/>
+      <c r="O56" s="21">
+        <f t="shared" si="31"/>
         <v>2.8039479587258862E-3</v>
       </c>
-      <c r="P56" s="22">
-        <f t="shared" si="28"/>
+      <c r="P56" s="21">
+        <f t="shared" si="31"/>
         <v>2.8039479587258862E-3</v>
       </c>
-      <c r="Q56" s="22">
-        <f t="shared" si="28"/>
+      <c r="Q56" s="21">
+        <f t="shared" si="31"/>
         <v>2.8039479587258862E-3</v>
       </c>
       <c r="R56" s="7"/>
@@ -7815,14 +7366,8 @@
       <c r="AK56" s="7"/>
       <c r="AL56" s="7"/>
       <c r="AM56" s="7"/>
-      <c r="AN56" s="7"/>
-      <c r="AO56" s="7"/>
-      <c r="AP56" s="7"/>
-      <c r="AQ56" s="7"/>
-      <c r="AR56" s="7"/>
-      <c r="AS56" s="7"/>
     </row>
-    <row r="57" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A57" s="17">
         <v>93081783</v>
       </c>
@@ -7833,7 +7378,7 @@
         <v>1080</v>
       </c>
       <c r="D57" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2711978465679676E-2</v>
       </c>
       <c r="E57" s="3">
@@ -7850,28 +7395,28 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
       <c r="K57" s="7"/>
-      <c r="L57" s="22">
+      <c r="L57" s="21">
         <f>$D57/$H57</f>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="M57" s="22">
-        <f t="shared" si="28"/>
+      <c r="M57" s="21">
+        <f t="shared" si="31"/>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="N57" s="22">
-        <f t="shared" si="28"/>
+      <c r="N57" s="21">
+        <f t="shared" si="31"/>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="O57" s="22">
-        <f t="shared" si="28"/>
+      <c r="O57" s="21">
+        <f t="shared" si="31"/>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="P57" s="22">
-        <f t="shared" si="28"/>
+      <c r="P57" s="21">
+        <f t="shared" si="31"/>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="Q57" s="22">
-        <f t="shared" si="28"/>
+      <c r="Q57" s="21">
+        <f t="shared" si="31"/>
         <v>3.7853297442799459E-3</v>
       </c>
       <c r="R57" s="7"/>
@@ -7896,14 +7441,8 @@
       <c r="AK57" s="7"/>
       <c r="AL57" s="7"/>
       <c r="AM57" s="7"/>
-      <c r="AN57" s="7"/>
-      <c r="AO57" s="7"/>
-      <c r="AP57" s="7"/>
-      <c r="AQ57" s="7"/>
-      <c r="AR57" s="7"/>
-      <c r="AS57" s="7"/>
     </row>
-    <row r="58" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A58" s="17">
         <v>93083731</v>
       </c>
@@ -7914,7 +7453,7 @@
         <v>1080</v>
       </c>
       <c r="D58" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>2.2711978465679676E-2</v>
       </c>
       <c r="E58" s="3">
@@ -7948,28 +7487,28 @@
       <c r="Z58" s="7"/>
       <c r="AA58" s="7"/>
       <c r="AB58" s="7"/>
-      <c r="AC58" s="22">
+      <c r="AC58" s="21">
         <f>$D58/$H58</f>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="AD58" s="22">
-        <f t="shared" ref="AD58:AH58" si="29">$D58/$H58</f>
+      <c r="AD58" s="21">
+        <f t="shared" ref="AD58:AH58" si="32">$D58/$H58</f>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="AE58" s="22">
-        <f t="shared" si="29"/>
+      <c r="AE58" s="21">
+        <f t="shared" si="32"/>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="AF58" s="22">
-        <f t="shared" si="29"/>
+      <c r="AF58" s="21">
+        <f t="shared" si="32"/>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="AG58" s="22">
-        <f t="shared" si="29"/>
+      <c r="AG58" s="21">
+        <f t="shared" si="32"/>
         <v>3.7853297442799459E-3</v>
       </c>
-      <c r="AH58" s="22">
-        <f t="shared" si="29"/>
+      <c r="AH58" s="21">
+        <f t="shared" si="32"/>
         <v>3.7853297442799459E-3</v>
       </c>
       <c r="AI58" s="7"/>
@@ -7977,14 +7516,8 @@
       <c r="AK58" s="7"/>
       <c r="AL58" s="7"/>
       <c r="AM58" s="7"/>
-      <c r="AN58" s="7"/>
-      <c r="AO58" s="7"/>
-      <c r="AP58" s="7"/>
-      <c r="AQ58" s="7"/>
-      <c r="AR58" s="7"/>
-      <c r="AS58" s="7"/>
     </row>
-    <row r="59" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A59" s="17">
         <v>93084875</v>
       </c>
@@ -7995,7 +7528,7 @@
         <v>432</v>
       </c>
       <c r="D59" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>9.0847913862718704E-3</v>
       </c>
       <c r="E59" s="3">
@@ -8033,11 +7566,11 @@
       <c r="AD59" s="7"/>
       <c r="AE59" s="7"/>
       <c r="AF59" s="7"/>
-      <c r="AG59" s="22">
+      <c r="AG59" s="21">
         <f>$D59/$H59</f>
         <v>4.5423956931359352E-3</v>
       </c>
-      <c r="AH59" s="22">
+      <c r="AH59" s="21">
         <f>$D59/$H59</f>
         <v>4.5423956931359352E-3</v>
       </c>
@@ -8046,14 +7579,8 @@
       <c r="AK59" s="7"/>
       <c r="AL59" s="7"/>
       <c r="AM59" s="7"/>
-      <c r="AN59" s="7"/>
-      <c r="AO59" s="7"/>
-      <c r="AP59" s="7"/>
-      <c r="AQ59" s="7"/>
-      <c r="AR59" s="7"/>
-      <c r="AS59" s="7"/>
     </row>
-    <row r="60" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A60" s="17">
         <v>93078452</v>
       </c>
@@ -8064,7 +7591,7 @@
         <v>800</v>
       </c>
       <c r="D60" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.6823687752355317E-2</v>
       </c>
       <c r="E60" s="3">
@@ -8087,37 +7614,37 @@
       <c r="O60" s="7"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="22">
-        <f t="shared" ref="S60:Z61" si="30">$D60/$H60</f>
+      <c r="R60" s="18"/>
+      <c r="S60" s="21">
+        <f t="shared" ref="S60:Z61" si="33">$D60/$H60</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="T60" s="22">
-        <f t="shared" si="30"/>
+      <c r="T60" s="21">
+        <f t="shared" si="33"/>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="U60" s="22">
-        <f t="shared" si="30"/>
+      <c r="U60" s="21">
+        <f t="shared" si="33"/>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="V60" s="22">
-        <f t="shared" si="30"/>
+      <c r="V60" s="21">
+        <f t="shared" si="33"/>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="W60" s="22">
-        <f t="shared" si="30"/>
+      <c r="W60" s="21">
+        <f t="shared" si="33"/>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="X60" s="22">
-        <f t="shared" si="30"/>
+      <c r="X60" s="21">
+        <f t="shared" si="33"/>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="Y60" s="22">
-        <f t="shared" si="30"/>
+      <c r="Y60" s="21">
+        <f t="shared" si="33"/>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="Z60" s="22">
-        <f t="shared" si="30"/>
+      <c r="Z60" s="21">
+        <f t="shared" si="33"/>
         <v>2.1029609690444147E-3</v>
       </c>
       <c r="AA60" s="7"/>
@@ -8133,14 +7660,8 @@
       <c r="AK60" s="7"/>
       <c r="AL60" s="7"/>
       <c r="AM60" s="7"/>
-      <c r="AN60" s="7"/>
-      <c r="AO60" s="7"/>
-      <c r="AP60" s="7"/>
-      <c r="AQ60" s="7"/>
-      <c r="AR60" s="7"/>
-      <c r="AS60" s="7"/>
     </row>
-    <row r="61" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="17">
         <v>93078559</v>
       </c>
@@ -8151,7 +7672,7 @@
         <v>60</v>
       </c>
       <c r="D61" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>1.2617765814266486E-3</v>
       </c>
       <c r="E61" s="3">
@@ -8176,16 +7697,16 @@
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
-      <c r="T61" s="22">
+      <c r="T61" s="21">
         <f>$D61/$H61</f>
         <v>4.2059219380888286E-4</v>
       </c>
-      <c r="U61" s="22">
-        <f t="shared" si="30"/>
+      <c r="U61" s="21">
+        <f t="shared" si="33"/>
         <v>4.2059219380888286E-4</v>
       </c>
-      <c r="V61" s="22">
-        <f t="shared" si="30"/>
+      <c r="V61" s="21">
+        <f t="shared" si="33"/>
         <v>4.2059219380888286E-4</v>
       </c>
       <c r="W61" s="7"/>
@@ -8205,14 +7726,8 @@
       <c r="AK61" s="7"/>
       <c r="AL61" s="7"/>
       <c r="AM61" s="7"/>
-      <c r="AN61" s="7"/>
-      <c r="AO61" s="7"/>
-      <c r="AP61" s="7"/>
-      <c r="AQ61" s="7"/>
-      <c r="AR61" s="7"/>
-      <c r="AS61" s="7"/>
     </row>
-    <row r="62" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A62" s="17">
         <v>93085026</v>
       </c>
@@ -8223,7 +7738,7 @@
         <v>36</v>
       </c>
       <c r="D62" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>7.5706594885598924E-4</v>
       </c>
       <c r="E62" s="3">
@@ -8251,7 +7766,7 @@
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
       <c r="V62" s="7"/>
-      <c r="W62" s="22">
+      <c r="W62" s="21">
         <f>$D62/$H62</f>
         <v>7.5706594885598924E-4</v>
       </c>
@@ -8271,14 +7786,8 @@
       <c r="AK62" s="7"/>
       <c r="AL62" s="7"/>
       <c r="AM62" s="7"/>
-      <c r="AN62" s="7"/>
-      <c r="AO62" s="7"/>
-      <c r="AP62" s="7"/>
-      <c r="AQ62" s="7"/>
-      <c r="AR62" s="7"/>
-      <c r="AS62" s="7"/>
     </row>
-    <row r="63" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A63" s="17">
         <v>93086353</v>
       </c>
@@ -8289,7 +7798,7 @@
         <v>32</v>
       </c>
       <c r="D63" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>6.7294751009421266E-4</v>
       </c>
       <c r="E63" s="3">
@@ -8320,7 +7829,7 @@
       <c r="W63" s="7"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
-      <c r="Z63" s="22">
+      <c r="Z63" s="21">
         <f>$D63/$H63</f>
         <v>6.7294751009421266E-4</v>
       </c>
@@ -8337,14 +7846,8 @@
       <c r="AK63" s="7"/>
       <c r="AL63" s="7"/>
       <c r="AM63" s="7"/>
-      <c r="AN63" s="7"/>
-      <c r="AO63" s="7"/>
-      <c r="AP63" s="7"/>
-      <c r="AQ63" s="7"/>
-      <c r="AR63" s="7"/>
-      <c r="AS63" s="7"/>
     </row>
-    <row r="64" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A64" s="17">
         <v>93085988</v>
       </c>
@@ -8355,7 +7858,7 @@
         <v>16</v>
       </c>
       <c r="D64" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.3647375504710633E-4</v>
       </c>
       <c r="E64" s="3">
@@ -8387,7 +7890,7 @@
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
-      <c r="AA64" s="22">
+      <c r="AA64" s="21">
         <f>$D64/$H64</f>
         <v>3.3647375504710633E-4</v>
       </c>
@@ -8403,14 +7906,8 @@
       <c r="AK64" s="7"/>
       <c r="AL64" s="7"/>
       <c r="AM64" s="7"/>
-      <c r="AN64" s="7"/>
-      <c r="AO64" s="7"/>
-      <c r="AP64" s="7"/>
-      <c r="AQ64" s="7"/>
-      <c r="AR64" s="7"/>
-      <c r="AS64" s="7"/>
     </row>
-    <row r="65" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A65" s="17">
         <v>93081196</v>
       </c>
@@ -8421,7 +7918,7 @@
         <v>18</v>
       </c>
       <c r="D65" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="18"/>
         <v>3.7853297442799462E-4</v>
       </c>
       <c r="E65" s="3">
@@ -8454,7 +7951,7 @@
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
       <c r="AA65" s="7"/>
-      <c r="AB65" s="22">
+      <c r="AB65" s="21">
         <f>$D65/$H65</f>
         <v>3.7853297442799462E-4</v>
       </c>
@@ -8469,14 +7966,8 @@
       <c r="AK65" s="7"/>
       <c r="AL65" s="7"/>
       <c r="AM65" s="7"/>
-      <c r="AN65" s="7"/>
-      <c r="AO65" s="7"/>
-      <c r="AP65" s="7"/>
-      <c r="AQ65" s="7"/>
-      <c r="AR65" s="7"/>
-      <c r="AS65" s="7"/>
     </row>
-    <row r="66" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A66" s="17">
         <v>93076942</v>
       </c>
@@ -8487,7 +7978,7 @@
         <v>216</v>
       </c>
       <c r="D66" s="4">
-        <f t="shared" ref="D66:D92" si="31">C66/$C$93</f>
+        <f t="shared" ref="D66:D92" si="34">C66/$C$93</f>
         <v>4.5423956931359352E-3</v>
       </c>
       <c r="E66" s="3">
@@ -8504,56 +7995,56 @@
       <c r="I66" s="7"/>
       <c r="J66" s="7"/>
       <c r="K66" s="7"/>
-      <c r="L66" s="22">
+      <c r="L66" s="21">
         <f>$D66/$H66</f>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="M66" s="22">
-        <f t="shared" ref="M66:X66" si="32">$D66/$H66</f>
+      <c r="M66" s="21">
+        <f t="shared" ref="M66:X66" si="35">$D66/$H66</f>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="N66" s="22">
-        <f t="shared" si="32"/>
+      <c r="N66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="O66" s="22">
-        <f t="shared" si="32"/>
+      <c r="O66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="P66" s="22">
-        <f t="shared" si="32"/>
+      <c r="P66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="Q66" s="22">
-        <f t="shared" si="32"/>
+      <c r="Q66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="R66" s="22">
-        <f t="shared" si="32"/>
+      <c r="R66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="S66" s="22">
-        <f t="shared" si="32"/>
+      <c r="S66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="T66" s="22">
-        <f t="shared" si="32"/>
+      <c r="T66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="U66" s="22">
-        <f t="shared" si="32"/>
+      <c r="U66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="V66" s="22">
-        <f t="shared" si="32"/>
+      <c r="V66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="W66" s="22">
-        <f t="shared" si="32"/>
+      <c r="W66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
-      <c r="X66" s="22">
-        <f t="shared" si="32"/>
+      <c r="X66" s="21">
+        <f t="shared" si="35"/>
         <v>3.4941505331814889E-4</v>
       </c>
       <c r="Y66" s="7"/>
@@ -8571,14 +8062,8 @@
       <c r="AK66" s="7"/>
       <c r="AL66" s="7"/>
       <c r="AM66" s="7"/>
-      <c r="AN66" s="7"/>
-      <c r="AO66" s="7"/>
-      <c r="AP66" s="7"/>
-      <c r="AQ66" s="7"/>
-      <c r="AR66" s="7"/>
-      <c r="AS66" s="7"/>
     </row>
-    <row r="67" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A67" s="17">
         <v>93084517</v>
       </c>
@@ -8589,7 +8074,7 @@
         <v>900</v>
       </c>
       <c r="D67" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.8926648721399732E-2</v>
       </c>
       <c r="E67" s="3">
@@ -8600,7 +8085,7 @@
       </c>
       <c r="G67" s="7"/>
       <c r="H67" s="6">
-        <f t="shared" ref="H67:H92" si="33">F67-E67+1</f>
+        <f t="shared" ref="H67:H92" si="36">F67-E67+1</f>
         <v>8</v>
       </c>
       <c r="I67" s="7"/>
@@ -8620,36 +8105,36 @@
       <c r="W67" s="7"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
-      <c r="Z67" s="22">
+      <c r="Z67" s="21">
         <f>$D67/$H67</f>
         <v>2.3658310901749665E-3</v>
       </c>
-      <c r="AA67" s="22">
-        <f t="shared" ref="AA67:AG68" si="34">$D67/$H67</f>
+      <c r="AA67" s="21">
+        <f t="shared" ref="AA67:AG68" si="37">$D67/$H67</f>
         <v>2.3658310901749665E-3</v>
       </c>
-      <c r="AB67" s="22">
-        <f t="shared" si="34"/>
+      <c r="AB67" s="21">
+        <f t="shared" si="37"/>
         <v>2.3658310901749665E-3</v>
       </c>
-      <c r="AC67" s="22">
-        <f t="shared" si="34"/>
+      <c r="AC67" s="21">
+        <f t="shared" si="37"/>
         <v>2.3658310901749665E-3</v>
       </c>
-      <c r="AD67" s="22">
-        <f t="shared" si="34"/>
+      <c r="AD67" s="21">
+        <f t="shared" si="37"/>
         <v>2.3658310901749665E-3</v>
       </c>
-      <c r="AE67" s="22">
-        <f t="shared" si="34"/>
+      <c r="AE67" s="21">
+        <f t="shared" si="37"/>
         <v>2.3658310901749665E-3</v>
       </c>
-      <c r="AF67" s="22">
-        <f t="shared" si="34"/>
+      <c r="AF67" s="21">
+        <f t="shared" si="37"/>
         <v>2.3658310901749665E-3</v>
       </c>
-      <c r="AG67" s="22">
-        <f t="shared" si="34"/>
+      <c r="AG67" s="21">
+        <f t="shared" si="37"/>
         <v>2.3658310901749665E-3</v>
       </c>
       <c r="AH67" s="7"/>
@@ -8658,14 +8143,8 @@
       <c r="AK67" s="7"/>
       <c r="AL67" s="7"/>
       <c r="AM67" s="7"/>
-      <c r="AN67" s="7"/>
-      <c r="AO67" s="7"/>
-      <c r="AP67" s="7"/>
-      <c r="AQ67" s="7"/>
-      <c r="AR67" s="7"/>
-      <c r="AS67" s="7"/>
     </row>
-    <row r="68" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A68" s="17">
         <v>93084693</v>
       </c>
@@ -8676,7 +8155,7 @@
         <v>600</v>
       </c>
       <c r="D68" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.2617765814266487E-2</v>
       </c>
       <c r="E68" s="3">
@@ -8687,7 +8166,7 @@
       </c>
       <c r="G68" s="7"/>
       <c r="H68" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="I68" s="7"/>
@@ -8707,20 +8186,20 @@
       <c r="W68" s="7"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
-      <c r="Z68" s="22">
+      <c r="Z68" s="21">
         <f>$D68/$H68</f>
         <v>3.1544414535666218E-3</v>
       </c>
-      <c r="AA68" s="22">
-        <f t="shared" si="34"/>
+      <c r="AA68" s="21">
+        <f t="shared" si="37"/>
         <v>3.1544414535666218E-3</v>
       </c>
-      <c r="AB68" s="22">
-        <f t="shared" si="34"/>
+      <c r="AB68" s="21">
+        <f t="shared" si="37"/>
         <v>3.1544414535666218E-3</v>
       </c>
-      <c r="AC68" s="22">
-        <f t="shared" si="34"/>
+      <c r="AC68" s="21">
+        <f t="shared" si="37"/>
         <v>3.1544414535666218E-3</v>
       </c>
       <c r="AD68" s="7"/>
@@ -8733,14 +8212,8 @@
       <c r="AK68" s="7"/>
       <c r="AL68" s="7"/>
       <c r="AM68" s="7"/>
-      <c r="AN68" s="7"/>
-      <c r="AO68" s="7"/>
-      <c r="AP68" s="7"/>
-      <c r="AQ68" s="7"/>
-      <c r="AR68" s="7"/>
-      <c r="AS68" s="7"/>
     </row>
-    <row r="69" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A69" s="17">
         <v>93084512</v>
       </c>
@@ -8751,18 +8224,18 @@
         <v>12</v>
       </c>
       <c r="D69" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2.5235531628532975E-4</v>
       </c>
       <c r="E69" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F69" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G69" s="7"/>
       <c r="H69" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I69" s="7"/>
@@ -8793,20 +8266,14 @@
       <c r="AH69" s="7"/>
       <c r="AI69" s="7"/>
       <c r="AJ69" s="7"/>
-      <c r="AK69" s="7"/>
+      <c r="AK69" s="21">
+        <f>$D69/$H69</f>
+        <v>2.5235531628532975E-4</v>
+      </c>
       <c r="AL69" s="7"/>
       <c r="AM69" s="7"/>
-      <c r="AN69" s="7"/>
-      <c r="AO69" s="22">
-        <f>$D69/$H69</f>
-        <v>2.5235531628532975E-4</v>
-      </c>
-      <c r="AP69" s="7"/>
-      <c r="AQ69" s="7"/>
-      <c r="AR69" s="7"/>
-      <c r="AS69" s="7"/>
     </row>
-    <row r="70" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A70" s="17">
         <v>93078761</v>
       </c>
@@ -8817,7 +8284,7 @@
         <v>1620</v>
       </c>
       <c r="D70" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3.4067967698519518E-2</v>
       </c>
       <c r="E70" s="3">
@@ -8828,7 +8295,7 @@
       </c>
       <c r="G70" s="7"/>
       <c r="H70" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="I70" s="7"/>
@@ -8837,56 +8304,56 @@
       <c r="L70" s="7"/>
       <c r="M70" s="7"/>
       <c r="N70" s="7"/>
-      <c r="O70" s="22">
+      <c r="O70" s="21">
         <f>$D70/$H70</f>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="P70" s="22">
-        <f t="shared" ref="P70:AA70" si="35">$D70/$H70</f>
+      <c r="P70" s="21">
+        <f t="shared" ref="P70:AA70" si="38">$D70/$H70</f>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="Q70" s="22">
-        <f t="shared" si="35"/>
+      <c r="Q70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="R70" s="22">
-        <f t="shared" si="35"/>
+      <c r="R70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="S70" s="22">
-        <f t="shared" si="35"/>
+      <c r="S70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="T70" s="22">
-        <f t="shared" si="35"/>
+      <c r="T70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="U70" s="22">
-        <f t="shared" si="35"/>
+      <c r="U70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="V70" s="22">
-        <f t="shared" si="35"/>
+      <c r="V70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="W70" s="22">
-        <f t="shared" si="35"/>
+      <c r="W70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="X70" s="22">
-        <f t="shared" si="35"/>
+      <c r="X70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="Y70" s="22">
-        <f t="shared" si="35"/>
+      <c r="Y70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="Z70" s="22">
-        <f t="shared" si="35"/>
+      <c r="Z70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
-      <c r="AA70" s="22">
-        <f t="shared" si="35"/>
+      <c r="AA70" s="21">
+        <f t="shared" si="38"/>
         <v>2.6206128998861166E-3</v>
       </c>
       <c r="AB70" s="7"/>
@@ -8901,14 +8368,8 @@
       <c r="AK70" s="7"/>
       <c r="AL70" s="7"/>
       <c r="AM70" s="7"/>
-      <c r="AN70" s="7"/>
-      <c r="AO70" s="7"/>
-      <c r="AP70" s="7"/>
-      <c r="AQ70" s="7"/>
-      <c r="AR70" s="7"/>
-      <c r="AS70" s="7"/>
     </row>
-    <row r="71" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A71" s="17">
         <v>93087590</v>
       </c>
@@ -8919,7 +8380,7 @@
         <v>600</v>
       </c>
       <c r="D71" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.2617765814266487E-2</v>
       </c>
       <c r="E71" s="3">
@@ -8930,7 +8391,7 @@
       </c>
       <c r="G71" s="7"/>
       <c r="H71" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>8</v>
       </c>
       <c r="I71" s="7"/>
@@ -8953,49 +8414,43 @@
       <c r="Z71" s="7"/>
       <c r="AA71" s="7"/>
       <c r="AB71" s="7"/>
-      <c r="AC71" s="22">
+      <c r="AC71" s="21">
         <f>$D71/$H71</f>
         <v>1.5772207267833109E-3</v>
       </c>
-      <c r="AD71" s="22">
-        <f t="shared" ref="AD71:AJ72" si="36">$D71/$H71</f>
+      <c r="AD71" s="21">
+        <f t="shared" ref="AD71:AJ72" si="39">$D71/$H71</f>
         <v>1.5772207267833109E-3</v>
       </c>
-      <c r="AE71" s="22">
-        <f t="shared" si="36"/>
+      <c r="AE71" s="21">
+        <f t="shared" si="39"/>
         <v>1.5772207267833109E-3</v>
       </c>
-      <c r="AF71" s="22">
-        <f t="shared" si="36"/>
+      <c r="AF71" s="21">
+        <f t="shared" si="39"/>
         <v>1.5772207267833109E-3</v>
       </c>
-      <c r="AG71" s="22">
-        <f t="shared" si="36"/>
+      <c r="AG71" s="21">
+        <f t="shared" si="39"/>
         <v>1.5772207267833109E-3</v>
       </c>
-      <c r="AH71" s="22">
-        <f t="shared" si="36"/>
+      <c r="AH71" s="21">
+        <f t="shared" si="39"/>
         <v>1.5772207267833109E-3</v>
       </c>
-      <c r="AI71" s="22">
-        <f t="shared" si="36"/>
+      <c r="AI71" s="21">
+        <f t="shared" si="39"/>
         <v>1.5772207267833109E-3</v>
       </c>
-      <c r="AJ71" s="22">
-        <f t="shared" si="36"/>
+      <c r="AJ71" s="21">
+        <f t="shared" si="39"/>
         <v>1.5772207267833109E-3</v>
       </c>
       <c r="AK71" s="7"/>
       <c r="AL71" s="7"/>
       <c r="AM71" s="7"/>
-      <c r="AN71" s="7"/>
-      <c r="AO71" s="7"/>
-      <c r="AP71" s="7"/>
-      <c r="AQ71" s="7"/>
-      <c r="AR71" s="7"/>
-      <c r="AS71" s="7"/>
     </row>
-    <row r="72" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A72" s="17">
         <v>93084694</v>
       </c>
@@ -9006,7 +8461,7 @@
         <v>600</v>
       </c>
       <c r="D72" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.2617765814266487E-2</v>
       </c>
       <c r="E72" s="3">
@@ -9017,7 +8472,7 @@
       </c>
       <c r="G72" s="7"/>
       <c r="H72" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="I72" s="7"/>
@@ -9040,20 +8495,20 @@
       <c r="Z72" s="7"/>
       <c r="AA72" s="7"/>
       <c r="AB72" s="7"/>
-      <c r="AC72" s="22">
+      <c r="AC72" s="21">
         <f>$D72/$H72</f>
         <v>3.1544414535666218E-3</v>
       </c>
-      <c r="AD72" s="22">
-        <f t="shared" si="36"/>
+      <c r="AD72" s="21">
+        <f t="shared" si="39"/>
         <v>3.1544414535666218E-3</v>
       </c>
-      <c r="AE72" s="22">
-        <f t="shared" si="36"/>
+      <c r="AE72" s="21">
+        <f t="shared" si="39"/>
         <v>3.1544414535666218E-3</v>
       </c>
-      <c r="AF72" s="22">
-        <f t="shared" si="36"/>
+      <c r="AF72" s="21">
+        <f t="shared" si="39"/>
         <v>3.1544414535666218E-3</v>
       </c>
       <c r="AG72" s="7"/>
@@ -9063,14 +8518,8 @@
       <c r="AK72" s="7"/>
       <c r="AL72" s="7"/>
       <c r="AM72" s="7"/>
-      <c r="AN72" s="7"/>
-      <c r="AO72" s="7"/>
-      <c r="AP72" s="7"/>
-      <c r="AQ72" s="7"/>
-      <c r="AR72" s="7"/>
-      <c r="AS72" s="7"/>
     </row>
-    <row r="73" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A73" s="17">
         <v>93084829</v>
       </c>
@@ -9081,18 +8530,18 @@
         <v>18</v>
       </c>
       <c r="D73" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3.7853297442799462E-4</v>
       </c>
       <c r="E73" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="F73" s="3">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G73" s="7"/>
       <c r="H73" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I73" s="7"/>
@@ -9123,20 +8572,14 @@
       <c r="AH73" s="7"/>
       <c r="AI73" s="7"/>
       <c r="AJ73" s="7"/>
-      <c r="AK73" s="7"/>
+      <c r="AK73" s="21">
+        <f>$D73/$H73</f>
+        <v>3.7853297442799462E-4</v>
+      </c>
       <c r="AL73" s="7"/>
       <c r="AM73" s="7"/>
-      <c r="AN73" s="7"/>
-      <c r="AO73" s="22">
-        <f>$D73/$H73</f>
-        <v>3.7853297442799462E-4</v>
-      </c>
-      <c r="AP73" s="7"/>
-      <c r="AQ73" s="7"/>
-      <c r="AR73" s="7"/>
-      <c r="AS73" s="7"/>
     </row>
-    <row r="74" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A74" s="17">
         <v>93083354</v>
       </c>
@@ -9147,7 +8590,7 @@
         <v>50</v>
       </c>
       <c r="D74" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.0514804845222073E-3</v>
       </c>
       <c r="E74" s="3">
@@ -9158,7 +8601,7 @@
       </c>
       <c r="G74" s="7"/>
       <c r="H74" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I74" s="7"/>
@@ -9172,7 +8615,7 @@
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
-      <c r="T74" s="22">
+      <c r="T74" s="21">
         <f>$D74/$H74</f>
         <v>1.0514804845222073E-3</v>
       </c>
@@ -9195,14 +8638,8 @@
       <c r="AK74" s="7"/>
       <c r="AL74" s="7"/>
       <c r="AM74" s="7"/>
-      <c r="AN74" s="7"/>
-      <c r="AO74" s="7"/>
-      <c r="AP74" s="7"/>
-      <c r="AQ74" s="7"/>
-      <c r="AR74" s="7"/>
-      <c r="AS74" s="7"/>
     </row>
-    <row r="75" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A75" s="17">
         <v>93068361</v>
       </c>
@@ -9213,7 +8650,7 @@
         <v>4</v>
       </c>
       <c r="D75" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8.4118438761776582E-5</v>
       </c>
       <c r="E75" s="3">
@@ -9224,7 +8661,7 @@
       </c>
       <c r="G75" s="7"/>
       <c r="H75" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I75" s="7"/>
@@ -9239,7 +8676,7 @@
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
-      <c r="U75" s="22">
+      <c r="U75" s="21">
         <f>$D75/$H75</f>
         <v>8.4118438761776582E-5</v>
       </c>
@@ -9261,14 +8698,8 @@
       <c r="AK75" s="7"/>
       <c r="AL75" s="7"/>
       <c r="AM75" s="7"/>
-      <c r="AN75" s="7"/>
-      <c r="AO75" s="7"/>
-      <c r="AP75" s="7"/>
-      <c r="AQ75" s="7"/>
-      <c r="AR75" s="7"/>
-      <c r="AS75" s="7"/>
     </row>
-    <row r="76" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A76" s="17">
         <v>93078933</v>
       </c>
@@ -9279,7 +8710,7 @@
         <v>4</v>
       </c>
       <c r="D76" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>8.4118438761776582E-5</v>
       </c>
       <c r="E76" s="3">
@@ -9290,7 +8721,7 @@
       </c>
       <c r="G76" s="7"/>
       <c r="H76" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I76" s="7"/>
@@ -9305,7 +8736,7 @@
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
-      <c r="U76" s="22">
+      <c r="U76" s="21">
         <f>$D76/$H76</f>
         <v>8.4118438761776582E-5</v>
       </c>
@@ -9327,14 +8758,8 @@
       <c r="AK76" s="7"/>
       <c r="AL76" s="7"/>
       <c r="AM76" s="7"/>
-      <c r="AN76" s="7"/>
-      <c r="AO76" s="7"/>
-      <c r="AP76" s="7"/>
-      <c r="AQ76" s="7"/>
-      <c r="AR76" s="7"/>
-      <c r="AS76" s="7"/>
     </row>
-    <row r="77" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A77" s="17">
         <v>93083353</v>
       </c>
@@ -9345,7 +8770,7 @@
         <v>45</v>
       </c>
       <c r="D77" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>9.4633243606998658E-4</v>
       </c>
       <c r="E77" s="3">
@@ -9356,7 +8781,7 @@
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I77" s="7"/>
@@ -9371,7 +8796,7 @@
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
-      <c r="U77" s="22">
+      <c r="U77" s="21">
         <f>$D77/$H77</f>
         <v>9.4633243606998658E-4</v>
       </c>
@@ -9393,14 +8818,8 @@
       <c r="AK77" s="7"/>
       <c r="AL77" s="7"/>
       <c r="AM77" s="7"/>
-      <c r="AN77" s="7"/>
-      <c r="AO77" s="7"/>
-      <c r="AP77" s="7"/>
-      <c r="AQ77" s="7"/>
-      <c r="AR77" s="7"/>
-      <c r="AS77" s="7"/>
     </row>
-    <row r="78" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A78" s="17">
         <v>93072684</v>
       </c>
@@ -9411,7 +8830,7 @@
         <v>300</v>
       </c>
       <c r="D78" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.3088829071332436E-3</v>
       </c>
       <c r="E78" s="3">
@@ -9422,7 +8841,7 @@
       </c>
       <c r="G78" s="7"/>
       <c r="H78" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3</v>
       </c>
       <c r="I78" s="7"/>
@@ -9430,16 +8849,16 @@
       <c r="K78" s="7"/>
       <c r="L78" s="7"/>
       <c r="M78" s="7"/>
-      <c r="N78" s="22">
+      <c r="N78" s="21">
         <f>$D78/$H78</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="O78" s="22">
-        <f t="shared" ref="O78:P78" si="37">$D78/$H78</f>
+      <c r="O78" s="21">
+        <f t="shared" ref="O78:P78" si="40">$D78/$H78</f>
         <v>2.1029609690444147E-3</v>
       </c>
-      <c r="P78" s="22">
-        <f t="shared" si="37"/>
+      <c r="P78" s="21">
+        <f t="shared" si="40"/>
         <v>2.1029609690444147E-3</v>
       </c>
       <c r="Q78" s="7"/>
@@ -9465,14 +8884,8 @@
       <c r="AK78" s="7"/>
       <c r="AL78" s="7"/>
       <c r="AM78" s="7"/>
-      <c r="AN78" s="7"/>
-      <c r="AO78" s="7"/>
-      <c r="AP78" s="7"/>
-      <c r="AQ78" s="7"/>
-      <c r="AR78" s="7"/>
-      <c r="AS78" s="7"/>
     </row>
-    <row r="79" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A79" s="17">
         <v>93083355</v>
       </c>
@@ -9483,7 +8896,7 @@
         <v>50</v>
       </c>
       <c r="D79" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.0514804845222073E-3</v>
       </c>
       <c r="E79" s="3">
@@ -9494,7 +8907,7 @@
       </c>
       <c r="G79" s="7"/>
       <c r="H79" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I79" s="7"/>
@@ -9506,7 +8919,7 @@
       <c r="O79" s="7"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
-      <c r="R79" s="22">
+      <c r="R79" s="21">
         <f>$D79/$H79</f>
         <v>1.0514804845222073E-3</v>
       </c>
@@ -9531,14 +8944,8 @@
       <c r="AK79" s="7"/>
       <c r="AL79" s="7"/>
       <c r="AM79" s="7"/>
-      <c r="AN79" s="7"/>
-      <c r="AO79" s="7"/>
-      <c r="AP79" s="7"/>
-      <c r="AQ79" s="7"/>
-      <c r="AR79" s="7"/>
-      <c r="AS79" s="7"/>
     </row>
-    <row r="80" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A80" s="17">
         <v>93083358</v>
       </c>
@@ -9549,7 +8956,7 @@
         <v>45</v>
       </c>
       <c r="D80" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>9.4633243606998658E-4</v>
       </c>
       <c r="E80" s="3">
@@ -9560,7 +8967,7 @@
       </c>
       <c r="G80" s="7"/>
       <c r="H80" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I80" s="7"/>
@@ -9573,7 +8980,7 @@
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="22">
+      <c r="S80" s="21">
         <f>$D80/$H80</f>
         <v>9.4633243606998658E-4</v>
       </c>
@@ -9597,14 +9004,8 @@
       <c r="AK80" s="7"/>
       <c r="AL80" s="7"/>
       <c r="AM80" s="7"/>
-      <c r="AN80" s="7"/>
-      <c r="AO80" s="7"/>
-      <c r="AP80" s="7"/>
-      <c r="AQ80" s="7"/>
-      <c r="AR80" s="7"/>
-      <c r="AS80" s="7"/>
     </row>
-    <row r="81" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A81" s="17">
         <v>93087272</v>
       </c>
@@ -9615,7 +9016,7 @@
         <v>720</v>
       </c>
       <c r="D81" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.5141318977119785E-2</v>
       </c>
       <c r="E81" s="3">
@@ -9626,7 +9027,7 @@
       </c>
       <c r="G81" s="7"/>
       <c r="H81" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I81" s="7"/>
@@ -9638,24 +9039,24 @@
       <c r="O81" s="7"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
-      <c r="R81" s="22">
+      <c r="R81" s="21">
         <f>$D81/$H81</f>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="S81" s="22">
-        <f t="shared" ref="S81:V81" si="38">$D81/$H81</f>
+      <c r="S81" s="21">
+        <f t="shared" ref="S81:V81" si="41">$D81/$H81</f>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="T81" s="22">
-        <f t="shared" si="38"/>
+      <c r="T81" s="21">
+        <f t="shared" si="41"/>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="U81" s="22">
-        <f t="shared" si="38"/>
+      <c r="U81" s="21">
+        <f t="shared" si="41"/>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="V81" s="22">
-        <f t="shared" si="38"/>
+      <c r="V81" s="21">
+        <f t="shared" si="41"/>
         <v>3.028263795423957E-3</v>
       </c>
       <c r="W81" s="7"/>
@@ -9675,14 +9076,8 @@
       <c r="AK81" s="7"/>
       <c r="AL81" s="7"/>
       <c r="AM81" s="7"/>
-      <c r="AN81" s="7"/>
-      <c r="AO81" s="7"/>
-      <c r="AP81" s="7"/>
-      <c r="AQ81" s="7"/>
-      <c r="AR81" s="7"/>
-      <c r="AS81" s="7"/>
     </row>
-    <row r="82" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A82" s="17">
         <v>93087274</v>
       </c>
@@ -9693,7 +9088,7 @@
         <v>720</v>
       </c>
       <c r="D82" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.5141318977119785E-2</v>
       </c>
       <c r="E82" s="3">
@@ -9704,7 +9099,7 @@
       </c>
       <c r="G82" s="7"/>
       <c r="H82" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I82" s="7"/>
@@ -9721,24 +9116,24 @@
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
       <c r="V82" s="7"/>
-      <c r="W82" s="22">
+      <c r="W82" s="21">
         <f>$D82/$H82</f>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="X82" s="22">
-        <f t="shared" ref="X82:AA82" si="39">$D82/$H82</f>
+      <c r="X82" s="21">
+        <f t="shared" ref="X82:AA82" si="42">$D82/$H82</f>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="Y82" s="22">
-        <f t="shared" si="39"/>
+      <c r="Y82" s="21">
+        <f t="shared" si="42"/>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="Z82" s="22">
-        <f t="shared" si="39"/>
+      <c r="Z82" s="21">
+        <f t="shared" si="42"/>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="AA82" s="22">
-        <f t="shared" si="39"/>
+      <c r="AA82" s="21">
+        <f t="shared" si="42"/>
         <v>3.028263795423957E-3</v>
       </c>
       <c r="AB82" s="7"/>
@@ -9753,14 +9148,8 @@
       <c r="AK82" s="7"/>
       <c r="AL82" s="7"/>
       <c r="AM82" s="7"/>
-      <c r="AN82" s="7"/>
-      <c r="AO82" s="7"/>
-      <c r="AP82" s="7"/>
-      <c r="AQ82" s="7"/>
-      <c r="AR82" s="7"/>
-      <c r="AS82" s="7"/>
     </row>
-    <row r="83" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A83" s="17">
         <v>93087275</v>
       </c>
@@ -9771,7 +9160,7 @@
         <v>720</v>
       </c>
       <c r="D83" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.5141318977119785E-2</v>
       </c>
       <c r="E83" s="3">
@@ -9782,7 +9171,7 @@
       </c>
       <c r="G83" s="7"/>
       <c r="H83" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I83" s="7"/>
@@ -9804,24 +9193,24 @@
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
       <c r="AA83" s="7"/>
-      <c r="AB83" s="22">
+      <c r="AB83" s="21">
         <f>$D83/$H83</f>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="AC83" s="22">
-        <f t="shared" ref="AC83:AF83" si="40">$D83/$H83</f>
+      <c r="AC83" s="21">
+        <f t="shared" ref="AC83:AF83" si="43">$D83/$H83</f>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="AD83" s="22">
-        <f t="shared" si="40"/>
+      <c r="AD83" s="21">
+        <f t="shared" si="43"/>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="AE83" s="22">
-        <f t="shared" si="40"/>
+      <c r="AE83" s="21">
+        <f t="shared" si="43"/>
         <v>3.028263795423957E-3</v>
       </c>
-      <c r="AF83" s="22">
-        <f t="shared" si="40"/>
+      <c r="AF83" s="21">
+        <f t="shared" si="43"/>
         <v>3.028263795423957E-3</v>
       </c>
       <c r="AG83" s="7"/>
@@ -9831,14 +9220,8 @@
       <c r="AK83" s="7"/>
       <c r="AL83" s="7"/>
       <c r="AM83" s="7"/>
-      <c r="AN83" s="7"/>
-      <c r="AO83" s="7"/>
-      <c r="AP83" s="7"/>
-      <c r="AQ83" s="7"/>
-      <c r="AR83" s="7"/>
-      <c r="AS83" s="7"/>
     </row>
-    <row r="84" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A84" s="17">
         <v>93084250</v>
       </c>
@@ -9849,7 +9232,7 @@
         <v>360</v>
       </c>
       <c r="D84" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7.5706594885598926E-3</v>
       </c>
       <c r="E84" s="3">
@@ -9860,7 +9243,7 @@
       </c>
       <c r="G84" s="7"/>
       <c r="H84" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>4</v>
       </c>
       <c r="I84" s="7"/>
@@ -9871,20 +9254,20 @@
       <c r="N84" s="7"/>
       <c r="O84" s="7"/>
       <c r="P84" s="7"/>
-      <c r="Q84" s="22">
+      <c r="Q84" s="21">
         <f>$D84/$H84</f>
         <v>1.8926648721399732E-3</v>
       </c>
-      <c r="R84" s="22">
-        <f t="shared" ref="R84:T84" si="41">$D84/$H84</f>
+      <c r="R84" s="21">
+        <f t="shared" ref="R84:T84" si="44">$D84/$H84</f>
         <v>1.8926648721399732E-3</v>
       </c>
-      <c r="S84" s="22">
-        <f t="shared" si="41"/>
+      <c r="S84" s="21">
+        <f t="shared" si="44"/>
         <v>1.8926648721399732E-3</v>
       </c>
-      <c r="T84" s="22">
-        <f t="shared" si="41"/>
+      <c r="T84" s="21">
+        <f t="shared" si="44"/>
         <v>1.8926648721399732E-3</v>
       </c>
       <c r="U84" s="7"/>
@@ -9906,14 +9289,8 @@
       <c r="AK84" s="7"/>
       <c r="AL84" s="7"/>
       <c r="AM84" s="7"/>
-      <c r="AN84" s="7"/>
-      <c r="AO84" s="7"/>
-      <c r="AP84" s="7"/>
-      <c r="AQ84" s="7"/>
-      <c r="AR84" s="7"/>
-      <c r="AS84" s="7"/>
     </row>
-    <row r="85" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A85" s="17">
         <v>93085863</v>
       </c>
@@ -9924,18 +9301,18 @@
         <v>36</v>
       </c>
       <c r="D85" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>7.5706594885598924E-4</v>
       </c>
       <c r="E85" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="F85" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="G85" s="7"/>
       <c r="H85" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1</v>
       </c>
       <c r="I85" s="7"/>
@@ -9965,21 +9342,15 @@
       <c r="AG85" s="7"/>
       <c r="AH85" s="7"/>
       <c r="AI85" s="7"/>
-      <c r="AJ85" s="7"/>
+      <c r="AJ85" s="21">
+        <f>$D85/$H85</f>
+        <v>7.5706594885598924E-4</v>
+      </c>
       <c r="AK85" s="7"/>
       <c r="AL85" s="7"/>
-      <c r="AM85" s="22">
-        <f>$D85/$H85</f>
-        <v>7.5706594885598924E-4</v>
-      </c>
-      <c r="AN85" s="7"/>
-      <c r="AO85" s="7"/>
-      <c r="AP85" s="7"/>
-      <c r="AQ85" s="7"/>
-      <c r="AR85" s="7"/>
-      <c r="AS85" s="7"/>
+      <c r="AM85" s="18"/>
     </row>
-    <row r="86" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A86" s="17">
         <v>93082585</v>
       </c>
@@ -9990,18 +9361,18 @@
         <v>192</v>
       </c>
       <c r="D86" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4.0376850605652759E-3</v>
       </c>
       <c r="E86" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F86" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G86" s="7"/>
       <c r="H86" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="I86" s="7"/>
@@ -10028,27 +9399,21 @@
       <c r="AD86" s="7"/>
       <c r="AE86" s="7"/>
       <c r="AF86" s="7"/>
-      <c r="AG86" s="7"/>
-      <c r="AH86" s="7"/>
-      <c r="AI86" s="7"/>
-      <c r="AJ86" s="22">
+      <c r="AG86" s="21">
         <f>$D86/$H86</f>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="AK86" s="22">
+      <c r="AH86" s="21">
         <f>$D86/$H86</f>
         <v>2.018842530282638E-3</v>
       </c>
+      <c r="AI86" s="7"/>
+      <c r="AJ86" s="18"/>
+      <c r="AK86" s="18"/>
       <c r="AL86" s="7"/>
       <c r="AM86" s="7"/>
-      <c r="AN86" s="7"/>
-      <c r="AO86" s="7"/>
-      <c r="AP86" s="7"/>
-      <c r="AQ86" s="7"/>
-      <c r="AR86" s="7"/>
-      <c r="AS86" s="7"/>
     </row>
-    <row r="87" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A87" s="17">
         <v>93082581</v>
       </c>
@@ -10059,18 +9424,18 @@
         <v>500</v>
       </c>
       <c r="D87" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.0514804845222072E-2</v>
       </c>
       <c r="E87" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F87" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="I87" s="7"/>
@@ -10097,27 +9462,21 @@
       <c r="AD87" s="7"/>
       <c r="AE87" s="7"/>
       <c r="AF87" s="7"/>
-      <c r="AG87" s="7"/>
-      <c r="AH87" s="7"/>
-      <c r="AI87" s="7"/>
-      <c r="AJ87" s="22">
+      <c r="AG87" s="21">
         <f>$D87/$H87</f>
         <v>5.257402422611036E-3</v>
       </c>
-      <c r="AK87" s="22">
+      <c r="AH87" s="21">
         <f>$D87/$H87</f>
         <v>5.257402422611036E-3</v>
       </c>
+      <c r="AI87" s="7"/>
+      <c r="AJ87" s="18"/>
+      <c r="AK87" s="18"/>
       <c r="AL87" s="7"/>
       <c r="AM87" s="7"/>
-      <c r="AN87" s="7"/>
-      <c r="AO87" s="7"/>
-      <c r="AP87" s="7"/>
-      <c r="AQ87" s="7"/>
-      <c r="AR87" s="7"/>
-      <c r="AS87" s="7"/>
     </row>
-    <row r="88" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A88" s="17">
         <v>93082586</v>
       </c>
@@ -10128,14 +9487,14 @@
         <v>144</v>
       </c>
       <c r="D88" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3.028263795423957E-3</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F88" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G88" s="7"/>
       <c r="H88" s="6">
@@ -10166,26 +9525,20 @@
       <c r="AE88" s="7"/>
       <c r="AF88" s="7"/>
       <c r="AG88" s="7"/>
-      <c r="AH88" s="7"/>
+      <c r="AH88" s="21">
+        <f>$D88/$H88</f>
+        <v>1.5141318977119785E-3</v>
+      </c>
       <c r="AI88" s="7"/>
       <c r="AJ88" s="7"/>
-      <c r="AK88" s="22">
+      <c r="AK88" s="21">
         <f>$D88/$H88</f>
         <v>1.5141318977119785E-3</v>
       </c>
       <c r="AL88" s="7"/>
       <c r="AM88" s="7"/>
-      <c r="AN88" s="22">
-        <f>$D88/$H88</f>
-        <v>1.5141318977119785E-3</v>
-      </c>
-      <c r="AO88" s="7"/>
-      <c r="AP88" s="7"/>
-      <c r="AQ88" s="7"/>
-      <c r="AR88" s="7"/>
-      <c r="AS88" s="7"/>
     </row>
-    <row r="89" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A89" s="17">
         <v>93085864</v>
       </c>
@@ -10196,14 +9549,14 @@
         <v>33</v>
       </c>
       <c r="D89" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.9397711978465683E-4</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F89" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G89" s="7"/>
       <c r="H89" s="6">
@@ -10235,25 +9588,19 @@
       <c r="AF89" s="7"/>
       <c r="AG89" s="7"/>
       <c r="AH89" s="7"/>
-      <c r="AI89" s="7"/>
-      <c r="AJ89" s="7"/>
-      <c r="AK89" s="7"/>
-      <c r="AL89" s="22">
+      <c r="AI89" s="21">
         <f>$D89/$H89</f>
         <v>3.4698855989232841E-4</v>
       </c>
-      <c r="AM89" s="7"/>
-      <c r="AN89" s="22">
+      <c r="AJ89" s="7"/>
+      <c r="AK89" s="21">
         <f>$D89/$H89</f>
         <v>3.4698855989232841E-4</v>
       </c>
-      <c r="AO89" s="7"/>
-      <c r="AP89" s="7"/>
-      <c r="AQ89" s="7"/>
-      <c r="AR89" s="7"/>
-      <c r="AS89" s="7"/>
+      <c r="AL89" s="18"/>
+      <c r="AM89" s="18"/>
     </row>
-    <row r="90" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A90" s="17">
         <v>93083038</v>
       </c>
@@ -10264,18 +9611,18 @@
         <v>480</v>
       </c>
       <c r="D90" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>1.0094212651413189E-2</v>
       </c>
       <c r="E90" s="3">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F90" s="3">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="I90" s="7"/>
@@ -10286,29 +9633,29 @@
       <c r="N90" s="7"/>
       <c r="O90" s="7"/>
       <c r="P90" s="7"/>
-      <c r="Q90" s="7"/>
-      <c r="R90" s="7"/>
-      <c r="S90" s="7"/>
-      <c r="T90" s="22">
+      <c r="Q90" s="21">
         <f>$D90/$H90</f>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="U90" s="22">
-        <f t="shared" ref="U90:X90" si="42">$D90/$H90</f>
+      <c r="R90" s="21">
+        <f t="shared" ref="R90:S90" si="45">$D90/$H90</f>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="V90" s="22">
-        <f t="shared" si="42"/>
+      <c r="S90" s="21">
+        <f t="shared" si="45"/>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="W90" s="22">
-        <f t="shared" si="42"/>
+      <c r="T90" s="21">
+        <f>$D90/$H90</f>
         <v>2.018842530282638E-3</v>
       </c>
-      <c r="X90" s="22">
-        <f t="shared" si="42"/>
+      <c r="U90" s="21">
+        <f t="shared" ref="U90" si="46">$D90/$H90</f>
         <v>2.018842530282638E-3</v>
       </c>
+      <c r="V90" s="18"/>
+      <c r="W90" s="18"/>
+      <c r="X90" s="18"/>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
       <c r="AA90" s="7"/>
@@ -10324,14 +9671,8 @@
       <c r="AK90" s="7"/>
       <c r="AL90" s="7"/>
       <c r="AM90" s="7"/>
-      <c r="AN90" s="7"/>
-      <c r="AO90" s="7"/>
-      <c r="AP90" s="7"/>
-      <c r="AQ90" s="7"/>
-      <c r="AR90" s="7"/>
-      <c r="AS90" s="7"/>
     </row>
-    <row r="91" spans="1:45" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A91" s="17">
         <v>93087239</v>
       </c>
@@ -10342,14 +9683,14 @@
         <v>200</v>
       </c>
       <c r="D91" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4.2059219380888293E-3</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="6">
@@ -10363,17 +9704,17 @@
       <c r="N91" s="7"/>
       <c r="O91" s="7"/>
       <c r="P91" s="7"/>
-      <c r="Q91" s="7"/>
-      <c r="R91" s="7"/>
-      <c r="S91" s="7"/>
-      <c r="T91" s="22">
+      <c r="Q91" s="21">
         <f>$D91/$H91</f>
         <v>1.4019739793629431E-3</v>
       </c>
-      <c r="U91" s="22">
+      <c r="R91" s="21">
         <f>$D91/$H91</f>
         <v>1.4019739793629431E-3</v>
       </c>
+      <c r="S91" s="7"/>
+      <c r="T91" s="18"/>
+      <c r="U91" s="18"/>
       <c r="V91" s="7"/>
       <c r="W91" s="7"/>
       <c r="X91" s="7"/>
@@ -10387,22 +9728,16 @@
       <c r="AF91" s="7"/>
       <c r="AG91" s="7"/>
       <c r="AH91" s="7"/>
-      <c r="AI91" s="7"/>
+      <c r="AI91" s="21">
+        <f>$D91/$H91</f>
+        <v>1.4019739793629431E-3</v>
+      </c>
       <c r="AJ91" s="7"/>
       <c r="AK91" s="7"/>
-      <c r="AL91" s="7">
-        <f>$D91/$H91</f>
-        <v>1.4019739793629431E-3</v>
-      </c>
+      <c r="AL91" s="7"/>
       <c r="AM91" s="7"/>
-      <c r="AN91" s="7"/>
-      <c r="AO91" s="7"/>
-      <c r="AP91" s="7"/>
-      <c r="AQ91" s="7"/>
-      <c r="AR91" s="7"/>
-      <c r="AS91" s="7"/>
     </row>
-    <row r="92" spans="1:45" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="17">
         <v>93087243</v>
       </c>
@@ -10413,18 +9748,18 @@
         <v>300</v>
       </c>
       <c r="D92" s="4">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>6.3088829071332436E-3</v>
       </c>
       <c r="E92" s="3">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F92" s="3">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="G92" s="7"/>
       <c r="H92" s="6">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="I92" s="7"/>
@@ -10451,36 +9786,30 @@
       <c r="AD92" s="7"/>
       <c r="AE92" s="7"/>
       <c r="AF92" s="7"/>
-      <c r="AG92" s="7"/>
-      <c r="AH92" s="7"/>
-      <c r="AI92" s="7"/>
-      <c r="AJ92" s="22">
+      <c r="AG92" s="21">
         <f>$D92/$H92</f>
         <v>3.1544414535666218E-3</v>
       </c>
-      <c r="AK92" s="22">
+      <c r="AH92" s="21">
         <f>$D92/$H92</f>
         <v>3.1544414535666218E-3</v>
       </c>
+      <c r="AI92" s="7"/>
+      <c r="AJ92" s="18"/>
+      <c r="AK92" s="18"/>
       <c r="AL92" s="7"/>
       <c r="AM92" s="7"/>
-      <c r="AN92" s="7"/>
-      <c r="AO92" s="7"/>
-      <c r="AP92" s="7"/>
-      <c r="AQ92" s="7"/>
-      <c r="AR92" s="7"/>
-      <c r="AS92" s="7"/>
     </row>
-    <row r="93" spans="1:45" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C93" s="24">
+    <row r="93" spans="1:39" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="23">
         <f>SUM(C2:C92)</f>
         <v>47552</v>
       </c>
-      <c r="D93" s="23">
+      <c r="D93" s="22">
         <f>SUM(D2:D92)</f>
         <v>0.99999999999999933</v>
       </c>
-      <c r="G93" s="23">
+      <c r="G93" s="22">
         <f>SUMPRODUCT(G2:G92,D2:D92)</f>
         <v>0</v>
       </c>
@@ -10488,308 +9817,260 @@
         <v>27</v>
       </c>
       <c r="I93" s="9">
-        <f t="shared" ref="I93:AS93" si="43">SUM(I2:I92)</f>
-        <v>1.802537973466641E-3</v>
+        <f t="shared" ref="I93:AM93" si="47">SUM(I2:I92)</f>
+        <v>2.8540184579888481E-3</v>
       </c>
       <c r="J93" s="9">
-        <f t="shared" si="43"/>
+        <f t="shared" si="47"/>
         <v>7.73288790617189E-3</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" si="43"/>
-        <v>2.7579582051528554E-2</v>
+        <f t="shared" si="47"/>
+        <v>2.9975850734676533E-2</v>
       </c>
       <c r="L93" s="9">
-        <f t="shared" si="43"/>
-        <v>4.3865435610262321E-2</v>
+        <f t="shared" si="47"/>
+        <v>4.2473370319174572E-2</v>
       </c>
       <c r="M93" s="9">
-        <f t="shared" si="43"/>
-        <v>4.2348499764591617E-2</v>
+        <f t="shared" si="47"/>
+        <v>4.099849369288476E-2</v>
       </c>
       <c r="N93" s="9">
-        <f t="shared" si="43"/>
-        <v>5.0003277691913282E-2</v>
+        <f t="shared" si="47"/>
+        <v>4.8400916303921099E-2</v>
       </c>
       <c r="O93" s="9">
-        <f t="shared" si="43"/>
-        <v>5.7586878478744219E-2</v>
+        <f t="shared" si="47"/>
+        <v>5.1750555673075946E-2</v>
       </c>
       <c r="P93" s="9">
-        <f t="shared" si="43"/>
-        <v>4.0372440550140755E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.9773491967378331E-2</v>
       </c>
       <c r="Q93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.6979663520082431E-2</v>
+        <f t="shared" si="47"/>
+        <v>4.6996662191053265E-2</v>
       </c>
       <c r="R93" s="9">
-        <f t="shared" si="43"/>
-        <v>2.9212727674411725E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.8598838054669245E-2</v>
       </c>
       <c r="S93" s="9">
-        <f t="shared" si="43"/>
-        <v>2.2467480366201765E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.3227525246234964E-2</v>
       </c>
       <c r="T93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.4029760056005019E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.2070896713260535E-2</v>
       </c>
       <c r="U93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.7752000971213631E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.1923689445427429E-2</v>
       </c>
       <c r="V93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.5319576117018921E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.066191286400077E-2</v>
       </c>
       <c r="W93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.4058800945577533E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.012215288194604E-2</v>
       </c>
       <c r="X93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.4245263484832797E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.5194494739281171E-2</v>
       </c>
       <c r="Y93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.9363546951030129E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.8980902925083702E-2</v>
       </c>
       <c r="Z93" s="9">
-        <f t="shared" si="43"/>
-        <v>4.4654296326150297E-2</v>
+        <f t="shared" si="47"/>
+        <v>5.0364230650521112E-2</v>
       </c>
       <c r="AA93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.8513650296540615E-2</v>
+        <f t="shared" si="47"/>
+        <v>4.380299242710254E-2</v>
       </c>
       <c r="AB93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.3411543453182084E-2</v>
+        <f t="shared" si="47"/>
+        <v>4.1224438746597314E-2</v>
       </c>
       <c r="AC93" s="9">
-        <f t="shared" si="43"/>
-        <v>4.3001045472024622E-2</v>
+        <f t="shared" si="47"/>
+        <v>4.3054014789665966E-2</v>
       </c>
       <c r="AD93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.3537721111324748E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.8260370601807349E-2</v>
       </c>
       <c r="AE93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.0909019900019229E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.8951343491636224E-2</v>
       </c>
       <c r="AF93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.0909019900019229E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.3567763410882523E-2</v>
       </c>
       <c r="AG93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.2414139107863872E-2</v>
+        <f t="shared" si="47"/>
+        <v>3.3946296385310513E-2</v>
       </c>
       <c r="AH93" s="9">
-        <f t="shared" si="43"/>
-        <v>3.9669855156059732E-2</v>
+        <f t="shared" si="47"/>
+        <v>4.4128132410433889E-2</v>
       </c>
       <c r="AI93" s="9">
-        <f t="shared" si="43"/>
-        <v>2.5916490418509262E-2</v>
+        <f t="shared" si="47"/>
+        <v>2.0683622540537076E-2</v>
       </c>
       <c r="AJ93" s="9">
-        <f t="shared" si="43"/>
-        <v>2.3729411010703069E-2</v>
+        <f t="shared" si="47"/>
+        <v>1.1321941293341025E-2</v>
       </c>
       <c r="AK93" s="9">
-        <f t="shared" si="43"/>
-        <v>2.17235868102288E-2</v>
+        <f t="shared" si="47"/>
+        <v>1.0938901973979362E-2</v>
       </c>
       <c r="AL93" s="9">
-        <f t="shared" si="43"/>
-        <v>7.4900459847465229E-3</v>
+        <f t="shared" si="47"/>
+        <v>4.0096455809780166E-3</v>
       </c>
       <c r="AM93" s="9">
-        <f t="shared" si="43"/>
-        <v>1.1166722745625841E-2</v>
-      </c>
-      <c r="AN93" s="9">
-        <f t="shared" si="43"/>
-        <v>6.5927826379542391E-3</v>
-      </c>
-      <c r="AO93" s="9">
-        <f t="shared" si="43"/>
-        <v>1.1355989232839838E-3</v>
-      </c>
-      <c r="AP93" s="9">
-        <f t="shared" si="43"/>
-        <v>5.0471063257065949E-4</v>
-      </c>
-      <c r="AQ93" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AR93" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="AS93" s="9">
-        <f t="shared" si="43"/>
-        <v>0</v>
+        <f t="shared" si="47"/>
+        <v>4.0096455809780166E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:45" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H94" s="10" t="s">
         <v>26</v>
       </c>
       <c r="I94" s="11">
         <f>I93</f>
-        <v>1.802537973466641E-3</v>
+        <v>2.8540184579888481E-3</v>
       </c>
       <c r="J94" s="11">
         <f>J93+I94</f>
-        <v>9.5354258796385306E-3</v>
+        <v>1.0586906364160738E-2</v>
       </c>
       <c r="K94" s="11">
-        <f t="shared" ref="K94:Q94" si="44">K93+J94</f>
-        <v>3.7115007931167086E-2</v>
+        <f t="shared" ref="K94:Q94" si="48">K93+J94</f>
+        <v>4.056275709883727E-2</v>
       </c>
       <c r="L94" s="11">
-        <f t="shared" si="44"/>
-        <v>8.0980443541429414E-2</v>
+        <f t="shared" si="48"/>
+        <v>8.3036127418011835E-2</v>
       </c>
       <c r="M94" s="11">
-        <f t="shared" si="44"/>
-        <v>0.12332894330602104</v>
+        <f t="shared" si="48"/>
+        <v>0.1240346211108966</v>
       </c>
       <c r="N94" s="11">
-        <f t="shared" si="44"/>
-        <v>0.17333222099793433</v>
+        <f t="shared" si="48"/>
+        <v>0.17243553741481771</v>
       </c>
       <c r="O94" s="11">
-        <f t="shared" si="44"/>
-        <v>0.23091909947667855</v>
+        <f t="shared" si="48"/>
+        <v>0.22418609308789367</v>
       </c>
       <c r="P94" s="11">
-        <f t="shared" si="44"/>
-        <v>0.27129154002681932</v>
+        <f t="shared" si="48"/>
+        <v>0.26395958505527201</v>
       </c>
       <c r="Q94" s="11">
-        <f t="shared" si="44"/>
-        <v>0.30827120354690174</v>
+        <f t="shared" si="48"/>
+        <v>0.31095624724632526</v>
       </c>
       <c r="R94" s="11">
-        <f t="shared" ref="R94" si="45">R93+Q94</f>
-        <v>0.33748393122131348</v>
+        <f t="shared" ref="R94" si="49">R93+Q94</f>
+        <v>0.34955508530099449</v>
       </c>
       <c r="S94" s="11">
-        <f t="shared" ref="S94" si="46">S93+R94</f>
-        <v>0.35995141158751526</v>
+        <f t="shared" ref="S94" si="50">S93+R94</f>
+        <v>0.38278261054722945</v>
       </c>
       <c r="T94" s="11">
-        <f t="shared" ref="T94" si="47">T93+S94</f>
-        <v>0.39398117164352026</v>
+        <f t="shared" ref="T94" si="51">T93+S94</f>
+        <v>0.41485350726048997</v>
       </c>
       <c r="U94" s="11">
-        <f t="shared" ref="U94" si="48">U93+T94</f>
-        <v>0.43173317261473387</v>
+        <f t="shared" ref="U94" si="52">U93+T94</f>
+        <v>0.44677719670591742</v>
       </c>
       <c r="V94" s="11">
-        <f t="shared" ref="V94" si="49">V93+U94</f>
-        <v>0.46705274873175279</v>
+        <f t="shared" ref="V94" si="53">V93+U94</f>
+        <v>0.4774391095699182</v>
       </c>
       <c r="W94" s="11">
-        <f t="shared" ref="W94" si="50">W93+V94</f>
-        <v>0.50111154967733029</v>
+        <f t="shared" ref="W94" si="54">W93+V94</f>
+        <v>0.50756126245186428</v>
       </c>
       <c r="X94" s="11">
-        <f t="shared" ref="X94" si="51">X93+W94</f>
-        <v>0.5353568131621631</v>
+        <f t="shared" ref="X94" si="55">X93+W94</f>
+        <v>0.54275575719114544</v>
       </c>
       <c r="Y94" s="11">
-        <f t="shared" ref="Y94" si="52">Y93+X94</f>
-        <v>0.57472036011319327</v>
+        <f t="shared" ref="Y94" si="56">Y93+X94</f>
+        <v>0.58173666011622915</v>
       </c>
       <c r="Z94" s="11">
-        <f t="shared" ref="Z94" si="53">Z93+Y94</f>
-        <v>0.61937465643934353</v>
+        <f t="shared" ref="Z94" si="57">Z93+Y94</f>
+        <v>0.63210089076675025</v>
       </c>
       <c r="AA94" s="11">
-        <f t="shared" ref="AA94" si="54">AA93+Z94</f>
-        <v>0.65788830673588417</v>
+        <f t="shared" ref="AA94" si="58">AA93+Z94</f>
+        <v>0.67590388319385275</v>
       </c>
       <c r="AB94" s="11">
-        <f t="shared" ref="AB94" si="55">AB93+AA94</f>
-        <v>0.69129985018906626</v>
+        <f t="shared" ref="AB94" si="59">AB93+AA94</f>
+        <v>0.71712832194045006</v>
       </c>
       <c r="AC94" s="11">
-        <f t="shared" ref="AC94" si="56">AC93+AB94</f>
-        <v>0.73430089566109091</v>
+        <f t="shared" ref="AC94" si="60">AC93+AB94</f>
+        <v>0.76018233673011604</v>
       </c>
       <c r="AD94" s="11">
-        <f t="shared" ref="AD94" si="57">AD93+AC94</f>
-        <v>0.76783861677241561</v>
+        <f t="shared" ref="AD94" si="61">AD93+AC94</f>
+        <v>0.79844270733192335</v>
       </c>
       <c r="AE94" s="11">
-        <f t="shared" ref="AE94" si="58">AE93+AD94</f>
-        <v>0.79874763667243487</v>
+        <f t="shared" ref="AE94" si="62">AE93+AD94</f>
+        <v>0.83739405082355955</v>
       </c>
       <c r="AF94" s="11">
-        <f t="shared" ref="AF94" si="59">AF93+AE94</f>
-        <v>0.82965665657245413</v>
+        <f t="shared" ref="AF94" si="63">AF93+AE94</f>
+        <v>0.87096181423444208</v>
       </c>
       <c r="AG94" s="11">
-        <f t="shared" ref="AG94" si="60">AG93+AF94</f>
-        <v>0.86207079568031797</v>
+        <f t="shared" ref="AG94" si="64">AG93+AF94</f>
+        <v>0.90490811061975263</v>
       </c>
       <c r="AH94" s="11">
-        <f t="shared" ref="AH94" si="61">AH93+AG94</f>
-        <v>0.90174065083637767</v>
+        <f t="shared" ref="AH94" si="65">AH93+AG94</f>
+        <v>0.94903624303018652</v>
       </c>
       <c r="AI94" s="11">
-        <f t="shared" ref="AI94" si="62">AI93+AH94</f>
-        <v>0.92765714125488696</v>
+        <f t="shared" ref="AI94" si="66">AI93+AH94</f>
+        <v>0.96971986557072365</v>
       </c>
       <c r="AJ94" s="11">
-        <f t="shared" ref="AJ94" si="63">AJ93+AI94</f>
-        <v>0.95138655226558999</v>
+        <f t="shared" ref="AJ94" si="67">AJ93+AI94</f>
+        <v>0.98104180686406472</v>
       </c>
       <c r="AK94" s="11">
-        <f t="shared" ref="AK94" si="64">AK93+AJ94</f>
-        <v>0.97311013907581878</v>
+        <f t="shared" ref="AK94" si="68">AK93+AJ94</f>
+        <v>0.99198070883804412</v>
       </c>
       <c r="AL94" s="11">
-        <f t="shared" ref="AL94" si="65">AL93+AK94</f>
-        <v>0.98060018506056534</v>
+        <f t="shared" ref="AL94:AM94" si="69">AL93+AK94</f>
+        <v>0.99599035441902217</v>
       </c>
       <c r="AM94" s="11">
-        <f t="shared" ref="AM94" si="66">AM93+AL94</f>
-        <v>0.99176690780619114</v>
-      </c>
-      <c r="AN94" s="11">
-        <f t="shared" ref="AN94" si="67">AN93+AM94</f>
-        <v>0.99835969044414541</v>
-      </c>
-      <c r="AO94" s="11">
-        <f t="shared" ref="AO94" si="68">AO93+AN94</f>
-        <v>0.99949528936742937</v>
-      </c>
-      <c r="AP94" s="11">
-        <f>AP93+AO94</f>
-        <v>1</v>
-      </c>
-      <c r="AQ94" s="11">
-        <f t="shared" ref="AQ94" si="69">AQ93+AP94</f>
-        <v>1</v>
-      </c>
-      <c r="AR94" s="11">
-        <f t="shared" ref="AR94" si="70">AR93+AQ94</f>
-        <v>1</v>
-      </c>
-      <c r="AS94" s="11">
-        <f>AS93+Q94</f>
-        <v>0.30827120354690174</v>
+        <f>AM93+AL94</f>
+        <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:45" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H95" s="12" t="s">
         <v>28</v>
       </c>
@@ -10824,12 +10105,6 @@
       <c r="AK95" s="13"/>
       <c r="AL95" s="13"/>
       <c r="AM95" s="13"/>
-      <c r="AN95" s="13"/>
-      <c r="AO95" s="13"/>
-      <c r="AP95" s="13"/>
-      <c r="AQ95" s="13"/>
-      <c r="AR95" s="13"/>
-      <c r="AS95" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/daily_s_curve.xlsx
+++ b/daily_s_curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coldshutdown_daily_progress_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D8FF05C-D538-4FC0-B142-F0BB3B4035EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36F88F6-1464-49B9-9C1A-8F15A5339137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -913,97 +913,97 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2.8540184579888481E-3</c:v>
+                  <c:v>2.55832992222677E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0586906364160738E-2</c:v>
+                  <c:v>9.4900575220285676E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.056275709883727E-2</c:v>
+                  <c:v>4.0963858239324753E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3036127418011835E-2</c:v>
+                  <c:v>8.5125249102362188E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.1240346211108966</c:v>
+                  <c:v>0.12532167741575906</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.17243553741481771</c:v>
+                  <c:v>0.17305844655256114</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.22418609308789367</c:v>
+                  <c:v>0.22347300339203405</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.26395958505527201</c:v>
+                  <c:v>0.26509677955488703</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.31095624724632526</c:v>
+                  <c:v>0.31349698820296457</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.34955508530099449</c:v>
+                  <c:v>0.35436942326234255</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.38278261054722945</c:v>
+                  <c:v>0.39012542289217245</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.41485350726048997</c:v>
+                  <c:v>0.42484462565878411</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.44677719670591742</c:v>
+                  <c:v>0.45943187246098621</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.4774391095699182</c:v>
+                  <c:v>0.49477315334552879</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.50756126245186428</c:v>
+                  <c:v>0.52963059569390292</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.54275575719114544</c:v>
+                  <c:v>0.56708945562635182</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.58173666011622915</c:v>
+                  <c:v>0.60715505004986636</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.63210089076675025</c:v>
+                  <c:v>0.65937001862509259</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.67590388319385275</c:v>
+                  <c:v>0.7038184361522114</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.71712832194045006</c:v>
+                  <c:v>0.74537542298666293</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.76018233673011604</c:v>
+                  <c:v>0.78857243395020504</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.79844270733192335</c:v>
+                  <c:v>0.822868866291804</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.83739405082355955</c:v>
+                  <c:v>0.85778468377246841</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.87096181423444208</c:v>
+                  <c:v>0.88787468312615347</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.90490811061975263</c:v>
+                  <c:v>0.91638121090692348</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.94903624303018652</c:v>
+                  <c:v>0.95401469289269014</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.96971986557072365</c:v>
+                  <c:v>0.97285701718479578</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.98104180686406472</c:v>
+                  <c:v>0.98300595686925052</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.99198070883804412</c:v>
+                  <c:v>0.99281154174835373</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.99599035441902217</c:v>
+                  <c:v>0.99640577087417692</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.0000000000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1152,6 +1152,9 @@
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>2.5999999999999999E-3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1511,97 +1514,97 @@
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="31"/>
                 <c:pt idx="0">
-                  <c:v>2.8540184579888481E-3</c:v>
+                  <c:v>2.55832992222677E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.73288790617189E-3</c:v>
+                  <c:v>6.9317275998017971E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9975850734676533E-2</c:v>
+                  <c:v>3.1473800717296184E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.2473370319174572E-2</c:v>
+                  <c:v>4.4161390863037442E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.099849369288476E-2</c:v>
+                  <c:v>4.0196428313396863E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.8400916303921099E-2</c:v>
+                  <c:v>4.7736769136802082E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.1750555673075946E-2</c:v>
+                  <c:v>5.0414556839472907E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9773491967378331E-2</c:v>
+                  <c:v>4.1623776162852989E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6996662191053265E-2</c:v>
+                  <c:v>4.8400208648077515E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.8598838054669245E-2</c:v>
+                  <c:v>4.087243505937796E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.3227525246234964E-2</c:v>
+                  <c:v>3.5755999629829879E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.2070896713260535E-2</c:v>
+                  <c:v>3.4719202766611661E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3.1923689445427429E-2</c:v>
+                  <c:v>3.4587246802202078E-2</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>3.066191286400077E-2</c:v>
+                  <c:v>3.5341280884542595E-2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>3.012215288194604E-2</c:v>
+                  <c:v>3.4857442348374089E-2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>3.5194494739281171E-2</c:v>
+                  <c:v>3.74588599324489E-2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3.8980902925083702E-2</c:v>
+                  <c:v>4.006559442351456E-2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.0364230650521112E-2</c:v>
+                  <c:v>5.2214968575226207E-2</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4.380299242710254E-2</c:v>
+                  <c:v>4.4448417527118832E-2</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4.1224438746597314E-2</c:v>
+                  <c:v>4.1556986834451526E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.3054014789665966E-2</c:v>
+                  <c:v>4.3197010963542164E-2</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>3.8260370601807349E-2</c:v>
+                  <c:v>3.429643234159898E-2</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>3.8951343491636224E-2</c:v>
+                  <c:v>3.4915817480664413E-2</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>3.3567763410882523E-2</c:v>
+                  <c:v>3.0089999353685074E-2</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.3946296385310513E-2</c:v>
+                  <c:v>2.8506527780769973E-2</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4.4128132410433889E-2</c:v>
+                  <c:v>3.7633481985766708E-2</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.0683622540537076E-2</c:v>
+                  <c:v>1.8842324292105615E-2</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.1321941293341025E-2</c:v>
+                  <c:v>1.014893968445469E-2</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.0938901973979362E-2</c:v>
+                  <c:v>9.8055848791032026E-3</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4.0096455809780166E-3</c:v>
+                  <c:v>3.594229125823154E-3</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>4.0096455809780166E-3</c:v>
+                  <c:v>3.594229125823154E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,9 +3287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB79112-5215-4682-8159-41C9E41DBEC3}">
   <dimension ref="A1:AM95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3297,7 +3300,7 @@
     <col min="4" max="4" width="20.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" customWidth="1"/>
     <col min="8" max="8" width="23.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="12.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.5703125" style="2" customWidth="1"/>
@@ -3437,7 +3440,7 @@
       </c>
       <c r="D2" s="4">
         <f>C2/$C$93</f>
-        <v>1.2617765814266487E-4</v>
+        <v>1.1310511235107827E-4</v>
       </c>
       <c r="E2" s="3">
         <v>3</v>
@@ -3445,7 +3448,9 @@
       <c r="F2" s="3">
         <v>3</v>
       </c>
-      <c r="G2" s="16"/>
+      <c r="G2" s="16">
+        <v>0</v>
+      </c>
       <c r="H2" s="3">
         <f>F2-E2+1</f>
         <v>1</v>
@@ -3454,7 +3459,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="20">
         <f>$D2/$H2</f>
-        <v>1.2617765814266487E-4</v>
+        <v>1.1310511235107827E-4</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
@@ -3497,7 +3502,7 @@
       </c>
       <c r="D3" s="4">
         <f t="shared" ref="D3:D33" si="0">C3/$C$93</f>
-        <v>8.4118438761776582E-5</v>
+        <v>7.5403408234052177E-5</v>
       </c>
       <c r="E3" s="3">
         <v>3</v>
@@ -3505,7 +3510,9 @@
       <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="16">
+        <v>1</v>
+      </c>
       <c r="H3" s="3">
         <f t="shared" ref="H3:H66" si="1">F3-E3+1</f>
         <v>1</v>
@@ -3514,7 +3521,7 @@
       <c r="J3" s="5"/>
       <c r="K3" s="20">
         <f>$D3/$H3</f>
-        <v>8.4118438761776582E-5</v>
+        <v>7.5403408234052177E-5</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
@@ -3557,7 +3564,7 @@
       </c>
       <c r="D4" s="4">
         <f t="shared" si="0"/>
-        <v>1.0514804845222073E-3</v>
+        <v>9.4254260292565221E-4</v>
       </c>
       <c r="E4" s="3">
         <v>1</v>
@@ -3565,14 +3572,16 @@
       <c r="F4" s="3">
         <v>1</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="16">
+        <v>1</v>
+      </c>
       <c r="H4" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="I4" s="20">
         <f>$D4/$H4</f>
-        <v>1.0514804845222073E-3</v>
+        <v>9.4254260292565221E-4</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
@@ -3617,7 +3626,7 @@
       </c>
       <c r="D5" s="4">
         <f>C5/$C$93</f>
-        <v>2.5235531628532975E-4</v>
+        <v>2.2621022470215653E-4</v>
       </c>
       <c r="E5" s="3">
         <v>4</v>
@@ -3625,7 +3634,9 @@
       <c r="F5" s="3">
         <v>4</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16">
+        <v>0.5</v>
+      </c>
       <c r="H5" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -3635,7 +3646,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="20">
         <f>$D5/$H5</f>
-        <v>2.5235531628532975E-4</v>
+        <v>2.2621022470215653E-4</v>
       </c>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -3677,7 +3688,7 @@
       </c>
       <c r="D6" s="4">
         <f t="shared" si="0"/>
-        <v>8.8324360699865417E-3</v>
+        <v>7.9173578645754788E-3</v>
       </c>
       <c r="E6" s="3">
         <v>21</v>
@@ -3685,7 +3696,9 @@
       <c r="F6" s="3">
         <v>25</v>
       </c>
-      <c r="G6" s="16"/>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
       <c r="H6" s="3">
         <f>F6-E6+1</f>
         <v>5</v>
@@ -3712,23 +3725,23 @@
       <c r="AB6" s="5"/>
       <c r="AC6" s="20">
         <f>$D6/$H6</f>
-        <v>1.7664872139973083E-3</v>
+        <v>1.5834715729150957E-3</v>
       </c>
       <c r="AD6" s="20">
         <f t="shared" ref="AD6:AG6" si="2">$D6/$H6</f>
-        <v>1.7664872139973083E-3</v>
+        <v>1.5834715729150957E-3</v>
       </c>
       <c r="AE6" s="20">
         <f t="shared" si="2"/>
-        <v>1.7664872139973083E-3</v>
+        <v>1.5834715729150957E-3</v>
       </c>
       <c r="AF6" s="20">
         <f t="shared" si="2"/>
-        <v>1.7664872139973083E-3</v>
+        <v>1.5834715729150957E-3</v>
       </c>
       <c r="AG6" s="20">
         <f t="shared" si="2"/>
-        <v>1.7664872139973083E-3</v>
+        <v>1.5834715729150957E-3</v>
       </c>
       <c r="AH6" s="5"/>
       <c r="AI6" s="5"/>
@@ -3749,7 +3762,7 @@
       </c>
       <c r="D7" s="4">
         <f>C7/$C$93</f>
-        <v>1.009421265141319E-3</v>
+        <v>9.0484089880862612E-4</v>
       </c>
       <c r="E7" s="3">
         <v>14</v>
@@ -3757,7 +3770,9 @@
       <c r="F7" s="3">
         <v>15</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
       <c r="H7" s="3">
         <f>F7-E7+1</f>
         <v>2</v>
@@ -3777,11 +3792,11 @@
       <c r="U7" s="5"/>
       <c r="V7" s="20">
         <f>$D7/$H7</f>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="W7" s="20">
         <f>$D7/$H7</f>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="X7" s="5"/>
       <c r="Y7" s="5"/>
@@ -3812,7 +3827,7 @@
       </c>
       <c r="D8" s="4">
         <f t="shared" si="0"/>
-        <v>3.1544414535666216E-4</v>
+        <v>2.8276278087769566E-4</v>
       </c>
       <c r="E8" s="3">
         <v>14</v>
@@ -3820,7 +3835,9 @@
       <c r="F8" s="3">
         <v>16</v>
       </c>
-      <c r="G8" s="16"/>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
       <c r="H8" s="3">
         <f>F8-E8+1</f>
         <v>3</v>
@@ -3840,15 +3857,15 @@
       <c r="U8" s="5"/>
       <c r="V8" s="20">
         <f>$D8/$H8</f>
-        <v>1.0514804845222071E-4</v>
+        <v>9.4254260292565221E-5</v>
       </c>
       <c r="W8" s="20">
         <f t="shared" ref="W8:X8" si="3">$D8/$H8</f>
-        <v>1.0514804845222071E-4</v>
+        <v>9.4254260292565221E-5</v>
       </c>
       <c r="X8" s="20">
         <f t="shared" si="3"/>
-        <v>1.0514804845222071E-4</v>
+        <v>9.4254260292565221E-5</v>
       </c>
       <c r="Y8" s="5"/>
       <c r="Z8" s="5"/>
@@ -3878,7 +3895,7 @@
       </c>
       <c r="D9" s="4">
         <f t="shared" si="0"/>
-        <v>1.009421265141319E-3</v>
+        <v>9.0484089880862612E-4</v>
       </c>
       <c r="E9" s="3">
         <v>30</v>
@@ -3886,7 +3903,9 @@
       <c r="F9" s="3">
         <v>31</v>
       </c>
-      <c r="G9" s="16"/>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
       <c r="H9" s="3">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -3922,11 +3941,11 @@
       <c r="AK9" s="5"/>
       <c r="AL9" s="20">
         <f>$D9/$H9</f>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="AM9" s="20">
         <f>$D9/$H9</f>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
     </row>
     <row r="10" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
@@ -3941,7 +3960,7 @@
       </c>
       <c r="D10" s="4">
         <f t="shared" si="0"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>132</v>
@@ -3949,18 +3968,20 @@
       <c r="F10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G10" s="16"/>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
       <c r="H10" s="3">
         <v>3</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="20">
         <f>$D10/$H10</f>
-        <v>6.7294751009421266E-4</v>
+        <v>6.0322726587241741E-4</v>
       </c>
       <c r="K10" s="20">
         <f>$D10/$H10</f>
-        <v>6.7294751009421266E-4</v>
+        <v>6.0322726587241741E-4</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
@@ -3977,7 +3998,7 @@
       <c r="X10" s="5"/>
       <c r="Y10" s="20">
         <f>$D10/$H10</f>
-        <v>6.7294751009421266E-4</v>
+        <v>6.0322726587241741E-4</v>
       </c>
       <c r="Z10" s="5"/>
       <c r="AA10" s="5"/>
@@ -4006,7 +4027,7 @@
       </c>
       <c r="D11" s="4">
         <f t="shared" si="0"/>
-        <v>3.5329744279946162E-3</v>
+        <v>3.1669431458301914E-3</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>132</v>
@@ -4014,7 +4035,9 @@
       <c r="F11" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G11" s="16"/>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
       <c r="H11" s="6">
         <v>2</v>
       </c>
@@ -4022,7 +4045,7 @@
       <c r="J11" s="18"/>
       <c r="K11" s="21">
         <f>$D11/$H11</f>
-        <v>1.7664872139973081E-3</v>
+        <v>1.5834715729150957E-3</v>
       </c>
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
@@ -4039,7 +4062,7 @@
       <c r="X11" s="18"/>
       <c r="Y11" s="21">
         <f>$D11/$H11</f>
-        <v>1.7664872139973081E-3</v>
+        <v>1.5834715729150957E-3</v>
       </c>
       <c r="Z11" s="18"/>
       <c r="AA11" s="18"/>
@@ -4068,7 +4091,7 @@
       </c>
       <c r="D12" s="4">
         <f t="shared" si="0"/>
-        <v>5.677994616419919E-3</v>
+        <v>5.0897300557985218E-3</v>
       </c>
       <c r="E12" s="3">
         <v>3</v>
@@ -4076,7 +4099,9 @@
       <c r="F12" s="3">
         <v>10</v>
       </c>
-      <c r="G12" s="4"/>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
       <c r="H12" s="6">
         <f>F12-E12+1</f>
         <v>8</v>
@@ -4085,35 +4110,35 @@
       <c r="J12" s="4"/>
       <c r="K12" s="20">
         <f>$D12/$H12</f>
-        <v>7.0974932705248988E-4</v>
+        <v>6.3621625697481523E-4</v>
       </c>
       <c r="L12" s="20">
         <f t="shared" ref="L12:R12" si="4">$D12/$H12</f>
-        <v>7.0974932705248988E-4</v>
+        <v>6.3621625697481523E-4</v>
       </c>
       <c r="M12" s="20">
         <f t="shared" si="4"/>
-        <v>7.0974932705248988E-4</v>
+        <v>6.3621625697481523E-4</v>
       </c>
       <c r="N12" s="20">
         <f t="shared" si="4"/>
-        <v>7.0974932705248988E-4</v>
+        <v>6.3621625697481523E-4</v>
       </c>
       <c r="O12" s="20">
         <f t="shared" si="4"/>
-        <v>7.0974932705248988E-4</v>
+        <v>6.3621625697481523E-4</v>
       </c>
       <c r="P12" s="20">
         <f t="shared" si="4"/>
-        <v>7.0974932705248988E-4</v>
+        <v>6.3621625697481523E-4</v>
       </c>
       <c r="Q12" s="20">
         <f t="shared" si="4"/>
-        <v>7.0974932705248988E-4</v>
+        <v>6.3621625697481523E-4</v>
       </c>
       <c r="R12" s="20">
         <f t="shared" si="4"/>
-        <v>7.0974932705248988E-4</v>
+        <v>6.3621625697481523E-4</v>
       </c>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
@@ -4149,7 +4174,7 @@
       </c>
       <c r="D13" s="4">
         <f t="shared" si="0"/>
-        <v>3.028263795423957E-2</v>
+        <v>2.7145226964258785E-2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>132</v>
@@ -4157,7 +4182,9 @@
       <c r="F13" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G13" s="7"/>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
       <c r="H13" s="6">
         <v>6</v>
       </c>
@@ -4165,11 +4192,11 @@
       <c r="J13" s="7"/>
       <c r="K13" s="21">
         <f>$D13/$H13</f>
-        <v>5.0471063257065954E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="L13" s="21">
         <f>$D13/$H13</f>
-        <v>5.0471063257065954E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
@@ -4186,19 +4213,19 @@
       <c r="Y13" s="7"/>
       <c r="Z13" s="21">
         <f>$D13/$H13</f>
-        <v>5.0471063257065954E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AA13" s="21">
         <f t="shared" ref="AA13:AC13" si="5">$D13/$H13</f>
-        <v>5.0471063257065954E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AB13" s="21">
         <f t="shared" si="5"/>
-        <v>5.0471063257065954E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AC13" s="21">
         <f t="shared" si="5"/>
-        <v>5.0471063257065954E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AD13" s="7"/>
       <c r="AE13" s="7"/>
@@ -4223,7 +4250,7 @@
       </c>
       <c r="D14" s="4">
         <f t="shared" si="0"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="E14" s="3">
         <v>3</v>
@@ -4231,7 +4258,9 @@
       <c r="F14" s="3">
         <v>8</v>
       </c>
-      <c r="G14" s="4"/>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
       <c r="H14" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4240,27 +4269,27 @@
       <c r="J14" s="4"/>
       <c r="K14" s="20">
         <f>$D14/$H14</f>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="L14" s="20">
         <f t="shared" ref="L14:S17" si="6">$D14/$H14</f>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="M14" s="20">
         <f t="shared" si="6"/>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="N14" s="20">
         <f t="shared" si="6"/>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="O14" s="20">
         <f t="shared" si="6"/>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="P14" s="20">
         <f t="shared" si="6"/>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
@@ -4298,7 +4327,7 @@
       </c>
       <c r="D15" s="4">
         <f t="shared" si="0"/>
-        <v>1.3458950201884253E-2</v>
+        <v>1.2064545317448348E-2</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
@@ -4306,7 +4335,9 @@
       <c r="F15" s="3">
         <v>11</v>
       </c>
-      <c r="G15" s="7"/>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
       <c r="H15" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -4316,35 +4347,35 @@
       <c r="K15" s="7"/>
       <c r="L15" s="21">
         <f>$D15/$H15</f>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="M15" s="21">
         <f t="shared" si="6"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="N15" s="21">
         <f t="shared" si="6"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="O15" s="21">
         <f t="shared" si="6"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="P15" s="21">
         <f t="shared" si="6"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="Q15" s="21">
         <f t="shared" si="6"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="R15" s="21">
         <f t="shared" si="6"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="S15" s="21">
         <f t="shared" si="6"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="T15" s="7"/>
       <c r="U15" s="7"/>
@@ -4379,7 +4410,7 @@
       </c>
       <c r="D16" s="4">
         <f t="shared" si="0"/>
-        <v>4.2059219380888293E-3</v>
+        <v>3.7701704117026088E-3</v>
       </c>
       <c r="E16" s="3">
         <v>5</v>
@@ -4387,7 +4418,9 @@
       <c r="F16" s="3">
         <v>7</v>
       </c>
-      <c r="G16" s="4"/>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
       <c r="H16" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4398,15 +4431,15 @@
       <c r="L16" s="4"/>
       <c r="M16" s="20">
         <f>$D16/$H16</f>
-        <v>1.4019739793629431E-3</v>
+        <v>1.2567234705675363E-3</v>
       </c>
       <c r="N16" s="20">
         <f t="shared" si="6"/>
-        <v>1.4019739793629431E-3</v>
+        <v>1.2567234705675363E-3</v>
       </c>
       <c r="O16" s="20">
         <f t="shared" si="6"/>
-        <v>1.4019739793629431E-3</v>
+        <v>1.2567234705675363E-3</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -4441,11 +4474,11 @@
         <v>35</v>
       </c>
       <c r="C17" s="3">
-        <v>1506</v>
+        <v>990</v>
       </c>
       <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>3.1670592193808883E-2</v>
+        <v>1.8662343537927915E-2</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>132</v>
@@ -4453,7 +4486,9 @@
       <c r="F17" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G17" s="7"/>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
       <c r="H17" s="6">
         <v>5</v>
       </c>
@@ -4463,15 +4498,15 @@
       <c r="L17" s="7"/>
       <c r="M17" s="21">
         <f>$D17/$H17</f>
-        <v>6.3341184387617766E-3</v>
+        <v>3.7324687075855831E-3</v>
       </c>
       <c r="N17" s="21">
         <f t="shared" si="6"/>
-        <v>6.3341184387617766E-3</v>
+        <v>3.7324687075855831E-3</v>
       </c>
       <c r="O17" s="21">
         <f t="shared" si="6"/>
-        <v>6.3341184387617766E-3</v>
+        <v>3.7324687075855831E-3</v>
       </c>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
@@ -4483,11 +4518,11 @@
       <c r="W17" s="7"/>
       <c r="X17" s="21">
         <f>$D17/$H17</f>
-        <v>6.3341184387617766E-3</v>
+        <v>3.7324687075855831E-3</v>
       </c>
       <c r="Y17" s="21">
         <f>$D17/$H17</f>
-        <v>6.3341184387617766E-3</v>
+        <v>3.7324687075855831E-3</v>
       </c>
       <c r="Z17" s="7"/>
       <c r="AA17" s="7"/>
@@ -4516,7 +4551,7 @@
       </c>
       <c r="D18" s="4">
         <f t="shared" si="0"/>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>132</v>
@@ -4524,7 +4559,9 @@
       <c r="F18" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G18" s="4"/>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
       <c r="H18" s="6">
         <v>12</v>
       </c>
@@ -4537,27 +4574,27 @@
       <c r="O18" s="4"/>
       <c r="P18" s="20">
         <f>$D18/$H18</f>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="Q18" s="20">
         <f t="shared" ref="Q18:Z20" si="7">$D18/$H18</f>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="R18" s="20">
         <f t="shared" si="7"/>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="S18" s="20">
         <f t="shared" si="7"/>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="T18" s="20">
         <f t="shared" si="7"/>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="U18" s="20">
         <f t="shared" si="7"/>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="V18" s="5"/>
       <c r="W18" s="4"/>
@@ -4565,27 +4602,27 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="20">
         <f>$D18/$H18</f>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="AA18" s="20">
         <f t="shared" ref="AA18:AE18" si="8">$D18/$H18</f>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="AB18" s="20">
         <f t="shared" si="8"/>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="AC18" s="20">
         <f t="shared" si="8"/>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="AD18" s="20">
         <f t="shared" si="8"/>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="AE18" s="20">
         <f t="shared" si="8"/>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="AF18" s="5"/>
       <c r="AG18" s="4"/>
@@ -4608,7 +4645,7 @@
       </c>
       <c r="D19" s="4">
         <f t="shared" si="0"/>
-        <v>2.0188425302826378E-2</v>
+        <v>1.8096817976172522E-2</v>
       </c>
       <c r="E19" s="3">
         <v>9</v>
@@ -4616,7 +4653,9 @@
       <c r="F19" s="3">
         <v>18</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
       <c r="H19" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -4631,43 +4670,43 @@
       <c r="P19" s="7"/>
       <c r="Q19" s="21">
         <f>$D19/$H19</f>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="R19" s="21">
         <f t="shared" si="7"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="S19" s="21">
         <f t="shared" si="7"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="T19" s="21">
         <f t="shared" si="7"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="U19" s="21">
         <f t="shared" si="7"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="V19" s="21">
         <f t="shared" si="7"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="W19" s="21">
         <f t="shared" si="7"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="X19" s="21">
         <f t="shared" si="7"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="Y19" s="21">
         <f t="shared" si="7"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="Z19" s="21">
         <f t="shared" si="7"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="AA19" s="7"/>
       <c r="AB19" s="7"/>
@@ -4695,7 +4734,7 @@
       </c>
       <c r="D20" s="4">
         <f t="shared" si="0"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="E20" s="3">
         <v>9</v>
@@ -4703,7 +4742,9 @@
       <c r="F20" s="3">
         <v>14</v>
       </c>
-      <c r="G20" s="4"/>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
       <c r="H20" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -4718,27 +4759,27 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="20">
         <f>$D20/$H20</f>
-        <v>8.7623373710183933E-4</v>
+        <v>7.8545216910471023E-4</v>
       </c>
       <c r="R20" s="20">
         <f t="shared" si="7"/>
-        <v>8.7623373710183933E-4</v>
+        <v>7.8545216910471023E-4</v>
       </c>
       <c r="S20" s="20">
         <f t="shared" si="7"/>
-        <v>8.7623373710183933E-4</v>
+        <v>7.8545216910471023E-4</v>
       </c>
       <c r="T20" s="20">
         <f t="shared" si="7"/>
-        <v>8.7623373710183933E-4</v>
+        <v>7.8545216910471023E-4</v>
       </c>
       <c r="U20" s="20">
         <f t="shared" si="7"/>
-        <v>8.7623373710183933E-4</v>
+        <v>7.8545216910471023E-4</v>
       </c>
       <c r="V20" s="20">
         <f t="shared" si="7"/>
-        <v>8.7623373710183933E-4</v>
+        <v>7.8545216910471023E-4</v>
       </c>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
@@ -4770,7 +4811,7 @@
       </c>
       <c r="D21" s="4">
         <f t="shared" si="0"/>
-        <v>8.4118438761776586E-3</v>
+        <v>7.5403408234052177E-3</v>
       </c>
       <c r="E21" s="3">
         <v>18</v>
@@ -4778,7 +4819,9 @@
       <c r="F21" s="3">
         <v>21</v>
       </c>
-      <c r="G21" s="7"/>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
       <c r="H21" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -4802,19 +4845,19 @@
       <c r="Y21" s="7"/>
       <c r="Z21" s="21">
         <f>$D21/$H21</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AA21" s="21">
         <f t="shared" ref="AA21:AC21" si="9">$D21/$H21</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AB21" s="21">
         <f t="shared" si="9"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AC21" s="21">
         <f t="shared" si="9"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AD21" s="7"/>
       <c r="AE21" s="7"/>
@@ -4839,7 +4882,7 @@
       </c>
       <c r="D22" s="4">
         <f t="shared" si="0"/>
-        <v>2.5235531628532972E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="E22" s="3">
         <v>22</v>
@@ -4847,7 +4890,9 @@
       <c r="F22" s="3">
         <v>24</v>
       </c>
-      <c r="G22" s="4"/>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
       <c r="H22" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4875,15 +4920,15 @@
       <c r="AC22" s="4"/>
       <c r="AD22" s="20">
         <f>$D22/$H22</f>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="AE22" s="20">
         <f t="shared" ref="AE22:AF22" si="10">$D22/$H22</f>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="AF22" s="20">
         <f t="shared" si="10"/>
-        <v>8.4118438761776571E-4</v>
+        <v>7.5403408234052177E-4</v>
       </c>
       <c r="AG22" s="4"/>
       <c r="AH22" s="4"/>
@@ -4905,7 +4950,7 @@
       </c>
       <c r="D23" s="4">
         <f t="shared" si="0"/>
-        <v>6.7294751009421266E-3</v>
+        <v>6.0322726587241741E-3</v>
       </c>
       <c r="E23" s="3">
         <v>26</v>
@@ -4913,7 +4958,9 @@
       <c r="F23" s="3">
         <v>28</v>
       </c>
-      <c r="G23" s="7"/>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
       <c r="H23" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -4945,15 +4992,15 @@
       <c r="AG23" s="7"/>
       <c r="AH23" s="21">
         <f>$D23/$H23</f>
-        <v>2.2431583669807087E-3</v>
+        <v>2.010757552908058E-3</v>
       </c>
       <c r="AI23" s="21">
         <f t="shared" ref="AI23:AJ23" si="11">$D23/$H23</f>
-        <v>2.2431583669807087E-3</v>
+        <v>2.010757552908058E-3</v>
       </c>
       <c r="AJ23" s="21">
         <f t="shared" si="11"/>
-        <v>2.2431583669807087E-3</v>
+        <v>2.010757552908058E-3</v>
       </c>
       <c r="AK23" s="7"/>
       <c r="AL23" s="7"/>
@@ -4971,7 +5018,7 @@
       </c>
       <c r="D24" s="4">
         <f t="shared" si="0"/>
-        <v>5.0471063257065945E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="E24" s="3">
         <v>26</v>
@@ -4979,7 +5026,9 @@
       <c r="F24" s="3">
         <v>27</v>
       </c>
-      <c r="G24" s="4"/>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
       <c r="H24" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5011,11 +5060,11 @@
       <c r="AG24" s="4"/>
       <c r="AH24" s="20">
         <f>$D24/$H24</f>
-        <v>2.5235531628532972E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="AI24" s="20">
         <f>$D24/$H24</f>
-        <v>2.5235531628532972E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="AJ24" s="4"/>
       <c r="AK24" s="4"/>
@@ -5034,7 +5083,7 @@
       </c>
       <c r="D25" s="4">
         <f t="shared" si="0"/>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="E25" s="3">
         <v>26</v>
@@ -5042,7 +5091,9 @@
       <c r="F25" s="3">
         <v>27</v>
       </c>
-      <c r="G25" s="7"/>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
       <c r="H25" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5074,11 +5125,11 @@
       <c r="AG25" s="7"/>
       <c r="AH25" s="21">
         <f>$D25/$H25</f>
-        <v>5.0471063257065945E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AI25" s="21">
         <f>$D25/$H25</f>
-        <v>5.0471063257065945E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AJ25" s="7"/>
       <c r="AK25" s="7"/>
@@ -5097,7 +5148,7 @@
       </c>
       <c r="D26" s="4">
         <f t="shared" si="0"/>
-        <v>1.0514804845222072E-2</v>
+        <v>9.4254260292565232E-3</v>
       </c>
       <c r="E26" s="3">
         <v>29</v>
@@ -5105,7 +5156,9 @@
       <c r="F26" s="3">
         <v>31</v>
       </c>
-      <c r="G26" s="4"/>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
       <c r="H26" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -5140,15 +5193,15 @@
       <c r="AJ26" s="4"/>
       <c r="AK26" s="20">
         <f>$D26/$H26</f>
-        <v>3.5049349484073573E-3</v>
+        <v>3.1418086764188409E-3</v>
       </c>
       <c r="AL26" s="20">
         <f t="shared" ref="AL26:AM26" si="12">$D26/$H26</f>
-        <v>3.5049349484073573E-3</v>
+        <v>3.1418086764188409E-3</v>
       </c>
       <c r="AM26" s="20">
         <f t="shared" si="12"/>
-        <v>3.5049349484073573E-3</v>
+        <v>3.1418086764188409E-3</v>
       </c>
     </row>
     <row r="27" spans="1:39" ht="18.75" x14ac:dyDescent="0.25">
@@ -5163,7 +5216,7 @@
       </c>
       <c r="D27" s="4">
         <f t="shared" si="0"/>
-        <v>4.2059219380888288E-2</v>
+        <v>3.7701704117026093E-2</v>
       </c>
       <c r="E27" s="3">
         <v>2</v>
@@ -5171,7 +5224,9 @@
       <c r="F27" s="3">
         <v>9</v>
       </c>
-      <c r="G27" s="7"/>
+      <c r="G27" s="16">
+        <v>0.2</v>
+      </c>
       <c r="H27" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -5179,35 +5234,35 @@
       <c r="I27" s="7"/>
       <c r="J27" s="21">
         <f>$D27/$H27</f>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="K27" s="21">
         <f t="shared" ref="K27:Z29" si="13">$D27/$H27</f>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="L27" s="21">
         <f t="shared" si="13"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="M27" s="21">
         <f t="shared" si="13"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="N27" s="21">
         <f t="shared" si="13"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="O27" s="21">
         <f t="shared" si="13"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="P27" s="21">
         <f t="shared" si="13"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="Q27" s="21">
         <f t="shared" si="13"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
@@ -5244,7 +5299,7 @@
       </c>
       <c r="D28" s="4">
         <f t="shared" si="0"/>
-        <v>5.0471063257065948E-2</v>
+        <v>4.5242044940431304E-2</v>
       </c>
       <c r="E28" s="3">
         <v>1</v>
@@ -5252,122 +5307,124 @@
       <c r="F28" s="3">
         <v>28</v>
       </c>
-      <c r="G28" s="4"/>
+      <c r="G28" s="4">
+        <v>3.5700000000000003E-2</v>
+      </c>
       <c r="H28" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="I28" s="20">
         <f>$D28/$H28</f>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="J28" s="20">
         <f t="shared" ref="J28" si="14">$D28/$H28</f>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="K28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="L28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="M28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="N28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="O28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="P28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="Q28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="R28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="S28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="T28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="U28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="V28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="W28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="X28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="Y28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="Z28" s="20">
         <f t="shared" si="13"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AA28" s="20">
         <f t="shared" ref="AA28:AJ28" si="15">$D28/$H28</f>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AB28" s="20">
         <f t="shared" si="15"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AC28" s="20">
         <f t="shared" si="15"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AD28" s="20">
         <f t="shared" si="15"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AE28" s="20">
         <f t="shared" si="15"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AF28" s="20">
         <f t="shared" si="15"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AG28" s="20">
         <f t="shared" si="15"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AH28" s="20">
         <f t="shared" si="15"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AI28" s="20">
         <f t="shared" si="15"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AJ28" s="20">
         <f t="shared" si="15"/>
-        <v>1.802537973466641E-3</v>
+        <v>1.6157873193011179E-3</v>
       </c>
       <c r="AK28" s="4"/>
       <c r="AL28" s="4"/>
@@ -5385,7 +5442,7 @@
       </c>
       <c r="D29" s="4">
         <f t="shared" si="0"/>
-        <v>5.0471063257065948E-2</v>
+        <v>4.5242044940431304E-2</v>
       </c>
       <c r="E29" s="3">
         <v>3</v>
@@ -5393,7 +5450,9 @@
       <c r="F29" s="3">
         <v>7</v>
       </c>
-      <c r="G29" s="7"/>
+      <c r="G29" s="7">
+        <v>0</v>
+      </c>
       <c r="H29" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -5402,23 +5461,23 @@
       <c r="J29" s="7"/>
       <c r="K29" s="21">
         <f>$D29/$H29</f>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="L29" s="21">
         <f t="shared" si="13"/>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="M29" s="21">
         <f t="shared" si="13"/>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="N29" s="21">
         <f t="shared" si="13"/>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="O29" s="21">
         <f t="shared" si="13"/>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
@@ -5457,7 +5516,7 @@
       </c>
       <c r="D30" s="4">
         <f t="shared" si="0"/>
-        <v>2.5235531628532972E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="E30" s="3">
         <v>8</v>
@@ -5465,7 +5524,9 @@
       <c r="F30" s="3">
         <v>8</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7">
+        <v>0</v>
+      </c>
       <c r="H30" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -5479,7 +5540,7 @@
       <c r="O30" s="7"/>
       <c r="P30" s="21">
         <f>$D30/$H30</f>
-        <v>2.5235531628532972E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
@@ -5517,7 +5578,7 @@
       </c>
       <c r="D31" s="4">
         <f t="shared" si="0"/>
-        <v>0.13164535666218036</v>
+        <v>0.11800633388629166</v>
       </c>
       <c r="E31" s="3">
         <v>9</v>
@@ -5525,7 +5586,9 @@
       <c r="F31" s="3">
         <v>22</v>
       </c>
-      <c r="G31" s="7"/>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
       <c r="H31" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
@@ -5540,59 +5603,59 @@
       <c r="P31" s="7"/>
       <c r="Q31" s="21">
         <f>$D31/$H31</f>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="R31" s="21">
         <f t="shared" ref="R31:S31" si="16">$D31/$H31</f>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="S31" s="21">
         <f t="shared" si="16"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="T31" s="21">
         <f>$D31/$H31</f>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="U31" s="21">
         <f t="shared" ref="U31:AD31" si="17">$D31/$H31</f>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="V31" s="21">
         <f t="shared" si="17"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="W31" s="21">
         <f t="shared" si="17"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="X31" s="21">
         <f t="shared" si="17"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="Y31" s="21">
         <f t="shared" si="17"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="Z31" s="21">
         <f t="shared" si="17"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="AA31" s="21">
         <f t="shared" si="17"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="AB31" s="21">
         <f t="shared" si="17"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="AC31" s="21">
         <f t="shared" si="17"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="AD31" s="21">
         <f t="shared" si="17"/>
-        <v>9.403239761584312E-3</v>
+        <v>8.4290238490208318E-3</v>
       </c>
       <c r="AE31" s="18"/>
       <c r="AF31" s="18"/>
@@ -5616,7 +5679,7 @@
       </c>
       <c r="D32" s="4">
         <f t="shared" si="0"/>
-        <v>2.0188425302826378E-2</v>
+        <v>1.8096817976172522E-2</v>
       </c>
       <c r="E32" s="3">
         <v>23</v>
@@ -5624,7 +5687,9 @@
       <c r="F32" s="3">
         <v>24</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
       <c r="H32" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5653,11 +5718,11 @@
       <c r="AD32" s="7"/>
       <c r="AE32" s="21">
         <f>$D32/$H32</f>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="AF32" s="21">
         <f>$D32/$H32</f>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="AG32" s="7"/>
       <c r="AH32" s="18"/>
@@ -5679,7 +5744,7 @@
       </c>
       <c r="D33" s="4">
         <f t="shared" si="0"/>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="E33" s="3">
         <v>25</v>
@@ -5687,7 +5752,9 @@
       <c r="F33" s="3">
         <v>26</v>
       </c>
-      <c r="G33" s="7"/>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
       <c r="H33" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5718,11 +5785,11 @@
       <c r="AF33" s="7"/>
       <c r="AG33" s="21">
         <f>$D33/$H33</f>
-        <v>5.0471063257065945E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AH33" s="21">
         <f>$D33/$H33</f>
-        <v>5.0471063257065945E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AI33" s="7"/>
       <c r="AJ33" s="18"/>
@@ -5742,7 +5809,7 @@
       </c>
       <c r="D34" s="4">
         <f t="shared" ref="D34:D65" si="18">C34/$C$93</f>
-        <v>1.009421265141319E-3</v>
+        <v>9.0484089880862612E-4</v>
       </c>
       <c r="E34" s="3">
         <v>27</v>
@@ -5750,7 +5817,9 @@
       <c r="F34" s="3">
         <v>27</v>
       </c>
-      <c r="G34" s="7"/>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
       <c r="H34" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -5783,7 +5852,7 @@
       <c r="AH34" s="7"/>
       <c r="AI34" s="21">
         <f>$D34/$H34</f>
-        <v>1.009421265141319E-3</v>
+        <v>9.0484089880862612E-4</v>
       </c>
       <c r="AJ34" s="7"/>
       <c r="AK34" s="7"/>
@@ -5802,7 +5871,7 @@
       </c>
       <c r="D35" s="4">
         <f t="shared" si="18"/>
-        <v>5.677994616419919E-3</v>
+        <v>5.0897300557985218E-3</v>
       </c>
       <c r="E35" s="3">
         <v>28</v>
@@ -5810,7 +5879,9 @@
       <c r="F35" s="3">
         <v>29</v>
       </c>
-      <c r="G35" s="7"/>
+      <c r="G35" s="7">
+        <v>0</v>
+      </c>
       <c r="H35" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5844,11 +5915,11 @@
       <c r="AI35" s="7"/>
       <c r="AJ35" s="21">
         <f>$D35/$H35</f>
-        <v>2.8389973082099595E-3</v>
+        <v>2.5448650278992609E-3</v>
       </c>
       <c r="AK35" s="21">
         <f>$D35/$H35</f>
-        <v>2.8389973082099595E-3</v>
+        <v>2.5448650278992609E-3</v>
       </c>
       <c r="AL35" s="7"/>
       <c r="AM35" s="18"/>
@@ -5865,7 +5936,7 @@
       </c>
       <c r="D36" s="4">
         <f t="shared" si="18"/>
-        <v>1.2617765814266486E-3</v>
+        <v>1.1310511235107827E-3</v>
       </c>
       <c r="E36" s="3">
         <v>8</v>
@@ -5873,7 +5944,9 @@
       <c r="F36" s="3">
         <v>9</v>
       </c>
-      <c r="G36" s="7"/>
+      <c r="G36" s="7">
+        <v>0</v>
+      </c>
       <c r="H36" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -5887,11 +5960,11 @@
       <c r="O36" s="7"/>
       <c r="P36" s="21">
         <f>$D36/$H36</f>
-        <v>6.3088829071332431E-4</v>
+        <v>5.6552556175539133E-4</v>
       </c>
       <c r="Q36" s="21">
         <f>$D36/$H36</f>
-        <v>6.3088829071332431E-4</v>
+        <v>5.6552556175539133E-4</v>
       </c>
       <c r="R36" s="7"/>
       <c r="S36" s="7"/>
@@ -5928,7 +6001,7 @@
       </c>
       <c r="D37" s="4">
         <f t="shared" si="18"/>
-        <v>9.0847913862718704E-3</v>
+        <v>8.143568089277636E-3</v>
       </c>
       <c r="E37" s="3">
         <v>18</v>
@@ -5936,7 +6009,9 @@
       <c r="F37" s="3">
         <v>20</v>
       </c>
-      <c r="G37" s="7"/>
+      <c r="G37" s="7">
+        <v>0</v>
+      </c>
       <c r="H37" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -5960,15 +6035,15 @@
       <c r="Y37" s="7"/>
       <c r="Z37" s="21">
         <f>$D37/$H37</f>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258788E-3</v>
       </c>
       <c r="AA37" s="21">
         <f t="shared" ref="AA37:AB37" si="19">$D37/$H37</f>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258788E-3</v>
       </c>
       <c r="AB37" s="21">
         <f t="shared" si="19"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258788E-3</v>
       </c>
       <c r="AC37" s="7"/>
       <c r="AD37" s="7"/>
@@ -5994,7 +6069,7 @@
       </c>
       <c r="D38" s="4">
         <f t="shared" si="18"/>
-        <v>2.0188425302826378E-2</v>
+        <v>1.8096817976172522E-2</v>
       </c>
       <c r="E38" s="3">
         <v>17</v>
@@ -6002,7 +6077,9 @@
       <c r="F38" s="3">
         <v>20</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7">
+        <v>0</v>
+      </c>
       <c r="H38" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6025,19 +6102,19 @@
       <c r="X38" s="7"/>
       <c r="Y38" s="21">
         <f>$D38/$H38</f>
-        <v>5.0471063257065945E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="Z38" s="21">
         <f t="shared" ref="Z38:AB38" si="20">$D38/$H38</f>
-        <v>5.0471063257065945E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AA38" s="21">
         <f t="shared" si="20"/>
-        <v>5.0471063257065945E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AB38" s="21">
         <f t="shared" si="20"/>
-        <v>5.0471063257065945E-3</v>
+        <v>4.5242044940431306E-3</v>
       </c>
       <c r="AC38" s="7"/>
       <c r="AD38" s="7"/>
@@ -6063,7 +6140,7 @@
       </c>
       <c r="D39" s="4">
         <f t="shared" si="18"/>
-        <v>9.0847913862718704E-3</v>
+        <v>8.143568089277636E-3</v>
       </c>
       <c r="E39" s="3">
         <v>22</v>
@@ -6071,7 +6148,9 @@
       <c r="F39" s="3">
         <v>23</v>
       </c>
-      <c r="G39" s="7"/>
+      <c r="G39" s="7">
+        <v>0</v>
+      </c>
       <c r="H39" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6099,11 +6178,11 @@
       <c r="AC39" s="7"/>
       <c r="AD39" s="21">
         <f>$D39/$H39</f>
-        <v>4.5423956931359352E-3</v>
+        <v>4.071784044638818E-3</v>
       </c>
       <c r="AE39" s="21">
         <f>$D39/$H39</f>
-        <v>4.5423956931359352E-3</v>
+        <v>4.071784044638818E-3</v>
       </c>
       <c r="AF39" s="7"/>
       <c r="AG39" s="18"/>
@@ -6126,7 +6205,7 @@
       </c>
       <c r="D40" s="4">
         <f t="shared" si="18"/>
-        <v>1.0514804845222072E-2</v>
+        <v>9.4254260292565232E-3</v>
       </c>
       <c r="E40" s="3">
         <v>3</v>
@@ -6134,7 +6213,9 @@
       <c r="F40" s="3">
         <v>6</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7">
+        <v>0</v>
+      </c>
       <c r="H40" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6143,19 +6224,19 @@
       <c r="J40" s="7"/>
       <c r="K40" s="21">
         <f>$D40/$H40</f>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="L40" s="21">
         <f>$D40/$H40</f>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="M40" s="21">
         <f t="shared" ref="M40:N40" si="21">$D40/$H40</f>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="N40" s="21">
         <f t="shared" si="21"/>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="O40" s="18"/>
       <c r="P40" s="7"/>
@@ -6191,11 +6272,11 @@
         <v>59</v>
       </c>
       <c r="C41" s="3">
-        <v>504</v>
+        <v>600</v>
       </c>
       <c r="D41" s="4">
         <f t="shared" si="18"/>
-        <v>1.059892328398385E-2</v>
+        <v>1.1310511235107826E-2</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>132</v>
@@ -6203,7 +6284,9 @@
       <c r="F41" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G41" s="7"/>
+      <c r="G41" s="7">
+        <v>0</v>
+      </c>
       <c r="H41" s="6">
         <v>2</v>
       </c>
@@ -6212,12 +6295,12 @@
       <c r="K41" s="7"/>
       <c r="L41" s="21">
         <f>$D41/$H41</f>
-        <v>5.299461641991925E-3</v>
+        <v>5.655255617553913E-3</v>
       </c>
       <c r="M41" s="7"/>
       <c r="N41" s="21">
         <f>$D41/$H41</f>
-        <v>5.299461641991925E-3</v>
+        <v>5.655255617553913E-3</v>
       </c>
       <c r="O41" s="7"/>
       <c r="P41" s="7"/>
@@ -6257,7 +6340,7 @@
       </c>
       <c r="D42" s="4">
         <f t="shared" si="18"/>
-        <v>2.1029609690444144E-2</v>
+        <v>1.8850852058513046E-2</v>
       </c>
       <c r="E42" s="3">
         <v>7</v>
@@ -6265,7 +6348,9 @@
       <c r="F42" s="3">
         <v>10</v>
       </c>
-      <c r="G42" s="7"/>
+      <c r="G42" s="7">
+        <v>0</v>
+      </c>
       <c r="H42" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6278,19 +6363,19 @@
       <c r="N42" s="7"/>
       <c r="O42" s="21">
         <f>$D42/$H42</f>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="P42" s="21">
         <f t="shared" ref="P42:R42" si="22">$D42/$H42</f>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="Q42" s="21">
         <f t="shared" si="22"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="R42" s="21">
         <f t="shared" si="22"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
@@ -6326,7 +6411,7 @@
       </c>
       <c r="D43" s="4">
         <f t="shared" si="18"/>
-        <v>1.0514804845222072E-2</v>
+        <v>9.4254260292565232E-3</v>
       </c>
       <c r="E43" s="3">
         <v>7</v>
@@ -6334,7 +6419,9 @@
       <c r="F43" s="3">
         <v>8</v>
       </c>
-      <c r="G43" s="7"/>
+      <c r="G43" s="7">
+        <v>0</v>
+      </c>
       <c r="H43" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6347,11 +6434,11 @@
       <c r="N43" s="7"/>
       <c r="O43" s="21">
         <f>$D43/$H43</f>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="P43" s="21">
         <f>$D43/$H43</f>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
@@ -6385,11 +6472,11 @@
         <v>62</v>
       </c>
       <c r="C44" s="3">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="D44" s="4">
         <f t="shared" si="18"/>
-        <v>1.0514804845222072E-2</v>
+        <v>1.8850852058513046E-2</v>
       </c>
       <c r="E44" s="3">
         <v>14</v>
@@ -6397,7 +6484,9 @@
       <c r="F44" s="3">
         <v>18</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7">
+        <v>0</v>
+      </c>
       <c r="H44" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -6417,23 +6506,23 @@
       <c r="U44" s="18"/>
       <c r="V44" s="21">
         <f>$D44/$H44</f>
-        <v>2.1029609690444142E-3</v>
+        <v>3.7701704117026093E-3</v>
       </c>
       <c r="W44" s="21">
         <f t="shared" ref="W44:Z44" si="23">$D44/$H44</f>
-        <v>2.1029609690444142E-3</v>
+        <v>3.7701704117026093E-3</v>
       </c>
       <c r="X44" s="21">
         <f t="shared" si="23"/>
-        <v>2.1029609690444142E-3</v>
+        <v>3.7701704117026093E-3</v>
       </c>
       <c r="Y44" s="21">
         <f t="shared" si="23"/>
-        <v>2.1029609690444142E-3</v>
+        <v>3.7701704117026093E-3</v>
       </c>
       <c r="Z44" s="21">
         <f t="shared" si="23"/>
-        <v>2.1029609690444142E-3</v>
+        <v>3.7701704117026093E-3</v>
       </c>
       <c r="AA44" s="7"/>
       <c r="AB44" s="7"/>
@@ -6461,7 +6550,7 @@
       </c>
       <c r="D45" s="4">
         <f t="shared" si="18"/>
-        <v>1.7664872139973083E-2</v>
+        <v>1.5834715729150958E-2</v>
       </c>
       <c r="E45" s="3">
         <v>18</v>
@@ -6469,7 +6558,9 @@
       <c r="F45" s="3">
         <v>24</v>
       </c>
-      <c r="G45" s="7"/>
+      <c r="G45" s="7">
+        <v>0</v>
+      </c>
       <c r="H45" s="6">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -6493,31 +6584,31 @@
       <c r="Y45" s="18"/>
       <c r="Z45" s="21">
         <f t="shared" ref="Z45" si="24">$D45/$H45</f>
-        <v>2.5235531628532977E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="AA45" s="21">
         <f>$D45/$H45</f>
-        <v>2.5235531628532977E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="AB45" s="21">
         <f t="shared" ref="AB45:AF45" si="25">$D45/$H45</f>
-        <v>2.5235531628532977E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="AC45" s="21">
         <f t="shared" si="25"/>
-        <v>2.5235531628532977E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="AD45" s="21">
         <f t="shared" si="25"/>
-        <v>2.5235531628532977E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="AE45" s="21">
         <f t="shared" si="25"/>
-        <v>2.5235531628532977E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="AF45" s="21">
         <f t="shared" si="25"/>
-        <v>2.5235531628532977E-3</v>
+        <v>2.2621022470215653E-3</v>
       </c>
       <c r="AG45" s="7"/>
       <c r="AH45" s="7"/>
@@ -6539,7 +6630,7 @@
       </c>
       <c r="D46" s="4">
         <f t="shared" si="18"/>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="E46" s="3">
         <v>26</v>
@@ -6547,7 +6638,9 @@
       <c r="F46" s="3">
         <v>27</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7">
+        <v>0</v>
+      </c>
       <c r="H46" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -6579,11 +6672,11 @@
       <c r="AG46" s="7"/>
       <c r="AH46" s="21">
         <f>$D46/$H46</f>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="AI46" s="21">
         <f>$D46/$H46</f>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="AJ46" s="7"/>
       <c r="AK46" s="7"/>
@@ -6602,7 +6695,7 @@
       </c>
       <c r="D47" s="4">
         <f t="shared" si="18"/>
-        <v>8.4118438761776586E-3</v>
+        <v>7.5403408234052177E-3</v>
       </c>
       <c r="E47" s="3">
         <v>26</v>
@@ -6610,7 +6703,9 @@
       <c r="F47" s="3">
         <v>29</v>
       </c>
-      <c r="G47" s="7"/>
+      <c r="G47" s="7">
+        <v>0</v>
+      </c>
       <c r="H47" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -6642,19 +6737,19 @@
       <c r="AG47" s="7"/>
       <c r="AH47" s="21">
         <f>$D47/$H47</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AI47" s="21">
         <f t="shared" ref="AI47:AJ47" si="26">$D47/$H47</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AJ47" s="21">
         <f t="shared" si="26"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AK47" s="21">
         <f>$D47/$H47</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AL47" s="18"/>
       <c r="AM47" s="18"/>
@@ -6667,11 +6762,11 @@
         <v>66</v>
       </c>
       <c r="C48" s="3">
-        <v>792</v>
+        <v>924</v>
       </c>
       <c r="D48" s="4">
         <f t="shared" si="18"/>
-        <v>1.6655450874831765E-2</v>
+        <v>1.7418187302066054E-2</v>
       </c>
       <c r="E48" s="3">
         <v>5</v>
@@ -6679,7 +6774,9 @@
       <c r="F48" s="3">
         <v>16</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7">
+        <v>0</v>
+      </c>
       <c r="H48" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
@@ -6690,51 +6787,51 @@
       <c r="L48" s="7"/>
       <c r="M48" s="21">
         <f>$D48/$H48</f>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="N48" s="21">
         <f t="shared" ref="N48:X48" si="27">$D48/$H48</f>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="O48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="P48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="Q48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="R48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="S48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="T48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="U48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="V48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="W48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="X48" s="21">
         <f t="shared" si="27"/>
-        <v>1.3879542395693137E-3</v>
+        <v>1.4515156085055045E-3</v>
       </c>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
@@ -6764,7 +6861,7 @@
       </c>
       <c r="D49" s="4">
         <f t="shared" si="18"/>
-        <v>5.0471063257065949E-4</v>
+        <v>4.5242044940431306E-4</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>132</v>
@@ -6772,7 +6869,9 @@
       <c r="F49" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G49" s="7"/>
+      <c r="G49" s="7">
+        <v>0</v>
+      </c>
       <c r="H49" s="6">
         <v>2</v>
       </c>
@@ -6780,7 +6879,7 @@
       <c r="J49" s="7"/>
       <c r="K49" s="21">
         <f>$D49/$H49</f>
-        <v>2.5235531628532975E-4</v>
+        <v>2.2621022470215653E-4</v>
       </c>
       <c r="L49" s="7"/>
       <c r="M49" s="7"/>
@@ -6806,7 +6905,7 @@
       <c r="AG49" s="7"/>
       <c r="AH49" s="21">
         <f>$D49/$H49</f>
-        <v>2.5235531628532975E-4</v>
+        <v>2.2621022470215653E-4</v>
       </c>
       <c r="AI49" s="7"/>
       <c r="AJ49" s="7"/>
@@ -6826,7 +6925,7 @@
       </c>
       <c r="D50" s="4">
         <f t="shared" si="18"/>
-        <v>1.2617765814266486E-3</v>
+        <v>1.1310511235107827E-3</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>132</v>
@@ -6834,7 +6933,9 @@
       <c r="F50" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G50" s="7"/>
+      <c r="G50" s="7">
+        <v>0</v>
+      </c>
       <c r="H50" s="6">
         <v>2</v>
       </c>
@@ -6842,7 +6943,7 @@
       <c r="J50" s="7"/>
       <c r="K50" s="21">
         <f>$D50/$H50</f>
-        <v>6.3088829071332431E-4</v>
+        <v>5.6552556175539133E-4</v>
       </c>
       <c r="L50" s="7"/>
       <c r="M50" s="7"/>
@@ -6868,7 +6969,7 @@
       <c r="AG50" s="7"/>
       <c r="AH50" s="21">
         <f>$D50/$H50</f>
-        <v>6.3088829071332431E-4</v>
+        <v>5.6552556175539133E-4</v>
       </c>
       <c r="AI50" s="7"/>
       <c r="AJ50" s="7"/>
@@ -6884,11 +6985,11 @@
         <v>69</v>
       </c>
       <c r="C51" s="3">
-        <v>360</v>
+        <v>5000</v>
       </c>
       <c r="D51" s="4">
         <f t="shared" si="18"/>
-        <v>7.5706594885598926E-3</v>
+        <v>9.4254260292565228E-2</v>
       </c>
       <c r="E51" s="3">
         <v>3</v>
@@ -6896,7 +6997,9 @@
       <c r="F51" s="3">
         <v>21</v>
       </c>
-      <c r="G51" s="7"/>
+      <c r="G51" s="7">
+        <v>0</v>
+      </c>
       <c r="H51" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -6905,79 +7008,79 @@
       <c r="J51" s="7"/>
       <c r="K51" s="21">
         <f>$D51/$H51</f>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="L51" s="21">
         <f>$D51/$H51</f>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="M51" s="21">
         <f t="shared" ref="M51:AC52" si="28">$D51/$H51</f>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="N51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="O51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="P51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="Q51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="R51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="S51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="T51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="U51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="V51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="W51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="X51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="Y51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="Z51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="AA51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="AB51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="AC51" s="21">
         <f t="shared" si="28"/>
-        <v>3.984557625557838E-4</v>
+        <v>4.9607505417139592E-3</v>
       </c>
       <c r="AD51" s="18"/>
       <c r="AE51" s="18"/>
@@ -7002,7 +7105,7 @@
       </c>
       <c r="D52" s="4">
         <f t="shared" si="18"/>
-        <v>8.4118438761776586E-3</v>
+        <v>7.5403408234052177E-3</v>
       </c>
       <c r="E52" s="3">
         <v>13</v>
@@ -7010,7 +7113,9 @@
       <c r="F52" s="3">
         <v>17</v>
       </c>
-      <c r="G52" s="7"/>
+      <c r="G52" s="7">
+        <v>0</v>
+      </c>
       <c r="H52" s="6">
         <f t="shared" si="1"/>
         <v>5</v>
@@ -7029,23 +7134,23 @@
       <c r="T52" s="7"/>
       <c r="U52" s="21">
         <f>$D52/$H52</f>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="V52" s="21">
         <f>$D52/$H52</f>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="W52" s="21">
         <f t="shared" si="28"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="X52" s="21">
         <f t="shared" si="28"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="Y52" s="21">
         <f t="shared" si="28"/>
-        <v>1.6823687752355316E-3</v>
+        <v>1.5080681646810435E-3</v>
       </c>
       <c r="Z52" s="18"/>
       <c r="AA52" s="7"/>
@@ -7074,7 +7179,7 @@
       </c>
       <c r="D53" s="4">
         <f t="shared" si="18"/>
-        <v>8.4118438761776586E-3</v>
+        <v>7.5403408234052177E-3</v>
       </c>
       <c r="E53" s="3">
         <v>18</v>
@@ -7082,7 +7187,9 @@
       <c r="F53" s="3">
         <v>21</v>
       </c>
-      <c r="G53" s="7"/>
+      <c r="G53" s="7">
+        <v>0</v>
+      </c>
       <c r="H53" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7106,19 +7213,19 @@
       <c r="Y53" s="7"/>
       <c r="Z53" s="21">
         <f>$D53/$H53</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AA53" s="21">
         <f t="shared" ref="AA53:AB53" si="29">$D53/$H53</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AB53" s="21">
         <f t="shared" si="29"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AC53" s="21">
         <f>$D53/$H53</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AD53" s="18"/>
       <c r="AE53" s="18"/>
@@ -7143,7 +7250,7 @@
       </c>
       <c r="D54" s="4">
         <f t="shared" si="18"/>
-        <v>1.0514804845222072E-2</v>
+        <v>9.4254260292565232E-3</v>
       </c>
       <c r="E54" s="3">
         <v>22</v>
@@ -7151,7 +7258,9 @@
       <c r="F54" s="3">
         <v>25</v>
       </c>
-      <c r="G54" s="7"/>
+      <c r="G54" s="7">
+        <v>0</v>
+      </c>
       <c r="H54" s="6">
         <f t="shared" si="1"/>
         <v>4</v>
@@ -7179,19 +7288,19 @@
       <c r="AC54" s="7"/>
       <c r="AD54" s="21">
         <f>$D54/$H54</f>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="AE54" s="21">
         <f t="shared" ref="AE54:AF54" si="30">$D54/$H54</f>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="AF54" s="21">
         <f t="shared" si="30"/>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="AG54" s="21">
         <f>$D54/$H54</f>
-        <v>2.628701211305518E-3</v>
+        <v>2.3563565073141308E-3</v>
       </c>
       <c r="AH54" s="18"/>
       <c r="AI54" s="18"/>
@@ -7212,7 +7321,7 @@
       </c>
       <c r="D55" s="4">
         <f t="shared" si="18"/>
-        <v>2.2291386271870793E-2</v>
+        <v>1.9981903182023829E-2</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>132</v>
@@ -7220,7 +7329,9 @@
       <c r="F55" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G55" s="7"/>
+      <c r="G55" s="7">
+        <v>0</v>
+      </c>
       <c r="H55" s="6">
         <v>12</v>
       </c>
@@ -7229,52 +7340,52 @@
       <c r="K55" s="7"/>
       <c r="L55" s="21">
         <f>$D55/$H55</f>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="M55" s="21">
         <f t="shared" ref="M55:X57" si="31">$D55/$H55</f>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="N55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="O55" s="18"/>
       <c r="P55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="Q55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="R55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="S55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="T55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="U55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="V55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="W55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="X55" s="21">
         <f t="shared" si="31"/>
-        <v>1.8576155226558994E-3</v>
+        <v>1.6651585985019857E-3</v>
       </c>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
@@ -7304,7 +7415,7 @@
       </c>
       <c r="D56" s="4">
         <f t="shared" si="18"/>
-        <v>1.6823687752355317E-2</v>
+        <v>1.5080681646810435E-2</v>
       </c>
       <c r="E56" s="3">
         <v>4</v>
@@ -7312,7 +7423,9 @@
       <c r="F56" s="3">
         <v>9</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7">
+        <v>0</v>
+      </c>
       <c r="H56" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7322,27 +7435,27 @@
       <c r="K56" s="7"/>
       <c r="L56" s="21">
         <f>$D56/$H56</f>
-        <v>2.8039479587258862E-3</v>
+        <v>2.5134469411350726E-3</v>
       </c>
       <c r="M56" s="21">
         <f t="shared" si="31"/>
-        <v>2.8039479587258862E-3</v>
+        <v>2.5134469411350726E-3</v>
       </c>
       <c r="N56" s="21">
         <f t="shared" si="31"/>
-        <v>2.8039479587258862E-3</v>
+        <v>2.5134469411350726E-3</v>
       </c>
       <c r="O56" s="21">
         <f t="shared" si="31"/>
-        <v>2.8039479587258862E-3</v>
+        <v>2.5134469411350726E-3</v>
       </c>
       <c r="P56" s="21">
         <f t="shared" si="31"/>
-        <v>2.8039479587258862E-3</v>
+        <v>2.5134469411350726E-3</v>
       </c>
       <c r="Q56" s="21">
         <f t="shared" si="31"/>
-        <v>2.8039479587258862E-3</v>
+        <v>2.5134469411350726E-3</v>
       </c>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
@@ -7379,7 +7492,7 @@
       </c>
       <c r="D57" s="4">
         <f t="shared" si="18"/>
-        <v>2.2711978465679676E-2</v>
+        <v>2.0358920223194087E-2</v>
       </c>
       <c r="E57" s="3">
         <v>4</v>
@@ -7387,7 +7500,9 @@
       <c r="F57" s="3">
         <v>9</v>
       </c>
-      <c r="G57" s="7"/>
+      <c r="G57" s="7">
+        <v>0</v>
+      </c>
       <c r="H57" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7397,27 +7512,27 @@
       <c r="K57" s="7"/>
       <c r="L57" s="21">
         <f>$D57/$H57</f>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="M57" s="21">
         <f t="shared" si="31"/>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="N57" s="21">
         <f t="shared" si="31"/>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="O57" s="21">
         <f t="shared" si="31"/>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="P57" s="21">
         <f t="shared" si="31"/>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="Q57" s="21">
         <f t="shared" si="31"/>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
@@ -7454,7 +7569,7 @@
       </c>
       <c r="D58" s="4">
         <f t="shared" si="18"/>
-        <v>2.2711978465679676E-2</v>
+        <v>2.0358920223194087E-2</v>
       </c>
       <c r="E58" s="3">
         <v>21</v>
@@ -7462,7 +7577,9 @@
       <c r="F58" s="3">
         <v>26</v>
       </c>
-      <c r="G58" s="7"/>
+      <c r="G58" s="7">
+        <v>0</v>
+      </c>
       <c r="H58" s="6">
         <f t="shared" si="1"/>
         <v>6</v>
@@ -7489,27 +7606,27 @@
       <c r="AB58" s="7"/>
       <c r="AC58" s="21">
         <f>$D58/$H58</f>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="AD58" s="21">
         <f t="shared" ref="AD58:AH58" si="32">$D58/$H58</f>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="AE58" s="21">
         <f t="shared" si="32"/>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="AF58" s="21">
         <f t="shared" si="32"/>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="AG58" s="21">
         <f t="shared" si="32"/>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="AH58" s="21">
         <f t="shared" si="32"/>
-        <v>3.7853297442799459E-3</v>
+        <v>3.3931533705323477E-3</v>
       </c>
       <c r="AI58" s="7"/>
       <c r="AJ58" s="7"/>
@@ -7529,7 +7646,7 @@
       </c>
       <c r="D59" s="4">
         <f t="shared" si="18"/>
-        <v>9.0847913862718704E-3</v>
+        <v>8.143568089277636E-3</v>
       </c>
       <c r="E59" s="3">
         <v>25</v>
@@ -7537,7 +7654,9 @@
       <c r="F59" s="3">
         <v>26</v>
       </c>
-      <c r="G59" s="7"/>
+      <c r="G59" s="7">
+        <v>0</v>
+      </c>
       <c r="H59" s="6">
         <f t="shared" si="1"/>
         <v>2</v>
@@ -7568,11 +7687,11 @@
       <c r="AF59" s="7"/>
       <c r="AG59" s="21">
         <f>$D59/$H59</f>
-        <v>4.5423956931359352E-3</v>
+        <v>4.071784044638818E-3</v>
       </c>
       <c r="AH59" s="21">
         <f>$D59/$H59</f>
-        <v>4.5423956931359352E-3</v>
+        <v>4.071784044638818E-3</v>
       </c>
       <c r="AI59" s="7"/>
       <c r="AJ59" s="7"/>
@@ -7592,7 +7711,7 @@
       </c>
       <c r="D60" s="4">
         <f t="shared" si="18"/>
-        <v>1.6823687752355317E-2</v>
+        <v>1.5080681646810435E-2</v>
       </c>
       <c r="E60" s="3">
         <v>11</v>
@@ -7600,7 +7719,9 @@
       <c r="F60" s="3">
         <v>18</v>
       </c>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7">
+        <v>0</v>
+      </c>
       <c r="H60" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -7617,35 +7738,35 @@
       <c r="R60" s="18"/>
       <c r="S60" s="21">
         <f t="shared" ref="S60:Z61" si="33">$D60/$H60</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="T60" s="21">
         <f t="shared" si="33"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="U60" s="21">
         <f t="shared" si="33"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="V60" s="21">
         <f t="shared" si="33"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="W60" s="21">
         <f t="shared" si="33"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="X60" s="21">
         <f t="shared" si="33"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="Y60" s="21">
         <f t="shared" si="33"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="Z60" s="21">
         <f t="shared" si="33"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="AA60" s="7"/>
       <c r="AB60" s="7"/>
@@ -7673,7 +7794,7 @@
       </c>
       <c r="D61" s="4">
         <f t="shared" si="18"/>
-        <v>1.2617765814266486E-3</v>
+        <v>1.1310511235107827E-3</v>
       </c>
       <c r="E61" s="3">
         <v>12</v>
@@ -7681,7 +7802,9 @@
       <c r="F61" s="3">
         <v>14</v>
       </c>
-      <c r="G61" s="7"/>
+      <c r="G61" s="7">
+        <v>0</v>
+      </c>
       <c r="H61" s="6">
         <f t="shared" si="1"/>
         <v>3</v>
@@ -7699,15 +7822,15 @@
       <c r="S61" s="7"/>
       <c r="T61" s="21">
         <f>$D61/$H61</f>
-        <v>4.2059219380888286E-4</v>
+        <v>3.7701704117026088E-4</v>
       </c>
       <c r="U61" s="21">
         <f t="shared" si="33"/>
-        <v>4.2059219380888286E-4</v>
+        <v>3.7701704117026088E-4</v>
       </c>
       <c r="V61" s="21">
         <f t="shared" si="33"/>
-        <v>4.2059219380888286E-4</v>
+        <v>3.7701704117026088E-4</v>
       </c>
       <c r="W61" s="7"/>
       <c r="X61" s="7"/>
@@ -7739,7 +7862,7 @@
       </c>
       <c r="D62" s="4">
         <f t="shared" si="18"/>
-        <v>7.5706594885598924E-4</v>
+        <v>6.7863067410646959E-4</v>
       </c>
       <c r="E62" s="3">
         <v>15</v>
@@ -7747,7 +7870,9 @@
       <c r="F62" s="3">
         <v>15</v>
       </c>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7">
+        <v>0</v>
+      </c>
       <c r="H62" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -7768,7 +7893,7 @@
       <c r="V62" s="7"/>
       <c r="W62" s="21">
         <f>$D62/$H62</f>
-        <v>7.5706594885598924E-4</v>
+        <v>6.7863067410646959E-4</v>
       </c>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
@@ -7799,7 +7924,7 @@
       </c>
       <c r="D63" s="4">
         <f t="shared" si="18"/>
-        <v>6.7294751009421266E-4</v>
+        <v>6.0322726587241741E-4</v>
       </c>
       <c r="E63" s="3">
         <v>18</v>
@@ -7807,7 +7932,9 @@
       <c r="F63" s="3">
         <v>18</v>
       </c>
-      <c r="G63" s="7"/>
+      <c r="G63" s="7">
+        <v>0</v>
+      </c>
       <c r="H63" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -7831,7 +7958,7 @@
       <c r="Y63" s="7"/>
       <c r="Z63" s="21">
         <f>$D63/$H63</f>
-        <v>6.7294751009421266E-4</v>
+        <v>6.0322726587241741E-4</v>
       </c>
       <c r="AA63" s="7"/>
       <c r="AB63" s="7"/>
@@ -7859,7 +7986,7 @@
       </c>
       <c r="D64" s="4">
         <f t="shared" si="18"/>
-        <v>3.3647375504710633E-4</v>
+        <v>3.0161363293620871E-4</v>
       </c>
       <c r="E64" s="3">
         <v>19</v>
@@ -7867,7 +7994,9 @@
       <c r="F64" s="3">
         <v>19</v>
       </c>
-      <c r="G64" s="7"/>
+      <c r="G64" s="7">
+        <v>0</v>
+      </c>
       <c r="H64" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -7892,7 +8021,7 @@
       <c r="Z64" s="7"/>
       <c r="AA64" s="21">
         <f>$D64/$H64</f>
-        <v>3.3647375504710633E-4</v>
+        <v>3.0161363293620871E-4</v>
       </c>
       <c r="AB64" s="7"/>
       <c r="AC64" s="7"/>
@@ -7919,7 +8048,7 @@
       </c>
       <c r="D65" s="4">
         <f t="shared" si="18"/>
-        <v>3.7853297442799462E-4</v>
+        <v>3.393153370532348E-4</v>
       </c>
       <c r="E65" s="3">
         <v>20</v>
@@ -7927,7 +8056,9 @@
       <c r="F65" s="3">
         <v>20</v>
       </c>
-      <c r="G65" s="7"/>
+      <c r="G65" s="7">
+        <v>0</v>
+      </c>
       <c r="H65" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
@@ -7953,7 +8084,7 @@
       <c r="AA65" s="7"/>
       <c r="AB65" s="21">
         <f>$D65/$H65</f>
-        <v>3.7853297442799462E-4</v>
+        <v>3.393153370532348E-4</v>
       </c>
       <c r="AC65" s="7"/>
       <c r="AD65" s="7"/>
@@ -7975,11 +8106,11 @@
         <v>84</v>
       </c>
       <c r="C66" s="3">
-        <v>216</v>
+        <v>616</v>
       </c>
       <c r="D66" s="4">
         <f t="shared" ref="D66:D92" si="34">C66/$C$93</f>
-        <v>4.5423956931359352E-3</v>
+        <v>1.1612124868044036E-2</v>
       </c>
       <c r="E66" s="3">
         <v>4</v>
@@ -7987,7 +8118,9 @@
       <c r="F66" s="3">
         <v>16</v>
       </c>
-      <c r="G66" s="7"/>
+      <c r="G66" s="7">
+        <v>0</v>
+      </c>
       <c r="H66" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -7997,55 +8130,55 @@
       <c r="K66" s="7"/>
       <c r="L66" s="21">
         <f>$D66/$H66</f>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="M66" s="21">
         <f t="shared" ref="M66:X66" si="35">$D66/$H66</f>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="N66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="O66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="P66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="Q66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="R66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="S66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="T66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="U66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="V66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="W66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="X66" s="21">
         <f t="shared" si="35"/>
-        <v>3.4941505331814889E-4</v>
+        <v>8.9324037446492587E-4</v>
       </c>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
@@ -8075,7 +8208,7 @@
       </c>
       <c r="D67" s="4">
         <f t="shared" si="34"/>
-        <v>1.8926648721399732E-2</v>
+        <v>1.696576685266174E-2</v>
       </c>
       <c r="E67" s="3">
         <v>18</v>
@@ -8083,7 +8216,9 @@
       <c r="F67" s="3">
         <v>25</v>
       </c>
-      <c r="G67" s="7"/>
+      <c r="G67" s="7">
+        <v>0</v>
+      </c>
       <c r="H67" s="6">
         <f t="shared" ref="H67:H92" si="36">F67-E67+1</f>
         <v>8</v>
@@ -8107,35 +8242,35 @@
       <c r="Y67" s="7"/>
       <c r="Z67" s="21">
         <f>$D67/$H67</f>
-        <v>2.3658310901749665E-3</v>
+        <v>2.1207208565827175E-3</v>
       </c>
       <c r="AA67" s="21">
         <f t="shared" ref="AA67:AG68" si="37">$D67/$H67</f>
-        <v>2.3658310901749665E-3</v>
+        <v>2.1207208565827175E-3</v>
       </c>
       <c r="AB67" s="21">
         <f t="shared" si="37"/>
-        <v>2.3658310901749665E-3</v>
+        <v>2.1207208565827175E-3</v>
       </c>
       <c r="AC67" s="21">
         <f t="shared" si="37"/>
-        <v>2.3658310901749665E-3</v>
+        <v>2.1207208565827175E-3</v>
       </c>
       <c r="AD67" s="21">
         <f t="shared" si="37"/>
-        <v>2.3658310901749665E-3</v>
+        <v>2.1207208565827175E-3</v>
       </c>
       <c r="AE67" s="21">
         <f t="shared" si="37"/>
-        <v>2.3658310901749665E-3</v>
+        <v>2.1207208565827175E-3</v>
       </c>
       <c r="AF67" s="21">
         <f t="shared" si="37"/>
-        <v>2.3658310901749665E-3</v>
+        <v>2.1207208565827175E-3</v>
       </c>
       <c r="AG67" s="21">
         <f t="shared" si="37"/>
-        <v>2.3658310901749665E-3</v>
+        <v>2.1207208565827175E-3</v>
       </c>
       <c r="AH67" s="7"/>
       <c r="AI67" s="7"/>
@@ -8156,7 +8291,7 @@
       </c>
       <c r="D68" s="4">
         <f t="shared" si="34"/>
-        <v>1.2617765814266487E-2</v>
+        <v>1.1310511235107826E-2</v>
       </c>
       <c r="E68" s="3">
         <v>18</v>
@@ -8164,7 +8299,9 @@
       <c r="F68" s="3">
         <v>21</v>
       </c>
-      <c r="G68" s="7"/>
+      <c r="G68" s="7">
+        <v>0</v>
+      </c>
       <c r="H68" s="6">
         <f t="shared" si="36"/>
         <v>4</v>
@@ -8188,19 +8325,19 @@
       <c r="Y68" s="7"/>
       <c r="Z68" s="21">
         <f>$D68/$H68</f>
-        <v>3.1544414535666218E-3</v>
+        <v>2.8276278087769565E-3</v>
       </c>
       <c r="AA68" s="21">
         <f t="shared" si="37"/>
-        <v>3.1544414535666218E-3</v>
+        <v>2.8276278087769565E-3</v>
       </c>
       <c r="AB68" s="21">
         <f t="shared" si="37"/>
-        <v>3.1544414535666218E-3</v>
+        <v>2.8276278087769565E-3</v>
       </c>
       <c r="AC68" s="21">
         <f t="shared" si="37"/>
-        <v>3.1544414535666218E-3</v>
+        <v>2.8276278087769565E-3</v>
       </c>
       <c r="AD68" s="7"/>
       <c r="AE68" s="7"/>
@@ -8225,7 +8362,7 @@
       </c>
       <c r="D69" s="4">
         <f t="shared" si="34"/>
-        <v>2.5235531628532975E-4</v>
+        <v>2.2621022470215653E-4</v>
       </c>
       <c r="E69" s="3">
         <v>29</v>
@@ -8233,7 +8370,9 @@
       <c r="F69" s="3">
         <v>29</v>
       </c>
-      <c r="G69" s="7"/>
+      <c r="G69" s="7">
+        <v>0</v>
+      </c>
       <c r="H69" s="6">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8268,7 +8407,7 @@
       <c r="AJ69" s="7"/>
       <c r="AK69" s="21">
         <f>$D69/$H69</f>
-        <v>2.5235531628532975E-4</v>
+        <v>2.2621022470215653E-4</v>
       </c>
       <c r="AL69" s="7"/>
       <c r="AM69" s="7"/>
@@ -8281,11 +8420,11 @@
         <v>88</v>
       </c>
       <c r="C70" s="3">
-        <v>1620</v>
+        <v>2020</v>
       </c>
       <c r="D70" s="4">
         <f t="shared" si="34"/>
-        <v>3.4067967698519518E-2</v>
+        <v>3.8078721158196348E-2</v>
       </c>
       <c r="E70" s="3">
         <v>7</v>
@@ -8293,7 +8432,9 @@
       <c r="F70" s="3">
         <v>19</v>
       </c>
-      <c r="G70" s="7"/>
+      <c r="G70" s="7">
+        <v>0</v>
+      </c>
       <c r="H70" s="6">
         <f t="shared" si="36"/>
         <v>13</v>
@@ -8306,55 +8447,55 @@
       <c r="N70" s="7"/>
       <c r="O70" s="21">
         <f>$D70/$H70</f>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="P70" s="21">
         <f t="shared" ref="P70:AA70" si="38">$D70/$H70</f>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="Q70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="R70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="S70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="T70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="U70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="V70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="W70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="X70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="Y70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="Z70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="AA70" s="21">
         <f t="shared" si="38"/>
-        <v>2.6206128998861166E-3</v>
+        <v>2.9291323967843346E-3</v>
       </c>
       <c r="AB70" s="7"/>
       <c r="AC70" s="7"/>
@@ -8381,7 +8522,7 @@
       </c>
       <c r="D71" s="4">
         <f t="shared" si="34"/>
-        <v>1.2617765814266487E-2</v>
+        <v>1.1310511235107826E-2</v>
       </c>
       <c r="E71" s="3">
         <v>21</v>
@@ -8389,7 +8530,9 @@
       <c r="F71" s="3">
         <v>28</v>
       </c>
-      <c r="G71" s="7"/>
+      <c r="G71" s="7">
+        <v>0</v>
+      </c>
       <c r="H71" s="6">
         <f t="shared" si="36"/>
         <v>8</v>
@@ -8416,35 +8559,35 @@
       <c r="AB71" s="7"/>
       <c r="AC71" s="21">
         <f>$D71/$H71</f>
-        <v>1.5772207267833109E-3</v>
+        <v>1.4138139043884783E-3</v>
       </c>
       <c r="AD71" s="21">
         <f t="shared" ref="AD71:AJ72" si="39">$D71/$H71</f>
-        <v>1.5772207267833109E-3</v>
+        <v>1.4138139043884783E-3</v>
       </c>
       <c r="AE71" s="21">
         <f t="shared" si="39"/>
-        <v>1.5772207267833109E-3</v>
+        <v>1.4138139043884783E-3</v>
       </c>
       <c r="AF71" s="21">
         <f t="shared" si="39"/>
-        <v>1.5772207267833109E-3</v>
+        <v>1.4138139043884783E-3</v>
       </c>
       <c r="AG71" s="21">
         <f t="shared" si="39"/>
-        <v>1.5772207267833109E-3</v>
+        <v>1.4138139043884783E-3</v>
       </c>
       <c r="AH71" s="21">
         <f t="shared" si="39"/>
-        <v>1.5772207267833109E-3</v>
+        <v>1.4138139043884783E-3</v>
       </c>
       <c r="AI71" s="21">
         <f t="shared" si="39"/>
-        <v>1.5772207267833109E-3</v>
+        <v>1.4138139043884783E-3</v>
       </c>
       <c r="AJ71" s="21">
         <f t="shared" si="39"/>
-        <v>1.5772207267833109E-3</v>
+        <v>1.4138139043884783E-3</v>
       </c>
       <c r="AK71" s="7"/>
       <c r="AL71" s="7"/>
@@ -8462,7 +8605,7 @@
       </c>
       <c r="D72" s="4">
         <f t="shared" si="34"/>
-        <v>1.2617765814266487E-2</v>
+        <v>1.1310511235107826E-2</v>
       </c>
       <c r="E72" s="3">
         <v>21</v>
@@ -8470,7 +8613,9 @@
       <c r="F72" s="3">
         <v>24</v>
       </c>
-      <c r="G72" s="7"/>
+      <c r="G72" s="7">
+        <v>0</v>
+      </c>
       <c r="H72" s="6">
         <f t="shared" si="36"/>
         <v>4</v>
@@ -8497,19 +8642,19 @@
       <c r="AB72" s="7"/>
       <c r="AC72" s="21">
         <f>$D72/$H72</f>
-        <v>3.1544414535666218E-3</v>
+        <v>2.8276278087769565E-3</v>
       </c>
       <c r="AD72" s="21">
         <f t="shared" si="39"/>
-        <v>3.1544414535666218E-3</v>
+        <v>2.8276278087769565E-3</v>
       </c>
       <c r="AE72" s="21">
         <f t="shared" si="39"/>
-        <v>3.1544414535666218E-3</v>
+        <v>2.8276278087769565E-3</v>
       </c>
       <c r="AF72" s="21">
         <f t="shared" si="39"/>
-        <v>3.1544414535666218E-3</v>
+        <v>2.8276278087769565E-3</v>
       </c>
       <c r="AG72" s="7"/>
       <c r="AH72" s="7"/>
@@ -8531,7 +8676,7 @@
       </c>
       <c r="D73" s="4">
         <f t="shared" si="34"/>
-        <v>3.7853297442799462E-4</v>
+        <v>3.393153370532348E-4</v>
       </c>
       <c r="E73" s="3">
         <v>29</v>
@@ -8539,7 +8684,9 @@
       <c r="F73" s="3">
         <v>29</v>
       </c>
-      <c r="G73" s="7"/>
+      <c r="G73" s="7">
+        <v>0</v>
+      </c>
       <c r="H73" s="6">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8574,7 +8721,7 @@
       <c r="AJ73" s="7"/>
       <c r="AK73" s="21">
         <f>$D73/$H73</f>
-        <v>3.7853297442799462E-4</v>
+        <v>3.393153370532348E-4</v>
       </c>
       <c r="AL73" s="7"/>
       <c r="AM73" s="7"/>
@@ -8591,7 +8738,7 @@
       </c>
       <c r="D74" s="4">
         <f t="shared" si="34"/>
-        <v>1.0514804845222073E-3</v>
+        <v>9.4254260292565221E-4</v>
       </c>
       <c r="E74" s="3">
         <v>12</v>
@@ -8599,7 +8746,9 @@
       <c r="F74" s="3">
         <v>12</v>
       </c>
-      <c r="G74" s="7"/>
+      <c r="G74" s="7">
+        <v>0</v>
+      </c>
       <c r="H74" s="6">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8617,7 +8766,7 @@
       <c r="S74" s="7"/>
       <c r="T74" s="21">
         <f>$D74/$H74</f>
-        <v>1.0514804845222073E-3</v>
+        <v>9.4254260292565221E-4</v>
       </c>
       <c r="U74" s="7"/>
       <c r="V74" s="7"/>
@@ -8651,7 +8800,7 @@
       </c>
       <c r="D75" s="4">
         <f t="shared" si="34"/>
-        <v>8.4118438761776582E-5</v>
+        <v>7.5403408234052177E-5</v>
       </c>
       <c r="E75" s="3">
         <v>13</v>
@@ -8659,7 +8808,9 @@
       <c r="F75" s="3">
         <v>13</v>
       </c>
-      <c r="G75" s="7"/>
+      <c r="G75" s="7">
+        <v>0</v>
+      </c>
       <c r="H75" s="6">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8678,7 +8829,7 @@
       <c r="T75" s="7"/>
       <c r="U75" s="21">
         <f>$D75/$H75</f>
-        <v>8.4118438761776582E-5</v>
+        <v>7.5403408234052177E-5</v>
       </c>
       <c r="V75" s="7"/>
       <c r="W75" s="7"/>
@@ -8711,7 +8862,7 @@
       </c>
       <c r="D76" s="4">
         <f t="shared" si="34"/>
-        <v>8.4118438761776582E-5</v>
+        <v>7.5403408234052177E-5</v>
       </c>
       <c r="E76" s="3">
         <v>13</v>
@@ -8719,7 +8870,9 @@
       <c r="F76" s="3">
         <v>13</v>
       </c>
-      <c r="G76" s="7"/>
+      <c r="G76" s="7">
+        <v>0</v>
+      </c>
       <c r="H76" s="6">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8738,7 +8891,7 @@
       <c r="T76" s="7"/>
       <c r="U76" s="21">
         <f>$D76/$H76</f>
-        <v>8.4118438761776582E-5</v>
+        <v>7.5403408234052177E-5</v>
       </c>
       <c r="V76" s="7"/>
       <c r="W76" s="7"/>
@@ -8771,7 +8924,7 @@
       </c>
       <c r="D77" s="4">
         <f t="shared" si="34"/>
-        <v>9.4633243606998658E-4</v>
+        <v>8.4828834263308704E-4</v>
       </c>
       <c r="E77" s="3">
         <v>13</v>
@@ -8779,7 +8932,9 @@
       <c r="F77" s="3">
         <v>13</v>
       </c>
-      <c r="G77" s="7"/>
+      <c r="G77" s="7">
+        <v>0</v>
+      </c>
       <c r="H77" s="6">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8798,7 +8953,7 @@
       <c r="T77" s="7"/>
       <c r="U77" s="21">
         <f>$D77/$H77</f>
-        <v>9.4633243606998658E-4</v>
+        <v>8.4828834263308704E-4</v>
       </c>
       <c r="V77" s="7"/>
       <c r="W77" s="7"/>
@@ -8831,7 +8986,7 @@
       </c>
       <c r="D78" s="4">
         <f t="shared" si="34"/>
-        <v>6.3088829071332436E-3</v>
+        <v>5.655255617553913E-3</v>
       </c>
       <c r="E78" s="3">
         <v>6</v>
@@ -8839,7 +8994,9 @@
       <c r="F78" s="3">
         <v>8</v>
       </c>
-      <c r="G78" s="7"/>
+      <c r="G78" s="7">
+        <v>0</v>
+      </c>
       <c r="H78" s="6">
         <f t="shared" si="36"/>
         <v>3</v>
@@ -8851,15 +9008,15 @@
       <c r="M78" s="7"/>
       <c r="N78" s="21">
         <f>$D78/$H78</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="O78" s="21">
         <f t="shared" ref="O78:P78" si="40">$D78/$H78</f>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="P78" s="21">
         <f t="shared" si="40"/>
-        <v>2.1029609690444147E-3</v>
+        <v>1.8850852058513044E-3</v>
       </c>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
@@ -8897,7 +9054,7 @@
       </c>
       <c r="D79" s="4">
         <f t="shared" si="34"/>
-        <v>1.0514804845222073E-3</v>
+        <v>9.4254260292565221E-4</v>
       </c>
       <c r="E79" s="3">
         <v>10</v>
@@ -8905,7 +9062,9 @@
       <c r="F79" s="3">
         <v>10</v>
       </c>
-      <c r="G79" s="7"/>
+      <c r="G79" s="7">
+        <v>0</v>
+      </c>
       <c r="H79" s="6">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8921,7 +9080,7 @@
       <c r="Q79" s="7"/>
       <c r="R79" s="21">
         <f>$D79/$H79</f>
-        <v>1.0514804845222073E-3</v>
+        <v>9.4254260292565221E-4</v>
       </c>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
@@ -8957,7 +9116,7 @@
       </c>
       <c r="D80" s="4">
         <f t="shared" si="34"/>
-        <v>9.4633243606998658E-4</v>
+        <v>8.4828834263308704E-4</v>
       </c>
       <c r="E80" s="3">
         <v>11</v>
@@ -8965,7 +9124,9 @@
       <c r="F80" s="3">
         <v>11</v>
       </c>
-      <c r="G80" s="7"/>
+      <c r="G80" s="7">
+        <v>0</v>
+      </c>
       <c r="H80" s="6">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -8982,7 +9143,7 @@
       <c r="R80" s="7"/>
       <c r="S80" s="21">
         <f>$D80/$H80</f>
-        <v>9.4633243606998658E-4</v>
+        <v>8.4828834263308704E-4</v>
       </c>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
@@ -9017,7 +9178,7 @@
       </c>
       <c r="D81" s="4">
         <f t="shared" si="34"/>
-        <v>1.5141318977119785E-2</v>
+        <v>1.3572613482129393E-2</v>
       </c>
       <c r="E81" s="3">
         <v>10</v>
@@ -9025,7 +9186,9 @@
       <c r="F81" s="3">
         <v>14</v>
       </c>
-      <c r="G81" s="7"/>
+      <c r="G81" s="7">
+        <v>0</v>
+      </c>
       <c r="H81" s="6">
         <f t="shared" si="36"/>
         <v>5</v>
@@ -9041,23 +9204,23 @@
       <c r="Q81" s="7"/>
       <c r="R81" s="21">
         <f>$D81/$H81</f>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="S81" s="21">
         <f t="shared" ref="S81:V81" si="41">$D81/$H81</f>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="T81" s="21">
         <f t="shared" si="41"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="U81" s="21">
         <f t="shared" si="41"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="V81" s="21">
         <f t="shared" si="41"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="W81" s="7"/>
       <c r="X81" s="7"/>
@@ -9089,7 +9252,7 @@
       </c>
       <c r="D82" s="4">
         <f t="shared" si="34"/>
-        <v>1.5141318977119785E-2</v>
+        <v>1.3572613482129393E-2</v>
       </c>
       <c r="E82" s="3">
         <v>15</v>
@@ -9097,7 +9260,9 @@
       <c r="F82" s="3">
         <v>19</v>
       </c>
-      <c r="G82" s="7"/>
+      <c r="G82" s="7">
+        <v>0</v>
+      </c>
       <c r="H82" s="6">
         <f t="shared" si="36"/>
         <v>5</v>
@@ -9118,23 +9283,23 @@
       <c r="V82" s="7"/>
       <c r="W82" s="21">
         <f>$D82/$H82</f>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="X82" s="21">
         <f t="shared" ref="X82:AA82" si="42">$D82/$H82</f>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="Y82" s="21">
         <f t="shared" si="42"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="Z82" s="21">
         <f t="shared" si="42"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="AA82" s="21">
         <f t="shared" si="42"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="AB82" s="7"/>
       <c r="AC82" s="7"/>
@@ -9161,7 +9326,7 @@
       </c>
       <c r="D83" s="4">
         <f t="shared" si="34"/>
-        <v>1.5141318977119785E-2</v>
+        <v>1.3572613482129393E-2</v>
       </c>
       <c r="E83" s="3">
         <v>20</v>
@@ -9169,7 +9334,9 @@
       <c r="F83" s="3">
         <v>24</v>
       </c>
-      <c r="G83" s="7"/>
+      <c r="G83" s="7">
+        <v>0</v>
+      </c>
       <c r="H83" s="6">
         <f t="shared" si="36"/>
         <v>5</v>
@@ -9195,23 +9362,23 @@
       <c r="AA83" s="7"/>
       <c r="AB83" s="21">
         <f>$D83/$H83</f>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="AC83" s="21">
         <f t="shared" ref="AC83:AF83" si="43">$D83/$H83</f>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="AD83" s="21">
         <f t="shared" si="43"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="AE83" s="21">
         <f t="shared" si="43"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="AF83" s="21">
         <f t="shared" si="43"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="AG83" s="7"/>
       <c r="AH83" s="7"/>
@@ -9233,7 +9400,7 @@
       </c>
       <c r="D84" s="4">
         <f t="shared" si="34"/>
-        <v>7.5706594885598926E-3</v>
+        <v>6.7863067410646963E-3</v>
       </c>
       <c r="E84" s="3">
         <v>9</v>
@@ -9241,7 +9408,9 @@
       <c r="F84" s="3">
         <v>12</v>
       </c>
-      <c r="G84" s="7"/>
+      <c r="G84" s="7">
+        <v>0</v>
+      </c>
       <c r="H84" s="6">
         <f t="shared" si="36"/>
         <v>4</v>
@@ -9256,19 +9425,19 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="21">
         <f>$D84/$H84</f>
-        <v>1.8926648721399732E-3</v>
+        <v>1.6965766852661741E-3</v>
       </c>
       <c r="R84" s="21">
         <f t="shared" ref="R84:T84" si="44">$D84/$H84</f>
-        <v>1.8926648721399732E-3</v>
+        <v>1.6965766852661741E-3</v>
       </c>
       <c r="S84" s="21">
         <f t="shared" si="44"/>
-        <v>1.8926648721399732E-3</v>
+        <v>1.6965766852661741E-3</v>
       </c>
       <c r="T84" s="21">
         <f t="shared" si="44"/>
-        <v>1.8926648721399732E-3</v>
+        <v>1.6965766852661741E-3</v>
       </c>
       <c r="U84" s="7"/>
       <c r="V84" s="7"/>
@@ -9302,7 +9471,7 @@
       </c>
       <c r="D85" s="4">
         <f t="shared" si="34"/>
-        <v>7.5706594885598924E-4</v>
+        <v>6.7863067410646959E-4</v>
       </c>
       <c r="E85" s="3">
         <v>28</v>
@@ -9310,7 +9479,9 @@
       <c r="F85" s="3">
         <v>28</v>
       </c>
-      <c r="G85" s="7"/>
+      <c r="G85" s="7">
+        <v>0</v>
+      </c>
       <c r="H85" s="6">
         <f t="shared" si="36"/>
         <v>1</v>
@@ -9344,7 +9515,7 @@
       <c r="AI85" s="7"/>
       <c r="AJ85" s="21">
         <f>$D85/$H85</f>
-        <v>7.5706594885598924E-4</v>
+        <v>6.7863067410646959E-4</v>
       </c>
       <c r="AK85" s="7"/>
       <c r="AL85" s="7"/>
@@ -9362,7 +9533,7 @@
       </c>
       <c r="D86" s="4">
         <f t="shared" si="34"/>
-        <v>4.0376850605652759E-3</v>
+        <v>3.6193635952345045E-3</v>
       </c>
       <c r="E86" s="3">
         <v>25</v>
@@ -9370,7 +9541,9 @@
       <c r="F86" s="3">
         <v>26</v>
       </c>
-      <c r="G86" s="7"/>
+      <c r="G86" s="7">
+        <v>0</v>
+      </c>
       <c r="H86" s="6">
         <f t="shared" si="36"/>
         <v>2</v>
@@ -9401,11 +9574,11 @@
       <c r="AF86" s="7"/>
       <c r="AG86" s="21">
         <f>$D86/$H86</f>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="AH86" s="21">
         <f>$D86/$H86</f>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="AI86" s="7"/>
       <c r="AJ86" s="18"/>
@@ -9425,7 +9598,7 @@
       </c>
       <c r="D87" s="4">
         <f t="shared" si="34"/>
-        <v>1.0514804845222072E-2</v>
+        <v>9.4254260292565232E-3</v>
       </c>
       <c r="E87" s="3">
         <v>25</v>
@@ -9433,7 +9606,9 @@
       <c r="F87" s="3">
         <v>26</v>
       </c>
-      <c r="G87" s="7"/>
+      <c r="G87" s="7">
+        <v>0</v>
+      </c>
       <c r="H87" s="6">
         <f t="shared" si="36"/>
         <v>2</v>
@@ -9464,11 +9639,11 @@
       <c r="AF87" s="7"/>
       <c r="AG87" s="21">
         <f>$D87/$H87</f>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="AH87" s="21">
         <f>$D87/$H87</f>
-        <v>5.257402422611036E-3</v>
+        <v>4.7127130146282616E-3</v>
       </c>
       <c r="AI87" s="7"/>
       <c r="AJ87" s="18"/>
@@ -9488,7 +9663,7 @@
       </c>
       <c r="D88" s="4">
         <f t="shared" si="34"/>
-        <v>3.028263795423957E-3</v>
+        <v>2.7145226964258784E-3</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>132</v>
@@ -9496,7 +9671,9 @@
       <c r="F88" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G88" s="7"/>
+      <c r="G88" s="7">
+        <v>0</v>
+      </c>
       <c r="H88" s="6">
         <v>2</v>
       </c>
@@ -9527,13 +9704,13 @@
       <c r="AG88" s="7"/>
       <c r="AH88" s="21">
         <f>$D88/$H88</f>
-        <v>1.5141318977119785E-3</v>
+        <v>1.3572613482129392E-3</v>
       </c>
       <c r="AI88" s="7"/>
       <c r="AJ88" s="7"/>
       <c r="AK88" s="21">
         <f>$D88/$H88</f>
-        <v>1.5141318977119785E-3</v>
+        <v>1.3572613482129392E-3</v>
       </c>
       <c r="AL88" s="7"/>
       <c r="AM88" s="7"/>
@@ -9550,7 +9727,7 @@
       </c>
       <c r="D89" s="4">
         <f t="shared" si="34"/>
-        <v>6.9397711978465683E-4</v>
+        <v>6.2207811793093051E-4</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>132</v>
@@ -9558,7 +9735,9 @@
       <c r="F89" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G89" s="7"/>
+      <c r="G89" s="7">
+        <v>0</v>
+      </c>
       <c r="H89" s="6">
         <v>2</v>
       </c>
@@ -9590,12 +9769,12 @@
       <c r="AH89" s="7"/>
       <c r="AI89" s="21">
         <f>$D89/$H89</f>
-        <v>3.4698855989232841E-4</v>
+        <v>3.1103905896546526E-4</v>
       </c>
       <c r="AJ89" s="7"/>
       <c r="AK89" s="21">
         <f>$D89/$H89</f>
-        <v>3.4698855989232841E-4</v>
+        <v>3.1103905896546526E-4</v>
       </c>
       <c r="AL89" s="18"/>
       <c r="AM89" s="18"/>
@@ -9612,7 +9791,7 @@
       </c>
       <c r="D90" s="4">
         <f t="shared" si="34"/>
-        <v>1.0094212651413189E-2</v>
+        <v>9.0484089880862612E-3</v>
       </c>
       <c r="E90" s="3">
         <v>9</v>
@@ -9620,7 +9799,9 @@
       <c r="F90" s="3">
         <v>13</v>
       </c>
-      <c r="G90" s="7"/>
+      <c r="G90" s="7">
+        <v>0</v>
+      </c>
       <c r="H90" s="6">
         <f t="shared" si="36"/>
         <v>5</v>
@@ -9635,23 +9816,23 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="21">
         <f>$D90/$H90</f>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="R90" s="21">
         <f t="shared" ref="R90:S90" si="45">$D90/$H90</f>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="S90" s="21">
         <f t="shared" si="45"/>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="T90" s="21">
         <f>$D90/$H90</f>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="U90" s="21">
         <f t="shared" ref="U90" si="46">$D90/$H90</f>
-        <v>2.018842530282638E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="V90" s="18"/>
       <c r="W90" s="18"/>
@@ -9680,11 +9861,11 @@
         <v>109</v>
       </c>
       <c r="C91" s="3">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="D91" s="4">
         <f t="shared" si="34"/>
-        <v>4.2059219380888293E-3</v>
+        <v>4.6750113105112354E-3</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>132</v>
@@ -9692,7 +9873,9 @@
       <c r="F91" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G91" s="7"/>
+      <c r="G91" s="7">
+        <v>0</v>
+      </c>
       <c r="H91" s="6">
         <v>3</v>
       </c>
@@ -9706,11 +9889,11 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="21">
         <f>$D91/$H91</f>
-        <v>1.4019739793629431E-3</v>
+        <v>1.5583371035037452E-3</v>
       </c>
       <c r="R91" s="21">
         <f>$D91/$H91</f>
-        <v>1.4019739793629431E-3</v>
+        <v>1.5583371035037452E-3</v>
       </c>
       <c r="S91" s="7"/>
       <c r="T91" s="18"/>
@@ -9730,7 +9913,7 @@
       <c r="AH91" s="7"/>
       <c r="AI91" s="21">
         <f>$D91/$H91</f>
-        <v>1.4019739793629431E-3</v>
+        <v>1.5583371035037452E-3</v>
       </c>
       <c r="AJ91" s="7"/>
       <c r="AK91" s="7"/>
@@ -9745,11 +9928,11 @@
         <v>110</v>
       </c>
       <c r="C92" s="3">
-        <v>300</v>
+        <v>96</v>
       </c>
       <c r="D92" s="4">
         <f t="shared" si="34"/>
-        <v>6.3088829071332436E-3</v>
+        <v>1.8096817976172522E-3</v>
       </c>
       <c r="E92" s="3">
         <v>25</v>
@@ -9757,7 +9940,9 @@
       <c r="F92" s="3">
         <v>26</v>
       </c>
-      <c r="G92" s="7"/>
+      <c r="G92" s="7">
+        <v>0</v>
+      </c>
       <c r="H92" s="6">
         <f t="shared" si="36"/>
         <v>2</v>
@@ -9788,11 +9973,11 @@
       <c r="AF92" s="7"/>
       <c r="AG92" s="21">
         <f>$D92/$H92</f>
-        <v>3.1544414535666218E-3</v>
+        <v>9.0484089880862612E-4</v>
       </c>
       <c r="AH92" s="21">
         <f>$D92/$H92</f>
-        <v>3.1544414535666218E-3</v>
+        <v>9.0484089880862612E-4</v>
       </c>
       <c r="AI92" s="7"/>
       <c r="AJ92" s="18"/>
@@ -9803,142 +9988,142 @@
     <row r="93" spans="1:39" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C93" s="23">
         <f>SUM(C2:C92)</f>
-        <v>47552</v>
+        <v>53048</v>
       </c>
       <c r="D93" s="22">
         <f>SUM(D2:D92)</f>
-        <v>0.99999999999999933</v>
+        <v>1</v>
       </c>
       <c r="G93" s="22">
         <f>SUMPRODUCT(G2:G92,D2:D92)</f>
-        <v>0</v>
+        <v>1.0286532951289399E-2</v>
       </c>
       <c r="H93" s="8" t="s">
         <v>27</v>
       </c>
       <c r="I93" s="9">
         <f t="shared" ref="I93:AM93" si="47">SUM(I2:I92)</f>
-        <v>2.8540184579888481E-3</v>
+        <v>2.55832992222677E-3</v>
       </c>
       <c r="J93" s="9">
         <f t="shared" si="47"/>
-        <v>7.73288790617189E-3</v>
+        <v>6.9317275998017971E-3</v>
       </c>
       <c r="K93" s="9">
         <f t="shared" si="47"/>
-        <v>2.9975850734676533E-2</v>
+        <v>3.1473800717296184E-2</v>
       </c>
       <c r="L93" s="9">
         <f t="shared" si="47"/>
-        <v>4.2473370319174572E-2</v>
+        <v>4.4161390863037442E-2</v>
       </c>
       <c r="M93" s="9">
         <f t="shared" si="47"/>
-        <v>4.099849369288476E-2</v>
+        <v>4.0196428313396863E-2</v>
       </c>
       <c r="N93" s="9">
         <f t="shared" si="47"/>
-        <v>4.8400916303921099E-2</v>
+        <v>4.7736769136802082E-2</v>
       </c>
       <c r="O93" s="9">
         <f t="shared" si="47"/>
-        <v>5.1750555673075946E-2</v>
+        <v>5.0414556839472907E-2</v>
       </c>
       <c r="P93" s="9">
         <f t="shared" si="47"/>
-        <v>3.9773491967378331E-2</v>
+        <v>4.1623776162852989E-2</v>
       </c>
       <c r="Q93" s="9">
         <f t="shared" si="47"/>
-        <v>4.6996662191053265E-2</v>
+        <v>4.8400208648077515E-2</v>
       </c>
       <c r="R93" s="9">
         <f t="shared" si="47"/>
-        <v>3.8598838054669245E-2</v>
+        <v>4.087243505937796E-2</v>
       </c>
       <c r="S93" s="9">
         <f t="shared" si="47"/>
-        <v>3.3227525246234964E-2</v>
+        <v>3.5755999629829879E-2</v>
       </c>
       <c r="T93" s="9">
         <f t="shared" si="47"/>
-        <v>3.2070896713260535E-2</v>
+        <v>3.4719202766611661E-2</v>
       </c>
       <c r="U93" s="9">
         <f t="shared" si="47"/>
-        <v>3.1923689445427429E-2</v>
+        <v>3.4587246802202078E-2</v>
       </c>
       <c r="V93" s="9">
         <f t="shared" si="47"/>
-        <v>3.066191286400077E-2</v>
+        <v>3.5341280884542595E-2</v>
       </c>
       <c r="W93" s="9">
         <f t="shared" si="47"/>
-        <v>3.012215288194604E-2</v>
+        <v>3.4857442348374089E-2</v>
       </c>
       <c r="X93" s="9">
         <f t="shared" si="47"/>
-        <v>3.5194494739281171E-2</v>
+        <v>3.74588599324489E-2</v>
       </c>
       <c r="Y93" s="9">
         <f t="shared" si="47"/>
-        <v>3.8980902925083702E-2</v>
+        <v>4.006559442351456E-2</v>
       </c>
       <c r="Z93" s="9">
         <f t="shared" si="47"/>
-        <v>5.0364230650521112E-2</v>
+        <v>5.2214968575226207E-2</v>
       </c>
       <c r="AA93" s="9">
         <f t="shared" si="47"/>
-        <v>4.380299242710254E-2</v>
+        <v>4.4448417527118832E-2</v>
       </c>
       <c r="AB93" s="9">
         <f t="shared" si="47"/>
-        <v>4.1224438746597314E-2</v>
+        <v>4.1556986834451526E-2</v>
       </c>
       <c r="AC93" s="9">
         <f t="shared" si="47"/>
-        <v>4.3054014789665966E-2</v>
+        <v>4.3197010963542164E-2</v>
       </c>
       <c r="AD93" s="9">
         <f t="shared" si="47"/>
-        <v>3.8260370601807349E-2</v>
+        <v>3.429643234159898E-2</v>
       </c>
       <c r="AE93" s="9">
         <f t="shared" si="47"/>
-        <v>3.8951343491636224E-2</v>
+        <v>3.4915817480664413E-2</v>
       </c>
       <c r="AF93" s="9">
         <f t="shared" si="47"/>
-        <v>3.3567763410882523E-2</v>
+        <v>3.0089999353685074E-2</v>
       </c>
       <c r="AG93" s="9">
         <f t="shared" si="47"/>
-        <v>3.3946296385310513E-2</v>
+        <v>2.8506527780769973E-2</v>
       </c>
       <c r="AH93" s="9">
         <f t="shared" si="47"/>
-        <v>4.4128132410433889E-2</v>
+        <v>3.7633481985766708E-2</v>
       </c>
       <c r="AI93" s="9">
         <f t="shared" si="47"/>
-        <v>2.0683622540537076E-2</v>
+        <v>1.8842324292105615E-2</v>
       </c>
       <c r="AJ93" s="9">
         <f t="shared" si="47"/>
-        <v>1.1321941293341025E-2</v>
+        <v>1.014893968445469E-2</v>
       </c>
       <c r="AK93" s="9">
         <f t="shared" si="47"/>
-        <v>1.0938901973979362E-2</v>
+        <v>9.8055848791032026E-3</v>
       </c>
       <c r="AL93" s="9">
         <f t="shared" si="47"/>
-        <v>4.0096455809780166E-3</v>
+        <v>3.594229125823154E-3</v>
       </c>
       <c r="AM93" s="9">
         <f t="shared" si="47"/>
-        <v>4.0096455809780166E-3</v>
+        <v>3.594229125823154E-3</v>
       </c>
     </row>
     <row r="94" spans="1:39" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9947,134 +10132,136 @@
       </c>
       <c r="I94" s="11">
         <f>I93</f>
-        <v>2.8540184579888481E-3</v>
+        <v>2.55832992222677E-3</v>
       </c>
       <c r="J94" s="11">
         <f>J93+I94</f>
-        <v>1.0586906364160738E-2</v>
+        <v>9.4900575220285676E-3</v>
       </c>
       <c r="K94" s="11">
         <f t="shared" ref="K94:Q94" si="48">K93+J94</f>
-        <v>4.056275709883727E-2</v>
+        <v>4.0963858239324753E-2</v>
       </c>
       <c r="L94" s="11">
         <f t="shared" si="48"/>
-        <v>8.3036127418011835E-2</v>
+        <v>8.5125249102362188E-2</v>
       </c>
       <c r="M94" s="11">
         <f t="shared" si="48"/>
-        <v>0.1240346211108966</v>
+        <v>0.12532167741575906</v>
       </c>
       <c r="N94" s="11">
         <f t="shared" si="48"/>
-        <v>0.17243553741481771</v>
+        <v>0.17305844655256114</v>
       </c>
       <c r="O94" s="11">
         <f t="shared" si="48"/>
-        <v>0.22418609308789367</v>
+        <v>0.22347300339203405</v>
       </c>
       <c r="P94" s="11">
         <f t="shared" si="48"/>
-        <v>0.26395958505527201</v>
+        <v>0.26509677955488703</v>
       </c>
       <c r="Q94" s="11">
         <f t="shared" si="48"/>
-        <v>0.31095624724632526</v>
+        <v>0.31349698820296457</v>
       </c>
       <c r="R94" s="11">
         <f t="shared" ref="R94" si="49">R93+Q94</f>
-        <v>0.34955508530099449</v>
+        <v>0.35436942326234255</v>
       </c>
       <c r="S94" s="11">
         <f t="shared" ref="S94" si="50">S93+R94</f>
-        <v>0.38278261054722945</v>
+        <v>0.39012542289217245</v>
       </c>
       <c r="T94" s="11">
         <f t="shared" ref="T94" si="51">T93+S94</f>
-        <v>0.41485350726048997</v>
+        <v>0.42484462565878411</v>
       </c>
       <c r="U94" s="11">
         <f t="shared" ref="U94" si="52">U93+T94</f>
-        <v>0.44677719670591742</v>
+        <v>0.45943187246098621</v>
       </c>
       <c r="V94" s="11">
         <f t="shared" ref="V94" si="53">V93+U94</f>
-        <v>0.4774391095699182</v>
+        <v>0.49477315334552879</v>
       </c>
       <c r="W94" s="11">
         <f t="shared" ref="W94" si="54">W93+V94</f>
-        <v>0.50756126245186428</v>
+        <v>0.52963059569390292</v>
       </c>
       <c r="X94" s="11">
         <f t="shared" ref="X94" si="55">X93+W94</f>
-        <v>0.54275575719114544</v>
+        <v>0.56708945562635182</v>
       </c>
       <c r="Y94" s="11">
         <f t="shared" ref="Y94" si="56">Y93+X94</f>
-        <v>0.58173666011622915</v>
+        <v>0.60715505004986636</v>
       </c>
       <c r="Z94" s="11">
         <f t="shared" ref="Z94" si="57">Z93+Y94</f>
-        <v>0.63210089076675025</v>
+        <v>0.65937001862509259</v>
       </c>
       <c r="AA94" s="11">
         <f t="shared" ref="AA94" si="58">AA93+Z94</f>
-        <v>0.67590388319385275</v>
+        <v>0.7038184361522114</v>
       </c>
       <c r="AB94" s="11">
         <f t="shared" ref="AB94" si="59">AB93+AA94</f>
-        <v>0.71712832194045006</v>
+        <v>0.74537542298666293</v>
       </c>
       <c r="AC94" s="11">
         <f t="shared" ref="AC94" si="60">AC93+AB94</f>
-        <v>0.76018233673011604</v>
+        <v>0.78857243395020504</v>
       </c>
       <c r="AD94" s="11">
         <f t="shared" ref="AD94" si="61">AD93+AC94</f>
-        <v>0.79844270733192335</v>
+        <v>0.822868866291804</v>
       </c>
       <c r="AE94" s="11">
         <f t="shared" ref="AE94" si="62">AE93+AD94</f>
-        <v>0.83739405082355955</v>
+        <v>0.85778468377246841</v>
       </c>
       <c r="AF94" s="11">
         <f t="shared" ref="AF94" si="63">AF93+AE94</f>
-        <v>0.87096181423444208</v>
+        <v>0.88787468312615347</v>
       </c>
       <c r="AG94" s="11">
         <f t="shared" ref="AG94" si="64">AG93+AF94</f>
-        <v>0.90490811061975263</v>
+        <v>0.91638121090692348</v>
       </c>
       <c r="AH94" s="11">
         <f t="shared" ref="AH94" si="65">AH93+AG94</f>
-        <v>0.94903624303018652</v>
+        <v>0.95401469289269014</v>
       </c>
       <c r="AI94" s="11">
         <f t="shared" ref="AI94" si="66">AI93+AH94</f>
-        <v>0.96971986557072365</v>
+        <v>0.97285701718479578</v>
       </c>
       <c r="AJ94" s="11">
         <f t="shared" ref="AJ94" si="67">AJ93+AI94</f>
-        <v>0.98104180686406472</v>
+        <v>0.98300595686925052</v>
       </c>
       <c r="AK94" s="11">
         <f t="shared" ref="AK94" si="68">AK93+AJ94</f>
-        <v>0.99198070883804412</v>
+        <v>0.99281154174835373</v>
       </c>
       <c r="AL94" s="11">
-        <f t="shared" ref="AL94:AM94" si="69">AL93+AK94</f>
-        <v>0.99599035441902217</v>
+        <f t="shared" ref="AL94" si="69">AL93+AK94</f>
+        <v>0.99640577087417692</v>
       </c>
       <c r="AM94" s="11">
         <f>AM93+AL94</f>
-        <v>1.0000000000000002</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:39" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H95" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="I95" s="13"/>
+      <c r="I95" s="13">
+        <v>2.5999999999999999E-3</v>
+      </c>
       <c r="J95" s="13"/>
       <c r="K95" s="13"/>
       <c r="L95" s="13"/>
@@ -10117,8 +10304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37837414-F9FA-4B2A-9430-6FB50EB8546F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/daily_s_curve.xlsx
+++ b/daily_s_curve.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\coldshutdown_daily_progress_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D36F88F6-1464-49B9-9C1A-8F15A5339137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76DD008C-5346-4130-A931-860F61D5B41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" activeTab="1" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{60583983-896B-4EDD-BC67-4ACFA980BE1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3287,9 +3287,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAB79112-5215-4682-8159-41C9E41DBEC3}">
   <dimension ref="A1:AM95"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10304,7 +10304,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37837414-F9FA-4B2A-9430-6FB50EB8546F}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
